--- a/distribution/reference_documents/working_material/AVCDL mappings.xlsx
+++ b/distribution/reference_documents/working_material/AVCDL mappings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charleswilson/Documents/projects/AVCDL/reference_documents/working_material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charleswilson/Documents/projects/AVCDL/source/reference_documents/working_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1B53CA-9A98-7D44-AEC6-6D569DDFB181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F3BCE2-A3AE-5743-A786-C2A3D6E3EA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15100" yWindow="3160" windowWidth="32160" windowHeight="23180" activeTab="4" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
   </bookViews>
@@ -2688,23 +2688,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2714,6 +2705,18 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2745,51 +2748,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2803,6 +2761,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,6 +2798,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2850,8 +2853,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2880,43 +2895,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2955,12 +2967,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2970,23 +2976,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3535,36 +3535,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="146"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146" t="s">
+      <c r="G1" s="152"/>
+      <c r="H1" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="85"/>
@@ -3599,13 +3599,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="145" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="147" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="83"/>
@@ -3645,9 +3645,9 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="149"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="83"/>
       <c r="F4" s="69" t="s">
         <v>3</v>
@@ -3664,9 +3664,9 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="149"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="83"/>
       <c r="F5" s="69" t="s">
         <v>5</v>
@@ -3684,9 +3684,9 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="149"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="83"/>
       <c r="F6" s="69" t="s">
         <v>6</v>
@@ -3700,9 +3700,9 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="149"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="83"/>
       <c r="F7" s="69" t="s">
         <v>7</v>
@@ -3716,11 +3716,11 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="145" t="s">
+      <c r="B8" s="145"/>
+      <c r="C8" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="151" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="83"/>
@@ -3793,9 +3793,9 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="148"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="83"/>
       <c r="F9" s="69" t="s">
         <v>15</v>
@@ -3809,9 +3809,9 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="86"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="148"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="87" t="s">
         <v>198</v>
       </c>
@@ -3848,9 +3848,9 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="88" t="s">
         <v>345</v>
       </c>
@@ -3900,13 +3900,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="145" t="s">
         <v>607</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="146" t="s">
         <v>538</v>
       </c>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="147" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="83"/>
@@ -3925,9 +3925,9 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="149"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="83"/>
       <c r="F14" s="92" t="s">
         <v>263</v>
@@ -3941,9 +3941,9 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="149"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="83"/>
       <c r="F15" s="69" t="s">
         <v>23</v>
@@ -3993,14 +3993,14 @@
       <c r="AA16" s="129"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="151"/>
-      <c r="B17" s="153" t="s">
+      <c r="A17" s="148"/>
+      <c r="B17" s="150" t="s">
         <v>614</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="147" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="80" t="s">
@@ -4017,10 +4017,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="151"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="149"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="80" t="s">
         <v>244</v>
       </c>
@@ -4035,10 +4035,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="151"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="149"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="80" t="s">
         <v>244</v>
       </c>
@@ -4053,8 +4053,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="151"/>
-      <c r="B20" s="153"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="110" t="s">
         <v>32</v>
       </c>
@@ -4075,8 +4075,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="151"/>
-      <c r="B21" s="153"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="110" t="s">
         <v>33</v>
       </c>
@@ -4100,12 +4100,12 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="151"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="145" t="s">
+      <c r="A22" s="148"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="147" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="88" t="s">
@@ -4122,10 +4122,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="151"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="149"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="88" t="s">
         <v>198</v>
       </c>
@@ -4171,8 +4171,8 @@
       <c r="AA24" s="129"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="151"/>
-      <c r="B25" s="152" t="s">
+      <c r="A25" s="148"/>
+      <c r="B25" s="149" t="s">
         <v>605</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -4198,12 +4198,12 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="151"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="145" t="s">
+      <c r="A26" s="148"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="149" t="s">
+      <c r="D26" s="147" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="80" t="s">
@@ -4223,10 +4223,10 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="151"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="149"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
       <c r="E27" s="80" t="s">
         <v>198</v>
       </c>
@@ -4241,10 +4241,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="151"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="149"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
       <c r="E28" s="80" t="s">
         <v>198</v>
       </c>
@@ -4259,10 +4259,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="151"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="149"/>
+      <c r="A29" s="148"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="80" t="s">
         <v>198</v>
       </c>
@@ -4277,12 +4277,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="151"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="145" t="s">
+      <c r="A30" s="148"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="149" t="s">
+      <c r="D30" s="147" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="80" t="s">
@@ -4305,10 +4305,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="151"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="149"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="80" t="s">
         <v>198</v>
       </c>
@@ -4323,14 +4323,14 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="151"/>
-      <c r="B32" s="147" t="s">
+      <c r="A32" s="148"/>
+      <c r="B32" s="145" t="s">
         <v>623</v>
       </c>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="148" t="s">
+      <c r="D32" s="151" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="87" t="s">
@@ -4350,10 +4350,10 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="151"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="148"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="88" t="s">
         <v>197</v>
       </c>
@@ -4368,10 +4368,10 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="151"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="148"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="151"/>
       <c r="E34" s="88" t="s">
         <v>244</v>
       </c>
@@ -4389,10 +4389,10 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="151"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="148"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="88" t="s">
         <v>200</v>
       </c>
@@ -4407,12 +4407,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="151"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="145" t="s">
+      <c r="A36" s="148"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="149" t="s">
+      <c r="D36" s="147" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="88" t="s">
@@ -4435,10 +4435,10 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="151"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="149"/>
+      <c r="A37" s="148"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="147"/>
       <c r="E37" s="80" t="s">
         <v>199</v>
       </c>
@@ -4453,10 +4453,10 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="151"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="149"/>
+      <c r="A38" s="148"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="147"/>
       <c r="E38" s="80" t="s">
         <v>199</v>
       </c>
@@ -4480,8 +4480,8 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="151"/>
-      <c r="B39" s="147"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="110" t="s">
         <v>97</v>
       </c>
@@ -4537,13 +4537,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="109"/>
-      <c r="B41" s="147" t="s">
+      <c r="B41" s="145" t="s">
         <v>621</v>
       </c>
-      <c r="C41" s="145" t="s">
+      <c r="C41" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="149" t="s">
+      <c r="D41" s="147" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="88" t="s">
@@ -4563,10 +4563,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="151"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="149"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="80" t="s">
         <v>247</v>
       </c>
@@ -4581,12 +4581,12 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="151"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="145" t="s">
+      <c r="A43" s="148"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="149" t="s">
+      <c r="D43" s="147" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="88" t="s">
@@ -4603,10 +4603,10 @@
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="151"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="149"/>
+      <c r="A44" s="148"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="147"/>
       <c r="E44" s="80" t="s">
         <v>247</v>
       </c>
@@ -4621,8 +4621,8 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="151"/>
-      <c r="B45" s="147"/>
+      <c r="A45" s="148"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="110" t="s">
         <v>111</v>
       </c>
@@ -4643,8 +4643,8 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="151"/>
-      <c r="B46" s="147"/>
+      <c r="A46" s="148"/>
+      <c r="B46" s="145"/>
       <c r="C46" s="110" t="s">
         <v>567</v>
       </c>
@@ -4665,8 +4665,8 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="151"/>
-      <c r="B47" s="147"/>
+      <c r="A47" s="148"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="110" t="s">
         <v>568</v>
       </c>
@@ -4719,13 +4719,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="100"/>
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="145" t="s">
         <v>606</v>
       </c>
-      <c r="C49" s="145" t="s">
+      <c r="C49" s="146" t="s">
         <v>531</v>
       </c>
-      <c r="D49" s="149" t="s">
+      <c r="D49" s="147" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="88" t="s">
@@ -4743,9 +4743,9 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="100"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="149"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="147"/>
       <c r="E50" s="88" t="s">
         <v>198</v>
       </c>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="100"/>
-      <c r="B51" s="147"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="110" t="s">
         <v>532</v>
       </c>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="100"/>
-      <c r="B52" s="147"/>
+      <c r="B52" s="145"/>
       <c r="C52" s="110" t="s">
         <v>533</v>
       </c>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="100"/>
-      <c r="B53" s="147"/>
+      <c r="B53" s="145"/>
       <c r="C53" s="110" t="s">
         <v>534</v>
       </c>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="100"/>
-      <c r="B54" s="147"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="110" t="s">
         <v>535</v>
       </c>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="100"/>
-      <c r="B55" s="147"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="110" t="s">
         <v>536</v>
       </c>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="100"/>
-      <c r="B56" s="147"/>
+      <c r="B56" s="145"/>
       <c r="C56" s="110" t="s">
         <v>537</v>
       </c>
@@ -4920,16 +4920,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="H1:X1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="D22:D23"/>
@@ -4946,21 +4951,16 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="D32:D35"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="H1:X1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4995,22 +4995,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="159" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="159" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="160" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="160"/>
-      <c r="F1" s="157" t="s">
+      <c r="E1" s="161"/>
+      <c r="F1" s="158" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="155" t="s">
+      <c r="G1" s="158"/>
+      <c r="H1" s="156" t="s">
         <v>309</v>
       </c>
-      <c r="I1" s="156"/>
+      <c r="I1" s="157"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="144" t="s">
@@ -5026,7 +5026,7 @@
       <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="145" t="s">
         <v>613</v>
       </c>
       <c r="B3" s="73" t="s">
@@ -5051,7 +5051,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="147"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="73" t="s">
         <v>277</v>
       </c>
@@ -5074,7 +5074,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="147"/>
+      <c r="A5" s="145"/>
       <c r="B5" s="73" t="s">
         <v>279</v>
       </c>
@@ -5101,17 +5101,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="147"/>
-      <c r="B6" s="145" t="s">
+      <c r="A6" s="145"/>
+      <c r="B6" s="146" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="147" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="149" t="s">
+      <c r="E6" s="147" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="75" t="s">
@@ -5128,11 +5128,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="147"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="75" t="s">
         <v>329</v>
       </c>
@@ -5147,7 +5147,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="147"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="73" t="s">
         <v>268</v>
       </c>
@@ -5174,17 +5174,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="147"/>
-      <c r="B9" s="145" t="s">
+      <c r="A9" s="145"/>
+      <c r="B9" s="146" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="147" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="D9" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="147" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="75" t="s">
@@ -5201,11 +5201,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="147"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="75" t="s">
         <v>326</v>
       </c>
@@ -5220,17 +5220,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="147"/>
-      <c r="B11" s="163" t="s">
+      <c r="A11" s="145"/>
+      <c r="B11" s="164" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="163" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="162" t="s">
+      <c r="E11" s="163" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="75" t="s">
@@ -5247,11 +5247,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="147"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
       <c r="F12" s="75" t="s">
         <v>375</v>
       </c>
@@ -5266,7 +5266,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="145" t="s">
         <v>612</v>
       </c>
       <c r="B13" s="73" t="s">
@@ -5295,7 +5295,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="147"/>
+      <c r="A14" s="145"/>
       <c r="B14" s="73" t="s">
         <v>283</v>
       </c>
@@ -5322,7 +5322,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="147"/>
+      <c r="A15" s="145"/>
       <c r="B15" s="73" t="s">
         <v>285</v>
       </c>
@@ -5349,7 +5349,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="147"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="73" t="s">
         <v>287</v>
       </c>
@@ -5376,7 +5376,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="147"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="76" t="s">
         <v>289</v>
       </c>
@@ -5403,17 +5403,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="147"/>
-      <c r="B18" s="161" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="162" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="155" t="s">
         <v>292</v>
       </c>
-      <c r="D18" s="154" t="s">
+      <c r="D18" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="154" t="s">
+      <c r="E18" s="155" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
@@ -5430,11 +5430,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="147"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
       <c r="F19" s="75" t="s">
         <v>366</v>
       </c>
@@ -5449,11 +5449,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="147"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
       <c r="F20" s="75" t="s">
         <v>368</v>
       </c>
@@ -5468,7 +5468,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="147"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="73" t="s">
         <v>293</v>
       </c>
@@ -5495,17 +5495,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="147"/>
-      <c r="B22" s="145" t="s">
+      <c r="A22" s="145"/>
+      <c r="B22" s="146" t="s">
         <v>295</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="147" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="149" t="s">
+      <c r="E22" s="147" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="75" t="s">
@@ -5522,11 +5522,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="147"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
       <c r="F23" s="75" t="s">
         <v>358</v>
       </c>
@@ -5541,7 +5541,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="147"/>
+      <c r="A24" s="145"/>
       <c r="B24" s="73" t="s">
         <v>297</v>
       </c>
@@ -5581,7 +5581,7 @@
       <c r="I25" s="144"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="145" t="s">
         <v>619</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -5610,17 +5610,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="147"/>
-      <c r="B27" s="145" t="s">
+      <c r="A27" s="145"/>
+      <c r="B27" s="146" t="s">
         <v>529</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="147" t="s">
         <v>300</v>
       </c>
-      <c r="D27" s="164" t="s">
+      <c r="D27" s="154" t="s">
         <v>263</v>
       </c>
-      <c r="E27" s="149" t="s">
+      <c r="E27" s="147" t="s">
         <v>260</v>
       </c>
       <c r="F27" s="75" t="s">
@@ -5637,11 +5637,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="147"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="149"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="147"/>
       <c r="F28" s="75" t="s">
         <v>314</v>
       </c>
@@ -5656,17 +5656,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="147"/>
-      <c r="B29" s="145" t="s">
+      <c r="A29" s="145"/>
+      <c r="B29" s="146" t="s">
         <v>530</v>
       </c>
-      <c r="C29" s="149" t="s">
+      <c r="C29" s="147" t="s">
         <v>301</v>
       </c>
-      <c r="D29" s="149" t="s">
+      <c r="D29" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="149" t="s">
+      <c r="E29" s="147" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="75" t="s">
@@ -5683,11 +5683,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="147"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
       <c r="F30" s="75" t="s">
         <v>312</v>
       </c>
@@ -5715,13 +5715,13 @@
       <c r="I31" s="144"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="153" t="s">
+      <c r="A32" s="150" t="s">
         <v>614</v>
       </c>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="147" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="72" t="s">
@@ -5732,9 +5732,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="153"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="149"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
       <c r="D33" s="72" t="s">
         <v>43</v>
       </c>
@@ -5743,9 +5743,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="153"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="149"/>
+      <c r="A34" s="150"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
       <c r="D34" s="72" t="s">
         <v>44</v>
       </c>
@@ -5758,7 +5758,7 @@
       <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="153"/>
+      <c r="A35" s="150"/>
       <c r="B35" s="75" t="s">
         <v>32</v>
       </c>
@@ -5773,7 +5773,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="153"/>
+      <c r="A36" s="150"/>
       <c r="B36" s="75" t="s">
         <v>33</v>
       </c>
@@ -5788,11 +5788,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="153"/>
-      <c r="B37" s="145" t="s">
+      <c r="A37" s="150"/>
+      <c r="B37" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="149" t="s">
+      <c r="C37" s="147" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="107" t="s">
@@ -5803,9 +5803,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="153"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="149"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="147"/>
       <c r="D38" s="79" t="s">
         <v>539</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="I39" s="144"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="152" t="s">
+      <c r="A40" s="149" t="s">
         <v>605</v>
       </c>
       <c r="B40" s="75" t="s">
@@ -5844,11 +5844,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="152"/>
-      <c r="B41" s="145" t="s">
+      <c r="A41" s="149"/>
+      <c r="B41" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="149" t="s">
+      <c r="C41" s="147" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -5859,9 +5859,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="152"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="149"/>
+      <c r="A42" s="149"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="147"/>
       <c r="D42" s="72" t="s">
         <v>57</v>
       </c>
@@ -5870,9 +5870,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="152"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="149"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="72" t="s">
         <v>58</v>
       </c>
@@ -5881,9 +5881,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="152"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="149"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="72" t="s">
         <v>59</v>
       </c>
@@ -5892,11 +5892,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="152"/>
-      <c r="B45" s="145" t="s">
+      <c r="A45" s="149"/>
+      <c r="B45" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="149" t="s">
+      <c r="C45" s="147" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="72" t="s">
@@ -5907,9 +5907,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="152"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="149"/>
+      <c r="A46" s="149"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="147"/>
       <c r="D46" s="72" t="s">
         <v>61</v>
       </c>
@@ -5918,13 +5918,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="147" t="s">
+      <c r="A47" s="145" t="s">
         <v>623</v>
       </c>
-      <c r="B47" s="145" t="s">
+      <c r="B47" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="149" t="s">
+      <c r="C47" s="147" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="72" t="s">
@@ -5935,9 +5935,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="147"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="149"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="146"/>
+      <c r="C48" s="147"/>
       <c r="D48" s="72" t="s">
         <v>76</v>
       </c>
@@ -5946,9 +5946,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="147"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="149"/>
+      <c r="A49" s="145"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="147"/>
       <c r="D49" s="72" t="s">
         <v>77</v>
       </c>
@@ -5961,9 +5961,9 @@
       <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="147"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="149"/>
+      <c r="A50" s="145"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
       <c r="D50" s="72" t="s">
         <v>78</v>
       </c>
@@ -5972,11 +5972,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="147"/>
-      <c r="B51" s="145" t="s">
+      <c r="A51" s="145"/>
+      <c r="B51" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="149" t="s">
+      <c r="C51" s="147" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="72" t="s">
@@ -5987,9 +5987,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="147"/>
-      <c r="B52" s="145"/>
-      <c r="C52" s="149"/>
+      <c r="A52" s="145"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="72" t="s">
         <v>80</v>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="147"/>
+      <c r="A53" s="145"/>
       <c r="B53" s="110" t="s">
         <v>94</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="147"/>
+      <c r="A54" s="145"/>
       <c r="B54" s="73" t="s">
         <v>97</v>
       </c>
@@ -6041,13 +6041,13 @@
       <c r="I55" s="144"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="147" t="s">
+      <c r="A56" s="145" t="s">
         <v>620</v>
       </c>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="149" t="s">
+      <c r="C56" s="147" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -6058,9 +6058,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="147"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="149"/>
+      <c r="A57" s="145"/>
+      <c r="B57" s="146"/>
+      <c r="C57" s="147"/>
       <c r="D57" s="92" t="s">
         <v>561</v>
       </c>
@@ -6073,11 +6073,11 @@
       <c r="I57" s="107"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="147"/>
-      <c r="B58" s="145" t="s">
+      <c r="A58" s="145"/>
+      <c r="B58" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="149" t="s">
+      <c r="C58" s="147" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -6088,9 +6088,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="147"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="149"/>
+      <c r="A59" s="145"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="147"/>
       <c r="D59" s="92" t="s">
         <v>266</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="I59" s="74"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="147"/>
+      <c r="A60" s="145"/>
       <c r="B60" s="73" t="s">
         <v>111</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="147"/>
+      <c r="A61" s="145"/>
       <c r="B61" s="110" t="s">
         <v>567</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="I61" s="107"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="147"/>
+      <c r="A62" s="145"/>
       <c r="B62" s="110" t="s">
         <v>568</v>
       </c>
@@ -6165,13 +6165,13 @@
       <c r="I63" s="144"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="147" t="s">
+      <c r="A64" s="145" t="s">
         <v>606</v>
       </c>
-      <c r="B64" s="145" t="s">
+      <c r="B64" s="146" t="s">
         <v>531</v>
       </c>
-      <c r="C64" s="149" t="s">
+      <c r="C64" s="147" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="101" t="s">
@@ -6186,9 +6186,9 @@
       <c r="I64" s="101"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="147"/>
-      <c r="B65" s="145"/>
-      <c r="C65" s="149"/>
+      <c r="A65" s="145"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="147"/>
       <c r="D65" s="101" t="s">
         <v>540</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="I65" s="101"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="147"/>
+      <c r="A66" s="145"/>
       <c r="B66" s="102" t="s">
         <v>532</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="147"/>
+      <c r="A67" s="145"/>
       <c r="B67" s="102" t="s">
         <v>533</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="I67" s="101"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="147"/>
+      <c r="A68" s="145"/>
       <c r="B68" s="102" t="s">
         <v>534</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="I68" s="101"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="147"/>
+      <c r="A69" s="145"/>
       <c r="B69" s="102" t="s">
         <v>535</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="I69" s="101"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="147"/>
+      <c r="A70" s="145"/>
       <c r="B70" s="102" t="s">
         <v>536</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="I70" s="101"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="147"/>
+      <c r="A71" s="145"/>
       <c r="B71" s="102" t="s">
         <v>537</v>
       </c>
@@ -6331,6 +6331,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A64:A71"/>
     <mergeCell ref="B64:B65"/>
@@ -6347,54 +6395,6 @@
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6427,22 +6427,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="167" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="55" x14ac:dyDescent="0.2">
@@ -6494,10 +6494,10 @@
       <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="187" t="s">
         <v>613</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="176" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -6525,8 +6525,8 @@
       <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="166"/>
-      <c r="B4" s="185"/>
+      <c r="A4" s="188"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="31" t="s">
         <v>155</v>
       </c>
@@ -6552,8 +6552,8 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="166"/>
-      <c r="B5" s="185"/>
+      <c r="A5" s="188"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="31" t="s">
         <v>156</v>
       </c>
@@ -6579,8 +6579,8 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="166"/>
-      <c r="B6" s="185"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="30" t="s">
         <v>157</v>
       </c>
@@ -6604,8 +6604,8 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="185"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="30" t="s">
         <v>158</v>
       </c>
@@ -6629,8 +6629,8 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="166"/>
-      <c r="B8" s="185"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="31" t="s">
         <v>159</v>
       </c>
@@ -6656,8 +6656,8 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="166"/>
-      <c r="B9" s="185"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="31" t="s">
         <v>161</v>
       </c>
@@ -6683,8 +6683,8 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="166"/>
-      <c r="B10" s="185"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="31" t="s">
         <v>162</v>
       </c>
@@ -6710,8 +6710,8 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="166"/>
-      <c r="B11" s="185"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="30" t="s">
         <v>163</v>
       </c>
@@ -6735,8 +6735,8 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="166"/>
-      <c r="B12" s="171" t="s">
+      <c r="A12" s="188"/>
+      <c r="B12" s="173" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -6764,8 +6764,8 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="166"/>
-      <c r="B13" s="172"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="31" t="s">
         <v>162</v>
       </c>
@@ -6791,8 +6791,8 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="166"/>
-      <c r="B14" s="187" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="179" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -6820,8 +6820,8 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="187"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="22" t="s">
         <v>160</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
+      <c r="A16" s="188"/>
       <c r="B16" s="125" t="s">
         <v>6</v>
       </c>
@@ -6872,7 +6872,7 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="167"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="22" t="s">
         <v>7</v>
       </c>
@@ -6899,10 +6899,10 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="187" t="s">
         <v>612</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="176" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -6928,8 +6928,8 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="166"/>
-      <c r="B19" s="185"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="30" t="s">
         <v>167</v>
       </c>
@@ -6953,8 +6953,8 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="166"/>
-      <c r="B20" s="185"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="177"/>
       <c r="C20" s="30" t="s">
         <v>168</v>
       </c>
@@ -6978,8 +6978,8 @@
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="166"/>
-      <c r="B21" s="185"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="177"/>
       <c r="C21" s="30" t="s">
         <v>169</v>
       </c>
@@ -7003,8 +7003,8 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="166"/>
-      <c r="B22" s="185"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="30" t="s">
         <v>170</v>
       </c>
@@ -7028,8 +7028,8 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="166"/>
-      <c r="B23" s="185"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="30" t="s">
         <v>171</v>
       </c>
@@ -7053,8 +7053,8 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="166"/>
-      <c r="B24" s="185"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="30" t="s">
         <v>172</v>
       </c>
@@ -7078,8 +7078,8 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="166"/>
-      <c r="B25" s="185"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="31" t="s">
         <v>173</v>
       </c>
@@ -7105,8 +7105,8 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="166"/>
-      <c r="B26" s="185"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="177"/>
       <c r="C26" s="31" t="s">
         <v>174</v>
       </c>
@@ -7132,8 +7132,8 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="166"/>
-      <c r="B27" s="185"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="30" t="s">
         <v>175</v>
       </c>
@@ -7157,8 +7157,8 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="166"/>
-      <c r="B28" s="185"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="177"/>
       <c r="C28" s="30" t="s">
         <v>176</v>
       </c>
@@ -7182,8 +7182,8 @@
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="166"/>
-      <c r="B29" s="185"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="30" t="s">
         <v>177</v>
       </c>
@@ -7207,8 +7207,8 @@
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="166"/>
-      <c r="B30" s="185"/>
+      <c r="A30" s="188"/>
+      <c r="B30" s="177"/>
       <c r="C30" s="30" t="s">
         <v>178</v>
       </c>
@@ -7232,8 +7232,8 @@
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="166"/>
-      <c r="B31" s="185"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="30" t="s">
         <v>179</v>
       </c>
@@ -7257,8 +7257,8 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="166"/>
-      <c r="B32" s="185"/>
+      <c r="A32" s="188"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="30" t="s">
         <v>180</v>
       </c>
@@ -7282,8 +7282,8 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="166"/>
-      <c r="B33" s="185"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="30" t="s">
         <v>181</v>
       </c>
@@ -7307,8 +7307,8 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="166"/>
-      <c r="B34" s="185"/>
+      <c r="A34" s="188"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="30" t="s">
         <v>182</v>
       </c>
@@ -7332,8 +7332,8 @@
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="166"/>
-      <c r="B35" s="185"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="30" t="s">
         <v>183</v>
       </c>
@@ -7357,8 +7357,8 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="166"/>
-      <c r="B36" s="185"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="30" t="s">
         <v>184</v>
       </c>
@@ -7382,8 +7382,8 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="166"/>
-      <c r="B37" s="188"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="180"/>
       <c r="C37" s="30" t="s">
         <v>185</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="166"/>
+      <c r="A38" s="188"/>
       <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
@@ -7434,8 +7434,8 @@
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="166"/>
-      <c r="B39" s="182" t="s">
+      <c r="A39" s="188"/>
+      <c r="B39" s="168" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="30" t="s">
@@ -7461,8 +7461,8 @@
       <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="166"/>
-      <c r="B40" s="189"/>
+      <c r="A40" s="188"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="30" t="s">
         <v>188</v>
       </c>
@@ -7486,8 +7486,8 @@
       <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="166"/>
-      <c r="B41" s="189"/>
+      <c r="A41" s="188"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="30" t="s">
         <v>189</v>
       </c>
@@ -7511,8 +7511,8 @@
       <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="166"/>
-      <c r="B42" s="189"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="30" t="s">
         <v>190</v>
       </c>
@@ -7536,8 +7536,8 @@
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="166"/>
-      <c r="B43" s="189"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="30" t="s">
         <v>191</v>
       </c>
@@ -7561,8 +7561,8 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="166"/>
-      <c r="B44" s="189"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="30" t="s">
         <v>581</v>
       </c>
@@ -7586,8 +7586,8 @@
       <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="166"/>
-      <c r="B45" s="189"/>
+      <c r="A45" s="188"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="30" t="s">
         <v>552</v>
       </c>
@@ -7611,8 +7611,8 @@
       <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="166"/>
-      <c r="B46" s="183"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="169"/>
       <c r="C46" s="30" t="s">
         <v>553</v>
       </c>
@@ -7636,8 +7636,8 @@
       <c r="S46" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="166"/>
-      <c r="B47" s="182" t="s">
+      <c r="A47" s="188"/>
+      <c r="B47" s="168" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -7663,8 +7663,8 @@
       <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="167"/>
-      <c r="B48" s="183"/>
+      <c r="A48" s="189"/>
+      <c r="B48" s="169"/>
       <c r="C48" s="30" t="s">
         <v>555</v>
       </c>
@@ -7709,10 +7709,10 @@
       <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="168" t="s">
+      <c r="A50" s="184" t="s">
         <v>619</v>
       </c>
-      <c r="B50" s="182" t="s">
+      <c r="B50" s="168" t="s">
         <v>262</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -7738,8 +7738,8 @@
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="169"/>
-      <c r="B51" s="183"/>
+      <c r="A51" s="185"/>
+      <c r="B51" s="169"/>
       <c r="C51" s="30" t="s">
         <v>126</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="169"/>
+      <c r="A52" s="185"/>
       <c r="B52" s="22" t="s">
         <v>263</v>
       </c>
@@ -7790,8 +7790,8 @@
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="169"/>
-      <c r="B53" s="184" t="s">
+      <c r="A53" s="185"/>
+      <c r="B53" s="176" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -7819,8 +7819,8 @@
       <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="169"/>
-      <c r="B54" s="185"/>
+      <c r="A54" s="185"/>
+      <c r="B54" s="177"/>
       <c r="C54" s="31" t="s">
         <v>251</v>
       </c>
@@ -7846,8 +7846,8 @@
       <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="170"/>
-      <c r="B55" s="185"/>
+      <c r="A55" s="186"/>
+      <c r="B55" s="177"/>
       <c r="C55" s="30" t="s">
         <v>252</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="168" t="s">
+      <c r="A57" s="184" t="s">
         <v>614</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -7923,7 +7923,7 @@
       <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="169"/>
+      <c r="A58" s="185"/>
       <c r="B58" s="23" t="s">
         <v>43</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="169"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="23" t="s">
         <v>44</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="169"/>
+      <c r="A60" s="185"/>
       <c r="B60" s="23" t="s">
         <v>45</v>
       </c>
@@ -8012,8 +8012,8 @@
       <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="169"/>
-      <c r="B61" s="171" t="s">
+      <c r="A61" s="185"/>
+      <c r="B61" s="173" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="31" t="s">
@@ -8043,8 +8043,8 @@
       <c r="S61" s="10"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="169"/>
-      <c r="B62" s="172"/>
+      <c r="A62" s="185"/>
+      <c r="B62" s="174"/>
       <c r="C62" s="31" t="s">
         <v>140</v>
       </c>
@@ -8072,7 +8072,7 @@
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="169"/>
+      <c r="A63" s="185"/>
       <c r="B63" s="23" t="s">
         <v>47</v>
       </c>
@@ -8101,7 +8101,7 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="170"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="22" t="s">
         <v>539</v>
       </c>
@@ -8149,10 +8149,10 @@
       <c r="S65" s="10"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="168" t="s">
+      <c r="A66" s="184" t="s">
         <v>605</v>
       </c>
-      <c r="B66" s="176" t="s">
+      <c r="B66" s="175" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="30" t="s">
@@ -8178,8 +8178,8 @@
       <c r="S66" s="10"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="169"/>
-      <c r="B67" s="176"/>
+      <c r="A67" s="185"/>
+      <c r="B67" s="175"/>
       <c r="C67" s="30" t="s">
         <v>256</v>
       </c>
@@ -8203,8 +8203,8 @@
       <c r="S67" s="10"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="169"/>
-      <c r="B68" s="182" t="s">
+      <c r="A68" s="185"/>
+      <c r="B68" s="168" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="30" t="s">
@@ -8230,8 +8230,8 @@
       <c r="S68" s="10"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="169"/>
-      <c r="B69" s="183"/>
+      <c r="A69" s="185"/>
+      <c r="B69" s="169"/>
       <c r="C69" s="30" t="s">
         <v>117</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="S69" s="10"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="169"/>
+      <c r="A70" s="185"/>
       <c r="B70" s="23" t="s">
         <v>57</v>
       </c>
@@ -8284,7 +8284,7 @@
       <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="169"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="23" t="s">
         <v>58</v>
       </c>
@@ -8313,7 +8313,7 @@
       <c r="S71" s="10"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="169"/>
+      <c r="A72" s="185"/>
       <c r="B72" s="23" t="s">
         <v>59</v>
       </c>
@@ -8342,8 +8342,8 @@
       <c r="S72" s="10"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="169"/>
-      <c r="B73" s="173" t="s">
+      <c r="A73" s="185"/>
+      <c r="B73" s="170" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="31" t="s">
@@ -8371,8 +8371,8 @@
       <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="169"/>
-      <c r="B74" s="174"/>
+      <c r="A74" s="185"/>
+      <c r="B74" s="171"/>
       <c r="C74" s="30" t="s">
         <v>122</v>
       </c>
@@ -8396,8 +8396,8 @@
       <c r="S74" s="10"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="169"/>
-      <c r="B75" s="175"/>
+      <c r="A75" s="185"/>
+      <c r="B75" s="172"/>
       <c r="C75" s="30" t="s">
         <v>123</v>
       </c>
@@ -8421,7 +8421,7 @@
       <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="170"/>
+      <c r="A76" s="186"/>
       <c r="B76" s="22" t="s">
         <v>61</v>
       </c>
@@ -8448,10 +8448,10 @@
       <c r="S76" s="10"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="168" t="s">
+      <c r="A77" s="184" t="s">
         <v>615</v>
       </c>
-      <c r="B77" s="173" t="s">
+      <c r="B77" s="170" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -8479,8 +8479,8 @@
       <c r="S77" s="10"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="169"/>
-      <c r="B78" s="174"/>
+      <c r="A78" s="185"/>
+      <c r="B78" s="171"/>
       <c r="C78" s="30" t="s">
         <v>144</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="S78" s="10"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="169"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="124" t="s">
         <v>76</v>
       </c>
@@ -8531,8 +8531,8 @@
       <c r="S79" s="10"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="169"/>
-      <c r="B80" s="176" t="s">
+      <c r="A80" s="185"/>
+      <c r="B80" s="175" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="30" t="s">
@@ -8558,8 +8558,8 @@
       <c r="S80" s="10"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="169"/>
-      <c r="B81" s="176"/>
+      <c r="A81" s="185"/>
+      <c r="B81" s="175"/>
       <c r="C81" s="30" t="s">
         <v>147</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="S81" s="10"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="169"/>
+      <c r="A82" s="185"/>
       <c r="B82" s="124" t="s">
         <v>78</v>
       </c>
@@ -8610,8 +8610,8 @@
       <c r="S82" s="10"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="169"/>
-      <c r="B83" s="176" t="s">
+      <c r="A83" s="185"/>
+      <c r="B83" s="175" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="30" t="s">
@@ -8637,8 +8637,8 @@
       <c r="S83" s="10"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="169"/>
-      <c r="B84" s="176"/>
+      <c r="A84" s="185"/>
+      <c r="B84" s="175"/>
       <c r="C84" s="30" t="s">
         <v>560</v>
       </c>
@@ -8662,8 +8662,8 @@
       <c r="S84" s="10"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="169"/>
-      <c r="B85" s="176"/>
+      <c r="A85" s="185"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="30" t="s">
         <v>152</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="S85" s="10"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="169"/>
+      <c r="A86" s="185"/>
       <c r="B86" s="125" t="s">
         <v>80</v>
       </c>
@@ -8714,8 +8714,8 @@
       <c r="S86" s="10"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="169"/>
-      <c r="B87" s="176" t="s">
+      <c r="A87" s="185"/>
+      <c r="B87" s="175" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="30" t="s">
@@ -8741,8 +8741,8 @@
       <c r="S87" s="10"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="169"/>
-      <c r="B88" s="176"/>
+      <c r="A88" s="185"/>
+      <c r="B88" s="175"/>
       <c r="C88" s="30" t="s">
         <v>151</v>
       </c>
@@ -8766,8 +8766,8 @@
       <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="169"/>
-      <c r="B89" s="176"/>
+      <c r="A89" s="185"/>
+      <c r="B89" s="175"/>
       <c r="C89" s="30" t="s">
         <v>560</v>
       </c>
@@ -8791,8 +8791,8 @@
       <c r="S89" s="10"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="170"/>
-      <c r="B90" s="176"/>
+      <c r="A90" s="186"/>
+      <c r="B90" s="175"/>
       <c r="C90" s="30" t="s">
         <v>152</v>
       </c>
@@ -8816,10 +8816,10 @@
       <c r="S90" s="10"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="168" t="s">
+      <c r="A91" s="184" t="s">
         <v>616</v>
       </c>
-      <c r="B91" s="177" t="s">
+      <c r="B91" s="182" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="31" t="s">
@@ -8849,8 +8849,8 @@
       <c r="S91" s="10"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="170"/>
-      <c r="B92" s="178"/>
+      <c r="A92" s="186"/>
+      <c r="B92" s="183"/>
       <c r="C92" s="31" t="s">
         <v>132</v>
       </c>
@@ -8897,10 +8897,10 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="168" t="s">
+      <c r="A94" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="171" t="s">
+      <c r="B94" s="173" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="31" t="s">
@@ -8928,8 +8928,8 @@
       <c r="S94" s="10"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="169"/>
-      <c r="B95" s="172"/>
+      <c r="A95" s="185"/>
+      <c r="B95" s="174"/>
       <c r="C95" s="31" t="s">
         <v>563</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="170"/>
+      <c r="A96" s="186"/>
       <c r="B96" s="111" t="s">
         <v>561</v>
       </c>
@@ -8984,7 +8984,7 @@
       <c r="S96" s="10"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="168" t="s">
+      <c r="A97" s="184" t="s">
         <v>617</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -9015,7 +9015,7 @@
       <c r="S97" s="10"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="169"/>
+      <c r="A98" s="185"/>
       <c r="B98" s="23" t="s">
         <v>266</v>
       </c>
@@ -9044,7 +9044,7 @@
       <c r="S98" s="10"/>
     </row>
     <row r="99" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="170"/>
+      <c r="A99" s="186"/>
       <c r="B99" s="22" t="s">
         <v>265</v>
       </c>
@@ -9071,7 +9071,7 @@
       <c r="S99" s="10"/>
     </row>
     <row r="100" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="168" t="s">
+      <c r="A100" s="184" t="s">
         <v>618</v>
       </c>
       <c r="B100" s="22" t="s">
@@ -9100,7 +9100,7 @@
       <c r="S100" s="10"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" s="170"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="22" t="s">
         <v>264</v>
       </c>
@@ -9148,7 +9148,7 @@
       <c r="S102" s="10"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="168" t="s">
+      <c r="A103" s="184" t="s">
         <v>606</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -9179,7 +9179,7 @@
       <c r="S103" s="10"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="169"/>
+      <c r="A104" s="185"/>
       <c r="B104" s="23" t="s">
         <v>540</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="S104" s="10"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="169"/>
+      <c r="A105" s="185"/>
       <c r="B105" s="23" t="s">
         <v>541</v>
       </c>
@@ -9237,8 +9237,8 @@
       <c r="S105" s="10"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="169"/>
-      <c r="B106" s="173" t="s">
+      <c r="A106" s="185"/>
+      <c r="B106" s="170" t="s">
         <v>542</v>
       </c>
       <c r="C106" s="31" t="s">
@@ -9266,8 +9266,8 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="169"/>
-      <c r="B107" s="174"/>
+      <c r="A107" s="185"/>
+      <c r="B107" s="171"/>
       <c r="C107" s="31" t="s">
         <v>194</v>
       </c>
@@ -9293,8 +9293,8 @@
       <c r="S107" s="10"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="169"/>
-      <c r="B108" s="175"/>
+      <c r="A108" s="185"/>
+      <c r="B108" s="172"/>
       <c r="C108" s="30" t="s">
         <v>195</v>
       </c>
@@ -9317,8 +9317,8 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" s="169"/>
-      <c r="B109" s="171" t="s">
+      <c r="A109" s="185"/>
+      <c r="B109" s="173" t="s">
         <v>543</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -9346,8 +9346,8 @@
       <c r="S109" s="10"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" s="169"/>
-      <c r="B110" s="172"/>
+      <c r="A110" s="185"/>
+      <c r="B110" s="174"/>
       <c r="C110" s="31" t="s">
         <v>548</v>
       </c>
@@ -9373,7 +9373,7 @@
       <c r="S110" s="10"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="169"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="23" t="s">
         <v>544</v>
       </c>
@@ -9402,8 +9402,8 @@
       <c r="S111" s="10"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="169"/>
-      <c r="B112" s="171" t="s">
+      <c r="A112" s="185"/>
+      <c r="B112" s="173" t="s">
         <v>545</v>
       </c>
       <c r="C112" s="31" t="s">
@@ -9431,8 +9431,8 @@
       <c r="S112" s="10"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="169"/>
-      <c r="B113" s="172"/>
+      <c r="A113" s="185"/>
+      <c r="B113" s="174"/>
       <c r="C113" s="31" t="s">
         <v>571</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="S113" s="10"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="170"/>
+      <c r="A114" s="186"/>
       <c r="B114" s="23" t="s">
         <v>546</v>
       </c>
@@ -9487,10 +9487,10 @@
       <c r="S114" s="10"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="186" t="s">
+      <c r="B116" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="186"/>
+      <c r="C116" s="178"/>
       <c r="D116" s="68"/>
       <c r="E116" s="65"/>
       <c r="F116" s="65"/>
@@ -9507,25 +9507,45 @@
       <c r="S116" s="68"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="179" t="s">
+      <c r="B117" s="165" t="s">
         <v>525</v>
       </c>
-      <c r="C117" s="179"/>
+      <c r="C117" s="165"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="180" t="s">
+      <c r="B118" s="166" t="s">
         <v>526</v>
       </c>
-      <c r="C118" s="180"/>
+      <c r="C118" s="166"/>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
       <c r="F118" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A18:A48"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A66:A76"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A103:A114"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B92"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="E1:R1"/>
@@ -9542,26 +9562,6 @@
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A103:A114"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A77:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A18:A48"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A66:A76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9601,74 +9601,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="193" t="s">
+      <c r="D1" s="194" t="s">
         <v>622</v>
       </c>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="196"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="196" t="s">
+      <c r="N1" s="197" t="s">
         <v>607</v>
       </c>
-      <c r="O1" s="197"/>
-      <c r="P1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="199"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="190" t="s">
+      <c r="R1" s="191" t="s">
         <v>614</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="193"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="190" t="s">
+      <c r="Z1" s="191" t="s">
         <v>605</v>
       </c>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="190" t="s">
+      <c r="AA1" s="192"/>
+      <c r="AB1" s="192"/>
+      <c r="AC1" s="192"/>
+      <c r="AD1" s="192"/>
+      <c r="AE1" s="192"/>
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="191" t="s">
         <v>623</v>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="191"/>
-      <c r="AK1" s="191"/>
-      <c r="AL1" s="191"/>
-      <c r="AM1" s="191"/>
-      <c r="AN1" s="192"/>
+      <c r="AH1" s="192"/>
+      <c r="AI1" s="192"/>
+      <c r="AJ1" s="192"/>
+      <c r="AK1" s="192"/>
+      <c r="AL1" s="192"/>
+      <c r="AM1" s="192"/>
+      <c r="AN1" s="193"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="190" t="s">
+      <c r="AP1" s="191" t="s">
         <v>621</v>
       </c>
-      <c r="AQ1" s="191"/>
-      <c r="AR1" s="191"/>
-      <c r="AS1" s="191"/>
-      <c r="AT1" s="191"/>
-      <c r="AU1" s="191"/>
-      <c r="AV1" s="192"/>
+      <c r="AQ1" s="192"/>
+      <c r="AR1" s="192"/>
+      <c r="AS1" s="192"/>
+      <c r="AT1" s="192"/>
+      <c r="AU1" s="192"/>
+      <c r="AV1" s="193"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="190" t="s">
+      <c r="AX1" s="191" t="s">
         <v>606</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191"/>
-      <c r="BA1" s="191"/>
-      <c r="BB1" s="191"/>
-      <c r="BC1" s="191"/>
-      <c r="BD1" s="191"/>
-      <c r="BE1" s="192"/>
+      <c r="AY1" s="192"/>
+      <c r="AZ1" s="192"/>
+      <c r="BA1" s="192"/>
+      <c r="BB1" s="192"/>
+      <c r="BC1" s="192"/>
+      <c r="BD1" s="192"/>
+      <c r="BE1" s="193"/>
     </row>
     <row r="2" spans="1:57" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -9834,7 +9834,7 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="190" t="s">
         <v>236</v>
       </c>
       <c r="B3" s="53">
@@ -9899,7 +9899,7 @@
       <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="199"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="53">
         <v>2</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="BE4" s="25"/>
     </row>
     <row r="5" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="199"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="54">
         <v>3</v>
       </c>
@@ -10028,7 +10028,7 @@
       <c r="BE5" s="25"/>
     </row>
     <row r="6" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="199"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="54">
         <v>4</v>
       </c>
@@ -10090,7 +10090,7 @@
       <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="199"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="53">
         <v>5</v>
       </c>
@@ -10153,7 +10153,7 @@
       <c r="BE7" s="25"/>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="199"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="54">
         <v>6</v>
       </c>
@@ -10218,7 +10218,7 @@
       <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="199"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="54">
         <v>7</v>
       </c>
@@ -10289,7 +10289,7 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="199"/>
+      <c r="A10" s="190"/>
       <c r="B10" s="55">
         <v>8</v>
       </c>
@@ -10356,7 +10356,7 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="199"/>
+      <c r="A11" s="190"/>
       <c r="B11" s="54">
         <v>9</v>
       </c>
@@ -10421,7 +10421,7 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="199"/>
+      <c r="A12" s="190"/>
       <c r="B12" s="54">
         <v>10</v>
       </c>
@@ -10547,7 +10547,7 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="199" t="s">
+      <c r="A14" s="190" t="s">
         <v>241</v>
       </c>
       <c r="B14" s="54">
@@ -10616,7 +10616,7 @@
       <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="199"/>
+      <c r="A15" s="190"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -10738,7 +10738,7 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="190" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="55">
@@ -10808,7 +10808,7 @@
       <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="199"/>
+      <c r="A18" s="190"/>
       <c r="B18" s="55">
         <v>2</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="199"/>
+      <c r="A19" s="190"/>
       <c r="B19" s="56">
         <v>3</v>
       </c>
@@ -10940,7 +10940,7 @@
       <c r="BE19" s="25"/>
     </row>
     <row r="20" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="199"/>
+      <c r="A20" s="190"/>
       <c r="B20" s="55">
         <v>4</v>
       </c>
@@ -11023,7 +11023,7 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="199"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="56">
         <v>5</v>
       </c>
@@ -11145,7 +11145,7 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="187" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="55">
@@ -11212,7 +11212,7 @@
       <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="166"/>
+      <c r="A24" s="188"/>
       <c r="B24" s="56">
         <v>2</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="166"/>
+      <c r="A25" s="188"/>
       <c r="B25" s="56">
         <v>3</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="166"/>
+      <c r="A26" s="188"/>
       <c r="B26" s="56">
         <v>4</v>
       </c>
@@ -11401,7 +11401,7 @@
       <c r="BE26" s="25"/>
     </row>
     <row r="27" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="166"/>
+      <c r="A27" s="188"/>
       <c r="B27" s="56">
         <v>5</v>
       </c>
@@ -11464,7 +11464,7 @@
       <c r="BE27" s="25"/>
     </row>
     <row r="28" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="166"/>
+      <c r="A28" s="188"/>
       <c r="B28" s="56">
         <v>6</v>
       </c>
@@ -11527,7 +11527,7 @@
       <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="166"/>
+      <c r="A29" s="188"/>
       <c r="B29" s="56">
         <v>7</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="166"/>
+      <c r="A30" s="188"/>
       <c r="B30" s="56">
         <v>8</v>
       </c>
@@ -11653,7 +11653,7 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="166"/>
+      <c r="A31" s="188"/>
       <c r="B31" s="56">
         <v>9</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="166"/>
+      <c r="A32" s="188"/>
       <c r="B32" s="56">
         <v>10</v>
       </c>
@@ -11779,7 +11779,7 @@
       <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="167"/>
+      <c r="A33" s="189"/>
       <c r="B33" s="55">
         <v>11</v>
       </c>
@@ -11903,7 +11903,7 @@
       <c r="BE34" s="10"/>
     </row>
     <row r="35" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="165" t="s">
+      <c r="A35" s="187" t="s">
         <v>239</v>
       </c>
       <c r="B35" s="56">
@@ -11970,7 +11970,7 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="166"/>
+      <c r="A36" s="188"/>
       <c r="B36" s="55">
         <v>2</v>
       </c>
@@ -12039,7 +12039,7 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="166"/>
+      <c r="A37" s="188"/>
       <c r="B37" s="55">
         <v>3</v>
       </c>
@@ -12108,7 +12108,7 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="167"/>
+      <c r="A38" s="189"/>
       <c r="B38" s="55">
         <v>4</v>
       </c>
@@ -12234,7 +12234,7 @@
       <c r="BE39" s="10"/>
     </row>
     <row r="40" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="199" t="s">
+      <c r="A40" s="190" t="s">
         <v>240</v>
       </c>
       <c r="B40" s="55">
@@ -12301,7 +12301,7 @@
       <c r="BE40" s="25"/>
     </row>
     <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="199"/>
+      <c r="A41" s="190"/>
       <c r="B41" s="56">
         <v>2</v>
       </c>
@@ -12364,7 +12364,7 @@
       <c r="BE41" s="25"/>
     </row>
     <row r="42" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="199"/>
+      <c r="A42" s="190"/>
       <c r="B42" s="56">
         <v>3</v>
       </c>
@@ -12486,7 +12486,7 @@
       <c r="BE43" s="10"/>
     </row>
     <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="165" t="s">
+      <c r="A44" s="187" t="s">
         <v>246</v>
       </c>
       <c r="B44" s="55">
@@ -12561,7 +12561,7 @@
       <c r="BE44" s="25"/>
     </row>
     <row r="45" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="166"/>
+      <c r="A45" s="188"/>
       <c r="B45" s="55">
         <v>2</v>
       </c>
@@ -12632,7 +12632,7 @@
       <c r="BE45" s="25"/>
     </row>
     <row r="46" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="166"/>
+      <c r="A46" s="188"/>
       <c r="B46" s="55">
         <v>3</v>
       </c>
@@ -12703,7 +12703,7 @@
       <c r="BE46" s="25"/>
     </row>
     <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="167"/>
+      <c r="A47" s="189"/>
       <c r="B47" s="56">
         <v>4</v>
       </c>
@@ -12936,6 +12936,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A17:A21"/>
@@ -12943,13 +12950,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A23:A33"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AX1:BE1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12986,74 +12986,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="193" t="s">
+      <c r="D1" s="194" t="s">
         <v>622</v>
       </c>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="196"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="196" t="s">
+      <c r="N1" s="197" t="s">
         <v>607</v>
       </c>
-      <c r="O1" s="197"/>
-      <c r="P1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="199"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="190" t="s">
+      <c r="R1" s="191" t="s">
         <v>614</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="193"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="190" t="s">
+      <c r="Z1" s="191" t="s">
         <v>605</v>
       </c>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="190" t="s">
+      <c r="AA1" s="192"/>
+      <c r="AB1" s="192"/>
+      <c r="AC1" s="192"/>
+      <c r="AD1" s="192"/>
+      <c r="AE1" s="192"/>
+      <c r="AF1" s="193"/>
+      <c r="AG1" s="191" t="s">
         <v>623</v>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="191"/>
-      <c r="AK1" s="191"/>
-      <c r="AL1" s="191"/>
-      <c r="AM1" s="191"/>
-      <c r="AN1" s="192"/>
+      <c r="AH1" s="192"/>
+      <c r="AI1" s="192"/>
+      <c r="AJ1" s="192"/>
+      <c r="AK1" s="192"/>
+      <c r="AL1" s="192"/>
+      <c r="AM1" s="192"/>
+      <c r="AN1" s="193"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="190" t="s">
+      <c r="AP1" s="191" t="s">
         <v>621</v>
       </c>
-      <c r="AQ1" s="191"/>
-      <c r="AR1" s="191"/>
-      <c r="AS1" s="191"/>
-      <c r="AT1" s="191"/>
-      <c r="AU1" s="191"/>
-      <c r="AV1" s="192"/>
+      <c r="AQ1" s="192"/>
+      <c r="AR1" s="192"/>
+      <c r="AS1" s="192"/>
+      <c r="AT1" s="192"/>
+      <c r="AU1" s="192"/>
+      <c r="AV1" s="193"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="190" t="s">
+      <c r="AX1" s="191" t="s">
         <v>606</v>
       </c>
-      <c r="AY1" s="191"/>
-      <c r="AZ1" s="191"/>
-      <c r="BA1" s="191"/>
-      <c r="BB1" s="191"/>
-      <c r="BC1" s="191"/>
-      <c r="BD1" s="191"/>
-      <c r="BE1" s="192"/>
+      <c r="AY1" s="192"/>
+      <c r="AZ1" s="192"/>
+      <c r="BA1" s="192"/>
+      <c r="BB1" s="192"/>
+      <c r="BC1" s="192"/>
+      <c r="BD1" s="192"/>
+      <c r="BE1" s="193"/>
     </row>
     <row r="2" spans="1:59" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -13219,10 +13219,10 @@
       </c>
     </row>
     <row r="3" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="190" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="211">
+      <c r="B3" s="202">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -13284,8 +13284,8 @@
       <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="199"/>
-      <c r="B4" s="212"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="15" t="s">
         <v>508</v>
       </c>
@@ -13345,7 +13345,7 @@
       <c r="BE4" s="25"/>
     </row>
     <row r="5" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="199"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -13408,7 +13408,7 @@
       <c r="BE5" s="25"/>
     </row>
     <row r="6" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="199"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
@@ -13475,8 +13475,8 @@
       <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="199"/>
-      <c r="B7" s="209">
+      <c r="A7" s="190"/>
+      <c r="B7" s="200">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -13538,8 +13538,8 @@
       <c r="BE7" s="25"/>
     </row>
     <row r="8" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="199"/>
-      <c r="B8" s="210"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="15" t="s">
         <v>394</v>
       </c>
@@ -13599,7 +13599,7 @@
       <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="199"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="53">
         <v>5</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="199"/>
+      <c r="A10" s="190"/>
       <c r="B10" s="54">
         <v>6</v>
       </c>
@@ -13730,8 +13730,8 @@
       </c>
     </row>
     <row r="11" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="199"/>
-      <c r="B11" s="209">
+      <c r="A11" s="190"/>
+      <c r="B11" s="200">
         <v>7</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -13797,8 +13797,8 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="199"/>
-      <c r="B12" s="213"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="15" t="s">
         <v>397</v>
       </c>
@@ -13870,7 +13870,7 @@
       <c r="BE12" s="25"/>
     </row>
     <row r="13" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="199"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="55">
         <v>8</v>
       </c>
@@ -13937,7 +13937,7 @@
       <c r="BE13" s="25"/>
     </row>
     <row r="14" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="199"/>
+      <c r="A14" s="190"/>
       <c r="B14" s="54">
         <v>9</v>
       </c>
@@ -14002,7 +14002,7 @@
       <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="199"/>
+      <c r="A15" s="190"/>
       <c r="B15" s="54">
         <v>10</v>
       </c>
@@ -14128,10 +14128,10 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="190" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="209">
+      <c r="B17" s="200">
         <v>1</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -14195,8 +14195,8 @@
       <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="199"/>
-      <c r="B18" s="210"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="15" t="s">
         <v>402</v>
       </c>
@@ -14260,7 +14260,7 @@
       <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="199"/>
+      <c r="A19" s="190"/>
       <c r="B19" s="63">
         <v>2</v>
       </c>
@@ -14382,7 +14382,7 @@
       <c r="BE20" s="10"/>
     </row>
     <row r="21" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="199" t="s">
+      <c r="A21" s="190" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="55">
@@ -14452,7 +14452,7 @@
       <c r="BE21" s="25"/>
     </row>
     <row r="22" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="199"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="55">
         <v>2</v>
       </c>
@@ -14519,7 +14519,7 @@
       <c r="BE22" s="25"/>
     </row>
     <row r="23" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="199"/>
+      <c r="A23" s="190"/>
       <c r="B23" s="56">
         <v>3</v>
       </c>
@@ -14582,8 +14582,8 @@
       <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="199"/>
-      <c r="B24" s="203">
+      <c r="A24" s="190"/>
+      <c r="B24" s="208">
         <v>4</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -14647,8 +14647,8 @@
       <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="199"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="17" t="s">
         <v>405</v>
       </c>
@@ -14718,8 +14718,8 @@
       <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="199"/>
-      <c r="B26" s="205"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="210"/>
       <c r="C26" s="17" t="s">
         <v>406</v>
       </c>
@@ -14789,7 +14789,7 @@
       </c>
     </row>
     <row r="27" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="199"/>
+      <c r="A27" s="190"/>
       <c r="B27" s="64">
         <v>5</v>
       </c>
@@ -14911,7 +14911,7 @@
       <c r="BE28" s="10"/>
     </row>
     <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="206" t="s">
+      <c r="A29" s="211" t="s">
         <v>238</v>
       </c>
       <c r="B29" s="55">
@@ -14978,7 +14978,7 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="207"/>
+      <c r="A30" s="212"/>
       <c r="B30" s="56">
         <v>2</v>
       </c>
@@ -15041,7 +15041,7 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="207"/>
+      <c r="A31" s="212"/>
       <c r="B31" s="56">
         <v>3</v>
       </c>
@@ -15104,7 +15104,7 @@
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="207"/>
+      <c r="A32" s="212"/>
       <c r="B32" s="56">
         <v>4</v>
       </c>
@@ -15167,7 +15167,7 @@
       <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="1:57" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="207"/>
+      <c r="A33" s="212"/>
       <c r="B33" s="56">
         <v>5</v>
       </c>
@@ -15230,7 +15230,7 @@
       <c r="BE33" s="25"/>
     </row>
     <row r="34" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="207"/>
+      <c r="A34" s="212"/>
       <c r="B34" s="56">
         <v>6</v>
       </c>
@@ -15293,7 +15293,7 @@
       <c r="BE34" s="25"/>
     </row>
     <row r="35" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="207"/>
+      <c r="A35" s="212"/>
       <c r="B35" s="56">
         <v>7</v>
       </c>
@@ -15356,7 +15356,7 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="207"/>
+      <c r="A36" s="212"/>
       <c r="B36" s="56">
         <v>8</v>
       </c>
@@ -15419,7 +15419,7 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="207"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="56">
         <v>9</v>
       </c>
@@ -15482,7 +15482,7 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="207"/>
+      <c r="A38" s="212"/>
       <c r="B38" s="56">
         <v>10</v>
       </c>
@@ -15545,7 +15545,7 @@
       <c r="BE38" s="25"/>
     </row>
     <row r="39" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="208"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="121">
         <v>11</v>
       </c>
@@ -15669,7 +15669,7 @@
       <c r="BE40" s="10"/>
     </row>
     <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="187" t="s">
         <v>239</v>
       </c>
       <c r="B41" s="56">
@@ -15736,7 +15736,7 @@
       <c r="BE41" s="25"/>
     </row>
     <row r="42" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="166"/>
+      <c r="A42" s="188"/>
       <c r="B42" s="55">
         <v>2</v>
       </c>
@@ -15805,7 +15805,7 @@
       <c r="BE42" s="25"/>
     </row>
     <row r="43" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="166"/>
+      <c r="A43" s="188"/>
       <c r="B43" s="55">
         <v>3</v>
       </c>
@@ -15874,7 +15874,7 @@
       <c r="BE43" s="25"/>
     </row>
     <row r="44" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="167"/>
+      <c r="A44" s="189"/>
       <c r="B44" s="121">
         <v>4</v>
       </c>
@@ -16000,7 +16000,7 @@
       <c r="BE45" s="10"/>
     </row>
     <row r="46" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="199" t="s">
+      <c r="A46" s="190" t="s">
         <v>240</v>
       </c>
       <c r="B46" s="55">
@@ -16067,7 +16067,7 @@
       <c r="BE46" s="25"/>
     </row>
     <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="199"/>
+      <c r="A47" s="190"/>
       <c r="B47" s="56">
         <v>2</v>
       </c>
@@ -16130,7 +16130,7 @@
       <c r="BE47" s="25"/>
     </row>
     <row r="48" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="199"/>
+      <c r="A48" s="190"/>
       <c r="B48" s="64">
         <v>3</v>
       </c>
@@ -16252,13 +16252,13 @@
       <c r="BE49" s="10"/>
     </row>
     <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="187" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="55">
         <v>1</v>
       </c>
-      <c r="C50" s="200" t="s">
+      <c r="C50" s="205" t="s">
         <v>420</v>
       </c>
       <c r="D50" s="11"/>
@@ -16327,11 +16327,11 @@
       <c r="BE50" s="25"/>
     </row>
     <row r="51" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="166"/>
+      <c r="A51" s="188"/>
       <c r="B51" s="55">
         <v>2</v>
       </c>
-      <c r="C51" s="201"/>
+      <c r="C51" s="206"/>
       <c r="D51" s="11"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -16396,11 +16396,11 @@
       <c r="BE51" s="25"/>
     </row>
     <row r="52" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="166"/>
+      <c r="A52" s="188"/>
       <c r="B52" s="55">
         <v>3</v>
       </c>
-      <c r="C52" s="202"/>
+      <c r="C52" s="207"/>
       <c r="D52" s="11"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
@@ -16465,7 +16465,7 @@
       <c r="BE52" s="25"/>
     </row>
     <row r="53" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="167"/>
+      <c r="A53" s="189"/>
       <c r="B53" s="56">
         <v>4</v>
       </c>
@@ -16706,12 +16706,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B24:B26"/>
@@ -16719,13 +16720,12 @@
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A29:A39"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AX1:BE1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -16771,75 +16771,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="241"/>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="221" t="s">
+      <c r="A1" s="218"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="220" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
       <c r="R1" s="97"/>
-      <c r="S1" s="221" t="s">
+      <c r="S1" s="220" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="221"/>
-      <c r="U1" s="221"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
       <c r="V1" s="97"/>
-      <c r="W1" s="221" t="s">
+      <c r="W1" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="X1" s="221"/>
-      <c r="Y1" s="221"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="221"/>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="221"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="220"/>
       <c r="AD1" s="97"/>
-      <c r="AE1" s="231" t="s">
+      <c r="AE1" s="235" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="232"/>
-      <c r="AJ1" s="232"/>
-      <c r="AK1" s="232"/>
-      <c r="AL1" s="232"/>
-      <c r="AM1" s="232"/>
-      <c r="AN1" s="232"/>
-      <c r="AO1" s="233"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="236"/>
+      <c r="AO1" s="237"/>
       <c r="AP1" s="97"/>
-      <c r="AQ1" s="228" t="s">
+      <c r="AQ1" s="232" t="s">
         <v>239</v>
       </c>
-      <c r="AR1" s="229"/>
-      <c r="AS1" s="229"/>
-      <c r="AT1" s="230"/>
+      <c r="AR1" s="233"/>
+      <c r="AS1" s="233"/>
+      <c r="AT1" s="234"/>
       <c r="AU1" s="97"/>
-      <c r="AV1" s="221" t="s">
+      <c r="AV1" s="220" t="s">
         <v>240</v>
       </c>
-      <c r="AW1" s="221"/>
-      <c r="AX1" s="221"/>
+      <c r="AW1" s="220"/>
+      <c r="AX1" s="220"/>
       <c r="AY1" s="97"/>
-      <c r="AZ1" s="225" t="s">
+      <c r="AZ1" s="229" t="s">
         <v>246</v>
       </c>
-      <c r="BA1" s="226"/>
-      <c r="BB1" s="226"/>
-      <c r="BC1" s="227"/>
+      <c r="BA1" s="230"/>
+      <c r="BB1" s="230"/>
+      <c r="BC1" s="231"/>
       <c r="BD1" s="97"/>
       <c r="BE1" s="98" t="s">
         <v>234</v>
@@ -16849,34 +16849,34 @@
       </c>
     </row>
     <row r="2" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="241"/>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="243">
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="221">
         <v>1</v>
       </c>
-      <c r="F2" s="244"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="42">
         <v>2</v>
       </c>
       <c r="H2" s="42">
         <v>3</v>
       </c>
-      <c r="I2" s="234">
+      <c r="I2" s="223">
         <v>4</v>
       </c>
-      <c r="J2" s="235"/>
+      <c r="J2" s="224"/>
       <c r="K2" s="41">
         <v>5</v>
       </c>
       <c r="L2" s="42">
         <v>6</v>
       </c>
-      <c r="M2" s="239">
+      <c r="M2" s="214">
         <v>7</v>
       </c>
-      <c r="N2" s="240"/>
+      <c r="N2" s="215"/>
       <c r="O2" s="23">
         <v>8</v>
       </c>
@@ -16887,10 +16887,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="36"/>
-      <c r="S2" s="234">
+      <c r="S2" s="223">
         <v>1</v>
       </c>
-      <c r="T2" s="235"/>
+      <c r="T2" s="224"/>
       <c r="U2" s="49">
         <v>2</v>
       </c>
@@ -16904,11 +16904,11 @@
       <c r="Y2" s="24">
         <v>3</v>
       </c>
-      <c r="Z2" s="236">
+      <c r="Z2" s="238">
         <v>4</v>
       </c>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="238"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="240"/>
       <c r="AC2" s="50">
         <v>5</v>
       </c>
@@ -16988,10 +16988,10 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="A3" s="241"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
       <c r="E3" s="43" t="s">
         <v>391</v>
       </c>
@@ -17121,11 +17121,11 @@
         <v>630</v>
       </c>
       <c r="AY3" s="45"/>
-      <c r="AZ3" s="222" t="s">
+      <c r="AZ3" s="226" t="s">
         <v>420</v>
       </c>
-      <c r="BA3" s="223"/>
-      <c r="BB3" s="224"/>
+      <c r="BA3" s="227"/>
+      <c r="BB3" s="228"/>
       <c r="BC3" s="46" t="s">
         <v>421</v>
       </c>
@@ -17135,10 +17135,10 @@
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="187" t="s">
         <v>613</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="216" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -17202,8 +17202,8 @@
       <c r="BE4" s="11"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="166"/>
-      <c r="B5" s="216"/>
+      <c r="A5" s="188"/>
+      <c r="B5" s="225"/>
       <c r="C5" s="30" t="s">
         <v>155</v>
       </c>
@@ -17265,8 +17265,8 @@
       <c r="BE5" s="11"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="166"/>
-      <c r="B6" s="216"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="225"/>
       <c r="C6" s="31" t="s">
         <v>156</v>
       </c>
@@ -17330,8 +17330,8 @@
       <c r="BE6" s="11"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="216"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="225"/>
       <c r="C7" s="30" t="s">
         <v>157</v>
       </c>
@@ -17393,8 +17393,8 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="166"/>
-      <c r="B8" s="216"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="225"/>
       <c r="C8" s="30" t="s">
         <v>158</v>
       </c>
@@ -17456,8 +17456,8 @@
       <c r="BE8" s="11"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="166"/>
-      <c r="B9" s="216"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="225"/>
       <c r="C9" s="30" t="s">
         <v>159</v>
       </c>
@@ -17519,8 +17519,8 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="166"/>
-      <c r="B10" s="216"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="31" t="s">
         <v>161</v>
       </c>
@@ -17586,8 +17586,8 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="166"/>
-      <c r="B11" s="216"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="225"/>
       <c r="C11" s="30" t="s">
         <v>162</v>
       </c>
@@ -17649,7 +17649,7 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="166"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="217"/>
       <c r="C12" s="30" t="s">
         <v>163</v>
@@ -17712,8 +17712,8 @@
       <c r="BE12" s="11"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="166"/>
-      <c r="B13" s="215" t="s">
+      <c r="A13" s="188"/>
+      <c r="B13" s="216" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -17781,7 +17781,7 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="166"/>
+      <c r="A14" s="188"/>
       <c r="B14" s="217"/>
       <c r="C14" s="30" t="s">
         <v>162</v>
@@ -17844,8 +17844,8 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="215" t="s">
+      <c r="A15" s="188"/>
+      <c r="B15" s="216" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -17909,8 +17909,8 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="216"/>
+      <c r="A16" s="188"/>
+      <c r="B16" s="225"/>
       <c r="C16" s="30" t="s">
         <v>160</v>
       </c>
@@ -17972,7 +17972,7 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
+      <c r="A17" s="188"/>
       <c r="B17" s="136" t="s">
         <v>6</v>
       </c>
@@ -18041,7 +18041,7 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
+      <c r="A18" s="189"/>
       <c r="B18" s="137" t="s">
         <v>7</v>
       </c>
@@ -18106,10 +18106,10 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="187" t="s">
         <v>612</v>
       </c>
-      <c r="B19" s="215" t="s">
+      <c r="B19" s="216" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -18175,8 +18175,8 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A20" s="166"/>
-      <c r="B20" s="216"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="30" t="s">
         <v>167</v>
       </c>
@@ -18238,8 +18238,8 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="166"/>
-      <c r="B21" s="216"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="225"/>
       <c r="C21" s="30" t="s">
         <v>169</v>
       </c>
@@ -18301,8 +18301,8 @@
       <c r="BE21" s="25"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="166"/>
-      <c r="B22" s="216"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="31" t="s">
         <v>169</v>
       </c>
@@ -18366,8 +18366,8 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="166"/>
-      <c r="B23" s="216"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="30" t="s">
         <v>170</v>
       </c>
@@ -18429,8 +18429,8 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="166"/>
-      <c r="B24" s="216"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="30" t="s">
         <v>171</v>
       </c>
@@ -18492,8 +18492,8 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A25" s="166"/>
-      <c r="B25" s="216"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="225"/>
       <c r="C25" s="30" t="s">
         <v>172</v>
       </c>
@@ -18555,8 +18555,8 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A26" s="166"/>
-      <c r="B26" s="216"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="30" t="s">
         <v>173</v>
       </c>
@@ -18618,8 +18618,8 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A27" s="166"/>
-      <c r="B27" s="216"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="225"/>
       <c r="C27" s="30" t="s">
         <v>174</v>
       </c>
@@ -18681,8 +18681,8 @@
       <c r="BE27" s="9"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A28" s="166"/>
-      <c r="B28" s="216"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="225"/>
       <c r="C28" s="30" t="s">
         <v>175</v>
       </c>
@@ -18744,8 +18744,8 @@
       <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A29" s="166"/>
-      <c r="B29" s="216"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="30" t="s">
         <v>176</v>
       </c>
@@ -18807,8 +18807,8 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A30" s="166"/>
-      <c r="B30" s="216"/>
+      <c r="A30" s="188"/>
+      <c r="B30" s="225"/>
       <c r="C30" s="30" t="s">
         <v>177</v>
       </c>
@@ -18870,8 +18870,8 @@
       <c r="BE30" s="9"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="166"/>
-      <c r="B31" s="216"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="225"/>
       <c r="C31" s="30" t="s">
         <v>178</v>
       </c>
@@ -18933,8 +18933,8 @@
       <c r="BE31" s="9"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A32" s="166"/>
-      <c r="B32" s="216"/>
+      <c r="A32" s="188"/>
+      <c r="B32" s="225"/>
       <c r="C32" s="30" t="s">
         <v>179</v>
       </c>
@@ -18996,8 +18996,8 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A33" s="166"/>
-      <c r="B33" s="216"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="225"/>
       <c r="C33" s="30" t="s">
         <v>180</v>
       </c>
@@ -19059,8 +19059,8 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A34" s="166"/>
-      <c r="B34" s="216"/>
+      <c r="A34" s="188"/>
+      <c r="B34" s="225"/>
       <c r="C34" s="30" t="s">
         <v>181</v>
       </c>
@@ -19122,8 +19122,8 @@
       <c r="BE34" s="9"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="166"/>
-      <c r="B35" s="216"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="225"/>
       <c r="C35" s="30" t="s">
         <v>182</v>
       </c>
@@ -19185,8 +19185,8 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="166"/>
-      <c r="B36" s="216"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="225"/>
       <c r="C36" s="30" t="s">
         <v>183</v>
       </c>
@@ -19248,8 +19248,8 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="166"/>
-      <c r="B37" s="216"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="225"/>
       <c r="C37" s="30" t="s">
         <v>184</v>
       </c>
@@ -19311,7 +19311,7 @@
       <c r="BE37" s="9"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A38" s="166"/>
+      <c r="A38" s="188"/>
       <c r="B38" s="217"/>
       <c r="C38" s="30" t="s">
         <v>185</v>
@@ -19374,7 +19374,7 @@
       <c r="BE38" s="9"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A39" s="166"/>
+      <c r="A39" s="188"/>
       <c r="B39" s="138" t="s">
         <v>15</v>
       </c>
@@ -19439,8 +19439,8 @@
       <c r="BE39" s="9"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A40" s="166"/>
-      <c r="B40" s="177" t="s">
+      <c r="A40" s="188"/>
+      <c r="B40" s="182" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -19506,8 +19506,8 @@
       <c r="BE40" s="9"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="166"/>
-      <c r="B41" s="218"/>
+      <c r="A41" s="188"/>
+      <c r="B41" s="242"/>
       <c r="C41" s="31" t="s">
         <v>188</v>
       </c>
@@ -19571,8 +19571,8 @@
       <c r="BE41" s="9"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="166"/>
-      <c r="B42" s="218"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="242"/>
       <c r="C42" s="31" t="s">
         <v>189</v>
       </c>
@@ -19636,8 +19636,8 @@
       <c r="BE42" s="9"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="166"/>
-      <c r="B43" s="218"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="242"/>
       <c r="C43" s="31" t="s">
         <v>190</v>
       </c>
@@ -19701,8 +19701,8 @@
       <c r="BE43" s="9"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A44" s="166"/>
-      <c r="B44" s="218"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="242"/>
       <c r="C44" s="31" t="s">
         <v>191</v>
       </c>
@@ -19766,8 +19766,8 @@
       <c r="BE44" s="9"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A45" s="166"/>
-      <c r="B45" s="218"/>
+      <c r="A45" s="188"/>
+      <c r="B45" s="242"/>
       <c r="C45" s="31" t="s">
         <v>581</v>
       </c>
@@ -19831,8 +19831,8 @@
       <c r="BE45" s="9"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A46" s="166"/>
-      <c r="B46" s="218"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="242"/>
       <c r="C46" s="31" t="s">
         <v>552</v>
       </c>
@@ -19896,8 +19896,8 @@
       <c r="BE46" s="9"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="166"/>
-      <c r="B47" s="178"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="183"/>
       <c r="C47" s="31" t="s">
         <v>553</v>
       </c>
@@ -19961,8 +19961,8 @@
       <c r="BE47" s="9"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="166"/>
-      <c r="B48" s="177" t="s">
+      <c r="A48" s="188"/>
+      <c r="B48" s="182" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -20028,8 +20028,8 @@
       <c r="BE48" s="9"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A49" s="167"/>
-      <c r="B49" s="178"/>
+      <c r="A49" s="189"/>
+      <c r="B49" s="183"/>
       <c r="C49" s="31" t="s">
         <v>555</v>
       </c>
@@ -20152,10 +20152,10 @@
       <c r="BE50" s="10"/>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A51" s="168" t="s">
+      <c r="A51" s="184" t="s">
         <v>619</v>
       </c>
-      <c r="B51" s="219" t="s">
+      <c r="B51" s="243" t="s">
         <v>262</v>
       </c>
       <c r="C51" s="30" t="s">
@@ -20219,8 +20219,8 @@
       <c r="BE51" s="18"/>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A52" s="169"/>
-      <c r="B52" s="220"/>
+      <c r="A52" s="185"/>
+      <c r="B52" s="244"/>
       <c r="C52" s="30" t="s">
         <v>126</v>
       </c>
@@ -20282,7 +20282,7 @@
       <c r="BE52" s="18"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A53" s="169"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="140" t="s">
         <v>263</v>
       </c>
@@ -20347,8 +20347,8 @@
       <c r="BE53" s="18"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A54" s="169"/>
-      <c r="B54" s="215" t="s">
+      <c r="A54" s="185"/>
+      <c r="B54" s="216" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="30" t="s">
@@ -20412,8 +20412,8 @@
       <c r="BE54" s="9"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A55" s="169"/>
-      <c r="B55" s="216"/>
+      <c r="A55" s="185"/>
+      <c r="B55" s="225"/>
       <c r="C55" s="30" t="s">
         <v>251</v>
       </c>
@@ -20475,7 +20475,7 @@
       <c r="BE55" s="9"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A56" s="170"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="217"/>
       <c r="C56" s="30" t="s">
         <v>252</v>
@@ -20597,7 +20597,7 @@
       <c r="BE57" s="10"/>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A58" s="168" t="s">
+      <c r="A58" s="184" t="s">
         <v>614</v>
       </c>
       <c r="B58" s="141" t="s">
@@ -20666,7 +20666,7 @@
       <c r="BE58" s="9"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A59" s="169"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="141" t="s">
         <v>43</v>
       </c>
@@ -20733,7 +20733,7 @@
       <c r="BE59" s="9"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A60" s="169"/>
+      <c r="A60" s="185"/>
       <c r="B60" s="141" t="s">
         <v>44</v>
       </c>
@@ -20802,7 +20802,7 @@
       <c r="BE60" s="9"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A61" s="169"/>
+      <c r="A61" s="185"/>
       <c r="B61" s="141" t="s">
         <v>45</v>
       </c>
@@ -20871,8 +20871,8 @@
       <c r="BE61" s="25"/>
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A62" s="169"/>
-      <c r="B62" s="177" t="s">
+      <c r="A62" s="185"/>
+      <c r="B62" s="182" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="31" t="s">
@@ -20942,8 +20942,8 @@
       <c r="BE62" s="9"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A63" s="169"/>
-      <c r="B63" s="178"/>
+      <c r="A63" s="185"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="31" t="s">
         <v>140</v>
       </c>
@@ -21011,7 +21011,7 @@
       <c r="BE63" s="9"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A64" s="169"/>
+      <c r="A64" s="185"/>
       <c r="B64" s="141" t="s">
         <v>47</v>
       </c>
@@ -21088,7 +21088,7 @@
       <c r="BE64" s="18"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A65" s="170"/>
+      <c r="A65" s="186"/>
       <c r="B65" s="142" t="s">
         <v>539</v>
       </c>
@@ -21220,10 +21220,10 @@
       <c r="BE66" s="10"/>
     </row>
     <row r="67" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A67" s="168" t="s">
+      <c r="A67" s="184" t="s">
         <v>605</v>
       </c>
-      <c r="B67" s="214" t="s">
+      <c r="B67" s="241" t="s">
         <v>55</v>
       </c>
       <c r="C67" s="31" t="s">
@@ -21291,8 +21291,8 @@
       <c r="BE67" s="9"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A68" s="169"/>
-      <c r="B68" s="214"/>
+      <c r="A68" s="185"/>
+      <c r="B68" s="241"/>
       <c r="C68" s="31" t="s">
         <v>256</v>
       </c>
@@ -21358,8 +21358,8 @@
       <c r="BE68" s="9"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A69" s="169"/>
-      <c r="B69" s="214" t="s">
+      <c r="A69" s="185"/>
+      <c r="B69" s="241" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="31" t="s">
@@ -21425,8 +21425,8 @@
       <c r="BE69" s="9"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A70" s="169"/>
-      <c r="B70" s="214"/>
+      <c r="A70" s="185"/>
+      <c r="B70" s="241"/>
       <c r="C70" s="31" t="s">
         <v>117</v>
       </c>
@@ -21492,7 +21492,7 @@
       <c r="BE70" s="9"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A71" s="169"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="141" t="s">
         <v>57</v>
       </c>
@@ -21559,7 +21559,7 @@
       <c r="BE71" s="25"/>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A72" s="169"/>
+      <c r="A72" s="185"/>
       <c r="B72" s="141" t="s">
         <v>58</v>
       </c>
@@ -21626,7 +21626,7 @@
       <c r="BE72" s="25"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A73" s="169"/>
+      <c r="A73" s="185"/>
       <c r="B73" s="141" t="s">
         <v>59</v>
       </c>
@@ -21693,8 +21693,8 @@
       <c r="BE73" s="9"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A74" s="169"/>
-      <c r="B74" s="214" t="s">
+      <c r="A74" s="185"/>
+      <c r="B74" s="241" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="23" t="s">
@@ -21760,8 +21760,8 @@
       <c r="BE74" s="9"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A75" s="169"/>
-      <c r="B75" s="214"/>
+      <c r="A75" s="185"/>
+      <c r="B75" s="241"/>
       <c r="C75" s="23" t="s">
         <v>122</v>
       </c>
@@ -21825,8 +21825,8 @@
       <c r="BE75" s="9"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A76" s="169"/>
-      <c r="B76" s="214"/>
+      <c r="A76" s="185"/>
+      <c r="B76" s="241"/>
       <c r="C76" s="23" t="s">
         <v>123</v>
       </c>
@@ -21890,7 +21890,7 @@
       <c r="BE76" s="9"/>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A77" s="170"/>
+      <c r="A77" s="186"/>
       <c r="B77" s="143" t="s">
         <v>61</v>
       </c>
@@ -21957,10 +21957,10 @@
       <c r="BE77" s="9"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A78" s="168" t="s">
+      <c r="A78" s="184" t="s">
         <v>615</v>
       </c>
-      <c r="B78" s="177" t="s">
+      <c r="B78" s="182" t="s">
         <v>75</v>
       </c>
       <c r="C78" s="31" t="s">
@@ -22026,8 +22026,8 @@
       <c r="BE78" s="9"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A79" s="169"/>
-      <c r="B79" s="178"/>
+      <c r="A79" s="185"/>
+      <c r="B79" s="183"/>
       <c r="C79" s="31" t="s">
         <v>144</v>
       </c>
@@ -22091,7 +22091,7 @@
       <c r="BE79" s="9"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A80" s="169"/>
+      <c r="A80" s="185"/>
       <c r="B80" s="136" t="s">
         <v>76</v>
       </c>
@@ -22158,8 +22158,8 @@
       <c r="BE80" s="9"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A81" s="169"/>
-      <c r="B81" s="214" t="s">
+      <c r="A81" s="185"/>
+      <c r="B81" s="241" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="23" t="s">
@@ -22225,8 +22225,8 @@
       <c r="BE81" s="9"/>
     </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A82" s="169"/>
-      <c r="B82" s="214"/>
+      <c r="A82" s="185"/>
+      <c r="B82" s="241"/>
       <c r="C82" s="23" t="s">
         <v>147</v>
       </c>
@@ -22290,7 +22290,7 @@
       <c r="BE82" s="9"/>
     </row>
     <row r="83" spans="1:57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="169"/>
+      <c r="A83" s="185"/>
       <c r="B83" s="143" t="s">
         <v>78</v>
       </c>
@@ -22359,8 +22359,8 @@
       <c r="BE83" s="25"/>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A84" s="169"/>
-      <c r="B84" s="177" t="s">
+      <c r="A84" s="185"/>
+      <c r="B84" s="182" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="23" t="s">
@@ -22428,8 +22428,8 @@
       <c r="BE84" s="9"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A85" s="169"/>
-      <c r="B85" s="218"/>
+      <c r="A85" s="185"/>
+      <c r="B85" s="242"/>
       <c r="C85" s="23" t="s">
         <v>560</v>
       </c>
@@ -22495,8 +22495,8 @@
       <c r="BE85" s="9"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A86" s="169"/>
-      <c r="B86" s="178"/>
+      <c r="A86" s="185"/>
+      <c r="B86" s="183"/>
       <c r="C86" s="23" t="s">
         <v>152</v>
       </c>
@@ -22562,7 +22562,7 @@
       <c r="BE86" s="9"/>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A87" s="169"/>
+      <c r="A87" s="185"/>
       <c r="B87" s="143" t="s">
         <v>80</v>
       </c>
@@ -22633,8 +22633,8 @@
       <c r="BE87" s="9"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A88" s="169"/>
-      <c r="B88" s="177" t="s">
+      <c r="A88" s="185"/>
+      <c r="B88" s="182" t="s">
         <v>81</v>
       </c>
       <c r="C88" s="23" t="s">
@@ -22702,8 +22702,8 @@
       <c r="BE88" s="9"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A89" s="169"/>
-      <c r="B89" s="218"/>
+      <c r="A89" s="185"/>
+      <c r="B89" s="242"/>
       <c r="C89" s="23" t="s">
         <v>151</v>
       </c>
@@ -22769,8 +22769,8 @@
       <c r="BE89" s="9"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A90" s="169"/>
-      <c r="B90" s="218"/>
+      <c r="A90" s="185"/>
+      <c r="B90" s="242"/>
       <c r="C90" s="23" t="s">
         <v>560</v>
       </c>
@@ -22836,8 +22836,8 @@
       <c r="BE90" s="9"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A91" s="170"/>
-      <c r="B91" s="178"/>
+      <c r="A91" s="186"/>
+      <c r="B91" s="183"/>
       <c r="C91" s="23" t="s">
         <v>152</v>
       </c>
@@ -22903,10 +22903,10 @@
       <c r="BE91" s="9"/>
     </row>
     <row r="92" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A92" s="168" t="s">
+      <c r="A92" s="184" t="s">
         <v>616</v>
       </c>
-      <c r="B92" s="177" t="s">
+      <c r="B92" s="182" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="23" t="s">
@@ -22972,8 +22972,8 @@
       <c r="BE92" s="25"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A93" s="170"/>
-      <c r="B93" s="178"/>
+      <c r="A93" s="186"/>
+      <c r="B93" s="183"/>
       <c r="C93" s="23" t="s">
         <v>132</v>
       </c>
@@ -23096,10 +23096,10 @@
       <c r="BE94" s="10"/>
     </row>
     <row r="95" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A95" s="168" t="s">
+      <c r="A95" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="214" t="s">
+      <c r="B95" s="241" t="s">
         <v>101</v>
       </c>
       <c r="C95" s="23" t="s">
@@ -23167,8 +23167,8 @@
       <c r="BE95" s="9"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A96" s="169"/>
-      <c r="B96" s="214"/>
+      <c r="A96" s="185"/>
+      <c r="B96" s="241"/>
       <c r="C96" s="23" t="s">
         <v>563</v>
       </c>
@@ -23234,7 +23234,7 @@
       <c r="BE96" s="9"/>
     </row>
     <row r="97" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="170"/>
+      <c r="A97" s="186"/>
       <c r="B97" s="142" t="s">
         <v>561</v>
       </c>
@@ -23300,7 +23300,7 @@
       <c r="BE97" s="9"/>
     </row>
     <row r="98" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A98" s="168" t="s">
+      <c r="A98" s="184" t="s">
         <v>617</v>
       </c>
       <c r="B98" s="143" t="s">
@@ -23369,7 +23369,7 @@
       <c r="BE98" s="9"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A99" s="169"/>
+      <c r="A99" s="185"/>
       <c r="B99" s="142" t="s">
         <v>266</v>
       </c>
@@ -23440,7 +23440,7 @@
       <c r="BE99" s="9"/>
     </row>
     <row r="100" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="170"/>
+      <c r="A100" s="186"/>
       <c r="B100" s="142" t="s">
         <v>265</v>
       </c>
@@ -23506,7 +23506,7 @@
       <c r="BE100" s="9"/>
     </row>
     <row r="101" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="168" t="s">
+      <c r="A101" s="184" t="s">
         <v>618</v>
       </c>
       <c r="B101" s="141" t="s">
@@ -23575,7 +23575,7 @@
       <c r="BE101" s="9"/>
     </row>
     <row r="102" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A102" s="170"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="142" t="s">
         <v>264</v>
       </c>
@@ -23701,7 +23701,7 @@
       <c r="BE103" s="10"/>
     </row>
     <row r="104" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A104" s="168" t="s">
+      <c r="A104" s="184" t="s">
         <v>606</v>
       </c>
       <c r="B104" s="141" t="s">
@@ -23770,7 +23770,7 @@
       <c r="BE104" s="25"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A105" s="169"/>
+      <c r="A105" s="185"/>
       <c r="B105" s="141" t="s">
         <v>540</v>
       </c>
@@ -23837,7 +23837,7 @@
       <c r="BE105" s="25"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A106" s="169"/>
+      <c r="A106" s="185"/>
       <c r="B106" s="141" t="s">
         <v>541</v>
       </c>
@@ -23904,8 +23904,8 @@
       <c r="BE106" s="25"/>
     </row>
     <row r="107" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A107" s="169"/>
-      <c r="B107" s="214" t="s">
+      <c r="A107" s="185"/>
+      <c r="B107" s="241" t="s">
         <v>542</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -23971,8 +23971,8 @@
       <c r="BE107" s="25"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A108" s="169"/>
-      <c r="B108" s="214"/>
+      <c r="A108" s="185"/>
+      <c r="B108" s="241"/>
       <c r="C108" s="23" t="s">
         <v>194</v>
       </c>
@@ -24036,8 +24036,8 @@
       <c r="BE108" s="25"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A109" s="169"/>
-      <c r="B109" s="214"/>
+      <c r="A109" s="185"/>
+      <c r="B109" s="241"/>
       <c r="C109" s="23" t="s">
         <v>195</v>
       </c>
@@ -24101,8 +24101,8 @@
       <c r="BE109" s="25"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A110" s="169"/>
-      <c r="B110" s="214" t="s">
+      <c r="A110" s="185"/>
+      <c r="B110" s="241" t="s">
         <v>543</v>
       </c>
       <c r="C110" s="23" t="s">
@@ -24168,8 +24168,8 @@
       <c r="BE110" s="25"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A111" s="169"/>
-      <c r="B111" s="214"/>
+      <c r="A111" s="185"/>
+      <c r="B111" s="241"/>
       <c r="C111" s="23" t="s">
         <v>548</v>
       </c>
@@ -24233,7 +24233,7 @@
       <c r="BE111" s="25"/>
     </row>
     <row r="112" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A112" s="169"/>
+      <c r="A112" s="185"/>
       <c r="B112" s="141" t="s">
         <v>544</v>
       </c>
@@ -24300,8 +24300,8 @@
       <c r="BE112" s="25"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A113" s="169"/>
-      <c r="B113" s="177" t="s">
+      <c r="A113" s="185"/>
+      <c r="B113" s="182" t="s">
         <v>545</v>
       </c>
       <c r="C113" s="23" t="s">
@@ -24367,8 +24367,8 @@
       <c r="BE113" s="25"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A114" s="169"/>
-      <c r="B114" s="178"/>
+      <c r="A114" s="185"/>
+      <c r="B114" s="183"/>
       <c r="C114" s="23" t="s">
         <v>571</v>
       </c>
@@ -24432,7 +24432,7 @@
       <c r="BE114" s="25"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A115" s="170"/>
+      <c r="A115" s="186"/>
       <c r="B115" s="141" t="s">
         <v>546</v>
       </c>
@@ -24499,10 +24499,10 @@
       <c r="BE115" s="25"/>
     </row>
     <row r="117" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B117" s="186" t="s">
+      <c r="B117" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="C117" s="186"/>
+      <c r="C117" s="178"/>
       <c r="D117" s="68" t="s">
         <v>388</v>
       </c>
@@ -24530,43 +24530,40 @@
       <c r="AB117" s="68"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B118" s="179" t="s">
+      <c r="B118" s="165" t="s">
         <v>346</v>
       </c>
-      <c r="C118" s="179"/>
+      <c r="C118" s="165"/>
       <c r="D118" s="66"/>
       <c r="E118" s="66"/>
       <c r="F118" s="66"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B119" s="180" t="s">
+      <c r="B119" s="166" t="s">
         <v>347</v>
       </c>
-      <c r="C119" s="180"/>
+      <c r="C119" s="166"/>
       <c r="D119" s="67"/>
       <c r="E119" s="67"/>
       <c r="F119" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AE1:AO1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A104:A115"/>
+    <mergeCell ref="A19:A49"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="A78:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B19:B38"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="B78:B79"/>
@@ -24583,21 +24580,24 @@
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A104:A115"/>
-    <mergeCell ref="A19:A49"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="A78:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B19:B38"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AE1:AO1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -24640,71 +24640,71 @@
   <sheetData>
     <row r="1" spans="1:56" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="247"/>
-      <c r="C1" s="221" t="s">
+      <c r="C1" s="220" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
       <c r="P1" s="97"/>
-      <c r="Q1" s="221" t="s">
+      <c r="Q1" s="220" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="221"/>
-      <c r="S1" s="221"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
       <c r="T1" s="97"/>
-      <c r="U1" s="221" t="s">
+      <c r="U1" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="221"/>
-      <c r="W1" s="221"/>
-      <c r="X1" s="221"/>
-      <c r="Y1" s="221"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="221"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
       <c r="AB1" s="97"/>
-      <c r="AC1" s="231" t="s">
+      <c r="AC1" s="235" t="s">
         <v>238</v>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="232"/>
-      <c r="AJ1" s="232"/>
-      <c r="AK1" s="232"/>
-      <c r="AL1" s="232"/>
-      <c r="AM1" s="233"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="237"/>
       <c r="AN1" s="97"/>
-      <c r="AO1" s="228" t="s">
+      <c r="AO1" s="232" t="s">
         <v>239</v>
       </c>
-      <c r="AP1" s="229"/>
-      <c r="AQ1" s="229"/>
-      <c r="AR1" s="230"/>
+      <c r="AP1" s="233"/>
+      <c r="AQ1" s="233"/>
+      <c r="AR1" s="234"/>
       <c r="AS1" s="97"/>
-      <c r="AT1" s="221" t="s">
+      <c r="AT1" s="220" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" s="221"/>
-      <c r="AV1" s="221"/>
+      <c r="AU1" s="220"/>
+      <c r="AV1" s="220"/>
       <c r="AW1" s="97"/>
-      <c r="AX1" s="225" t="s">
+      <c r="AX1" s="229" t="s">
         <v>246</v>
       </c>
-      <c r="AY1" s="226"/>
-      <c r="AZ1" s="226"/>
-      <c r="BA1" s="227"/>
+      <c r="AY1" s="230"/>
+      <c r="AZ1" s="230"/>
+      <c r="BA1" s="231"/>
       <c r="BB1" s="97"/>
       <c r="BC1" s="98" t="s">
         <v>234</v>
@@ -24725,20 +24725,20 @@
       <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="234">
+      <c r="G2" s="223">
         <v>4</v>
       </c>
-      <c r="H2" s="235"/>
+      <c r="H2" s="224"/>
       <c r="I2" s="41">
         <v>5</v>
       </c>
       <c r="J2" s="42">
         <v>6</v>
       </c>
-      <c r="K2" s="239">
+      <c r="K2" s="214">
         <v>7</v>
       </c>
-      <c r="L2" s="240"/>
+      <c r="L2" s="215"/>
       <c r="M2" s="24">
         <v>8</v>
       </c>
@@ -24752,7 +24752,7 @@
       <c r="Q2" s="251">
         <v>1</v>
       </c>
-      <c r="R2" s="244"/>
+      <c r="R2" s="222"/>
       <c r="S2" s="49">
         <v>2</v>
       </c>
@@ -24766,11 +24766,11 @@
       <c r="W2" s="24">
         <v>3</v>
       </c>
-      <c r="X2" s="236">
+      <c r="X2" s="238">
         <v>4</v>
       </c>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="240"/>
       <c r="AA2" s="50">
         <v>5</v>
       </c>
@@ -24980,11 +24980,11 @@
         <v>630</v>
       </c>
       <c r="AW3" s="45"/>
-      <c r="AX3" s="222" t="s">
+      <c r="AX3" s="226" t="s">
         <v>420</v>
       </c>
-      <c r="AY3" s="223"/>
-      <c r="AZ3" s="224"/>
+      <c r="AY3" s="227"/>
+      <c r="AZ3" s="228"/>
       <c r="BA3" s="46" t="s">
         <v>421</v>
       </c>
@@ -25876,13 +25876,13 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="C19" s="186" t="s">
+      <c r="C19" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
@@ -25905,13 +25905,13 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="179" t="s">
+      <c r="C20" s="165" t="s">
         <v>525</v>
       </c>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
@@ -25925,11 +25925,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="B1:B3"/>
@@ -25943,6 +25938,11 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="AC1:AM1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/distribution/reference_documents/working_material/AVCDL mappings.xlsx
+++ b/distribution/reference_documents/working_material/AVCDL mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charleswilson/Documents/projects/AVCDL/source/reference_documents/working_material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charleswilson/Documents/projects/AVCDL/distribution/reference_documents/working_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F3BCE2-A3AE-5743-A786-C2A3D6E3EA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19A13D-BE3D-3D44-9705-0CDF04C3ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="3160" windowWidth="32160" windowHeight="23180" activeTab="4" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
+    <workbookView xWindow="31260" yWindow="2720" windowWidth="32160" windowHeight="23180" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO 21434 work products" sheetId="1" r:id="rId1"/>
@@ -2286,7 +2286,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2710,7 +2710,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2731,6 +2731,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -3516,8 +3519,12 @@
   </sheetPr>
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="20320" ySplit="760" topLeftCell="H12" activePane="bottomRight"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1:X1"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48:G48"/>
+      <selection pane="bottomRight" activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4689,7 +4696,7 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="85"/>
       <c r="B48" s="144" t="s">
-        <v>30</v>
+        <v>550</v>
       </c>
       <c r="C48" s="144"/>
       <c r="D48" s="144"/>
@@ -4975,7 +4982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC060107-2EBE-164D-8193-C4628FFE16DF}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -4998,11 +5005,11 @@
       <c r="B1" s="159" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="160" t="s">
+      <c r="C1" s="160"/>
+      <c r="D1" s="161" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="161"/>
+      <c r="E1" s="162"/>
       <c r="F1" s="158" t="s">
         <v>308</v>
       </c>
@@ -5221,16 +5228,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="145"/>
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="165" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="163" t="s">
+      <c r="D11" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="164" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="75" t="s">
@@ -5248,10 +5255,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="145"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
       <c r="F12" s="75" t="s">
         <v>375</v>
       </c>
@@ -5404,7 +5411,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="145"/>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="163" t="s">
         <v>291</v>
       </c>
       <c r="C18" s="155" t="s">
@@ -5431,7 +5438,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="145"/>
-      <c r="B19" s="162"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="155"/>
       <c r="D19" s="155"/>
       <c r="E19" s="155"/>
@@ -5450,7 +5457,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="145"/>
-      <c r="B20" s="162"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="155"/>
       <c r="D20" s="155"/>
       <c r="E20" s="155"/>
@@ -6427,22 +6434,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="168" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="55" x14ac:dyDescent="0.2">
@@ -6494,10 +6501,10 @@
       <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="188" t="s">
         <v>613</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="177" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -6525,8 +6532,8 @@
       <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="188"/>
-      <c r="B4" s="177"/>
+      <c r="A4" s="189"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="31" t="s">
         <v>155</v>
       </c>
@@ -6552,8 +6559,8 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="188"/>
-      <c r="B5" s="177"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="31" t="s">
         <v>156</v>
       </c>
@@ -6579,8 +6586,8 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="188"/>
-      <c r="B6" s="177"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="30" t="s">
         <v>157</v>
       </c>
@@ -6604,8 +6611,8 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="188"/>
-      <c r="B7" s="177"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="30" t="s">
         <v>158</v>
       </c>
@@ -6629,8 +6636,8 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="188"/>
-      <c r="B8" s="177"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="31" t="s">
         <v>159</v>
       </c>
@@ -6656,8 +6663,8 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="188"/>
-      <c r="B9" s="177"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="31" t="s">
         <v>161</v>
       </c>
@@ -6683,8 +6690,8 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="188"/>
-      <c r="B10" s="177"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="31" t="s">
         <v>162</v>
       </c>
@@ -6710,8 +6717,8 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="188"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="189"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="30" t="s">
         <v>163</v>
       </c>
@@ -6735,8 +6742,8 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="188"/>
-      <c r="B12" s="173" t="s">
+      <c r="A12" s="189"/>
+      <c r="B12" s="174" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -6764,8 +6771,8 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="188"/>
-      <c r="B13" s="174"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="31" t="s">
         <v>162</v>
       </c>
@@ -6791,8 +6798,8 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="188"/>
-      <c r="B14" s="179" t="s">
+      <c r="A14" s="189"/>
+      <c r="B14" s="180" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -6820,8 +6827,8 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="188"/>
-      <c r="B15" s="179"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="22" t="s">
         <v>160</v>
       </c>
@@ -6845,7 +6852,7 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="188"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="125" t="s">
         <v>6</v>
       </c>
@@ -6872,7 +6879,7 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="189"/>
+      <c r="A17" s="190"/>
       <c r="B17" s="22" t="s">
         <v>7</v>
       </c>
@@ -6899,10 +6906,10 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="188" t="s">
         <v>612</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="177" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -6928,8 +6935,8 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="188"/>
-      <c r="B19" s="177"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="30" t="s">
         <v>167</v>
       </c>
@@ -6953,8 +6960,8 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="188"/>
-      <c r="B20" s="177"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="30" t="s">
         <v>168</v>
       </c>
@@ -6978,8 +6985,8 @@
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="188"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="189"/>
+      <c r="B21" s="178"/>
       <c r="C21" s="30" t="s">
         <v>169</v>
       </c>
@@ -7003,8 +7010,8 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="188"/>
-      <c r="B22" s="177"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="30" t="s">
         <v>170</v>
       </c>
@@ -7028,8 +7035,8 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="188"/>
-      <c r="B23" s="177"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="30" t="s">
         <v>171</v>
       </c>
@@ -7053,8 +7060,8 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="188"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="30" t="s">
         <v>172</v>
       </c>
@@ -7078,8 +7085,8 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="188"/>
-      <c r="B25" s="177"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="31" t="s">
         <v>173</v>
       </c>
@@ -7105,8 +7112,8 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="188"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="178"/>
       <c r="C26" s="31" t="s">
         <v>174</v>
       </c>
@@ -7132,8 +7139,8 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="188"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="178"/>
       <c r="C27" s="30" t="s">
         <v>175</v>
       </c>
@@ -7157,8 +7164,8 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="188"/>
-      <c r="B28" s="177"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="30" t="s">
         <v>176</v>
       </c>
@@ -7182,8 +7189,8 @@
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="188"/>
-      <c r="B29" s="177"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="30" t="s">
         <v>177</v>
       </c>
@@ -7207,8 +7214,8 @@
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="188"/>
-      <c r="B30" s="177"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="30" t="s">
         <v>178</v>
       </c>
@@ -7232,8 +7239,8 @@
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="188"/>
-      <c r="B31" s="177"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="30" t="s">
         <v>179</v>
       </c>
@@ -7257,8 +7264,8 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="188"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="30" t="s">
         <v>180</v>
       </c>
@@ -7282,8 +7289,8 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="188"/>
-      <c r="B33" s="177"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="30" t="s">
         <v>181</v>
       </c>
@@ -7307,8 +7314,8 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="188"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="189"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="30" t="s">
         <v>182</v>
       </c>
@@ -7332,8 +7339,8 @@
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="188"/>
-      <c r="B35" s="177"/>
+      <c r="A35" s="189"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="30" t="s">
         <v>183</v>
       </c>
@@ -7357,8 +7364,8 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="188"/>
-      <c r="B36" s="177"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="30" t="s">
         <v>184</v>
       </c>
@@ -7382,8 +7389,8 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="188"/>
-      <c r="B37" s="180"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="30" t="s">
         <v>185</v>
       </c>
@@ -7407,7 +7414,7 @@
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="188"/>
+      <c r="A38" s="189"/>
       <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
@@ -7434,8 +7441,8 @@
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="188"/>
-      <c r="B39" s="168" t="s">
+      <c r="A39" s="189"/>
+      <c r="B39" s="169" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="30" t="s">
@@ -7461,8 +7468,8 @@
       <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="188"/>
-      <c r="B40" s="181"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="182"/>
       <c r="C40" s="30" t="s">
         <v>188</v>
       </c>
@@ -7486,8 +7493,8 @@
       <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="188"/>
-      <c r="B41" s="181"/>
+      <c r="A41" s="189"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="30" t="s">
         <v>189</v>
       </c>
@@ -7511,8 +7518,8 @@
       <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="188"/>
-      <c r="B42" s="181"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="182"/>
       <c r="C42" s="30" t="s">
         <v>190</v>
       </c>
@@ -7536,8 +7543,8 @@
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="188"/>
-      <c r="B43" s="181"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="182"/>
       <c r="C43" s="30" t="s">
         <v>191</v>
       </c>
@@ -7561,8 +7568,8 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="188"/>
-      <c r="B44" s="181"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="30" t="s">
         <v>581</v>
       </c>
@@ -7586,8 +7593,8 @@
       <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="188"/>
-      <c r="B45" s="181"/>
+      <c r="A45" s="189"/>
+      <c r="B45" s="182"/>
       <c r="C45" s="30" t="s">
         <v>552</v>
       </c>
@@ -7611,8 +7618,8 @@
       <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="188"/>
-      <c r="B46" s="169"/>
+      <c r="A46" s="189"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="30" t="s">
         <v>553</v>
       </c>
@@ -7636,8 +7643,8 @@
       <c r="S46" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="188"/>
-      <c r="B47" s="168" t="s">
+      <c r="A47" s="189"/>
+      <c r="B47" s="169" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -7663,8 +7670,8 @@
       <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="189"/>
-      <c r="B48" s="169"/>
+      <c r="A48" s="190"/>
+      <c r="B48" s="170"/>
       <c r="C48" s="30" t="s">
         <v>555</v>
       </c>
@@ -7709,10 +7716,10 @@
       <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="184" t="s">
+      <c r="A50" s="185" t="s">
         <v>619</v>
       </c>
-      <c r="B50" s="168" t="s">
+      <c r="B50" s="169" t="s">
         <v>262</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -7738,8 +7745,8 @@
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="185"/>
-      <c r="B51" s="169"/>
+      <c r="A51" s="186"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="30" t="s">
         <v>126</v>
       </c>
@@ -7763,7 +7770,7 @@
       <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="185"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="22" t="s">
         <v>263</v>
       </c>
@@ -7790,8 +7797,8 @@
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="185"/>
-      <c r="B53" s="176" t="s">
+      <c r="A53" s="186"/>
+      <c r="B53" s="177" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -7819,8 +7826,8 @@
       <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="185"/>
-      <c r="B54" s="177"/>
+      <c r="A54" s="186"/>
+      <c r="B54" s="178"/>
       <c r="C54" s="31" t="s">
         <v>251</v>
       </c>
@@ -7846,8 +7853,8 @@
       <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="186"/>
-      <c r="B55" s="177"/>
+      <c r="A55" s="187"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="30" t="s">
         <v>252</v>
       </c>
@@ -7892,7 +7899,7 @@
       <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="184" t="s">
+      <c r="A57" s="185" t="s">
         <v>614</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -7923,7 +7930,7 @@
       <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="185"/>
+      <c r="A58" s="186"/>
       <c r="B58" s="23" t="s">
         <v>43</v>
       </c>
@@ -7952,7 +7959,7 @@
       <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="185"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="23" t="s">
         <v>44</v>
       </c>
@@ -7983,7 +7990,7 @@
       <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="185"/>
+      <c r="A60" s="186"/>
       <c r="B60" s="23" t="s">
         <v>45</v>
       </c>
@@ -8012,8 +8019,8 @@
       <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="185"/>
-      <c r="B61" s="173" t="s">
+      <c r="A61" s="186"/>
+      <c r="B61" s="174" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="31" t="s">
@@ -8043,8 +8050,8 @@
       <c r="S61" s="10"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="185"/>
-      <c r="B62" s="174"/>
+      <c r="A62" s="186"/>
+      <c r="B62" s="175"/>
       <c r="C62" s="31" t="s">
         <v>140</v>
       </c>
@@ -8072,7 +8079,7 @@
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="185"/>
+      <c r="A63" s="186"/>
       <c r="B63" s="23" t="s">
         <v>47</v>
       </c>
@@ -8101,7 +8108,7 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="186"/>
+      <c r="A64" s="187"/>
       <c r="B64" s="22" t="s">
         <v>539</v>
       </c>
@@ -8149,10 +8156,10 @@
       <c r="S65" s="10"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="184" t="s">
+      <c r="A66" s="185" t="s">
         <v>605</v>
       </c>
-      <c r="B66" s="175" t="s">
+      <c r="B66" s="176" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="30" t="s">
@@ -8178,8 +8185,8 @@
       <c r="S66" s="10"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="185"/>
-      <c r="B67" s="175"/>
+      <c r="A67" s="186"/>
+      <c r="B67" s="176"/>
       <c r="C67" s="30" t="s">
         <v>256</v>
       </c>
@@ -8203,8 +8210,8 @@
       <c r="S67" s="10"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="185"/>
-      <c r="B68" s="168" t="s">
+      <c r="A68" s="186"/>
+      <c r="B68" s="169" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="30" t="s">
@@ -8230,8 +8237,8 @@
       <c r="S68" s="10"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="185"/>
-      <c r="B69" s="169"/>
+      <c r="A69" s="186"/>
+      <c r="B69" s="170"/>
       <c r="C69" s="30" t="s">
         <v>117</v>
       </c>
@@ -8255,7 +8262,7 @@
       <c r="S69" s="10"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="185"/>
+      <c r="A70" s="186"/>
       <c r="B70" s="23" t="s">
         <v>57</v>
       </c>
@@ -8284,7 +8291,7 @@
       <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="185"/>
+      <c r="A71" s="186"/>
       <c r="B71" s="23" t="s">
         <v>58</v>
       </c>
@@ -8313,7 +8320,7 @@
       <c r="S71" s="10"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="185"/>
+      <c r="A72" s="186"/>
       <c r="B72" s="23" t="s">
         <v>59</v>
       </c>
@@ -8342,8 +8349,8 @@
       <c r="S72" s="10"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="185"/>
-      <c r="B73" s="170" t="s">
+      <c r="A73" s="186"/>
+      <c r="B73" s="171" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="31" t="s">
@@ -8371,8 +8378,8 @@
       <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="185"/>
-      <c r="B74" s="171"/>
+      <c r="A74" s="186"/>
+      <c r="B74" s="172"/>
       <c r="C74" s="30" t="s">
         <v>122</v>
       </c>
@@ -8396,8 +8403,8 @@
       <c r="S74" s="10"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="185"/>
-      <c r="B75" s="172"/>
+      <c r="A75" s="186"/>
+      <c r="B75" s="173"/>
       <c r="C75" s="30" t="s">
         <v>123</v>
       </c>
@@ -8421,7 +8428,7 @@
       <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="186"/>
+      <c r="A76" s="187"/>
       <c r="B76" s="22" t="s">
         <v>61</v>
       </c>
@@ -8448,10 +8455,10 @@
       <c r="S76" s="10"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="184" t="s">
+      <c r="A77" s="185" t="s">
         <v>615</v>
       </c>
-      <c r="B77" s="170" t="s">
+      <c r="B77" s="171" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -8479,8 +8486,8 @@
       <c r="S77" s="10"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="185"/>
-      <c r="B78" s="171"/>
+      <c r="A78" s="186"/>
+      <c r="B78" s="172"/>
       <c r="C78" s="30" t="s">
         <v>144</v>
       </c>
@@ -8504,7 +8511,7 @@
       <c r="S78" s="10"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="185"/>
+      <c r="A79" s="186"/>
       <c r="B79" s="124" t="s">
         <v>76</v>
       </c>
@@ -8531,8 +8538,8 @@
       <c r="S79" s="10"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="185"/>
-      <c r="B80" s="175" t="s">
+      <c r="A80" s="186"/>
+      <c r="B80" s="176" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="30" t="s">
@@ -8558,8 +8565,8 @@
       <c r="S80" s="10"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="185"/>
-      <c r="B81" s="175"/>
+      <c r="A81" s="186"/>
+      <c r="B81" s="176"/>
       <c r="C81" s="30" t="s">
         <v>147</v>
       </c>
@@ -8583,7 +8590,7 @@
       <c r="S81" s="10"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="185"/>
+      <c r="A82" s="186"/>
       <c r="B82" s="124" t="s">
         <v>78</v>
       </c>
@@ -8610,8 +8617,8 @@
       <c r="S82" s="10"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="185"/>
-      <c r="B83" s="175" t="s">
+      <c r="A83" s="186"/>
+      <c r="B83" s="176" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="30" t="s">
@@ -8637,8 +8644,8 @@
       <c r="S83" s="10"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="185"/>
-      <c r="B84" s="175"/>
+      <c r="A84" s="186"/>
+      <c r="B84" s="176"/>
       <c r="C84" s="30" t="s">
         <v>560</v>
       </c>
@@ -8662,8 +8669,8 @@
       <c r="S84" s="10"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="185"/>
-      <c r="B85" s="175"/>
+      <c r="A85" s="186"/>
+      <c r="B85" s="176"/>
       <c r="C85" s="30" t="s">
         <v>152</v>
       </c>
@@ -8687,7 +8694,7 @@
       <c r="S85" s="10"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="185"/>
+      <c r="A86" s="186"/>
       <c r="B86" s="125" t="s">
         <v>80</v>
       </c>
@@ -8714,8 +8721,8 @@
       <c r="S86" s="10"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="185"/>
-      <c r="B87" s="175" t="s">
+      <c r="A87" s="186"/>
+      <c r="B87" s="176" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="30" t="s">
@@ -8741,8 +8748,8 @@
       <c r="S87" s="10"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="185"/>
-      <c r="B88" s="175"/>
+      <c r="A88" s="186"/>
+      <c r="B88" s="176"/>
       <c r="C88" s="30" t="s">
         <v>151</v>
       </c>
@@ -8766,8 +8773,8 @@
       <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="185"/>
-      <c r="B89" s="175"/>
+      <c r="A89" s="186"/>
+      <c r="B89" s="176"/>
       <c r="C89" s="30" t="s">
         <v>560</v>
       </c>
@@ -8791,8 +8798,8 @@
       <c r="S89" s="10"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="186"/>
-      <c r="B90" s="175"/>
+      <c r="A90" s="187"/>
+      <c r="B90" s="176"/>
       <c r="C90" s="30" t="s">
         <v>152</v>
       </c>
@@ -8816,10 +8823,10 @@
       <c r="S90" s="10"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="184" t="s">
+      <c r="A91" s="185" t="s">
         <v>616</v>
       </c>
-      <c r="B91" s="182" t="s">
+      <c r="B91" s="183" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="31" t="s">
@@ -8849,8 +8856,8 @@
       <c r="S91" s="10"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="186"/>
-      <c r="B92" s="183"/>
+      <c r="A92" s="187"/>
+      <c r="B92" s="184"/>
       <c r="C92" s="31" t="s">
         <v>132</v>
       </c>
@@ -8897,10 +8904,10 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="184" t="s">
+      <c r="A94" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="173" t="s">
+      <c r="B94" s="174" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="31" t="s">
@@ -8928,8 +8935,8 @@
       <c r="S94" s="10"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="185"/>
-      <c r="B95" s="174"/>
+      <c r="A95" s="186"/>
+      <c r="B95" s="175"/>
       <c r="C95" s="31" t="s">
         <v>563</v>
       </c>
@@ -8955,7 +8962,7 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="186"/>
+      <c r="A96" s="187"/>
       <c r="B96" s="111" t="s">
         <v>561</v>
       </c>
@@ -8984,7 +8991,7 @@
       <c r="S96" s="10"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="184" t="s">
+      <c r="A97" s="185" t="s">
         <v>617</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -9015,7 +9022,7 @@
       <c r="S97" s="10"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="185"/>
+      <c r="A98" s="186"/>
       <c r="B98" s="23" t="s">
         <v>266</v>
       </c>
@@ -9044,7 +9051,7 @@
       <c r="S98" s="10"/>
     </row>
     <row r="99" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="186"/>
+      <c r="A99" s="187"/>
       <c r="B99" s="22" t="s">
         <v>265</v>
       </c>
@@ -9071,7 +9078,7 @@
       <c r="S99" s="10"/>
     </row>
     <row r="100" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="184" t="s">
+      <c r="A100" s="185" t="s">
         <v>618</v>
       </c>
       <c r="B100" s="22" t="s">
@@ -9100,7 +9107,7 @@
       <c r="S100" s="10"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" s="186"/>
+      <c r="A101" s="187"/>
       <c r="B101" s="22" t="s">
         <v>264</v>
       </c>
@@ -9148,7 +9155,7 @@
       <c r="S102" s="10"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="184" t="s">
+      <c r="A103" s="185" t="s">
         <v>606</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -9179,7 +9186,7 @@
       <c r="S103" s="10"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="185"/>
+      <c r="A104" s="186"/>
       <c r="B104" s="23" t="s">
         <v>540</v>
       </c>
@@ -9208,7 +9215,7 @@
       <c r="S104" s="10"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="185"/>
+      <c r="A105" s="186"/>
       <c r="B105" s="23" t="s">
         <v>541</v>
       </c>
@@ -9237,8 +9244,8 @@
       <c r="S105" s="10"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="185"/>
-      <c r="B106" s="170" t="s">
+      <c r="A106" s="186"/>
+      <c r="B106" s="171" t="s">
         <v>542</v>
       </c>
       <c r="C106" s="31" t="s">
@@ -9266,8 +9273,8 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="185"/>
-      <c r="B107" s="171"/>
+      <c r="A107" s="186"/>
+      <c r="B107" s="172"/>
       <c r="C107" s="31" t="s">
         <v>194</v>
       </c>
@@ -9293,8 +9300,8 @@
       <c r="S107" s="10"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="185"/>
-      <c r="B108" s="172"/>
+      <c r="A108" s="186"/>
+      <c r="B108" s="173"/>
       <c r="C108" s="30" t="s">
         <v>195</v>
       </c>
@@ -9317,8 +9324,8 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" s="185"/>
-      <c r="B109" s="173" t="s">
+      <c r="A109" s="186"/>
+      <c r="B109" s="174" t="s">
         <v>543</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -9346,8 +9353,8 @@
       <c r="S109" s="10"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" s="185"/>
-      <c r="B110" s="174"/>
+      <c r="A110" s="186"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="31" t="s">
         <v>548</v>
       </c>
@@ -9373,7 +9380,7 @@
       <c r="S110" s="10"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="185"/>
+      <c r="A111" s="186"/>
       <c r="B111" s="23" t="s">
         <v>544</v>
       </c>
@@ -9402,8 +9409,8 @@
       <c r="S111" s="10"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="185"/>
-      <c r="B112" s="173" t="s">
+      <c r="A112" s="186"/>
+      <c r="B112" s="174" t="s">
         <v>545</v>
       </c>
       <c r="C112" s="31" t="s">
@@ -9431,8 +9438,8 @@
       <c r="S112" s="10"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="185"/>
-      <c r="B113" s="174"/>
+      <c r="A113" s="186"/>
+      <c r="B113" s="175"/>
       <c r="C113" s="31" t="s">
         <v>571</v>
       </c>
@@ -9458,7 +9465,7 @@
       <c r="S113" s="10"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="186"/>
+      <c r="A114" s="187"/>
       <c r="B114" s="23" t="s">
         <v>546</v>
       </c>
@@ -9487,10 +9494,10 @@
       <c r="S114" s="10"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="178" t="s">
+      <c r="B116" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="178"/>
+      <c r="C116" s="179"/>
       <c r="D116" s="68"/>
       <c r="E116" s="65"/>
       <c r="F116" s="65"/>
@@ -9507,19 +9514,19 @@
       <c r="S116" s="68"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="165" t="s">
+      <c r="B117" s="166" t="s">
         <v>525</v>
       </c>
-      <c r="C117" s="165"/>
+      <c r="C117" s="166"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="166" t="s">
+      <c r="B118" s="167" t="s">
         <v>526</v>
       </c>
-      <c r="C118" s="166"/>
+      <c r="C118" s="167"/>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
       <c r="F118" s="67"/>
@@ -9601,74 +9608,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="194" t="s">
+      <c r="D1" s="195" t="s">
         <v>622</v>
       </c>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="197"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="197" t="s">
+      <c r="N1" s="198" t="s">
         <v>607</v>
       </c>
-      <c r="O1" s="198"/>
-      <c r="P1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="200"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="191" t="s">
+      <c r="R1" s="192" t="s">
         <v>614</v>
       </c>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="194"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="191" t="s">
+      <c r="Z1" s="192" t="s">
         <v>605</v>
       </c>
-      <c r="AA1" s="192"/>
-      <c r="AB1" s="192"/>
-      <c r="AC1" s="192"/>
-      <c r="AD1" s="192"/>
-      <c r="AE1" s="192"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="191" t="s">
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="192" t="s">
         <v>623</v>
       </c>
-      <c r="AH1" s="192"/>
-      <c r="AI1" s="192"/>
-      <c r="AJ1" s="192"/>
-      <c r="AK1" s="192"/>
-      <c r="AL1" s="192"/>
-      <c r="AM1" s="192"/>
-      <c r="AN1" s="193"/>
+      <c r="AH1" s="193"/>
+      <c r="AI1" s="193"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="193"/>
+      <c r="AN1" s="194"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="191" t="s">
+      <c r="AP1" s="192" t="s">
         <v>621</v>
       </c>
-      <c r="AQ1" s="192"/>
-      <c r="AR1" s="192"/>
-      <c r="AS1" s="192"/>
-      <c r="AT1" s="192"/>
-      <c r="AU1" s="192"/>
-      <c r="AV1" s="193"/>
+      <c r="AQ1" s="193"/>
+      <c r="AR1" s="193"/>
+      <c r="AS1" s="193"/>
+      <c r="AT1" s="193"/>
+      <c r="AU1" s="193"/>
+      <c r="AV1" s="194"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="192" t="s">
         <v>606</v>
       </c>
-      <c r="AY1" s="192"/>
-      <c r="AZ1" s="192"/>
-      <c r="BA1" s="192"/>
-      <c r="BB1" s="192"/>
-      <c r="BC1" s="192"/>
-      <c r="BD1" s="192"/>
-      <c r="BE1" s="193"/>
+      <c r="AY1" s="193"/>
+      <c r="AZ1" s="193"/>
+      <c r="BA1" s="193"/>
+      <c r="BB1" s="193"/>
+      <c r="BC1" s="193"/>
+      <c r="BD1" s="193"/>
+      <c r="BE1" s="194"/>
     </row>
     <row r="2" spans="1:57" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -9834,7 +9841,7 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="191" t="s">
         <v>236</v>
       </c>
       <c r="B3" s="53">
@@ -9899,7 +9906,7 @@
       <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="190"/>
+      <c r="A4" s="191"/>
       <c r="B4" s="53">
         <v>2</v>
       </c>
@@ -9962,7 +9969,7 @@
       <c r="BE4" s="25"/>
     </row>
     <row r="5" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="190"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="54">
         <v>3</v>
       </c>
@@ -10028,7 +10035,7 @@
       <c r="BE5" s="25"/>
     </row>
     <row r="6" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="190"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="54">
         <v>4</v>
       </c>
@@ -10090,7 +10097,7 @@
       <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="190"/>
+      <c r="A7" s="191"/>
       <c r="B7" s="53">
         <v>5</v>
       </c>
@@ -10153,7 +10160,7 @@
       <c r="BE7" s="25"/>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="190"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="54">
         <v>6</v>
       </c>
@@ -10218,7 +10225,7 @@
       <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="190"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="54">
         <v>7</v>
       </c>
@@ -10289,7 +10296,7 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="190"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="55">
         <v>8</v>
       </c>
@@ -10356,7 +10363,7 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="190"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="54">
         <v>9</v>
       </c>
@@ -10421,7 +10428,7 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="190"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="54">
         <v>10</v>
       </c>
@@ -10547,7 +10554,7 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="191" t="s">
         <v>241</v>
       </c>
       <c r="B14" s="54">
@@ -10616,7 +10623,7 @@
       <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="190"/>
+      <c r="A15" s="191"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -10738,7 +10745,7 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="190" t="s">
+      <c r="A17" s="191" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="55">
@@ -10808,7 +10815,7 @@
       <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="190"/>
+      <c r="A18" s="191"/>
       <c r="B18" s="55">
         <v>2</v>
       </c>
@@ -10877,7 +10884,7 @@
       <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="190"/>
+      <c r="A19" s="191"/>
       <c r="B19" s="56">
         <v>3</v>
       </c>
@@ -10940,7 +10947,7 @@
       <c r="BE19" s="25"/>
     </row>
     <row r="20" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="190"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="55">
         <v>4</v>
       </c>
@@ -11023,7 +11030,7 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="190"/>
+      <c r="A21" s="191"/>
       <c r="B21" s="56">
         <v>5</v>
       </c>
@@ -11145,7 +11152,7 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="188" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="55">
@@ -11212,7 +11219,7 @@
       <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="188"/>
+      <c r="A24" s="189"/>
       <c r="B24" s="56">
         <v>2</v>
       </c>
@@ -11275,7 +11282,7 @@
       <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="188"/>
+      <c r="A25" s="189"/>
       <c r="B25" s="56">
         <v>3</v>
       </c>
@@ -11338,7 +11345,7 @@
       <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="188"/>
+      <c r="A26" s="189"/>
       <c r="B26" s="56">
         <v>4</v>
       </c>
@@ -11401,7 +11408,7 @@
       <c r="BE26" s="25"/>
     </row>
     <row r="27" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="188"/>
+      <c r="A27" s="189"/>
       <c r="B27" s="56">
         <v>5</v>
       </c>
@@ -11464,7 +11471,7 @@
       <c r="BE27" s="25"/>
     </row>
     <row r="28" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="188"/>
+      <c r="A28" s="189"/>
       <c r="B28" s="56">
         <v>6</v>
       </c>
@@ -11527,7 +11534,7 @@
       <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="188"/>
+      <c r="A29" s="189"/>
       <c r="B29" s="56">
         <v>7</v>
       </c>
@@ -11590,7 +11597,7 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="188"/>
+      <c r="A30" s="189"/>
       <c r="B30" s="56">
         <v>8</v>
       </c>
@@ -11653,7 +11660,7 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="188"/>
+      <c r="A31" s="189"/>
       <c r="B31" s="56">
         <v>9</v>
       </c>
@@ -11716,7 +11723,7 @@
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="188"/>
+      <c r="A32" s="189"/>
       <c r="B32" s="56">
         <v>10</v>
       </c>
@@ -11779,7 +11786,7 @@
       <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="189"/>
+      <c r="A33" s="190"/>
       <c r="B33" s="55">
         <v>11</v>
       </c>
@@ -11903,7 +11910,7 @@
       <c r="BE34" s="10"/>
     </row>
     <row r="35" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="187" t="s">
+      <c r="A35" s="188" t="s">
         <v>239</v>
       </c>
       <c r="B35" s="56">
@@ -11970,7 +11977,7 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="188"/>
+      <c r="A36" s="189"/>
       <c r="B36" s="55">
         <v>2</v>
       </c>
@@ -12039,7 +12046,7 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="188"/>
+      <c r="A37" s="189"/>
       <c r="B37" s="55">
         <v>3</v>
       </c>
@@ -12108,7 +12115,7 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="189"/>
+      <c r="A38" s="190"/>
       <c r="B38" s="55">
         <v>4</v>
       </c>
@@ -12234,7 +12241,7 @@
       <c r="BE39" s="10"/>
     </row>
     <row r="40" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="190" t="s">
+      <c r="A40" s="191" t="s">
         <v>240</v>
       </c>
       <c r="B40" s="55">
@@ -12301,7 +12308,7 @@
       <c r="BE40" s="25"/>
     </row>
     <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="190"/>
+      <c r="A41" s="191"/>
       <c r="B41" s="56">
         <v>2</v>
       </c>
@@ -12364,7 +12371,7 @@
       <c r="BE41" s="25"/>
     </row>
     <row r="42" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="190"/>
+      <c r="A42" s="191"/>
       <c r="B42" s="56">
         <v>3</v>
       </c>
@@ -12486,7 +12493,7 @@
       <c r="BE43" s="10"/>
     </row>
     <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="187" t="s">
+      <c r="A44" s="188" t="s">
         <v>246</v>
       </c>
       <c r="B44" s="55">
@@ -12561,7 +12568,7 @@
       <c r="BE44" s="25"/>
     </row>
     <row r="45" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="188"/>
+      <c r="A45" s="189"/>
       <c r="B45" s="55">
         <v>2</v>
       </c>
@@ -12632,7 +12639,7 @@
       <c r="BE45" s="25"/>
     </row>
     <row r="46" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="188"/>
+      <c r="A46" s="189"/>
       <c r="B46" s="55">
         <v>3</v>
       </c>
@@ -12703,7 +12710,7 @@
       <c r="BE46" s="25"/>
     </row>
     <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="189"/>
+      <c r="A47" s="190"/>
       <c r="B47" s="56">
         <v>4</v>
       </c>
@@ -12960,7 +12967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB89FBCC-C415-8947-9B16-FD60E8EE8478}">
   <dimension ref="A1:BG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -12986,74 +12993,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="194" t="s">
+      <c r="D1" s="195" t="s">
         <v>622</v>
       </c>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="197"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="197" t="s">
+      <c r="N1" s="198" t="s">
         <v>607</v>
       </c>
-      <c r="O1" s="198"/>
-      <c r="P1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="200"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="191" t="s">
+      <c r="R1" s="192" t="s">
         <v>614</v>
       </c>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="194"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="191" t="s">
+      <c r="Z1" s="192" t="s">
         <v>605</v>
       </c>
-      <c r="AA1" s="192"/>
-      <c r="AB1" s="192"/>
-      <c r="AC1" s="192"/>
-      <c r="AD1" s="192"/>
-      <c r="AE1" s="192"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="191" t="s">
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="193"/>
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="192" t="s">
         <v>623</v>
       </c>
-      <c r="AH1" s="192"/>
-      <c r="AI1" s="192"/>
-      <c r="AJ1" s="192"/>
-      <c r="AK1" s="192"/>
-      <c r="AL1" s="192"/>
-      <c r="AM1" s="192"/>
-      <c r="AN1" s="193"/>
+      <c r="AH1" s="193"/>
+      <c r="AI1" s="193"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="193"/>
+      <c r="AN1" s="194"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="191" t="s">
+      <c r="AP1" s="192" t="s">
         <v>621</v>
       </c>
-      <c r="AQ1" s="192"/>
-      <c r="AR1" s="192"/>
-      <c r="AS1" s="192"/>
-      <c r="AT1" s="192"/>
-      <c r="AU1" s="192"/>
-      <c r="AV1" s="193"/>
+      <c r="AQ1" s="193"/>
+      <c r="AR1" s="193"/>
+      <c r="AS1" s="193"/>
+      <c r="AT1" s="193"/>
+      <c r="AU1" s="193"/>
+      <c r="AV1" s="194"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="191" t="s">
+      <c r="AX1" s="192" t="s">
         <v>606</v>
       </c>
-      <c r="AY1" s="192"/>
-      <c r="AZ1" s="192"/>
-      <c r="BA1" s="192"/>
-      <c r="BB1" s="192"/>
-      <c r="BC1" s="192"/>
-      <c r="BD1" s="192"/>
-      <c r="BE1" s="193"/>
+      <c r="AY1" s="193"/>
+      <c r="AZ1" s="193"/>
+      <c r="BA1" s="193"/>
+      <c r="BB1" s="193"/>
+      <c r="BC1" s="193"/>
+      <c r="BD1" s="193"/>
+      <c r="BE1" s="194"/>
     </row>
     <row r="2" spans="1:59" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -13219,10 +13226,10 @@
       </c>
     </row>
     <row r="3" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="191" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="202">
+      <c r="B3" s="203">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -13284,8 +13291,8 @@
       <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="190"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="15" t="s">
         <v>508</v>
       </c>
@@ -13345,7 +13352,7 @@
       <c r="BE4" s="25"/>
     </row>
     <row r="5" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="190"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -13408,7 +13415,7 @@
       <c r="BE5" s="25"/>
     </row>
     <row r="6" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="190"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
@@ -13475,8 +13482,8 @@
       <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="190"/>
-      <c r="B7" s="200">
+      <c r="A7" s="191"/>
+      <c r="B7" s="201">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -13538,8 +13545,8 @@
       <c r="BE7" s="25"/>
     </row>
     <row r="8" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="190"/>
-      <c r="B8" s="201"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="202"/>
       <c r="C8" s="15" t="s">
         <v>394</v>
       </c>
@@ -13599,7 +13606,7 @@
       <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="190"/>
+      <c r="A9" s="191"/>
       <c r="B9" s="53">
         <v>5</v>
       </c>
@@ -13662,7 +13669,7 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="190"/>
+      <c r="A10" s="191"/>
       <c r="B10" s="54">
         <v>6</v>
       </c>
@@ -13730,8 +13737,8 @@
       </c>
     </row>
     <row r="11" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="190"/>
-      <c r="B11" s="200">
+      <c r="A11" s="191"/>
+      <c r="B11" s="201">
         <v>7</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -13797,8 +13804,8 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="190"/>
-      <c r="B12" s="204"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="15" t="s">
         <v>397</v>
       </c>
@@ -13870,7 +13877,7 @@
       <c r="BE12" s="25"/>
     </row>
     <row r="13" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="190"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="55">
         <v>8</v>
       </c>
@@ -13937,7 +13944,7 @@
       <c r="BE13" s="25"/>
     </row>
     <row r="14" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="190"/>
+      <c r="A14" s="191"/>
       <c r="B14" s="54">
         <v>9</v>
       </c>
@@ -14002,7 +14009,7 @@
       <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:59" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="190"/>
+      <c r="A15" s="191"/>
       <c r="B15" s="54">
         <v>10</v>
       </c>
@@ -14128,10 +14135,10 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="190" t="s">
+      <c r="A17" s="191" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="200">
+      <c r="B17" s="201">
         <v>1</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -14195,8 +14202,8 @@
       <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="190"/>
-      <c r="B18" s="201"/>
+      <c r="A18" s="191"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="15" t="s">
         <v>402</v>
       </c>
@@ -14260,7 +14267,7 @@
       <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="190"/>
+      <c r="A19" s="191"/>
       <c r="B19" s="63">
         <v>2</v>
       </c>
@@ -14382,7 +14389,7 @@
       <c r="BE20" s="10"/>
     </row>
     <row r="21" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="191" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="55">
@@ -14452,7 +14459,7 @@
       <c r="BE21" s="25"/>
     </row>
     <row r="22" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="190"/>
+      <c r="A22" s="191"/>
       <c r="B22" s="55">
         <v>2</v>
       </c>
@@ -14519,7 +14526,7 @@
       <c r="BE22" s="25"/>
     </row>
     <row r="23" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="190"/>
+      <c r="A23" s="191"/>
       <c r="B23" s="56">
         <v>3</v>
       </c>
@@ -14582,8 +14589,8 @@
       <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="190"/>
-      <c r="B24" s="208">
+      <c r="A24" s="191"/>
+      <c r="B24" s="209">
         <v>4</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -14647,8 +14654,8 @@
       <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="190"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="210"/>
       <c r="C25" s="17" t="s">
         <v>405</v>
       </c>
@@ -14718,8 +14725,8 @@
       <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="190"/>
-      <c r="B26" s="210"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="211"/>
       <c r="C26" s="17" t="s">
         <v>406</v>
       </c>
@@ -14789,7 +14796,7 @@
       </c>
     </row>
     <row r="27" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="190"/>
+      <c r="A27" s="191"/>
       <c r="B27" s="64">
         <v>5</v>
       </c>
@@ -14911,7 +14918,7 @@
       <c r="BE28" s="10"/>
     </row>
     <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="211" t="s">
+      <c r="A29" s="212" t="s">
         <v>238</v>
       </c>
       <c r="B29" s="55">
@@ -14978,7 +14985,7 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="212"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="56">
         <v>2</v>
       </c>
@@ -15041,7 +15048,7 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="212"/>
+      <c r="A31" s="213"/>
       <c r="B31" s="56">
         <v>3</v>
       </c>
@@ -15104,7 +15111,7 @@
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="212"/>
+      <c r="A32" s="213"/>
       <c r="B32" s="56">
         <v>4</v>
       </c>
@@ -15167,7 +15174,7 @@
       <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="1:57" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="212"/>
+      <c r="A33" s="213"/>
       <c r="B33" s="56">
         <v>5</v>
       </c>
@@ -15230,7 +15237,7 @@
       <c r="BE33" s="25"/>
     </row>
     <row r="34" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="212"/>
+      <c r="A34" s="213"/>
       <c r="B34" s="56">
         <v>6</v>
       </c>
@@ -15293,7 +15300,7 @@
       <c r="BE34" s="25"/>
     </row>
     <row r="35" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="212"/>
+      <c r="A35" s="213"/>
       <c r="B35" s="56">
         <v>7</v>
       </c>
@@ -15356,7 +15363,7 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="212"/>
+      <c r="A36" s="213"/>
       <c r="B36" s="56">
         <v>8</v>
       </c>
@@ -15419,7 +15426,7 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="212"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="56">
         <v>9</v>
       </c>
@@ -15482,7 +15489,7 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="212"/>
+      <c r="A38" s="213"/>
       <c r="B38" s="56">
         <v>10</v>
       </c>
@@ -15545,7 +15552,7 @@
       <c r="BE38" s="25"/>
     </row>
     <row r="39" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="213"/>
+      <c r="A39" s="214"/>
       <c r="B39" s="121">
         <v>11</v>
       </c>
@@ -15669,7 +15676,7 @@
       <c r="BE40" s="10"/>
     </row>
     <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="188" t="s">
         <v>239</v>
       </c>
       <c r="B41" s="56">
@@ -15736,7 +15743,7 @@
       <c r="BE41" s="25"/>
     </row>
     <row r="42" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="188"/>
+      <c r="A42" s="189"/>
       <c r="B42" s="55">
         <v>2</v>
       </c>
@@ -15805,7 +15812,7 @@
       <c r="BE42" s="25"/>
     </row>
     <row r="43" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="188"/>
+      <c r="A43" s="189"/>
       <c r="B43" s="55">
         <v>3</v>
       </c>
@@ -15874,7 +15881,7 @@
       <c r="BE43" s="25"/>
     </row>
     <row r="44" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="189"/>
+      <c r="A44" s="190"/>
       <c r="B44" s="121">
         <v>4</v>
       </c>
@@ -16000,7 +16007,7 @@
       <c r="BE45" s="10"/>
     </row>
     <row r="46" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="190" t="s">
+      <c r="A46" s="191" t="s">
         <v>240</v>
       </c>
       <c r="B46" s="55">
@@ -16067,7 +16074,7 @@
       <c r="BE46" s="25"/>
     </row>
     <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="190"/>
+      <c r="A47" s="191"/>
       <c r="B47" s="56">
         <v>2</v>
       </c>
@@ -16130,7 +16137,7 @@
       <c r="BE47" s="25"/>
     </row>
     <row r="48" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="190"/>
+      <c r="A48" s="191"/>
       <c r="B48" s="64">
         <v>3</v>
       </c>
@@ -16252,13 +16259,13 @@
       <c r="BE49" s="10"/>
     </row>
     <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="187" t="s">
+      <c r="A50" s="188" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="55">
         <v>1</v>
       </c>
-      <c r="C50" s="205" t="s">
+      <c r="C50" s="206" t="s">
         <v>420</v>
       </c>
       <c r="D50" s="11"/>
@@ -16327,11 +16334,11 @@
       <c r="BE50" s="25"/>
     </row>
     <row r="51" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="188"/>
+      <c r="A51" s="189"/>
       <c r="B51" s="55">
         <v>2</v>
       </c>
-      <c r="C51" s="206"/>
+      <c r="C51" s="207"/>
       <c r="D51" s="11"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -16396,11 +16403,11 @@
       <c r="BE51" s="25"/>
     </row>
     <row r="52" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="188"/>
+      <c r="A52" s="189"/>
       <c r="B52" s="55">
         <v>3</v>
       </c>
-      <c r="C52" s="207"/>
+      <c r="C52" s="208"/>
       <c r="D52" s="11"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
@@ -16465,7 +16472,7 @@
       <c r="BE52" s="25"/>
     </row>
     <row r="53" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="189"/>
+      <c r="A53" s="190"/>
       <c r="B53" s="56">
         <v>4</v>
       </c>
@@ -16771,75 +16778,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="218"/>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="220" t="s">
+      <c r="A1" s="219"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="221" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
       <c r="R1" s="97"/>
-      <c r="S1" s="220" t="s">
+      <c r="S1" s="221" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
       <c r="V1" s="97"/>
-      <c r="W1" s="220" t="s">
+      <c r="W1" s="221" t="s">
         <v>237</v>
       </c>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="220"/>
-      <c r="AC1" s="220"/>
+      <c r="X1" s="221"/>
+      <c r="Y1" s="221"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="221"/>
+      <c r="AB1" s="221"/>
+      <c r="AC1" s="221"/>
       <c r="AD1" s="97"/>
-      <c r="AE1" s="235" t="s">
+      <c r="AE1" s="236" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="236"/>
-      <c r="AJ1" s="236"/>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="236"/>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="238"/>
       <c r="AP1" s="97"/>
-      <c r="AQ1" s="232" t="s">
+      <c r="AQ1" s="233" t="s">
         <v>239</v>
       </c>
-      <c r="AR1" s="233"/>
-      <c r="AS1" s="233"/>
-      <c r="AT1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="234"/>
+      <c r="AT1" s="235"/>
       <c r="AU1" s="97"/>
-      <c r="AV1" s="220" t="s">
+      <c r="AV1" s="221" t="s">
         <v>240</v>
       </c>
-      <c r="AW1" s="220"/>
-      <c r="AX1" s="220"/>
+      <c r="AW1" s="221"/>
+      <c r="AX1" s="221"/>
       <c r="AY1" s="97"/>
-      <c r="AZ1" s="229" t="s">
+      <c r="AZ1" s="230" t="s">
         <v>246</v>
       </c>
-      <c r="BA1" s="230"/>
-      <c r="BB1" s="230"/>
-      <c r="BC1" s="231"/>
+      <c r="BA1" s="231"/>
+      <c r="BB1" s="231"/>
+      <c r="BC1" s="232"/>
       <c r="BD1" s="97"/>
       <c r="BE1" s="98" t="s">
         <v>234</v>
@@ -16849,34 +16856,34 @@
       </c>
     </row>
     <row r="2" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="221">
+      <c r="A2" s="219"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="222">
         <v>1</v>
       </c>
-      <c r="F2" s="222"/>
+      <c r="F2" s="223"/>
       <c r="G2" s="42">
         <v>2</v>
       </c>
       <c r="H2" s="42">
         <v>3</v>
       </c>
-      <c r="I2" s="223">
+      <c r="I2" s="224">
         <v>4</v>
       </c>
-      <c r="J2" s="224"/>
+      <c r="J2" s="225"/>
       <c r="K2" s="41">
         <v>5</v>
       </c>
       <c r="L2" s="42">
         <v>6</v>
       </c>
-      <c r="M2" s="214">
+      <c r="M2" s="215">
         <v>7</v>
       </c>
-      <c r="N2" s="215"/>
+      <c r="N2" s="216"/>
       <c r="O2" s="23">
         <v>8</v>
       </c>
@@ -16887,10 +16894,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="36"/>
-      <c r="S2" s="223">
+      <c r="S2" s="224">
         <v>1</v>
       </c>
-      <c r="T2" s="224"/>
+      <c r="T2" s="225"/>
       <c r="U2" s="49">
         <v>2</v>
       </c>
@@ -16904,11 +16911,11 @@
       <c r="Y2" s="24">
         <v>3</v>
       </c>
-      <c r="Z2" s="238">
+      <c r="Z2" s="239">
         <v>4</v>
       </c>
-      <c r="AA2" s="239"/>
-      <c r="AB2" s="240"/>
+      <c r="AA2" s="240"/>
+      <c r="AB2" s="241"/>
       <c r="AC2" s="50">
         <v>5</v>
       </c>
@@ -16988,10 +16995,10 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="A3" s="218"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
+      <c r="A3" s="219"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="220"/>
       <c r="E3" s="43" t="s">
         <v>391</v>
       </c>
@@ -17121,11 +17128,11 @@
         <v>630</v>
       </c>
       <c r="AY3" s="45"/>
-      <c r="AZ3" s="226" t="s">
+      <c r="AZ3" s="227" t="s">
         <v>420</v>
       </c>
-      <c r="BA3" s="227"/>
-      <c r="BB3" s="228"/>
+      <c r="BA3" s="228"/>
+      <c r="BB3" s="229"/>
       <c r="BC3" s="46" t="s">
         <v>421</v>
       </c>
@@ -17135,10 +17142,10 @@
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="188" t="s">
         <v>613</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="217" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -17202,8 +17209,8 @@
       <c r="BE4" s="11"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="188"/>
-      <c r="B5" s="225"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="30" t="s">
         <v>155</v>
       </c>
@@ -17265,8 +17272,8 @@
       <c r="BE5" s="11"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="188"/>
-      <c r="B6" s="225"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="226"/>
       <c r="C6" s="31" t="s">
         <v>156</v>
       </c>
@@ -17330,8 +17337,8 @@
       <c r="BE6" s="11"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="188"/>
-      <c r="B7" s="225"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="30" t="s">
         <v>157</v>
       </c>
@@ -17393,8 +17400,8 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="188"/>
-      <c r="B8" s="225"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="30" t="s">
         <v>158</v>
       </c>
@@ -17456,8 +17463,8 @@
       <c r="BE8" s="11"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="188"/>
-      <c r="B9" s="225"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="30" t="s">
         <v>159</v>
       </c>
@@ -17519,8 +17526,8 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="188"/>
-      <c r="B10" s="225"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="31" t="s">
         <v>161</v>
       </c>
@@ -17586,8 +17593,8 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="188"/>
-      <c r="B11" s="225"/>
+      <c r="A11" s="189"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="30" t="s">
         <v>162</v>
       </c>
@@ -17649,8 +17656,8 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="188"/>
-      <c r="B12" s="217"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="218"/>
       <c r="C12" s="30" t="s">
         <v>163</v>
       </c>
@@ -17712,8 +17719,8 @@
       <c r="BE12" s="11"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="188"/>
-      <c r="B13" s="216" t="s">
+      <c r="A13" s="189"/>
+      <c r="B13" s="217" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -17781,8 +17788,8 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="188"/>
-      <c r="B14" s="217"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="218"/>
       <c r="C14" s="30" t="s">
         <v>162</v>
       </c>
@@ -17844,8 +17851,8 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="188"/>
-      <c r="B15" s="216" t="s">
+      <c r="A15" s="189"/>
+      <c r="B15" s="217" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -17909,8 +17916,8 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="188"/>
-      <c r="B16" s="225"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="30" t="s">
         <v>160</v>
       </c>
@@ -17972,7 +17979,7 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A17" s="188"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="136" t="s">
         <v>6</v>
       </c>
@@ -18041,7 +18048,7 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A18" s="189"/>
+      <c r="A18" s="190"/>
       <c r="B18" s="137" t="s">
         <v>7</v>
       </c>
@@ -18106,10 +18113,10 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A19" s="187" t="s">
+      <c r="A19" s="188" t="s">
         <v>612</v>
       </c>
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="217" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -18175,8 +18182,8 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A20" s="188"/>
-      <c r="B20" s="225"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="30" t="s">
         <v>167</v>
       </c>
@@ -18238,8 +18245,8 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="188"/>
-      <c r="B21" s="225"/>
+      <c r="A21" s="189"/>
+      <c r="B21" s="226"/>
       <c r="C21" s="30" t="s">
         <v>169</v>
       </c>
@@ -18301,8 +18308,8 @@
       <c r="BE21" s="25"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="188"/>
-      <c r="B22" s="225"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="226"/>
       <c r="C22" s="31" t="s">
         <v>169</v>
       </c>
@@ -18366,8 +18373,8 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="188"/>
-      <c r="B23" s="225"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="30" t="s">
         <v>170</v>
       </c>
@@ -18429,8 +18436,8 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="188"/>
-      <c r="B24" s="225"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="226"/>
       <c r="C24" s="30" t="s">
         <v>171</v>
       </c>
@@ -18492,8 +18499,8 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A25" s="188"/>
-      <c r="B25" s="225"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="226"/>
       <c r="C25" s="30" t="s">
         <v>172</v>
       </c>
@@ -18555,8 +18562,8 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A26" s="188"/>
-      <c r="B26" s="225"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="226"/>
       <c r="C26" s="30" t="s">
         <v>173</v>
       </c>
@@ -18618,8 +18625,8 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A27" s="188"/>
-      <c r="B27" s="225"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="226"/>
       <c r="C27" s="30" t="s">
         <v>174</v>
       </c>
@@ -18681,8 +18688,8 @@
       <c r="BE27" s="9"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A28" s="188"/>
-      <c r="B28" s="225"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="30" t="s">
         <v>175</v>
       </c>
@@ -18744,8 +18751,8 @@
       <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A29" s="188"/>
-      <c r="B29" s="225"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="30" t="s">
         <v>176</v>
       </c>
@@ -18807,8 +18814,8 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A30" s="188"/>
-      <c r="B30" s="225"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="30" t="s">
         <v>177</v>
       </c>
@@ -18870,8 +18877,8 @@
       <c r="BE30" s="9"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="188"/>
-      <c r="B31" s="225"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="30" t="s">
         <v>178</v>
       </c>
@@ -18933,8 +18940,8 @@
       <c r="BE31" s="9"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A32" s="188"/>
-      <c r="B32" s="225"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="30" t="s">
         <v>179</v>
       </c>
@@ -18996,8 +19003,8 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A33" s="188"/>
-      <c r="B33" s="225"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="30" t="s">
         <v>180</v>
       </c>
@@ -19059,8 +19066,8 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A34" s="188"/>
-      <c r="B34" s="225"/>
+      <c r="A34" s="189"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="30" t="s">
         <v>181</v>
       </c>
@@ -19122,8 +19129,8 @@
       <c r="BE34" s="9"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="188"/>
-      <c r="B35" s="225"/>
+      <c r="A35" s="189"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="30" t="s">
         <v>182</v>
       </c>
@@ -19185,8 +19192,8 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="188"/>
-      <c r="B36" s="225"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="30" t="s">
         <v>183</v>
       </c>
@@ -19248,8 +19255,8 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="188"/>
-      <c r="B37" s="225"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="30" t="s">
         <v>184</v>
       </c>
@@ -19311,8 +19318,8 @@
       <c r="BE37" s="9"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A38" s="188"/>
-      <c r="B38" s="217"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="218"/>
       <c r="C38" s="30" t="s">
         <v>185</v>
       </c>
@@ -19374,7 +19381,7 @@
       <c r="BE38" s="9"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A39" s="188"/>
+      <c r="A39" s="189"/>
       <c r="B39" s="138" t="s">
         <v>15</v>
       </c>
@@ -19439,8 +19446,8 @@
       <c r="BE39" s="9"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A40" s="188"/>
-      <c r="B40" s="182" t="s">
+      <c r="A40" s="189"/>
+      <c r="B40" s="183" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -19506,8 +19513,8 @@
       <c r="BE40" s="9"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="188"/>
-      <c r="B41" s="242"/>
+      <c r="A41" s="189"/>
+      <c r="B41" s="243"/>
       <c r="C41" s="31" t="s">
         <v>188</v>
       </c>
@@ -19571,8 +19578,8 @@
       <c r="BE41" s="9"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="188"/>
-      <c r="B42" s="242"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="243"/>
       <c r="C42" s="31" t="s">
         <v>189</v>
       </c>
@@ -19636,8 +19643,8 @@
       <c r="BE42" s="9"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="188"/>
-      <c r="B43" s="242"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="243"/>
       <c r="C43" s="31" t="s">
         <v>190</v>
       </c>
@@ -19701,8 +19708,8 @@
       <c r="BE43" s="9"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A44" s="188"/>
-      <c r="B44" s="242"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="243"/>
       <c r="C44" s="31" t="s">
         <v>191</v>
       </c>
@@ -19766,8 +19773,8 @@
       <c r="BE44" s="9"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A45" s="188"/>
-      <c r="B45" s="242"/>
+      <c r="A45" s="189"/>
+      <c r="B45" s="243"/>
       <c r="C45" s="31" t="s">
         <v>581</v>
       </c>
@@ -19831,8 +19838,8 @@
       <c r="BE45" s="9"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A46" s="188"/>
-      <c r="B46" s="242"/>
+      <c r="A46" s="189"/>
+      <c r="B46" s="243"/>
       <c r="C46" s="31" t="s">
         <v>552</v>
       </c>
@@ -19896,8 +19903,8 @@
       <c r="BE46" s="9"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="188"/>
-      <c r="B47" s="183"/>
+      <c r="A47" s="189"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="31" t="s">
         <v>553</v>
       </c>
@@ -19961,8 +19968,8 @@
       <c r="BE47" s="9"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="188"/>
-      <c r="B48" s="182" t="s">
+      <c r="A48" s="189"/>
+      <c r="B48" s="183" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -20028,8 +20035,8 @@
       <c r="BE48" s="9"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A49" s="189"/>
-      <c r="B49" s="183"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="184"/>
       <c r="C49" s="31" t="s">
         <v>555</v>
       </c>
@@ -20152,10 +20159,10 @@
       <c r="BE50" s="10"/>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A51" s="184" t="s">
+      <c r="A51" s="185" t="s">
         <v>619</v>
       </c>
-      <c r="B51" s="243" t="s">
+      <c r="B51" s="244" t="s">
         <v>262</v>
       </c>
       <c r="C51" s="30" t="s">
@@ -20219,8 +20226,8 @@
       <c r="BE51" s="18"/>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A52" s="185"/>
-      <c r="B52" s="244"/>
+      <c r="A52" s="186"/>
+      <c r="B52" s="245"/>
       <c r="C52" s="30" t="s">
         <v>126</v>
       </c>
@@ -20282,7 +20289,7 @@
       <c r="BE52" s="18"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A53" s="185"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="140" t="s">
         <v>263</v>
       </c>
@@ -20347,8 +20354,8 @@
       <c r="BE53" s="18"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A54" s="185"/>
-      <c r="B54" s="216" t="s">
+      <c r="A54" s="186"/>
+      <c r="B54" s="217" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="30" t="s">
@@ -20412,8 +20419,8 @@
       <c r="BE54" s="9"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A55" s="185"/>
-      <c r="B55" s="225"/>
+      <c r="A55" s="186"/>
+      <c r="B55" s="226"/>
       <c r="C55" s="30" t="s">
         <v>251</v>
       </c>
@@ -20475,8 +20482,8 @@
       <c r="BE55" s="9"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A56" s="186"/>
-      <c r="B56" s="217"/>
+      <c r="A56" s="187"/>
+      <c r="B56" s="218"/>
       <c r="C56" s="30" t="s">
         <v>252</v>
       </c>
@@ -20597,7 +20604,7 @@
       <c r="BE57" s="10"/>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A58" s="184" t="s">
+      <c r="A58" s="185" t="s">
         <v>614</v>
       </c>
       <c r="B58" s="141" t="s">
@@ -20666,7 +20673,7 @@
       <c r="BE58" s="9"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A59" s="185"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="141" t="s">
         <v>43</v>
       </c>
@@ -20733,7 +20740,7 @@
       <c r="BE59" s="9"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A60" s="185"/>
+      <c r="A60" s="186"/>
       <c r="B60" s="141" t="s">
         <v>44</v>
       </c>
@@ -20802,7 +20809,7 @@
       <c r="BE60" s="9"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A61" s="185"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="141" t="s">
         <v>45</v>
       </c>
@@ -20871,8 +20878,8 @@
       <c r="BE61" s="25"/>
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A62" s="185"/>
-      <c r="B62" s="182" t="s">
+      <c r="A62" s="186"/>
+      <c r="B62" s="183" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="31" t="s">
@@ -20942,8 +20949,8 @@
       <c r="BE62" s="9"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A63" s="185"/>
-      <c r="B63" s="183"/>
+      <c r="A63" s="186"/>
+      <c r="B63" s="184"/>
       <c r="C63" s="31" t="s">
         <v>140</v>
       </c>
@@ -21011,7 +21018,7 @@
       <c r="BE63" s="9"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A64" s="185"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="141" t="s">
         <v>47</v>
       </c>
@@ -21088,7 +21095,7 @@
       <c r="BE64" s="18"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A65" s="186"/>
+      <c r="A65" s="187"/>
       <c r="B65" s="142" t="s">
         <v>539</v>
       </c>
@@ -21220,10 +21227,10 @@
       <c r="BE66" s="10"/>
     </row>
     <row r="67" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A67" s="184" t="s">
+      <c r="A67" s="185" t="s">
         <v>605</v>
       </c>
-      <c r="B67" s="241" t="s">
+      <c r="B67" s="242" t="s">
         <v>55</v>
       </c>
       <c r="C67" s="31" t="s">
@@ -21291,8 +21298,8 @@
       <c r="BE67" s="9"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A68" s="185"/>
-      <c r="B68" s="241"/>
+      <c r="A68" s="186"/>
+      <c r="B68" s="242"/>
       <c r="C68" s="31" t="s">
         <v>256</v>
       </c>
@@ -21358,8 +21365,8 @@
       <c r="BE68" s="9"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A69" s="185"/>
-      <c r="B69" s="241" t="s">
+      <c r="A69" s="186"/>
+      <c r="B69" s="242" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="31" t="s">
@@ -21425,8 +21432,8 @@
       <c r="BE69" s="9"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A70" s="185"/>
-      <c r="B70" s="241"/>
+      <c r="A70" s="186"/>
+      <c r="B70" s="242"/>
       <c r="C70" s="31" t="s">
         <v>117</v>
       </c>
@@ -21492,7 +21499,7 @@
       <c r="BE70" s="9"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A71" s="185"/>
+      <c r="A71" s="186"/>
       <c r="B71" s="141" t="s">
         <v>57</v>
       </c>
@@ -21559,7 +21566,7 @@
       <c r="BE71" s="25"/>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A72" s="185"/>
+      <c r="A72" s="186"/>
       <c r="B72" s="141" t="s">
         <v>58</v>
       </c>
@@ -21626,7 +21633,7 @@
       <c r="BE72" s="25"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A73" s="185"/>
+      <c r="A73" s="186"/>
       <c r="B73" s="141" t="s">
         <v>59</v>
       </c>
@@ -21693,8 +21700,8 @@
       <c r="BE73" s="9"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A74" s="185"/>
-      <c r="B74" s="241" t="s">
+      <c r="A74" s="186"/>
+      <c r="B74" s="242" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="23" t="s">
@@ -21760,8 +21767,8 @@
       <c r="BE74" s="9"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A75" s="185"/>
-      <c r="B75" s="241"/>
+      <c r="A75" s="186"/>
+      <c r="B75" s="242"/>
       <c r="C75" s="23" t="s">
         <v>122</v>
       </c>
@@ -21825,8 +21832,8 @@
       <c r="BE75" s="9"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A76" s="185"/>
-      <c r="B76" s="241"/>
+      <c r="A76" s="186"/>
+      <c r="B76" s="242"/>
       <c r="C76" s="23" t="s">
         <v>123</v>
       </c>
@@ -21890,7 +21897,7 @@
       <c r="BE76" s="9"/>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A77" s="186"/>
+      <c r="A77" s="187"/>
       <c r="B77" s="143" t="s">
         <v>61</v>
       </c>
@@ -21957,10 +21964,10 @@
       <c r="BE77" s="9"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A78" s="184" t="s">
+      <c r="A78" s="185" t="s">
         <v>615</v>
       </c>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="183" t="s">
         <v>75</v>
       </c>
       <c r="C78" s="31" t="s">
@@ -22026,8 +22033,8 @@
       <c r="BE78" s="9"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A79" s="185"/>
-      <c r="B79" s="183"/>
+      <c r="A79" s="186"/>
+      <c r="B79" s="184"/>
       <c r="C79" s="31" t="s">
         <v>144</v>
       </c>
@@ -22091,7 +22098,7 @@
       <c r="BE79" s="9"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A80" s="185"/>
+      <c r="A80" s="186"/>
       <c r="B80" s="136" t="s">
         <v>76</v>
       </c>
@@ -22158,8 +22165,8 @@
       <c r="BE80" s="9"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A81" s="185"/>
-      <c r="B81" s="241" t="s">
+      <c r="A81" s="186"/>
+      <c r="B81" s="242" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="23" t="s">
@@ -22225,8 +22232,8 @@
       <c r="BE81" s="9"/>
     </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A82" s="185"/>
-      <c r="B82" s="241"/>
+      <c r="A82" s="186"/>
+      <c r="B82" s="242"/>
       <c r="C82" s="23" t="s">
         <v>147</v>
       </c>
@@ -22290,7 +22297,7 @@
       <c r="BE82" s="9"/>
     </row>
     <row r="83" spans="1:57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="185"/>
+      <c r="A83" s="186"/>
       <c r="B83" s="143" t="s">
         <v>78</v>
       </c>
@@ -22359,8 +22366,8 @@
       <c r="BE83" s="25"/>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A84" s="185"/>
-      <c r="B84" s="182" t="s">
+      <c r="A84" s="186"/>
+      <c r="B84" s="183" t="s">
         <v>79</v>
       </c>
       <c r="C84" s="23" t="s">
@@ -22428,8 +22435,8 @@
       <c r="BE84" s="9"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A85" s="185"/>
-      <c r="B85" s="242"/>
+      <c r="A85" s="186"/>
+      <c r="B85" s="243"/>
       <c r="C85" s="23" t="s">
         <v>560</v>
       </c>
@@ -22495,8 +22502,8 @@
       <c r="BE85" s="9"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A86" s="185"/>
-      <c r="B86" s="183"/>
+      <c r="A86" s="186"/>
+      <c r="B86" s="184"/>
       <c r="C86" s="23" t="s">
         <v>152</v>
       </c>
@@ -22562,7 +22569,7 @@
       <c r="BE86" s="9"/>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A87" s="185"/>
+      <c r="A87" s="186"/>
       <c r="B87" s="143" t="s">
         <v>80</v>
       </c>
@@ -22633,8 +22640,8 @@
       <c r="BE87" s="9"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A88" s="185"/>
-      <c r="B88" s="182" t="s">
+      <c r="A88" s="186"/>
+      <c r="B88" s="183" t="s">
         <v>81</v>
       </c>
       <c r="C88" s="23" t="s">
@@ -22702,8 +22709,8 @@
       <c r="BE88" s="9"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A89" s="185"/>
-      <c r="B89" s="242"/>
+      <c r="A89" s="186"/>
+      <c r="B89" s="243"/>
       <c r="C89" s="23" t="s">
         <v>151</v>
       </c>
@@ -22769,8 +22776,8 @@
       <c r="BE89" s="9"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A90" s="185"/>
-      <c r="B90" s="242"/>
+      <c r="A90" s="186"/>
+      <c r="B90" s="243"/>
       <c r="C90" s="23" t="s">
         <v>560</v>
       </c>
@@ -22836,8 +22843,8 @@
       <c r="BE90" s="9"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A91" s="186"/>
-      <c r="B91" s="183"/>
+      <c r="A91" s="187"/>
+      <c r="B91" s="184"/>
       <c r="C91" s="23" t="s">
         <v>152</v>
       </c>
@@ -22903,10 +22910,10 @@
       <c r="BE91" s="9"/>
     </row>
     <row r="92" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A92" s="184" t="s">
+      <c r="A92" s="185" t="s">
         <v>616</v>
       </c>
-      <c r="B92" s="182" t="s">
+      <c r="B92" s="183" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="23" t="s">
@@ -22972,8 +22979,8 @@
       <c r="BE92" s="25"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A93" s="186"/>
-      <c r="B93" s="183"/>
+      <c r="A93" s="187"/>
+      <c r="B93" s="184"/>
       <c r="C93" s="23" t="s">
         <v>132</v>
       </c>
@@ -23096,10 +23103,10 @@
       <c r="BE94" s="10"/>
     </row>
     <row r="95" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A95" s="184" t="s">
+      <c r="A95" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="241" t="s">
+      <c r="B95" s="242" t="s">
         <v>101</v>
       </c>
       <c r="C95" s="23" t="s">
@@ -23167,8 +23174,8 @@
       <c r="BE95" s="9"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A96" s="185"/>
-      <c r="B96" s="241"/>
+      <c r="A96" s="186"/>
+      <c r="B96" s="242"/>
       <c r="C96" s="23" t="s">
         <v>563</v>
       </c>
@@ -23234,7 +23241,7 @@
       <c r="BE96" s="9"/>
     </row>
     <row r="97" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="186"/>
+      <c r="A97" s="187"/>
       <c r="B97" s="142" t="s">
         <v>561</v>
       </c>
@@ -23300,7 +23307,7 @@
       <c r="BE97" s="9"/>
     </row>
     <row r="98" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A98" s="184" t="s">
+      <c r="A98" s="185" t="s">
         <v>617</v>
       </c>
       <c r="B98" s="143" t="s">
@@ -23369,7 +23376,7 @@
       <c r="BE98" s="9"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A99" s="185"/>
+      <c r="A99" s="186"/>
       <c r="B99" s="142" t="s">
         <v>266</v>
       </c>
@@ -23440,7 +23447,7 @@
       <c r="BE99" s="9"/>
     </row>
     <row r="100" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="186"/>
+      <c r="A100" s="187"/>
       <c r="B100" s="142" t="s">
         <v>265</v>
       </c>
@@ -23506,7 +23513,7 @@
       <c r="BE100" s="9"/>
     </row>
     <row r="101" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="184" t="s">
+      <c r="A101" s="185" t="s">
         <v>618</v>
       </c>
       <c r="B101" s="141" t="s">
@@ -23575,7 +23582,7 @@
       <c r="BE101" s="9"/>
     </row>
     <row r="102" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A102" s="186"/>
+      <c r="A102" s="187"/>
       <c r="B102" s="142" t="s">
         <v>264</v>
       </c>
@@ -23701,7 +23708,7 @@
       <c r="BE103" s="10"/>
     </row>
     <row r="104" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A104" s="184" t="s">
+      <c r="A104" s="185" t="s">
         <v>606</v>
       </c>
       <c r="B104" s="141" t="s">
@@ -23770,7 +23777,7 @@
       <c r="BE104" s="25"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A105" s="185"/>
+      <c r="A105" s="186"/>
       <c r="B105" s="141" t="s">
         <v>540</v>
       </c>
@@ -23837,7 +23844,7 @@
       <c r="BE105" s="25"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A106" s="185"/>
+      <c r="A106" s="186"/>
       <c r="B106" s="141" t="s">
         <v>541</v>
       </c>
@@ -23904,8 +23911,8 @@
       <c r="BE106" s="25"/>
     </row>
     <row r="107" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A107" s="185"/>
-      <c r="B107" s="241" t="s">
+      <c r="A107" s="186"/>
+      <c r="B107" s="242" t="s">
         <v>542</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -23971,8 +23978,8 @@
       <c r="BE107" s="25"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A108" s="185"/>
-      <c r="B108" s="241"/>
+      <c r="A108" s="186"/>
+      <c r="B108" s="242"/>
       <c r="C108" s="23" t="s">
         <v>194</v>
       </c>
@@ -24036,8 +24043,8 @@
       <c r="BE108" s="25"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A109" s="185"/>
-      <c r="B109" s="241"/>
+      <c r="A109" s="186"/>
+      <c r="B109" s="242"/>
       <c r="C109" s="23" t="s">
         <v>195</v>
       </c>
@@ -24101,8 +24108,8 @@
       <c r="BE109" s="25"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A110" s="185"/>
-      <c r="B110" s="241" t="s">
+      <c r="A110" s="186"/>
+      <c r="B110" s="242" t="s">
         <v>543</v>
       </c>
       <c r="C110" s="23" t="s">
@@ -24168,8 +24175,8 @@
       <c r="BE110" s="25"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A111" s="185"/>
-      <c r="B111" s="241"/>
+      <c r="A111" s="186"/>
+      <c r="B111" s="242"/>
       <c r="C111" s="23" t="s">
         <v>548</v>
       </c>
@@ -24233,7 +24240,7 @@
       <c r="BE111" s="25"/>
     </row>
     <row r="112" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A112" s="185"/>
+      <c r="A112" s="186"/>
       <c r="B112" s="141" t="s">
         <v>544</v>
       </c>
@@ -24300,8 +24307,8 @@
       <c r="BE112" s="25"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A113" s="185"/>
-      <c r="B113" s="182" t="s">
+      <c r="A113" s="186"/>
+      <c r="B113" s="183" t="s">
         <v>545</v>
       </c>
       <c r="C113" s="23" t="s">
@@ -24367,8 +24374,8 @@
       <c r="BE113" s="25"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A114" s="185"/>
-      <c r="B114" s="183"/>
+      <c r="A114" s="186"/>
+      <c r="B114" s="184"/>
       <c r="C114" s="23" t="s">
         <v>571</v>
       </c>
@@ -24432,7 +24439,7 @@
       <c r="BE114" s="25"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A115" s="186"/>
+      <c r="A115" s="187"/>
       <c r="B115" s="141" t="s">
         <v>546</v>
       </c>
@@ -24499,10 +24506,10 @@
       <c r="BE115" s="25"/>
     </row>
     <row r="117" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B117" s="178" t="s">
+      <c r="B117" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="C117" s="178"/>
+      <c r="C117" s="179"/>
       <c r="D117" s="68" t="s">
         <v>388</v>
       </c>
@@ -24530,19 +24537,19 @@
       <c r="AB117" s="68"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B118" s="165" t="s">
+      <c r="B118" s="166" t="s">
         <v>346</v>
       </c>
-      <c r="C118" s="165"/>
+      <c r="C118" s="166"/>
       <c r="D118" s="66"/>
       <c r="E118" s="66"/>
       <c r="F118" s="66"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B119" s="166" t="s">
+      <c r="B119" s="167" t="s">
         <v>347</v>
       </c>
-      <c r="C119" s="166"/>
+      <c r="C119" s="167"/>
       <c r="D119" s="67"/>
       <c r="E119" s="67"/>
       <c r="F119" s="67"/>
@@ -24639,72 +24646,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="247"/>
-      <c r="C1" s="220" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="221" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
       <c r="P1" s="97"/>
-      <c r="Q1" s="220" t="s">
+      <c r="Q1" s="221" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="221"/>
       <c r="T1" s="97"/>
-      <c r="U1" s="220" t="s">
+      <c r="U1" s="221" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
+      <c r="V1" s="221"/>
+      <c r="W1" s="221"/>
+      <c r="X1" s="221"/>
+      <c r="Y1" s="221"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="221"/>
       <c r="AB1" s="97"/>
-      <c r="AC1" s="235" t="s">
+      <c r="AC1" s="236" t="s">
         <v>238</v>
       </c>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="236"/>
-      <c r="AJ1" s="236"/>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="238"/>
       <c r="AN1" s="97"/>
-      <c r="AO1" s="232" t="s">
+      <c r="AO1" s="233" t="s">
         <v>239</v>
       </c>
-      <c r="AP1" s="233"/>
-      <c r="AQ1" s="233"/>
-      <c r="AR1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="235"/>
       <c r="AS1" s="97"/>
-      <c r="AT1" s="220" t="s">
+      <c r="AT1" s="221" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" s="220"/>
-      <c r="AV1" s="220"/>
+      <c r="AU1" s="221"/>
+      <c r="AV1" s="221"/>
       <c r="AW1" s="97"/>
-      <c r="AX1" s="229" t="s">
+      <c r="AX1" s="230" t="s">
         <v>246</v>
       </c>
-      <c r="AY1" s="230"/>
-      <c r="AZ1" s="230"/>
-      <c r="BA1" s="231"/>
+      <c r="AY1" s="231"/>
+      <c r="AZ1" s="231"/>
+      <c r="BA1" s="232"/>
       <c r="BB1" s="97"/>
       <c r="BC1" s="98" t="s">
         <v>234</v>
@@ -24714,31 +24721,31 @@
       </c>
     </row>
     <row r="2" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="247"/>
-      <c r="C2" s="249">
+      <c r="B2" s="248"/>
+      <c r="C2" s="250">
         <v>1</v>
       </c>
-      <c r="D2" s="250"/>
+      <c r="D2" s="251"/>
       <c r="E2" s="41">
         <v>2</v>
       </c>
       <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="223">
+      <c r="G2" s="224">
         <v>4</v>
       </c>
-      <c r="H2" s="224"/>
+      <c r="H2" s="225"/>
       <c r="I2" s="41">
         <v>5</v>
       </c>
       <c r="J2" s="42">
         <v>6</v>
       </c>
-      <c r="K2" s="214">
+      <c r="K2" s="215">
         <v>7</v>
       </c>
-      <c r="L2" s="215"/>
+      <c r="L2" s="216"/>
       <c r="M2" s="24">
         <v>8</v>
       </c>
@@ -24749,10 +24756,10 @@
         <v>10</v>
       </c>
       <c r="P2" s="36"/>
-      <c r="Q2" s="251">
+      <c r="Q2" s="252">
         <v>1</v>
       </c>
-      <c r="R2" s="222"/>
+      <c r="R2" s="223"/>
       <c r="S2" s="49">
         <v>2</v>
       </c>
@@ -24766,11 +24773,11 @@
       <c r="W2" s="24">
         <v>3</v>
       </c>
-      <c r="X2" s="238">
+      <c r="X2" s="239">
         <v>4</v>
       </c>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="240"/>
+      <c r="Y2" s="240"/>
+      <c r="Z2" s="241"/>
       <c r="AA2" s="50">
         <v>5</v>
       </c>
@@ -24850,7 +24857,7 @@
       </c>
     </row>
     <row r="3" spans="1:56" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="B3" s="248"/>
+      <c r="B3" s="249"/>
       <c r="C3" s="44" t="s">
         <v>391</v>
       </c>
@@ -24980,11 +24987,11 @@
         <v>630</v>
       </c>
       <c r="AW3" s="45"/>
-      <c r="AX3" s="226" t="s">
+      <c r="AX3" s="227" t="s">
         <v>420</v>
       </c>
-      <c r="AY3" s="227"/>
-      <c r="AZ3" s="228"/>
+      <c r="AY3" s="228"/>
+      <c r="AZ3" s="229"/>
       <c r="BA3" s="46" t="s">
         <v>421</v>
       </c>
@@ -24994,7 +25001,7 @@
       </c>
     </row>
     <row r="4" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="246" t="s">
         <v>527</v>
       </c>
       <c r="B4" s="119" t="s">
@@ -25055,7 +25062,7 @@
       <c r="BC4" s="11"/>
     </row>
     <row r="5" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="245"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="119" t="s">
         <v>512</v>
       </c>
@@ -25114,7 +25121,7 @@
       <c r="BC5" s="11"/>
     </row>
     <row r="6" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="245"/>
+      <c r="A6" s="246"/>
       <c r="B6" s="118" t="s">
         <v>513</v>
       </c>
@@ -25180,7 +25187,7 @@
       <c r="BC6" s="11"/>
     </row>
     <row r="7" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="245"/>
+      <c r="A7" s="246"/>
       <c r="B7" s="118" t="s">
         <v>514</v>
       </c>
@@ -25245,7 +25252,7 @@
       <c r="BC7" s="11"/>
     </row>
     <row r="8" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="245"/>
+      <c r="A8" s="246"/>
       <c r="B8" s="118" t="s">
         <v>515</v>
       </c>
@@ -25306,7 +25313,7 @@
       <c r="BC8" s="11"/>
     </row>
     <row r="9" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="245"/>
+      <c r="A9" s="246"/>
       <c r="B9" s="118" t="s">
         <v>522</v>
       </c>
@@ -25375,7 +25382,7 @@
       <c r="BC9" s="11"/>
     </row>
     <row r="10" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="245"/>
+      <c r="A10" s="246"/>
       <c r="B10" s="118" t="s">
         <v>523</v>
       </c>
@@ -25442,7 +25449,7 @@
       <c r="BC10" s="11"/>
     </row>
     <row r="11" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="245"/>
+      <c r="A11" s="246"/>
       <c r="B11" s="118" t="s">
         <v>524</v>
       </c>
@@ -25519,7 +25526,7 @@
       <c r="BC11" s="11"/>
     </row>
     <row r="12" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="245"/>
+      <c r="A12" s="246"/>
       <c r="B12" s="118" t="s">
         <v>516</v>
       </c>
@@ -25580,7 +25587,7 @@
       <c r="BC12" s="25"/>
     </row>
     <row r="13" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="245"/>
+      <c r="A13" s="246"/>
       <c r="B13" s="119" t="s">
         <v>517</v>
       </c>
@@ -25639,7 +25646,7 @@
       <c r="BC13" s="25"/>
     </row>
     <row r="14" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="245"/>
+      <c r="A14" s="246"/>
       <c r="B14" s="119" t="s">
         <v>519</v>
       </c>
@@ -25698,7 +25705,7 @@
       <c r="BC14" s="25"/>
     </row>
     <row r="15" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="245"/>
+      <c r="A15" s="246"/>
       <c r="B15" s="119" t="s">
         <v>518</v>
       </c>
@@ -25757,7 +25764,7 @@
       <c r="BC15" s="25"/>
     </row>
     <row r="16" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="245"/>
+      <c r="A16" s="246"/>
       <c r="B16" s="119" t="s">
         <v>520</v>
       </c>
@@ -25816,7 +25823,7 @@
       <c r="BC16" s="25"/>
     </row>
     <row r="17" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="245"/>
+      <c r="A17" s="246"/>
       <c r="B17" s="119" t="s">
         <v>521</v>
       </c>
@@ -25876,13 +25883,13 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
@@ -25905,26 +25912,31 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="165" t="s">
+      <c r="C20" s="166" t="s">
         <v>525</v>
       </c>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="246" t="s">
+      <c r="C21" s="247" t="s">
         <v>526</v>
       </c>
-      <c r="D21" s="246"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="246"/>
-      <c r="G21" s="246"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="B1:B3"/>
@@ -25938,11 +25950,6 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="AC1:AM1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/distribution/reference_documents/working_material/AVCDL mappings.xlsx
+++ b/distribution/reference_documents/working_material/AVCDL mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles.wilson/Documents/projects/AVCDL/distribution/reference_documents/working_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095D6391-A6E1-7349-9A80-C1EF262A4DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3549078-3195-C44B-B559-3F88748FC16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24560" yWindow="10420" windowWidth="32160" windowHeight="23180" activeTab="3" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
+    <workbookView xWindow="16300" yWindow="9160" windowWidth="32160" windowHeight="23180" activeTab="6" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO 21434 work products" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="636">
   <si>
     <t xml:space="preserve">Organization Culture </t>
   </si>
@@ -1953,7 +1953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2042,6 +2042,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2283,7 +2289,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2730,6 +2736,9 @@
     <xf numFmtId="1" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3030,9 +3039,6 @@
     <xf numFmtId="1" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3068,6 +3074,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3577,11 +3586,11 @@
   <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="20320" ySplit="760" topLeftCell="H12" activePane="bottomLeft"/>
+      <pane xSplit="20320" ySplit="760" topLeftCell="H1" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1:D1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:X1"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
-      <selection pane="bottomRight" activeCell="P61" sqref="P61"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13:D15"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3599,36 +3608,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="162"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="163" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162" t="s">
+      <c r="G1" s="163"/>
+      <c r="H1" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="85"/>
@@ -3663,13 +3672,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="164" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="166" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="83"/>
@@ -3709,9 +3718,9 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="165"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="166"/>
       <c r="E4" s="83"/>
       <c r="F4" s="69" t="s">
         <v>3</v>
@@ -3728,9 +3737,9 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="165"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="166"/>
       <c r="E5" s="83"/>
       <c r="F5" s="69" t="s">
         <v>5</v>
@@ -3748,9 +3757,9 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="165"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="166"/>
       <c r="E6" s="83"/>
       <c r="F6" s="69" t="s">
         <v>6</v>
@@ -3764,9 +3773,9 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="165"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="83"/>
       <c r="F7" s="69" t="s">
         <v>7</v>
@@ -3780,11 +3789,11 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="161" t="s">
+      <c r="B8" s="164"/>
+      <c r="C8" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="165" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="83"/>
@@ -3857,9 +3866,9 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="164"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="83"/>
       <c r="F9" s="69" t="s">
         <v>15</v>
@@ -3873,9 +3882,9 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="86"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="164"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="87" t="s">
         <v>198</v>
       </c>
@@ -3912,9 +3921,9 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="164"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="88" t="s">
         <v>344</v>
       </c>
@@ -3933,14 +3942,14 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="85"/>
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="85"/>
@@ -3964,13 +3973,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="164" t="s">
         <v>606</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="162" t="s">
         <v>537</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="166" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="83"/>
@@ -3989,9 +3998,9 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="165"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="83"/>
       <c r="F14" s="92" t="s">
         <v>262</v>
@@ -4005,9 +4014,9 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="165"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="83"/>
       <c r="F15" s="69" t="s">
         <v>23</v>
@@ -4057,14 +4066,14 @@
       <c r="AA16" s="128"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="167"/>
-      <c r="B17" s="169" t="s">
+      <c r="A17" s="168"/>
+      <c r="B17" s="170" t="s">
         <v>613</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="165" t="s">
+      <c r="D17" s="166" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="80" t="s">
@@ -4081,10 +4090,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="165"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="80" t="s">
         <v>244</v>
       </c>
@@ -4099,10 +4108,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="165"/>
+      <c r="A19" s="168"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="80" t="s">
         <v>244</v>
       </c>
@@ -4117,8 +4126,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="169"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="110" t="s">
         <v>32</v>
       </c>
@@ -4139,8 +4148,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="167"/>
-      <c r="B21" s="169"/>
+      <c r="A21" s="168"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="110" t="s">
         <v>33</v>
       </c>
@@ -4164,12 +4173,12 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="167"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="161" t="s">
+      <c r="A22" s="168"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="166" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="88" t="s">
@@ -4186,10 +4195,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="167"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="165"/>
+      <c r="A23" s="168"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="166"/>
       <c r="E23" s="88" t="s">
         <v>198</v>
       </c>
@@ -4205,14 +4214,14 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="85"/>
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
       <c r="H24" s="85"/>
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
@@ -4235,8 +4244,8 @@
       <c r="AA24" s="128"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168" t="s">
+      <c r="A25" s="168"/>
+      <c r="B25" s="169" t="s">
         <v>604</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -4262,12 +4271,12 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="161" t="s">
+      <c r="A26" s="168"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="165" t="s">
+      <c r="D26" s="166" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="80" t="s">
@@ -4287,10 +4296,10 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="167"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="165"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="166"/>
       <c r="E27" s="80" t="s">
         <v>198</v>
       </c>
@@ -4305,10 +4314,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="165"/>
+      <c r="A28" s="168"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="166"/>
       <c r="E28" s="80" t="s">
         <v>198</v>
       </c>
@@ -4323,10 +4332,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="167"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="165"/>
+      <c r="A29" s="168"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="166"/>
       <c r="E29" s="80" t="s">
         <v>198</v>
       </c>
@@ -4341,12 +4350,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="167"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="161" t="s">
+      <c r="A30" s="168"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="165" t="s">
+      <c r="D30" s="166" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="80" t="s">
@@ -4369,10 +4378,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="167"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="165"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="166"/>
       <c r="E31" s="80" t="s">
         <v>198</v>
       </c>
@@ -4387,14 +4396,14 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="167"/>
-      <c r="B32" s="163" t="s">
+      <c r="A32" s="168"/>
+      <c r="B32" s="164" t="s">
         <v>622</v>
       </c>
-      <c r="C32" s="161" t="s">
+      <c r="C32" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="164" t="s">
+      <c r="D32" s="165" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="87" t="s">
@@ -4414,10 +4423,10 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="167"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="164"/>
+      <c r="A33" s="168"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="88" t="s">
         <v>197</v>
       </c>
@@ -4432,10 +4441,10 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="167"/>
-      <c r="B34" s="163"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="164"/>
+      <c r="A34" s="168"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="88" t="s">
         <v>244</v>
       </c>
@@ -4453,10 +4462,10 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="167"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="164"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="88" t="s">
         <v>200</v>
       </c>
@@ -4471,12 +4480,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="167"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="161" t="s">
+      <c r="A36" s="168"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="165" t="s">
+      <c r="D36" s="166" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="88" t="s">
@@ -4499,10 +4508,10 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="167"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="165"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="80" t="s">
         <v>199</v>
       </c>
@@ -4517,10 +4526,10 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="167"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="165"/>
+      <c r="A38" s="168"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="166"/>
       <c r="E38" s="80" t="s">
         <v>199</v>
       </c>
@@ -4544,8 +4553,8 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="167"/>
-      <c r="B39" s="163"/>
+      <c r="A39" s="168"/>
+      <c r="B39" s="164"/>
       <c r="C39" s="110" t="s">
         <v>97</v>
       </c>
@@ -4570,14 +4579,14 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="85"/>
-      <c r="B40" s="160" t="s">
+      <c r="B40" s="161" t="s">
         <v>508</v>
       </c>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
       <c r="H40" s="85"/>
       <c r="I40" s="85"/>
       <c r="J40" s="85"/>
@@ -4601,13 +4610,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="109"/>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="164" t="s">
         <v>620</v>
       </c>
-      <c r="C41" s="161" t="s">
+      <c r="C41" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="165" t="s">
+      <c r="D41" s="166" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="88" t="s">
@@ -4627,10 +4636,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="167"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="165"/>
+      <c r="A42" s="168"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="80" t="s">
         <v>247</v>
       </c>
@@ -4645,12 +4654,12 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="167"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="161" t="s">
+      <c r="A43" s="168"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="165" t="s">
+      <c r="D43" s="166" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="88" t="s">
@@ -4667,10 +4676,10 @@
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="167"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="165"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="166"/>
       <c r="E44" s="80" t="s">
         <v>247</v>
       </c>
@@ -4685,8 +4694,8 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="167"/>
-      <c r="B45" s="163"/>
+      <c r="A45" s="168"/>
+      <c r="B45" s="164"/>
       <c r="C45" s="110" t="s">
         <v>111</v>
       </c>
@@ -4707,8 +4716,8 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="167"/>
-      <c r="B46" s="163"/>
+      <c r="A46" s="168"/>
+      <c r="B46" s="164"/>
       <c r="C46" s="110" t="s">
         <v>566</v>
       </c>
@@ -4729,8 +4738,8 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="167"/>
-      <c r="B47" s="163"/>
+      <c r="A47" s="168"/>
+      <c r="B47" s="164"/>
       <c r="C47" s="110" t="s">
         <v>567</v>
       </c>
@@ -4752,14 +4761,14 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="85"/>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="161" t="s">
         <v>549</v>
       </c>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
+      <c r="C48" s="161"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
       <c r="H48" s="85"/>
       <c r="I48" s="85"/>
       <c r="J48" s="85"/>
@@ -4783,13 +4792,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="100"/>
-      <c r="B49" s="163" t="s">
+      <c r="B49" s="164" t="s">
         <v>605</v>
       </c>
-      <c r="C49" s="161" t="s">
+      <c r="C49" s="162" t="s">
         <v>530</v>
       </c>
-      <c r="D49" s="165" t="s">
+      <c r="D49" s="166" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="88" t="s">
@@ -4807,9 +4816,9 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="100"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="165"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="166"/>
       <c r="E50" s="88" t="s">
         <v>198</v>
       </c>
@@ -4825,7 +4834,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="100"/>
-      <c r="B51" s="163"/>
+      <c r="B51" s="164"/>
       <c r="C51" s="110" t="s">
         <v>531</v>
       </c>
@@ -4847,7 +4856,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="100"/>
-      <c r="B52" s="163"/>
+      <c r="B52" s="164"/>
       <c r="C52" s="110" t="s">
         <v>532</v>
       </c>
@@ -4875,7 +4884,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="100"/>
-      <c r="B53" s="163"/>
+      <c r="B53" s="164"/>
       <c r="C53" s="110" t="s">
         <v>533</v>
       </c>
@@ -4900,7 +4909,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="100"/>
-      <c r="B54" s="163"/>
+      <c r="B54" s="164"/>
       <c r="C54" s="110" t="s">
         <v>534</v>
       </c>
@@ -4922,7 +4931,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="100"/>
-      <c r="B55" s="163"/>
+      <c r="B55" s="164"/>
       <c r="C55" s="110" t="s">
         <v>535</v>
       </c>
@@ -4947,7 +4956,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="100"/>
-      <c r="B56" s="163"/>
+      <c r="B56" s="164"/>
       <c r="C56" s="110" t="s">
         <v>536</v>
       </c>
@@ -5039,7 +5048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC060107-2EBE-164D-8193-C4628FFE16DF}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -5059,38 +5068,38 @@
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="175" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176" t="s">
+      <c r="C1" s="176"/>
+      <c r="D1" s="177" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="177"/>
-      <c r="F1" s="173" t="s">
+      <c r="E1" s="178"/>
+      <c r="F1" s="174" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="171" t="s">
+      <c r="G1" s="174"/>
+      <c r="H1" s="172" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="172"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="164" t="s">
         <v>612</v>
       </c>
       <c r="B3" s="73" t="s">
@@ -5115,7 +5124,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="163"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="73" t="s">
         <v>276</v>
       </c>
@@ -5138,7 +5147,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="163"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="73" t="s">
         <v>278</v>
       </c>
@@ -5165,17 +5174,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="163"/>
-      <c r="B6" s="161" t="s">
+      <c r="A6" s="164"/>
+      <c r="B6" s="162" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="166" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="E6" s="166" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="75" t="s">
@@ -5192,11 +5201,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="163"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
       <c r="F7" s="75" t="s">
         <v>328</v>
       </c>
@@ -5211,7 +5220,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="163"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="73" t="s">
         <v>267</v>
       </c>
@@ -5238,17 +5247,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="163"/>
-      <c r="B9" s="161" t="s">
+      <c r="A9" s="164"/>
+      <c r="B9" s="162" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="166" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="166" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="75" t="s">
@@ -5265,11 +5274,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="163"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
+      <c r="A10" s="164"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="75" t="s">
         <v>325</v>
       </c>
@@ -5284,17 +5293,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="163"/>
-      <c r="B11" s="180" t="s">
+      <c r="A11" s="164"/>
+      <c r="B11" s="181" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="179" t="s">
+      <c r="D11" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="179" t="s">
+      <c r="E11" s="180" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="75" t="s">
@@ -5311,11 +5320,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="163"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
       <c r="F12" s="75" t="s">
         <v>374</v>
       </c>
@@ -5330,7 +5339,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="164" t="s">
         <v>611</v>
       </c>
       <c r="B13" s="73" t="s">
@@ -5359,7 +5368,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="163"/>
+      <c r="A14" s="164"/>
       <c r="B14" s="73" t="s">
         <v>282</v>
       </c>
@@ -5386,7 +5395,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="163"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="73" t="s">
         <v>284</v>
       </c>
@@ -5413,7 +5422,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="163"/>
+      <c r="A16" s="164"/>
       <c r="B16" s="73" t="s">
         <v>286</v>
       </c>
@@ -5440,7 +5449,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="163"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="76" t="s">
         <v>288</v>
       </c>
@@ -5467,17 +5476,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="163"/>
-      <c r="B18" s="178" t="s">
+      <c r="A18" s="164"/>
+      <c r="B18" s="179" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="170" t="s">
+      <c r="D18" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="171" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
@@ -5494,11 +5503,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="163"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
       <c r="F19" s="75" t="s">
         <v>365</v>
       </c>
@@ -5513,11 +5522,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="163"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
       <c r="F20" s="75" t="s">
         <v>367</v>
       </c>
@@ -5532,7 +5541,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="163"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="73" t="s">
         <v>292</v>
       </c>
@@ -5559,17 +5568,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="163"/>
-      <c r="B22" s="161" t="s">
+      <c r="A22" s="164"/>
+      <c r="B22" s="162" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="165" t="s">
+      <c r="C22" s="166" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="165" t="s">
+      <c r="E22" s="166" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="75" t="s">
@@ -5586,11 +5595,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="163"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
       <c r="F23" s="75" t="s">
         <v>357</v>
       </c>
@@ -5605,7 +5614,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="163"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="73" t="s">
         <v>296</v>
       </c>
@@ -5632,20 +5641,20 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="163" t="s">
+      <c r="A26" s="164" t="s">
         <v>618</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -5674,17 +5683,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="163"/>
-      <c r="B27" s="161" t="s">
+      <c r="A27" s="164"/>
+      <c r="B27" s="162" t="s">
         <v>528</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="166" t="s">
         <v>299</v>
       </c>
-      <c r="D27" s="181" t="s">
+      <c r="D27" s="182" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="165" t="s">
+      <c r="E27" s="166" t="s">
         <v>259</v>
       </c>
       <c r="F27" s="75" t="s">
@@ -5701,11 +5710,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="163"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="165"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="166"/>
       <c r="F28" s="75" t="s">
         <v>313</v>
       </c>
@@ -5720,17 +5729,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="163"/>
-      <c r="B29" s="161" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="162" t="s">
         <v>529</v>
       </c>
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="166" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="165" t="s">
+      <c r="D29" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="165" t="s">
+      <c r="E29" s="166" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="75" t="s">
@@ -5747,11 +5756,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="163"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
       <c r="F30" s="75" t="s">
         <v>311</v>
       </c>
@@ -5766,26 +5775,26 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="169" t="s">
+      <c r="A32" s="170" t="s">
         <v>613</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="165" t="s">
+      <c r="C32" s="166" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="72" t="s">
@@ -5796,9 +5805,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="169"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="165"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="166"/>
       <c r="D33" s="72" t="s">
         <v>43</v>
       </c>
@@ -5807,9 +5816,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="169"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="165"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="166"/>
       <c r="D34" s="72" t="s">
         <v>44</v>
       </c>
@@ -5822,7 +5831,7 @@
       <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="169"/>
+      <c r="A35" s="170"/>
       <c r="B35" s="75" t="s">
         <v>32</v>
       </c>
@@ -5837,7 +5846,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="169"/>
+      <c r="A36" s="170"/>
       <c r="B36" s="75" t="s">
         <v>33</v>
       </c>
@@ -5852,11 +5861,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="169"/>
-      <c r="B37" s="161" t="s">
+      <c r="A37" s="170"/>
+      <c r="B37" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="165" t="s">
+      <c r="C37" s="166" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="107" t="s">
@@ -5867,9 +5876,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="169"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="165"/>
+      <c r="A38" s="170"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="166"/>
       <c r="D38" s="79" t="s">
         <v>538</v>
       </c>
@@ -5878,20 +5887,20 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="168" t="s">
+      <c r="A40" s="169" t="s">
         <v>604</v>
       </c>
       <c r="B40" s="75" t="s">
@@ -5908,11 +5917,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="168"/>
-      <c r="B41" s="161" t="s">
+      <c r="A41" s="169"/>
+      <c r="B41" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="165" t="s">
+      <c r="C41" s="166" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -5923,9 +5932,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="168"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="165"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="166"/>
       <c r="D42" s="72" t="s">
         <v>57</v>
       </c>
@@ -5934,9 +5943,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="168"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="165"/>
+      <c r="A43" s="169"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="166"/>
       <c r="D43" s="72" t="s">
         <v>58</v>
       </c>
@@ -5945,9 +5954,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="168"/>
-      <c r="B44" s="161"/>
-      <c r="C44" s="165"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="72" t="s">
         <v>59</v>
       </c>
@@ -5956,11 +5965,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="168"/>
-      <c r="B45" s="161" t="s">
+      <c r="A45" s="169"/>
+      <c r="B45" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="165" t="s">
+      <c r="C45" s="166" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="72" t="s">
@@ -5971,9 +5980,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="168"/>
-      <c r="B46" s="161"/>
-      <c r="C46" s="165"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="166"/>
       <c r="D46" s="72" t="s">
         <v>61</v>
       </c>
@@ -5982,13 +5991,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="163" t="s">
+      <c r="A47" s="164" t="s">
         <v>622</v>
       </c>
-      <c r="B47" s="161" t="s">
+      <c r="B47" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="165" t="s">
+      <c r="C47" s="166" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="72" t="s">
@@ -5999,9 +6008,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="163"/>
-      <c r="B48" s="161"/>
-      <c r="C48" s="165"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="166"/>
       <c r="D48" s="72" t="s">
         <v>76</v>
       </c>
@@ -6010,9 +6019,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="163"/>
-      <c r="B49" s="161"/>
-      <c r="C49" s="165"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="166"/>
       <c r="D49" s="72" t="s">
         <v>77</v>
       </c>
@@ -6025,9 +6034,9 @@
       <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="163"/>
-      <c r="B50" s="161"/>
-      <c r="C50" s="165"/>
+      <c r="A50" s="164"/>
+      <c r="B50" s="162"/>
+      <c r="C50" s="166"/>
       <c r="D50" s="72" t="s">
         <v>78</v>
       </c>
@@ -6036,11 +6045,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="163"/>
-      <c r="B51" s="161" t="s">
+      <c r="A51" s="164"/>
+      <c r="B51" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="165" t="s">
+      <c r="C51" s="166" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="72" t="s">
@@ -6051,9 +6060,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="163"/>
-      <c r="B52" s="161"/>
-      <c r="C52" s="165"/>
+      <c r="A52" s="164"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="166"/>
       <c r="D52" s="72" t="s">
         <v>80</v>
       </c>
@@ -6062,7 +6071,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="163"/>
+      <c r="A53" s="164"/>
       <c r="B53" s="110" t="s">
         <v>94</v>
       </c>
@@ -6077,7 +6086,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="163"/>
+      <c r="A54" s="164"/>
       <c r="B54" s="73" t="s">
         <v>97</v>
       </c>
@@ -6092,26 +6101,26 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="160" t="s">
+      <c r="A55" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="160"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="160"/>
-      <c r="F55" s="160"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="160"/>
+      <c r="B55" s="161"/>
+      <c r="C55" s="161"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="161"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="164" t="s">
         <v>619</v>
       </c>
-      <c r="B56" s="161" t="s">
+      <c r="B56" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="165" t="s">
+      <c r="C56" s="166" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -6122,9 +6131,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="163"/>
-      <c r="B57" s="161"/>
-      <c r="C57" s="165"/>
+      <c r="A57" s="164"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="166"/>
       <c r="D57" s="92" t="s">
         <v>560</v>
       </c>
@@ -6137,11 +6146,11 @@
       <c r="I57" s="107"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="163"/>
-      <c r="B58" s="161" t="s">
+      <c r="A58" s="164"/>
+      <c r="B58" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="165" t="s">
+      <c r="C58" s="166" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -6152,9 +6161,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="163"/>
-      <c r="B59" s="161"/>
-      <c r="C59" s="165"/>
+      <c r="A59" s="164"/>
+      <c r="B59" s="162"/>
+      <c r="C59" s="166"/>
       <c r="D59" s="92" t="s">
         <v>265</v>
       </c>
@@ -6167,7 +6176,7 @@
       <c r="I59" s="74"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="163"/>
+      <c r="A60" s="164"/>
       <c r="B60" s="73" t="s">
         <v>111</v>
       </c>
@@ -6182,7 +6191,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="163"/>
+      <c r="A61" s="164"/>
       <c r="B61" s="110" t="s">
         <v>566</v>
       </c>
@@ -6201,7 +6210,7 @@
       <c r="I61" s="107"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="163"/>
+      <c r="A62" s="164"/>
       <c r="B62" s="110" t="s">
         <v>567</v>
       </c>
@@ -6216,26 +6225,26 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="160" t="s">
+      <c r="A63" s="161" t="s">
         <v>549</v>
       </c>
-      <c r="B63" s="160"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="160"/>
-      <c r="E63" s="160"/>
-      <c r="F63" s="160"/>
-      <c r="G63" s="160"/>
-      <c r="H63" s="160"/>
-      <c r="I63" s="160"/>
+      <c r="B63" s="161"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="161"/>
+      <c r="G63" s="161"/>
+      <c r="H63" s="161"/>
+      <c r="I63" s="161"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="163" t="s">
+      <c r="A64" s="164" t="s">
         <v>605</v>
       </c>
-      <c r="B64" s="161" t="s">
+      <c r="B64" s="162" t="s">
         <v>530</v>
       </c>
-      <c r="C64" s="165" t="s">
+      <c r="C64" s="166" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="101" t="s">
@@ -6250,9 +6259,9 @@
       <c r="I64" s="101"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="163"/>
-      <c r="B65" s="161"/>
-      <c r="C65" s="165"/>
+      <c r="A65" s="164"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="166"/>
       <c r="D65" s="101" t="s">
         <v>539</v>
       </c>
@@ -6265,7 +6274,7 @@
       <c r="I65" s="101"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="163"/>
+      <c r="A66" s="164"/>
       <c r="B66" s="102" t="s">
         <v>531</v>
       </c>
@@ -6284,7 +6293,7 @@
       <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="163"/>
+      <c r="A67" s="164"/>
       <c r="B67" s="102" t="s">
         <v>532</v>
       </c>
@@ -6303,7 +6312,7 @@
       <c r="I67" s="101"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="163"/>
+      <c r="A68" s="164"/>
       <c r="B68" s="102" t="s">
         <v>533</v>
       </c>
@@ -6322,7 +6331,7 @@
       <c r="I68" s="101"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="163"/>
+      <c r="A69" s="164"/>
       <c r="B69" s="102" t="s">
         <v>534</v>
       </c>
@@ -6341,7 +6350,7 @@
       <c r="I69" s="101"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="163"/>
+      <c r="A70" s="164"/>
       <c r="B70" s="102" t="s">
         <v>535</v>
       </c>
@@ -6360,7 +6369,7 @@
       <c r="I70" s="101"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="163"/>
+      <c r="A71" s="164"/>
       <c r="B71" s="102" t="s">
         <v>536</v>
       </c>
@@ -6475,7 +6484,7 @@
   </sheetPr>
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
@@ -6491,22 +6500,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E1" s="198" t="s">
+      <c r="E1" s="199" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="55" x14ac:dyDescent="0.2">
@@ -6558,10 +6567,10 @@
       <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="183" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="202" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -6589,8 +6598,8 @@
       <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="183"/>
-      <c r="B4" s="202"/>
+      <c r="A4" s="184"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="31" t="s">
         <v>155</v>
       </c>
@@ -6616,8 +6625,8 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="183"/>
-      <c r="B5" s="202"/>
+      <c r="A5" s="184"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="31" t="s">
         <v>156</v>
       </c>
@@ -6643,8 +6652,8 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
-      <c r="B6" s="202"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="30" t="s">
         <v>157</v>
       </c>
@@ -6668,8 +6677,8 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="202"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="30" t="s">
         <v>158</v>
       </c>
@@ -6693,8 +6702,8 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="183"/>
-      <c r="B8" s="202"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="31" t="s">
         <v>159</v>
       </c>
@@ -6720,8 +6729,8 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
-      <c r="B9" s="202"/>
+      <c r="A9" s="184"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="31" t="s">
         <v>161</v>
       </c>
@@ -6747,8 +6756,8 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
-      <c r="B10" s="202"/>
+      <c r="A10" s="184"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="31" t="s">
         <v>162</v>
       </c>
@@ -6774,8 +6783,8 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="183"/>
-      <c r="B11" s="202"/>
+      <c r="A11" s="184"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="30" t="s">
         <v>163</v>
       </c>
@@ -6799,8 +6808,8 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="183"/>
-      <c r="B12" s="188" t="s">
+      <c r="A12" s="184"/>
+      <c r="B12" s="189" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -6828,8 +6837,8 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="31" t="s">
         <v>162</v>
       </c>
@@ -6855,8 +6864,8 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
-      <c r="B14" s="204" t="s">
+      <c r="A14" s="184"/>
+      <c r="B14" s="205" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -6884,8 +6893,8 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="183"/>
-      <c r="B15" s="204"/>
+      <c r="A15" s="184"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="22" t="s">
         <v>160</v>
       </c>
@@ -6909,7 +6918,7 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="183"/>
+      <c r="A16" s="184"/>
       <c r="B16" s="124" t="s">
         <v>6</v>
       </c>
@@ -6936,7 +6945,7 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="22" t="s">
         <v>7</v>
       </c>
@@ -6963,10 +6972,10 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="183" t="s">
         <v>611</v>
       </c>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="202" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -6992,8 +7001,8 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="183"/>
-      <c r="B19" s="202"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="30" t="s">
         <v>167</v>
       </c>
@@ -7017,8 +7026,8 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="183"/>
-      <c r="B20" s="202"/>
+      <c r="A20" s="184"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="30" t="s">
         <v>168</v>
       </c>
@@ -7042,8 +7051,8 @@
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
-      <c r="B21" s="202"/>
+      <c r="A21" s="184"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="30" t="s">
         <v>169</v>
       </c>
@@ -7067,8 +7076,8 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
-      <c r="B22" s="202"/>
+      <c r="A22" s="184"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="30" t="s">
         <v>170</v>
       </c>
@@ -7092,8 +7101,8 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="183"/>
-      <c r="B23" s="202"/>
+      <c r="A23" s="184"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="30" t="s">
         <v>171</v>
       </c>
@@ -7117,8 +7126,8 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="183"/>
-      <c r="B24" s="202"/>
+      <c r="A24" s="184"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="30" t="s">
         <v>172</v>
       </c>
@@ -7142,8 +7151,8 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
-      <c r="B25" s="202"/>
+      <c r="A25" s="184"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="31" t="s">
         <v>173</v>
       </c>
@@ -7169,8 +7178,8 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
-      <c r="B26" s="202"/>
+      <c r="A26" s="184"/>
+      <c r="B26" s="203"/>
       <c r="C26" s="31" t="s">
         <v>174</v>
       </c>
@@ -7196,8 +7205,8 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="183"/>
-      <c r="B27" s="202"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="203"/>
       <c r="C27" s="30" t="s">
         <v>175</v>
       </c>
@@ -7221,8 +7230,8 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="183"/>
-      <c r="B28" s="202"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="203"/>
       <c r="C28" s="30" t="s">
         <v>176</v>
       </c>
@@ -7246,8 +7255,8 @@
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
-      <c r="B29" s="202"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="30" t="s">
         <v>177</v>
       </c>
@@ -7271,8 +7280,8 @@
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
-      <c r="B30" s="202"/>
+      <c r="A30" s="184"/>
+      <c r="B30" s="203"/>
       <c r="C30" s="30" t="s">
         <v>178</v>
       </c>
@@ -7296,8 +7305,8 @@
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="183"/>
-      <c r="B31" s="202"/>
+      <c r="A31" s="184"/>
+      <c r="B31" s="203"/>
       <c r="C31" s="30" t="s">
         <v>179</v>
       </c>
@@ -7321,8 +7330,8 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="183"/>
-      <c r="B32" s="202"/>
+      <c r="A32" s="184"/>
+      <c r="B32" s="203"/>
       <c r="C32" s="30" t="s">
         <v>180</v>
       </c>
@@ -7346,8 +7355,8 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
-      <c r="B33" s="202"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="203"/>
       <c r="C33" s="30" t="s">
         <v>181</v>
       </c>
@@ -7371,8 +7380,8 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
-      <c r="B34" s="202"/>
+      <c r="A34" s="184"/>
+      <c r="B34" s="203"/>
       <c r="C34" s="30" t="s">
         <v>182</v>
       </c>
@@ -7396,8 +7405,8 @@
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="183"/>
-      <c r="B35" s="202"/>
+      <c r="A35" s="184"/>
+      <c r="B35" s="203"/>
       <c r="C35" s="30" t="s">
         <v>183</v>
       </c>
@@ -7421,8 +7430,8 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="183"/>
-      <c r="B36" s="202"/>
+      <c r="A36" s="184"/>
+      <c r="B36" s="203"/>
       <c r="C36" s="30" t="s">
         <v>184</v>
       </c>
@@ -7446,8 +7455,8 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
-      <c r="B37" s="205"/>
+      <c r="A37" s="184"/>
+      <c r="B37" s="206"/>
       <c r="C37" s="30" t="s">
         <v>185</v>
       </c>
@@ -7471,7 +7480,7 @@
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
@@ -7498,8 +7507,8 @@
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="183"/>
-      <c r="B39" s="199" t="s">
+      <c r="A39" s="184"/>
+      <c r="B39" s="200" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="30" t="s">
@@ -7525,8 +7534,8 @@
       <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="183"/>
-      <c r="B40" s="206"/>
+      <c r="A40" s="184"/>
+      <c r="B40" s="207"/>
       <c r="C40" s="30" t="s">
         <v>188</v>
       </c>
@@ -7550,8 +7559,8 @@
       <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
-      <c r="B41" s="206"/>
+      <c r="A41" s="184"/>
+      <c r="B41" s="207"/>
       <c r="C41" s="30" t="s">
         <v>189</v>
       </c>
@@ -7575,8 +7584,8 @@
       <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
-      <c r="B42" s="206"/>
+      <c r="A42" s="184"/>
+      <c r="B42" s="207"/>
       <c r="C42" s="30" t="s">
         <v>190</v>
       </c>
@@ -7600,8 +7609,8 @@
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="183"/>
-      <c r="B43" s="206"/>
+      <c r="A43" s="184"/>
+      <c r="B43" s="207"/>
       <c r="C43" s="30" t="s">
         <v>191</v>
       </c>
@@ -7625,8 +7634,8 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="183"/>
-      <c r="B44" s="206"/>
+      <c r="A44" s="184"/>
+      <c r="B44" s="207"/>
       <c r="C44" s="30" t="s">
         <v>580</v>
       </c>
@@ -7650,8 +7659,8 @@
       <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="206"/>
+      <c r="A45" s="184"/>
+      <c r="B45" s="207"/>
       <c r="C45" s="30" t="s">
         <v>551</v>
       </c>
@@ -7675,8 +7684,8 @@
       <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
-      <c r="B46" s="200"/>
+      <c r="A46" s="184"/>
+      <c r="B46" s="201"/>
       <c r="C46" s="30" t="s">
         <v>552</v>
       </c>
@@ -7700,8 +7709,8 @@
       <c r="S46" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="183"/>
-      <c r="B47" s="199" t="s">
+      <c r="A47" s="184"/>
+      <c r="B47" s="200" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -7727,8 +7736,8 @@
       <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="184"/>
-      <c r="B48" s="200"/>
+      <c r="A48" s="185"/>
+      <c r="B48" s="201"/>
       <c r="C48" s="30" t="s">
         <v>554</v>
       </c>
@@ -7773,10 +7782,10 @@
       <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="185" t="s">
+      <c r="A50" s="186" t="s">
         <v>618</v>
       </c>
-      <c r="B50" s="199" t="s">
+      <c r="B50" s="200" t="s">
         <v>261</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -7802,8 +7811,8 @@
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="186"/>
-      <c r="B51" s="200"/>
+      <c r="A51" s="187"/>
+      <c r="B51" s="201"/>
       <c r="C51" s="30" t="s">
         <v>126</v>
       </c>
@@ -7827,7 +7836,7 @@
       <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="186"/>
+      <c r="A52" s="187"/>
       <c r="B52" s="22" t="s">
         <v>262</v>
       </c>
@@ -7854,8 +7863,8 @@
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="186"/>
-      <c r="B53" s="201" t="s">
+      <c r="A53" s="187"/>
+      <c r="B53" s="202" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -7883,8 +7892,8 @@
       <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="186"/>
-      <c r="B54" s="202"/>
+      <c r="A54" s="187"/>
+      <c r="B54" s="203"/>
       <c r="C54" s="31" t="s">
         <v>250</v>
       </c>
@@ -7910,8 +7919,8 @@
       <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="187"/>
-      <c r="B55" s="202"/>
+      <c r="A55" s="188"/>
+      <c r="B55" s="203"/>
       <c r="C55" s="30" t="s">
         <v>251</v>
       </c>
@@ -7956,7 +7965,7 @@
       <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="185" t="s">
+      <c r="A57" s="186" t="s">
         <v>613</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -7987,7 +7996,7 @@
       <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="186"/>
+      <c r="A58" s="187"/>
       <c r="B58" s="23" t="s">
         <v>43</v>
       </c>
@@ -8016,7 +8025,7 @@
       <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="186"/>
+      <c r="A59" s="187"/>
       <c r="B59" s="23" t="s">
         <v>44</v>
       </c>
@@ -8047,7 +8056,7 @@
       <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="186"/>
+      <c r="A60" s="187"/>
       <c r="B60" s="23" t="s">
         <v>45</v>
       </c>
@@ -8076,8 +8085,8 @@
       <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="186"/>
-      <c r="B61" s="188" t="s">
+      <c r="A61" s="187"/>
+      <c r="B61" s="189" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="31" t="s">
@@ -8107,8 +8116,8 @@
       <c r="S61" s="10"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="186"/>
-      <c r="B62" s="189"/>
+      <c r="A62" s="187"/>
+      <c r="B62" s="190"/>
       <c r="C62" s="31" t="s">
         <v>140</v>
       </c>
@@ -8136,7 +8145,7 @@
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="186"/>
+      <c r="A63" s="187"/>
       <c r="B63" s="23" t="s">
         <v>47</v>
       </c>
@@ -8165,7 +8174,7 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="187"/>
+      <c r="A64" s="188"/>
       <c r="B64" s="22" t="s">
         <v>538</v>
       </c>
@@ -8213,10 +8222,10 @@
       <c r="S65" s="10"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="185" t="s">
+      <c r="A66" s="186" t="s">
         <v>604</v>
       </c>
-      <c r="B66" s="193" t="s">
+      <c r="B66" s="194" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="30" t="s">
@@ -8242,8 +8251,8 @@
       <c r="S66" s="10"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="186"/>
-      <c r="B67" s="193"/>
+      <c r="A67" s="187"/>
+      <c r="B67" s="194"/>
       <c r="C67" s="30" t="s">
         <v>255</v>
       </c>
@@ -8267,8 +8276,8 @@
       <c r="S67" s="10"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="186"/>
-      <c r="B68" s="199" t="s">
+      <c r="A68" s="187"/>
+      <c r="B68" s="200" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="30" t="s">
@@ -8294,8 +8303,8 @@
       <c r="S68" s="10"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="186"/>
-      <c r="B69" s="200"/>
+      <c r="A69" s="187"/>
+      <c r="B69" s="201"/>
       <c r="C69" s="30" t="s">
         <v>117</v>
       </c>
@@ -8319,7 +8328,7 @@
       <c r="S69" s="10"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="186"/>
+      <c r="A70" s="187"/>
       <c r="B70" s="23" t="s">
         <v>57</v>
       </c>
@@ -8348,7 +8357,7 @@
       <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="186"/>
+      <c r="A71" s="187"/>
       <c r="B71" s="23" t="s">
         <v>58</v>
       </c>
@@ -8377,7 +8386,7 @@
       <c r="S71" s="10"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="186"/>
+      <c r="A72" s="187"/>
       <c r="B72" s="23" t="s">
         <v>59</v>
       </c>
@@ -8406,8 +8415,8 @@
       <c r="S72" s="10"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="186"/>
-      <c r="B73" s="190" t="s">
+      <c r="A73" s="187"/>
+      <c r="B73" s="191" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="31" t="s">
@@ -8435,8 +8444,8 @@
       <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="186"/>
-      <c r="B74" s="191"/>
+      <c r="A74" s="187"/>
+      <c r="B74" s="192"/>
       <c r="C74" s="30" t="s">
         <v>122</v>
       </c>
@@ -8460,8 +8469,8 @@
       <c r="S74" s="10"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="186"/>
-      <c r="B75" s="192"/>
+      <c r="A75" s="187"/>
+      <c r="B75" s="193"/>
       <c r="C75" s="30" t="s">
         <v>123</v>
       </c>
@@ -8485,7 +8494,7 @@
       <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="187"/>
+      <c r="A76" s="188"/>
       <c r="B76" s="22" t="s">
         <v>61</v>
       </c>
@@ -8512,10 +8521,10 @@
       <c r="S76" s="10"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="185" t="s">
+      <c r="A77" s="186" t="s">
         <v>614</v>
       </c>
-      <c r="B77" s="190" t="s">
+      <c r="B77" s="191" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -8543,8 +8552,8 @@
       <c r="S77" s="10"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="186"/>
-      <c r="B78" s="191"/>
+      <c r="A78" s="187"/>
+      <c r="B78" s="192"/>
       <c r="C78" s="30" t="s">
         <v>144</v>
       </c>
@@ -8568,7 +8577,7 @@
       <c r="S78" s="10"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="186"/>
+      <c r="A79" s="187"/>
       <c r="B79" s="123" t="s">
         <v>76</v>
       </c>
@@ -8595,8 +8604,8 @@
       <c r="S79" s="10"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="186"/>
-      <c r="B80" s="193" t="s">
+      <c r="A80" s="187"/>
+      <c r="B80" s="194" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="30" t="s">
@@ -8622,8 +8631,8 @@
       <c r="S80" s="10"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="186"/>
-      <c r="B81" s="193"/>
+      <c r="A81" s="187"/>
+      <c r="B81" s="194"/>
       <c r="C81" s="30" t="s">
         <v>147</v>
       </c>
@@ -8647,7 +8656,7 @@
       <c r="S81" s="10"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="186"/>
+      <c r="A82" s="187"/>
       <c r="B82" s="123" t="s">
         <v>78</v>
       </c>
@@ -8674,8 +8683,8 @@
       <c r="S82" s="10"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="186"/>
-      <c r="B83" s="193" t="s">
+      <c r="A83" s="187"/>
+      <c r="B83" s="194" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="30" t="s">
@@ -8701,8 +8710,8 @@
       <c r="S83" s="10"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="186"/>
-      <c r="B84" s="193"/>
+      <c r="A84" s="187"/>
+      <c r="B84" s="194"/>
       <c r="C84" s="30" t="s">
         <v>559</v>
       </c>
@@ -8726,8 +8735,8 @@
       <c r="S84" s="10"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="186"/>
-      <c r="B85" s="193"/>
+      <c r="A85" s="187"/>
+      <c r="B85" s="194"/>
       <c r="C85" s="30" t="s">
         <v>152</v>
       </c>
@@ -8751,7 +8760,7 @@
       <c r="S85" s="10"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="186"/>
+      <c r="A86" s="187"/>
       <c r="B86" s="124" t="s">
         <v>80</v>
       </c>
@@ -8778,8 +8787,8 @@
       <c r="S86" s="10"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="186"/>
-      <c r="B87" s="193" t="s">
+      <c r="A87" s="187"/>
+      <c r="B87" s="194" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="30" t="s">
@@ -8805,8 +8814,8 @@
       <c r="S87" s="10"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="186"/>
-      <c r="B88" s="193"/>
+      <c r="A88" s="187"/>
+      <c r="B88" s="194"/>
       <c r="C88" s="30" t="s">
         <v>151</v>
       </c>
@@ -8830,8 +8839,8 @@
       <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="186"/>
-      <c r="B89" s="193"/>
+      <c r="A89" s="187"/>
+      <c r="B89" s="194"/>
       <c r="C89" s="30" t="s">
         <v>559</v>
       </c>
@@ -8855,8 +8864,8 @@
       <c r="S89" s="10"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="187"/>
-      <c r="B90" s="193"/>
+      <c r="A90" s="188"/>
+      <c r="B90" s="194"/>
       <c r="C90" s="30" t="s">
         <v>152</v>
       </c>
@@ -8880,10 +8889,10 @@
       <c r="S90" s="10"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="185" t="s">
+      <c r="A91" s="186" t="s">
         <v>615</v>
       </c>
-      <c r="B91" s="194" t="s">
+      <c r="B91" s="195" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="31" t="s">
@@ -8913,8 +8922,8 @@
       <c r="S91" s="10"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="187"/>
-      <c r="B92" s="195"/>
+      <c r="A92" s="188"/>
+      <c r="B92" s="196"/>
       <c r="C92" s="31" t="s">
         <v>132</v>
       </c>
@@ -8961,10 +8970,10 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="185" t="s">
+      <c r="A94" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="188" t="s">
+      <c r="B94" s="189" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="31" t="s">
@@ -8992,8 +9001,8 @@
       <c r="S94" s="10"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="186"/>
-      <c r="B95" s="189"/>
+      <c r="A95" s="187"/>
+      <c r="B95" s="190"/>
       <c r="C95" s="31" t="s">
         <v>562</v>
       </c>
@@ -9019,7 +9028,7 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="187"/>
+      <c r="A96" s="188"/>
       <c r="B96" s="111" t="s">
         <v>560</v>
       </c>
@@ -9048,7 +9057,7 @@
       <c r="S96" s="10"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="185" t="s">
+      <c r="A97" s="186" t="s">
         <v>616</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -9079,7 +9088,7 @@
       <c r="S97" s="10"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="186"/>
+      <c r="A98" s="187"/>
       <c r="B98" s="23" t="s">
         <v>265</v>
       </c>
@@ -9108,7 +9117,7 @@
       <c r="S98" s="10"/>
     </row>
     <row r="99" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="187"/>
+      <c r="A99" s="188"/>
       <c r="B99" s="22" t="s">
         <v>264</v>
       </c>
@@ -9135,7 +9144,7 @@
       <c r="S99" s="10"/>
     </row>
     <row r="100" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="185" t="s">
+      <c r="A100" s="186" t="s">
         <v>617</v>
       </c>
       <c r="B100" s="22" t="s">
@@ -9164,7 +9173,7 @@
       <c r="S100" s="10"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" s="187"/>
+      <c r="A101" s="188"/>
       <c r="B101" s="22" t="s">
         <v>263</v>
       </c>
@@ -9212,7 +9221,7 @@
       <c r="S102" s="10"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="185" t="s">
+      <c r="A103" s="186" t="s">
         <v>605</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -9243,7 +9252,7 @@
       <c r="S103" s="10"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="186"/>
+      <c r="A104" s="187"/>
       <c r="B104" s="23" t="s">
         <v>539</v>
       </c>
@@ -9272,7 +9281,7 @@
       <c r="S104" s="10"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="186"/>
+      <c r="A105" s="187"/>
       <c r="B105" s="23" t="s">
         <v>540</v>
       </c>
@@ -9301,8 +9310,8 @@
       <c r="S105" s="10"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="186"/>
-      <c r="B106" s="190" t="s">
+      <c r="A106" s="187"/>
+      <c r="B106" s="191" t="s">
         <v>541</v>
       </c>
       <c r="C106" s="31" t="s">
@@ -9330,8 +9339,8 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="186"/>
-      <c r="B107" s="191"/>
+      <c r="A107" s="187"/>
+      <c r="B107" s="192"/>
       <c r="C107" s="31" t="s">
         <v>194</v>
       </c>
@@ -9357,8 +9366,8 @@
       <c r="S107" s="10"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="186"/>
-      <c r="B108" s="192"/>
+      <c r="A108" s="187"/>
+      <c r="B108" s="193"/>
       <c r="C108" s="30" t="s">
         <v>195</v>
       </c>
@@ -9381,8 +9390,8 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" s="186"/>
-      <c r="B109" s="188" t="s">
+      <c r="A109" s="187"/>
+      <c r="B109" s="189" t="s">
         <v>542</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -9410,8 +9419,8 @@
       <c r="S109" s="10"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" s="186"/>
-      <c r="B110" s="189"/>
+      <c r="A110" s="187"/>
+      <c r="B110" s="190"/>
       <c r="C110" s="31" t="s">
         <v>547</v>
       </c>
@@ -9437,7 +9446,7 @@
       <c r="S110" s="10"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="186"/>
+      <c r="A111" s="187"/>
       <c r="B111" s="23" t="s">
         <v>543</v>
       </c>
@@ -9466,8 +9475,8 @@
       <c r="S111" s="10"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="186"/>
-      <c r="B112" s="188" t="s">
+      <c r="A112" s="187"/>
+      <c r="B112" s="189" t="s">
         <v>544</v>
       </c>
       <c r="C112" s="31" t="s">
@@ -9495,8 +9504,8 @@
       <c r="S112" s="10"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="186"/>
-      <c r="B113" s="189"/>
+      <c r="A113" s="187"/>
+      <c r="B113" s="190"/>
       <c r="C113" s="31" t="s">
         <v>570</v>
       </c>
@@ -9522,7 +9531,7 @@
       <c r="S113" s="10"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="187"/>
+      <c r="A114" s="188"/>
       <c r="B114" s="23" t="s">
         <v>545</v>
       </c>
@@ -9551,10 +9560,10 @@
       <c r="S114" s="10"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="203" t="s">
+      <c r="B116" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="203"/>
+      <c r="C116" s="204"/>
       <c r="D116" s="68"/>
       <c r="E116" s="65"/>
       <c r="F116" s="65"/>
@@ -9571,19 +9580,19 @@
       <c r="S116" s="68"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="196" t="s">
+      <c r="B117" s="197" t="s">
         <v>524</v>
       </c>
-      <c r="C117" s="196"/>
+      <c r="C117" s="197"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="197" t="s">
+      <c r="B118" s="198" t="s">
         <v>525</v>
       </c>
-      <c r="C118" s="197"/>
+      <c r="C118" s="198"/>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
       <c r="F118" s="67"/>
@@ -9639,7 +9648,7 @@
   </sheetPr>
   <dimension ref="A1:BE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BF52" sqref="BF52"/>
     </sheetView>
   </sheetViews>
@@ -9665,74 +9674,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="211" t="s">
         <v>621</v>
       </c>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="213"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="213" t="s">
+      <c r="N1" s="214" t="s">
         <v>606</v>
       </c>
-      <c r="O1" s="214"/>
-      <c r="P1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="216"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="207" t="s">
+      <c r="R1" s="208" t="s">
         <v>613</v>
       </c>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="210"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="207" t="s">
+      <c r="Z1" s="208" t="s">
         <v>604</v>
       </c>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="207" t="s">
+      <c r="AA1" s="209"/>
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="208" t="s">
         <v>622</v>
       </c>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="209"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="209"/>
+      <c r="AJ1" s="209"/>
+      <c r="AK1" s="209"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="209"/>
+      <c r="AN1" s="210"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="207" t="s">
+      <c r="AP1" s="208" t="s">
         <v>620</v>
       </c>
-      <c r="AQ1" s="208"/>
-      <c r="AR1" s="208"/>
-      <c r="AS1" s="208"/>
-      <c r="AT1" s="208"/>
-      <c r="AU1" s="208"/>
-      <c r="AV1" s="209"/>
+      <c r="AQ1" s="209"/>
+      <c r="AR1" s="209"/>
+      <c r="AS1" s="209"/>
+      <c r="AT1" s="209"/>
+      <c r="AU1" s="209"/>
+      <c r="AV1" s="210"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="207" t="s">
+      <c r="AX1" s="208" t="s">
         <v>605</v>
       </c>
-      <c r="AY1" s="208"/>
-      <c r="AZ1" s="208"/>
-      <c r="BA1" s="208"/>
-      <c r="BB1" s="208"/>
-      <c r="BC1" s="208"/>
-      <c r="BD1" s="208"/>
-      <c r="BE1" s="209"/>
+      <c r="AY1" s="209"/>
+      <c r="AZ1" s="209"/>
+      <c r="BA1" s="209"/>
+      <c r="BB1" s="209"/>
+      <c r="BC1" s="209"/>
+      <c r="BD1" s="209"/>
+      <c r="BE1" s="210"/>
     </row>
     <row r="2" spans="1:57" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -9898,7 +9907,7 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="217" t="s">
         <v>236</v>
       </c>
       <c r="B3" s="53">
@@ -9963,7 +9972,7 @@
       <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="216"/>
+      <c r="A4" s="217"/>
       <c r="B4" s="53">
         <v>2</v>
       </c>
@@ -10026,7 +10035,7 @@
       <c r="BE4" s="25"/>
     </row>
     <row r="5" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="216"/>
+      <c r="A5" s="217"/>
       <c r="B5" s="54">
         <v>3</v>
       </c>
@@ -10092,7 +10101,7 @@
       <c r="BE5" s="25"/>
     </row>
     <row r="6" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="216"/>
+      <c r="A6" s="217"/>
       <c r="B6" s="54">
         <v>4</v>
       </c>
@@ -10154,7 +10163,7 @@
       <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="216"/>
+      <c r="A7" s="217"/>
       <c r="B7" s="53">
         <v>5</v>
       </c>
@@ -10217,7 +10226,7 @@
       <c r="BE7" s="25"/>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="216"/>
+      <c r="A8" s="217"/>
       <c r="B8" s="54">
         <v>6</v>
       </c>
@@ -10282,7 +10291,7 @@
       <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="216"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="54">
         <v>7</v>
       </c>
@@ -10353,7 +10362,7 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="216"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="55">
         <v>8</v>
       </c>
@@ -10420,7 +10429,7 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="216"/>
+      <c r="A11" s="217"/>
       <c r="B11" s="54">
         <v>9</v>
       </c>
@@ -10485,7 +10494,7 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="216"/>
+      <c r="A12" s="217"/>
       <c r="B12" s="54">
         <v>10</v>
       </c>
@@ -10611,7 +10620,7 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="216" t="s">
+      <c r="A14" s="217" t="s">
         <v>241</v>
       </c>
       <c r="B14" s="54">
@@ -10680,7 +10689,7 @@
       <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="216"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -10802,7 +10811,7 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="217" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="55">
@@ -10872,7 +10881,7 @@
       <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="216"/>
+      <c r="A18" s="217"/>
       <c r="B18" s="55">
         <v>2</v>
       </c>
@@ -10941,7 +10950,7 @@
       <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="216"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="56">
         <v>3</v>
       </c>
@@ -11004,7 +11013,7 @@
       <c r="BE19" s="25"/>
     </row>
     <row r="20" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="216"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="55">
         <v>4</v>
       </c>
@@ -11087,7 +11096,7 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="216"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="56">
         <v>5</v>
       </c>
@@ -11209,7 +11218,7 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="182" t="s">
+      <c r="A23" s="183" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="55">
@@ -11276,7 +11285,7 @@
       <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="183"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="56">
         <v>2</v>
       </c>
@@ -11339,7 +11348,7 @@
       <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="56">
         <v>3</v>
       </c>
@@ -11402,7 +11411,7 @@
       <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="56">
         <v>4</v>
       </c>
@@ -11465,7 +11474,7 @@
       <c r="BE26" s="25"/>
     </row>
     <row r="27" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="183"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="56">
         <v>5</v>
       </c>
@@ -11528,7 +11537,7 @@
       <c r="BE27" s="25"/>
     </row>
     <row r="28" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="183"/>
+      <c r="A28" s="184"/>
       <c r="B28" s="56">
         <v>6</v>
       </c>
@@ -11591,7 +11600,7 @@
       <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="56">
         <v>7</v>
       </c>
@@ -11654,7 +11663,7 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="56">
         <v>8</v>
       </c>
@@ -11717,7 +11726,7 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="183"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="56">
         <v>9</v>
       </c>
@@ -11780,7 +11789,7 @@
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="183"/>
+      <c r="A32" s="184"/>
       <c r="B32" s="56">
         <v>10</v>
       </c>
@@ -11843,7 +11852,7 @@
       <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="55">
         <v>11</v>
       </c>
@@ -11967,7 +11976,7 @@
       <c r="BE34" s="10"/>
     </row>
     <row r="35" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="182" t="s">
+      <c r="A35" s="183" t="s">
         <v>239</v>
       </c>
       <c r="B35" s="56">
@@ -12034,7 +12043,7 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="183"/>
+      <c r="A36" s="184"/>
       <c r="B36" s="55">
         <v>2</v>
       </c>
@@ -12103,7 +12112,7 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="55">
         <v>3</v>
       </c>
@@ -12172,7 +12181,7 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="55">
         <v>4</v>
       </c>
@@ -12298,7 +12307,7 @@
       <c r="BE39" s="10"/>
     </row>
     <row r="40" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="216" t="s">
+      <c r="A40" s="217" t="s">
         <v>240</v>
       </c>
       <c r="B40" s="55">
@@ -12365,7 +12374,7 @@
       <c r="BE40" s="25"/>
     </row>
     <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="216"/>
+      <c r="A41" s="217"/>
       <c r="B41" s="56">
         <v>2</v>
       </c>
@@ -12428,7 +12437,7 @@
       <c r="BE41" s="25"/>
     </row>
     <row r="42" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="216"/>
+      <c r="A42" s="217"/>
       <c r="B42" s="56">
         <v>3</v>
       </c>
@@ -12550,7 +12559,7 @@
       <c r="BE43" s="10"/>
     </row>
     <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="183" t="s">
         <v>246</v>
       </c>
       <c r="B44" s="55">
@@ -12625,7 +12634,7 @@
       <c r="BE44" s="25"/>
     </row>
     <row r="45" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="55">
         <v>2</v>
       </c>
@@ -12696,7 +12705,7 @@
       <c r="BE45" s="25"/>
     </row>
     <row r="46" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="55">
         <v>3</v>
       </c>
@@ -12767,7 +12776,7 @@
       <c r="BE46" s="25"/>
     </row>
     <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="184"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="56">
         <v>4</v>
       </c>
@@ -13025,7 +13034,7 @@
   <dimension ref="A1:BH60"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD9"/>
+      <selection activeCell="AN39" sqref="AN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13051,74 +13060,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="210" t="s">
+      <c r="E1" s="211" t="s">
         <v>621</v>
       </c>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="213"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="213" t="s">
+      <c r="O1" s="214" t="s">
         <v>606</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="216"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="207" t="s">
+      <c r="S1" s="208" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="210"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="207" t="s">
+      <c r="AA1" s="208" t="s">
         <v>604</v>
       </c>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="209"/>
-      <c r="AH1" s="207" t="s">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="210"/>
+      <c r="AH1" s="208" t="s">
         <v>622</v>
       </c>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="209"/>
+      <c r="AI1" s="209"/>
+      <c r="AJ1" s="209"/>
+      <c r="AK1" s="209"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="209"/>
+      <c r="AN1" s="209"/>
+      <c r="AO1" s="210"/>
       <c r="AP1" s="6"/>
-      <c r="AQ1" s="207" t="s">
+      <c r="AQ1" s="208" t="s">
         <v>620</v>
       </c>
-      <c r="AR1" s="208"/>
-      <c r="AS1" s="208"/>
-      <c r="AT1" s="208"/>
-      <c r="AU1" s="208"/>
-      <c r="AV1" s="208"/>
-      <c r="AW1" s="209"/>
+      <c r="AR1" s="209"/>
+      <c r="AS1" s="209"/>
+      <c r="AT1" s="209"/>
+      <c r="AU1" s="209"/>
+      <c r="AV1" s="209"/>
+      <c r="AW1" s="210"/>
       <c r="AX1" s="6"/>
-      <c r="AY1" s="207" t="s">
+      <c r="AY1" s="208" t="s">
         <v>605</v>
       </c>
-      <c r="AZ1" s="208"/>
-      <c r="BA1" s="208"/>
-      <c r="BB1" s="208"/>
-      <c r="BC1" s="208"/>
-      <c r="BD1" s="208"/>
-      <c r="BE1" s="208"/>
-      <c r="BF1" s="209"/>
+      <c r="AZ1" s="209"/>
+      <c r="BA1" s="209"/>
+      <c r="BB1" s="209"/>
+      <c r="BC1" s="209"/>
+      <c r="BD1" s="209"/>
+      <c r="BE1" s="209"/>
+      <c r="BF1" s="210"/>
     </row>
     <row r="2" spans="1:60" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -13287,10 +13296,10 @@
       </c>
     </row>
     <row r="3" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="217" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="228">
+      <c r="B3" s="229">
         <v>1</v>
       </c>
       <c r="C3" s="156">
@@ -13355,8 +13364,8 @@
       <c r="BF3" s="25"/>
     </row>
     <row r="4" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="216"/>
-      <c r="B4" s="229"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="230"/>
       <c r="C4" s="156">
         <v>2</v>
       </c>
@@ -13419,7 +13428,7 @@
       <c r="BF4" s="25"/>
     </row>
     <row r="5" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="216"/>
+      <c r="A5" s="217"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -13485,7 +13494,7 @@
       <c r="BF5" s="25"/>
     </row>
     <row r="6" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="216"/>
+      <c r="A6" s="217"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
@@ -13555,8 +13564,8 @@
       <c r="BF6" s="25"/>
     </row>
     <row r="7" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="216"/>
-      <c r="B7" s="226">
+      <c r="A7" s="217"/>
+      <c r="B7" s="227">
         <v>4</v>
       </c>
       <c r="C7" s="157">
@@ -13621,8 +13630,8 @@
       <c r="BF7" s="25"/>
     </row>
     <row r="8" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="216"/>
-      <c r="B8" s="227"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="228"/>
       <c r="C8" s="157">
         <v>2</v>
       </c>
@@ -13685,7 +13694,7 @@
       <c r="BF8" s="25"/>
     </row>
     <row r="9" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="216"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="53">
         <v>5</v>
       </c>
@@ -13751,7 +13760,7 @@
       <c r="BF9" s="25"/>
     </row>
     <row r="10" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="216"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="54">
         <v>6</v>
       </c>
@@ -13822,8 +13831,8 @@
       </c>
     </row>
     <row r="11" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="216"/>
-      <c r="B11" s="226">
+      <c r="A11" s="217"/>
+      <c r="B11" s="227">
         <v>7</v>
       </c>
       <c r="C11" s="157">
@@ -13892,8 +13901,8 @@
       <c r="BF11" s="25"/>
     </row>
     <row r="12" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="216"/>
-      <c r="B12" s="230"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="231"/>
       <c r="C12" s="157">
         <v>2</v>
       </c>
@@ -13968,7 +13977,7 @@
       <c r="BF12" s="25"/>
     </row>
     <row r="13" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="216"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="55">
         <v>8</v>
       </c>
@@ -14038,7 +14047,7 @@
       <c r="BF13" s="25"/>
     </row>
     <row r="14" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="216"/>
+      <c r="A14" s="217"/>
       <c r="B14" s="54">
         <v>9</v>
       </c>
@@ -14106,7 +14115,7 @@
       <c r="BF14" s="25"/>
     </row>
     <row r="15" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="216"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="54">
         <v>10</v>
       </c>
@@ -14236,10 +14245,10 @@
       <c r="BF16" s="10"/>
     </row>
     <row r="17" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="217" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="226">
+      <c r="B17" s="227">
         <v>1</v>
       </c>
       <c r="C17" s="157">
@@ -14306,8 +14315,8 @@
       <c r="BF17" s="25"/>
     </row>
     <row r="18" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="216"/>
-      <c r="B18" s="227"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="228"/>
       <c r="C18" s="157">
         <v>2</v>
       </c>
@@ -14374,7 +14383,7 @@
       <c r="BF18" s="25"/>
     </row>
     <row r="19" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="216"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="63">
         <v>2</v>
       </c>
@@ -14500,7 +14509,7 @@
       <c r="BF20" s="10"/>
     </row>
     <row r="21" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="216" t="s">
+      <c r="A21" s="217" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="55">
@@ -14573,7 +14582,7 @@
       <c r="BF21" s="25"/>
     </row>
     <row r="22" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="216"/>
+      <c r="A22" s="217"/>
       <c r="B22" s="55">
         <v>2</v>
       </c>
@@ -14643,7 +14652,7 @@
       <c r="BF22" s="25"/>
     </row>
     <row r="23" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="216"/>
+      <c r="A23" s="217"/>
       <c r="B23" s="56">
         <v>3</v>
       </c>
@@ -14709,8 +14718,8 @@
       <c r="BF23" s="25"/>
     </row>
     <row r="24" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="216"/>
-      <c r="B24" s="220">
+      <c r="A24" s="217"/>
+      <c r="B24" s="221">
         <v>4</v>
       </c>
       <c r="C24" s="157">
@@ -14777,8 +14786,8 @@
       <c r="BF24" s="25"/>
     </row>
     <row r="25" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="216"/>
-      <c r="B25" s="221"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="222"/>
       <c r="C25" s="157">
         <v>2</v>
       </c>
@@ -14851,8 +14860,8 @@
       <c r="BF25" s="25"/>
     </row>
     <row r="26" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="216"/>
-      <c r="B26" s="222"/>
+      <c r="A26" s="217"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="157">
         <v>3</v>
       </c>
@@ -14925,7 +14934,7 @@
       </c>
     </row>
     <row r="27" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="216"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="64">
         <v>5</v>
       </c>
@@ -15051,7 +15060,7 @@
       <c r="BF28" s="10"/>
     </row>
     <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="223" t="s">
+      <c r="A29" s="224" t="s">
         <v>238</v>
       </c>
       <c r="B29" s="55">
@@ -15121,7 +15130,7 @@
       <c r="BF29" s="25"/>
     </row>
     <row r="30" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="224"/>
+      <c r="A30" s="225"/>
       <c r="B30" s="56">
         <v>2</v>
       </c>
@@ -15187,7 +15196,7 @@
       <c r="BF30" s="25"/>
     </row>
     <row r="31" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="224"/>
+      <c r="A31" s="225"/>
       <c r="B31" s="56">
         <v>3</v>
       </c>
@@ -15253,7 +15262,7 @@
       <c r="BF31" s="25"/>
     </row>
     <row r="32" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="224"/>
+      <c r="A32" s="225"/>
       <c r="B32" s="56">
         <v>4</v>
       </c>
@@ -15319,7 +15328,7 @@
       <c r="BF32" s="25"/>
     </row>
     <row r="33" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="224"/>
+      <c r="A33" s="225"/>
       <c r="B33" s="56">
         <v>5</v>
       </c>
@@ -15385,7 +15394,7 @@
       <c r="BF33" s="25"/>
     </row>
     <row r="34" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="224"/>
+      <c r="A34" s="225"/>
       <c r="B34" s="56">
         <v>6</v>
       </c>
@@ -15451,7 +15460,7 @@
       <c r="BF34" s="25"/>
     </row>
     <row r="35" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="224"/>
+      <c r="A35" s="225"/>
       <c r="B35" s="56">
         <v>7</v>
       </c>
@@ -15517,7 +15526,7 @@
       <c r="BF35" s="25"/>
     </row>
     <row r="36" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="224"/>
+      <c r="A36" s="225"/>
       <c r="B36" s="56">
         <v>8</v>
       </c>
@@ -15583,7 +15592,7 @@
       <c r="BF36" s="25"/>
     </row>
     <row r="37" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="224"/>
+      <c r="A37" s="225"/>
       <c r="B37" s="56">
         <v>9</v>
       </c>
@@ -15649,7 +15658,7 @@
       <c r="BF37" s="25"/>
     </row>
     <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="224"/>
+      <c r="A38" s="225"/>
       <c r="B38" s="56">
         <v>10</v>
       </c>
@@ -15715,7 +15724,7 @@
       <c r="BF38" s="25"/>
     </row>
     <row r="39" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="225"/>
+      <c r="A39" s="226"/>
       <c r="B39" s="121">
         <v>11</v>
       </c>
@@ -15843,7 +15852,7 @@
       <c r="BF40" s="10"/>
     </row>
     <row r="41" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="183" t="s">
         <v>239</v>
       </c>
       <c r="B41" s="56">
@@ -15913,7 +15922,7 @@
       <c r="BF41" s="25"/>
     </row>
     <row r="42" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="55">
         <v>2</v>
       </c>
@@ -15985,7 +15994,7 @@
       <c r="BF42" s="25"/>
     </row>
     <row r="43" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="183"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="55">
         <v>3</v>
       </c>
@@ -16057,7 +16066,7 @@
       <c r="BF43" s="25"/>
     </row>
     <row r="44" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="184"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="121">
         <v>4</v>
       </c>
@@ -16187,7 +16196,7 @@
       <c r="BF45" s="10"/>
     </row>
     <row r="46" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="216" t="s">
+      <c r="A46" s="217" t="s">
         <v>240</v>
       </c>
       <c r="B46" s="55">
@@ -16257,7 +16266,7 @@
       <c r="BF46" s="25"/>
     </row>
     <row r="47" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="216"/>
+      <c r="A47" s="217"/>
       <c r="B47" s="56">
         <v>2</v>
       </c>
@@ -16323,7 +16332,7 @@
       <c r="BF47" s="25"/>
     </row>
     <row r="48" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="216"/>
+      <c r="A48" s="217"/>
       <c r="B48" s="64">
         <v>3</v>
       </c>
@@ -16449,7 +16458,7 @@
       <c r="BF49" s="10"/>
     </row>
     <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="182" t="s">
+      <c r="A50" s="183" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="55">
@@ -16458,7 +16467,7 @@
       <c r="C50" s="157">
         <v>1</v>
       </c>
-      <c r="D50" s="217" t="s">
+      <c r="D50" s="218" t="s">
         <v>419</v>
       </c>
       <c r="E50" s="11"/>
@@ -16527,14 +16536,14 @@
       <c r="BF50" s="25"/>
     </row>
     <row r="51" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="183"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="55">
         <v>2</v>
       </c>
       <c r="C51" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="218"/>
+      <c r="D51" s="219"/>
       <c r="E51" s="11"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
@@ -16599,14 +16608,14 @@
       <c r="BF51" s="25"/>
     </row>
     <row r="52" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="183"/>
+      <c r="A52" s="184"/>
       <c r="B52" s="55">
         <v>3</v>
       </c>
       <c r="C52" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="219"/>
+      <c r="D52" s="220"/>
       <c r="E52" s="11"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
@@ -16671,7 +16680,7 @@
       <c r="BF52" s="25"/>
     </row>
     <row r="53" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="184"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="56">
         <v>4</v>
       </c>
@@ -16953,7 +16962,7 @@
   <dimension ref="A1:BF120"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="7980" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="7980" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="M5" sqref="M5"/>
       <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
@@ -16986,75 +16995,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="256"/>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="238" t="s">
+      <c r="A1" s="257"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="239" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
       <c r="R1" s="97"/>
-      <c r="S1" s="238" t="s">
+      <c r="S1" s="239" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
+      <c r="T1" s="239"/>
+      <c r="U1" s="239"/>
       <c r="V1" s="97"/>
-      <c r="W1" s="238" t="s">
+      <c r="W1" s="239" t="s">
         <v>237</v>
       </c>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
+      <c r="X1" s="239"/>
+      <c r="Y1" s="239"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="239"/>
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="239"/>
       <c r="AD1" s="97"/>
-      <c r="AE1" s="248" t="s">
+      <c r="AE1" s="249" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="249"/>
-      <c r="AG1" s="249"/>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="249"/>
-      <c r="AJ1" s="249"/>
-      <c r="AK1" s="249"/>
-      <c r="AL1" s="249"/>
-      <c r="AM1" s="249"/>
-      <c r="AN1" s="249"/>
-      <c r="AO1" s="250"/>
+      <c r="AF1" s="250"/>
+      <c r="AG1" s="250"/>
+      <c r="AH1" s="250"/>
+      <c r="AI1" s="250"/>
+      <c r="AJ1" s="250"/>
+      <c r="AK1" s="250"/>
+      <c r="AL1" s="250"/>
+      <c r="AM1" s="250"/>
+      <c r="AN1" s="250"/>
+      <c r="AO1" s="251"/>
       <c r="AP1" s="97"/>
-      <c r="AQ1" s="245" t="s">
+      <c r="AQ1" s="246" t="s">
         <v>239</v>
       </c>
-      <c r="AR1" s="246"/>
-      <c r="AS1" s="246"/>
-      <c r="AT1" s="247"/>
+      <c r="AR1" s="247"/>
+      <c r="AS1" s="247"/>
+      <c r="AT1" s="248"/>
       <c r="AU1" s="97"/>
-      <c r="AV1" s="238" t="s">
+      <c r="AV1" s="239" t="s">
         <v>240</v>
       </c>
-      <c r="AW1" s="238"/>
-      <c r="AX1" s="238"/>
+      <c r="AW1" s="239"/>
+      <c r="AX1" s="239"/>
       <c r="AY1" s="97"/>
-      <c r="AZ1" s="242" t="s">
+      <c r="AZ1" s="243" t="s">
         <v>246</v>
       </c>
-      <c r="BA1" s="243"/>
-      <c r="BB1" s="243"/>
-      <c r="BC1" s="244"/>
+      <c r="BA1" s="244"/>
+      <c r="BB1" s="244"/>
+      <c r="BC1" s="245"/>
       <c r="BD1" s="97"/>
       <c r="BE1" s="98" t="s">
         <v>234</v>
@@ -17064,34 +17073,34 @@
       </c>
     </row>
     <row r="2" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="256"/>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="258">
+      <c r="A2" s="257"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="259">
         <v>1</v>
       </c>
-      <c r="F2" s="259"/>
+      <c r="F2" s="260"/>
       <c r="G2" s="144">
         <v>2</v>
       </c>
       <c r="H2" s="144">
         <v>3</v>
       </c>
-      <c r="I2" s="251">
+      <c r="I2" s="252">
         <v>4</v>
       </c>
-      <c r="J2" s="252"/>
+      <c r="J2" s="253"/>
       <c r="K2" s="145">
         <v>5</v>
       </c>
       <c r="L2" s="144">
         <v>6</v>
       </c>
-      <c r="M2" s="254">
+      <c r="M2" s="255">
         <v>7</v>
       </c>
-      <c r="N2" s="255"/>
+      <c r="N2" s="256"/>
       <c r="O2" s="144">
         <v>8</v>
       </c>
@@ -17102,10 +17111,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="146"/>
-      <c r="S2" s="251">
+      <c r="S2" s="252">
         <v>1</v>
       </c>
-      <c r="T2" s="252"/>
+      <c r="T2" s="253"/>
       <c r="U2" s="147">
         <v>2</v>
       </c>
@@ -17119,11 +17128,11 @@
       <c r="Y2" s="145">
         <v>3</v>
       </c>
-      <c r="Z2" s="253">
+      <c r="Z2" s="254">
         <v>4</v>
       </c>
-      <c r="AA2" s="253"/>
-      <c r="AB2" s="253"/>
+      <c r="AA2" s="254"/>
+      <c r="AB2" s="254"/>
       <c r="AC2" s="147">
         <v>5</v>
       </c>
@@ -17203,10 +17212,10 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="257"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="258"/>
       <c r="E3" s="150">
         <v>1</v>
       </c>
@@ -17354,10 +17363,10 @@
       </c>
     </row>
     <row r="4" spans="1:58" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="A4" s="256"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="257"/>
+      <c r="A4" s="257"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="258"/>
       <c r="E4" s="43" t="s">
         <v>390</v>
       </c>
@@ -17487,11 +17496,11 @@
         <v>628</v>
       </c>
       <c r="AY4" s="45"/>
-      <c r="AZ4" s="239" t="s">
+      <c r="AZ4" s="240" t="s">
         <v>419</v>
       </c>
-      <c r="BA4" s="240"/>
-      <c r="BB4" s="241"/>
+      <c r="BA4" s="241"/>
+      <c r="BB4" s="242"/>
       <c r="BC4" s="46" t="s">
         <v>420</v>
       </c>
@@ -17501,10 +17510,10 @@
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="183" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="232" t="s">
+      <c r="B5" s="233" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -17568,8 +17577,8 @@
       <c r="BE5" s="11"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
-      <c r="B6" s="233"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="30" t="s">
         <v>155</v>
       </c>
@@ -17631,8 +17640,8 @@
       <c r="BE6" s="11"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="183"/>
-      <c r="B7" s="233"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="31" t="s">
         <v>156</v>
       </c>
@@ -17696,8 +17705,8 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="183"/>
-      <c r="B8" s="233"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="30" t="s">
         <v>157</v>
       </c>
@@ -17759,8 +17768,8 @@
       <c r="BE8" s="11"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
-      <c r="B9" s="233"/>
+      <c r="A9" s="184"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="30" t="s">
         <v>158</v>
       </c>
@@ -17822,8 +17831,8 @@
       <c r="BE9" s="11"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="183"/>
-      <c r="B10" s="233"/>
+      <c r="A10" s="184"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -17885,8 +17894,8 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="183"/>
-      <c r="B11" s="233"/>
+      <c r="A11" s="184"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="31" t="s">
         <v>161</v>
       </c>
@@ -17952,8 +17961,8 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="183"/>
-      <c r="B12" s="233"/>
+      <c r="A12" s="184"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="30" t="s">
         <v>162</v>
       </c>
@@ -18015,8 +18024,8 @@
       <c r="BE12" s="25"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
-      <c r="B13" s="234"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="235"/>
       <c r="C13" s="30" t="s">
         <v>163</v>
       </c>
@@ -18078,8 +18087,8 @@
       <c r="BE13" s="11"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="183"/>
-      <c r="B14" s="232" t="s">
+      <c r="A14" s="184"/>
+      <c r="B14" s="233" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -18147,8 +18156,8 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="183"/>
-      <c r="B15" s="234"/>
+      <c r="A15" s="184"/>
+      <c r="B15" s="235"/>
       <c r="C15" s="30" t="s">
         <v>162</v>
       </c>
@@ -18210,8 +18219,8 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="183"/>
-      <c r="B16" s="232" t="s">
+      <c r="A16" s="184"/>
+      <c r="B16" s="233" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -18275,8 +18284,8 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A17" s="183"/>
-      <c r="B17" s="233"/>
+      <c r="A17" s="184"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="30" t="s">
         <v>160</v>
       </c>
@@ -18338,7 +18347,7 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="135" t="s">
         <v>6</v>
       </c>
@@ -18407,7 +18416,7 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A19" s="184"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="136" t="s">
         <v>7</v>
       </c>
@@ -18472,10 +18481,10 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="183" t="s">
         <v>611</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="B20" s="233" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -18541,8 +18550,8 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
-      <c r="B21" s="233"/>
+      <c r="A21" s="184"/>
+      <c r="B21" s="234"/>
       <c r="C21" s="30" t="s">
         <v>167</v>
       </c>
@@ -18604,8 +18613,8 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
-      <c r="B22" s="233"/>
+      <c r="A22" s="184"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="30" t="s">
         <v>169</v>
       </c>
@@ -18667,8 +18676,8 @@
       <c r="BE22" s="25"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="183"/>
-      <c r="B23" s="233"/>
+      <c r="A23" s="184"/>
+      <c r="B23" s="234"/>
       <c r="C23" s="31" t="s">
         <v>169</v>
       </c>
@@ -18732,8 +18741,8 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="183"/>
-      <c r="B24" s="233"/>
+      <c r="A24" s="184"/>
+      <c r="B24" s="234"/>
       <c r="C24" s="30" t="s">
         <v>170</v>
       </c>
@@ -18795,8 +18804,8 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
-      <c r="B25" s="233"/>
+      <c r="A25" s="184"/>
+      <c r="B25" s="234"/>
       <c r="C25" s="30" t="s">
         <v>171</v>
       </c>
@@ -18858,8 +18867,8 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A26" s="183"/>
-      <c r="B26" s="233"/>
+      <c r="A26" s="184"/>
+      <c r="B26" s="234"/>
       <c r="C26" s="30" t="s">
         <v>172</v>
       </c>
@@ -18921,8 +18930,8 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A27" s="183"/>
-      <c r="B27" s="233"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="234"/>
       <c r="C27" s="30" t="s">
         <v>173</v>
       </c>
@@ -18984,8 +18993,8 @@
       <c r="BE27" s="9"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A28" s="183"/>
-      <c r="B28" s="233"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="234"/>
       <c r="C28" s="30" t="s">
         <v>174</v>
       </c>
@@ -19047,8 +19056,8 @@
       <c r="BE28" s="9"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A29" s="183"/>
-      <c r="B29" s="233"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="234"/>
       <c r="C29" s="30" t="s">
         <v>175</v>
       </c>
@@ -19110,8 +19119,8 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A30" s="183"/>
-      <c r="B30" s="233"/>
+      <c r="A30" s="184"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="30" t="s">
         <v>176</v>
       </c>
@@ -19173,8 +19182,8 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="183"/>
-      <c r="B31" s="233"/>
+      <c r="A31" s="184"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="30" t="s">
         <v>177</v>
       </c>
@@ -19236,8 +19245,8 @@
       <c r="BE31" s="9"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A32" s="183"/>
-      <c r="B32" s="233"/>
+      <c r="A32" s="184"/>
+      <c r="B32" s="234"/>
       <c r="C32" s="30" t="s">
         <v>178</v>
       </c>
@@ -19299,8 +19308,8 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A33" s="183"/>
-      <c r="B33" s="233"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="234"/>
       <c r="C33" s="30" t="s">
         <v>179</v>
       </c>
@@ -19362,8 +19371,8 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A34" s="183"/>
-      <c r="B34" s="233"/>
+      <c r="A34" s="184"/>
+      <c r="B34" s="234"/>
       <c r="C34" s="30" t="s">
         <v>180</v>
       </c>
@@ -19425,8 +19434,8 @@
       <c r="BE34" s="9"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="183"/>
-      <c r="B35" s="233"/>
+      <c r="A35" s="184"/>
+      <c r="B35" s="234"/>
       <c r="C35" s="30" t="s">
         <v>181</v>
       </c>
@@ -19488,8 +19497,8 @@
       <c r="BE35" s="9"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="183"/>
-      <c r="B36" s="233"/>
+      <c r="A36" s="184"/>
+      <c r="B36" s="234"/>
       <c r="C36" s="30" t="s">
         <v>182</v>
       </c>
@@ -19551,8 +19560,8 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="183"/>
-      <c r="B37" s="233"/>
+      <c r="A37" s="184"/>
+      <c r="B37" s="234"/>
       <c r="C37" s="30" t="s">
         <v>183</v>
       </c>
@@ -19614,8 +19623,8 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A38" s="183"/>
-      <c r="B38" s="233"/>
+      <c r="A38" s="184"/>
+      <c r="B38" s="234"/>
       <c r="C38" s="30" t="s">
         <v>184</v>
       </c>
@@ -19677,8 +19686,8 @@
       <c r="BE38" s="9"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A39" s="183"/>
-      <c r="B39" s="234"/>
+      <c r="A39" s="184"/>
+      <c r="B39" s="235"/>
       <c r="C39" s="30" t="s">
         <v>185</v>
       </c>
@@ -19740,7 +19749,7 @@
       <c r="BE39" s="9"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A40" s="183"/>
+      <c r="A40" s="184"/>
       <c r="B40" s="137" t="s">
         <v>15</v>
       </c>
@@ -19805,8 +19814,8 @@
       <c r="BE40" s="9"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="183"/>
-      <c r="B41" s="194" t="s">
+      <c r="A41" s="184"/>
+      <c r="B41" s="195" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -19872,8 +19881,8 @@
       <c r="BE41" s="9"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
-      <c r="B42" s="235"/>
+      <c r="A42" s="184"/>
+      <c r="B42" s="236"/>
       <c r="C42" s="31" t="s">
         <v>188</v>
       </c>
@@ -19937,8 +19946,8 @@
       <c r="BE42" s="9"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="183"/>
-      <c r="B43" s="235"/>
+      <c r="A43" s="184"/>
+      <c r="B43" s="236"/>
       <c r="C43" s="31" t="s">
         <v>189</v>
       </c>
@@ -20002,8 +20011,8 @@
       <c r="BE43" s="9"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A44" s="183"/>
-      <c r="B44" s="235"/>
+      <c r="A44" s="184"/>
+      <c r="B44" s="236"/>
       <c r="C44" s="31" t="s">
         <v>190</v>
       </c>
@@ -20067,8 +20076,8 @@
       <c r="BE44" s="9"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A45" s="183"/>
-      <c r="B45" s="235"/>
+      <c r="A45" s="184"/>
+      <c r="B45" s="236"/>
       <c r="C45" s="31" t="s">
         <v>191</v>
       </c>
@@ -20132,8 +20141,8 @@
       <c r="BE45" s="9"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A46" s="183"/>
-      <c r="B46" s="235"/>
+      <c r="A46" s="184"/>
+      <c r="B46" s="236"/>
       <c r="C46" s="31" t="s">
         <v>580</v>
       </c>
@@ -20197,8 +20206,8 @@
       <c r="BE46" s="9"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="183"/>
-      <c r="B47" s="235"/>
+      <c r="A47" s="184"/>
+      <c r="B47" s="236"/>
       <c r="C47" s="31" t="s">
         <v>551</v>
       </c>
@@ -20262,8 +20271,8 @@
       <c r="BE47" s="9"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="183"/>
-      <c r="B48" s="195"/>
+      <c r="A48" s="184"/>
+      <c r="B48" s="196"/>
       <c r="C48" s="31" t="s">
         <v>552</v>
       </c>
@@ -20327,8 +20336,8 @@
       <c r="BE48" s="9"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A49" s="183"/>
-      <c r="B49" s="194" t="s">
+      <c r="A49" s="184"/>
+      <c r="B49" s="195" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="31" t="s">
@@ -20394,8 +20403,8 @@
       <c r="BE49" s="9"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
-      <c r="B50" s="195"/>
+      <c r="A50" s="185"/>
+      <c r="B50" s="196"/>
       <c r="C50" s="31" t="s">
         <v>554</v>
       </c>
@@ -20518,10 +20527,10 @@
       <c r="BE51" s="10"/>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A52" s="185" t="s">
+      <c r="A52" s="186" t="s">
         <v>618</v>
       </c>
-      <c r="B52" s="236" t="s">
+      <c r="B52" s="237" t="s">
         <v>261</v>
       </c>
       <c r="C52" s="30" t="s">
@@ -20585,8 +20594,8 @@
       <c r="BE52" s="18"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A53" s="186"/>
-      <c r="B53" s="237"/>
+      <c r="A53" s="187"/>
+      <c r="B53" s="238"/>
       <c r="C53" s="30" t="s">
         <v>126</v>
       </c>
@@ -20648,7 +20657,7 @@
       <c r="BE53" s="18"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A54" s="186"/>
+      <c r="A54" s="187"/>
       <c r="B54" s="139" t="s">
         <v>262</v>
       </c>
@@ -20713,8 +20722,8 @@
       <c r="BE54" s="18"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A55" s="186"/>
-      <c r="B55" s="232" t="s">
+      <c r="A55" s="187"/>
+      <c r="B55" s="233" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="30" t="s">
@@ -20778,8 +20787,8 @@
       <c r="BE55" s="9"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A56" s="186"/>
-      <c r="B56" s="233"/>
+      <c r="A56" s="187"/>
+      <c r="B56" s="234"/>
       <c r="C56" s="30" t="s">
         <v>250</v>
       </c>
@@ -20841,8 +20850,8 @@
       <c r="BE56" s="9"/>
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A57" s="187"/>
-      <c r="B57" s="234"/>
+      <c r="A57" s="188"/>
+      <c r="B57" s="235"/>
       <c r="C57" s="30" t="s">
         <v>251</v>
       </c>
@@ -20963,7 +20972,7 @@
       <c r="BE58" s="10"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A59" s="185" t="s">
+      <c r="A59" s="186" t="s">
         <v>613</v>
       </c>
       <c r="B59" s="140" t="s">
@@ -21032,7 +21041,7 @@
       <c r="BE59" s="9"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A60" s="186"/>
+      <c r="A60" s="187"/>
       <c r="B60" s="140" t="s">
         <v>43</v>
       </c>
@@ -21099,7 +21108,7 @@
       <c r="BE60" s="9"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A61" s="186"/>
+      <c r="A61" s="187"/>
       <c r="B61" s="140" t="s">
         <v>44</v>
       </c>
@@ -21168,7 +21177,7 @@
       <c r="BE61" s="9"/>
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A62" s="186"/>
+      <c r="A62" s="187"/>
       <c r="B62" s="140" t="s">
         <v>45</v>
       </c>
@@ -21237,8 +21246,8 @@
       <c r="BE62" s="25"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A63" s="186"/>
-      <c r="B63" s="194" t="s">
+      <c r="A63" s="187"/>
+      <c r="B63" s="195" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="31" t="s">
@@ -21308,8 +21317,8 @@
       <c r="BE63" s="9"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A64" s="186"/>
-      <c r="B64" s="195"/>
+      <c r="A64" s="187"/>
+      <c r="B64" s="196"/>
       <c r="C64" s="31" t="s">
         <v>140</v>
       </c>
@@ -21377,7 +21386,7 @@
       <c r="BE64" s="9"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A65" s="186"/>
+      <c r="A65" s="187"/>
       <c r="B65" s="140" t="s">
         <v>47</v>
       </c>
@@ -21454,7 +21463,7 @@
       <c r="BE65" s="18"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A66" s="187"/>
+      <c r="A66" s="188"/>
       <c r="B66" s="141" t="s">
         <v>538</v>
       </c>
@@ -21586,10 +21595,10 @@
       <c r="BE67" s="10"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A68" s="185" t="s">
+      <c r="A68" s="186" t="s">
         <v>604</v>
       </c>
-      <c r="B68" s="231" t="s">
+      <c r="B68" s="232" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -21657,8 +21666,8 @@
       <c r="BE68" s="9"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A69" s="186"/>
-      <c r="B69" s="231"/>
+      <c r="A69" s="187"/>
+      <c r="B69" s="232"/>
       <c r="C69" s="31" t="s">
         <v>255</v>
       </c>
@@ -21724,8 +21733,8 @@
       <c r="BE69" s="9"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A70" s="186"/>
-      <c r="B70" s="231" t="s">
+      <c r="A70" s="187"/>
+      <c r="B70" s="232" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="31" t="s">
@@ -21791,8 +21800,8 @@
       <c r="BE70" s="9"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A71" s="186"/>
-      <c r="B71" s="231"/>
+      <c r="A71" s="187"/>
+      <c r="B71" s="232"/>
       <c r="C71" s="31" t="s">
         <v>117</v>
       </c>
@@ -21858,7 +21867,7 @@
       <c r="BE71" s="9"/>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A72" s="186"/>
+      <c r="A72" s="187"/>
       <c r="B72" s="140" t="s">
         <v>57</v>
       </c>
@@ -21925,7 +21934,7 @@
       <c r="BE72" s="25"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A73" s="186"/>
+      <c r="A73" s="187"/>
       <c r="B73" s="140" t="s">
         <v>58</v>
       </c>
@@ -21992,7 +22001,7 @@
       <c r="BE73" s="25"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A74" s="186"/>
+      <c r="A74" s="187"/>
       <c r="B74" s="140" t="s">
         <v>59</v>
       </c>
@@ -22059,8 +22068,8 @@
       <c r="BE74" s="9"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A75" s="186"/>
-      <c r="B75" s="231" t="s">
+      <c r="A75" s="187"/>
+      <c r="B75" s="232" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="23" t="s">
@@ -22126,8 +22135,8 @@
       <c r="BE75" s="9"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A76" s="186"/>
-      <c r="B76" s="231"/>
+      <c r="A76" s="187"/>
+      <c r="B76" s="232"/>
       <c r="C76" s="23" t="s">
         <v>122</v>
       </c>
@@ -22191,8 +22200,8 @@
       <c r="BE76" s="9"/>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A77" s="186"/>
-      <c r="B77" s="231"/>
+      <c r="A77" s="187"/>
+      <c r="B77" s="232"/>
       <c r="C77" s="23" t="s">
         <v>123</v>
       </c>
@@ -22256,7 +22265,7 @@
       <c r="BE77" s="9"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A78" s="187"/>
+      <c r="A78" s="188"/>
       <c r="B78" s="142" t="s">
         <v>61</v>
       </c>
@@ -22323,10 +22332,10 @@
       <c r="BE78" s="9"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A79" s="185" t="s">
+      <c r="A79" s="186" t="s">
         <v>614</v>
       </c>
-      <c r="B79" s="194" t="s">
+      <c r="B79" s="195" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="31" t="s">
@@ -22392,8 +22401,8 @@
       <c r="BE79" s="9"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A80" s="186"/>
-      <c r="B80" s="195"/>
+      <c r="A80" s="187"/>
+      <c r="B80" s="196"/>
       <c r="C80" s="31" t="s">
         <v>144</v>
       </c>
@@ -22457,7 +22466,7 @@
       <c r="BE80" s="9"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A81" s="186"/>
+      <c r="A81" s="187"/>
       <c r="B81" s="135" t="s">
         <v>76</v>
       </c>
@@ -22524,8 +22533,8 @@
       <c r="BE81" s="9"/>
     </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A82" s="186"/>
-      <c r="B82" s="231" t="s">
+      <c r="A82" s="187"/>
+      <c r="B82" s="232" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="23" t="s">
@@ -22591,8 +22600,8 @@
       <c r="BE82" s="9"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A83" s="186"/>
-      <c r="B83" s="231"/>
+      <c r="A83" s="187"/>
+      <c r="B83" s="232"/>
       <c r="C83" s="23" t="s">
         <v>147</v>
       </c>
@@ -22656,7 +22665,7 @@
       <c r="BE83" s="9"/>
     </row>
     <row r="84" spans="1:57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="186"/>
+      <c r="A84" s="187"/>
       <c r="B84" s="142" t="s">
         <v>78</v>
       </c>
@@ -22725,8 +22734,8 @@
       <c r="BE84" s="25"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A85" s="186"/>
-      <c r="B85" s="194" t="s">
+      <c r="A85" s="187"/>
+      <c r="B85" s="195" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -22794,8 +22803,8 @@
       <c r="BE85" s="9"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A86" s="186"/>
-      <c r="B86" s="235"/>
+      <c r="A86" s="187"/>
+      <c r="B86" s="236"/>
       <c r="C86" s="23" t="s">
         <v>559</v>
       </c>
@@ -22861,8 +22870,8 @@
       <c r="BE86" s="9"/>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A87" s="186"/>
-      <c r="B87" s="195"/>
+      <c r="A87" s="187"/>
+      <c r="B87" s="196"/>
       <c r="C87" s="23" t="s">
         <v>152</v>
       </c>
@@ -22928,7 +22937,7 @@
       <c r="BE87" s="9"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A88" s="186"/>
+      <c r="A88" s="187"/>
       <c r="B88" s="142" t="s">
         <v>80</v>
       </c>
@@ -22999,8 +23008,8 @@
       <c r="BE88" s="9"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A89" s="186"/>
-      <c r="B89" s="194" t="s">
+      <c r="A89" s="187"/>
+      <c r="B89" s="195" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="23" t="s">
@@ -23068,8 +23077,8 @@
       <c r="BE89" s="9"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A90" s="186"/>
-      <c r="B90" s="235"/>
+      <c r="A90" s="187"/>
+      <c r="B90" s="236"/>
       <c r="C90" s="23" t="s">
         <v>151</v>
       </c>
@@ -23135,8 +23144,8 @@
       <c r="BE90" s="9"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A91" s="186"/>
-      <c r="B91" s="235"/>
+      <c r="A91" s="187"/>
+      <c r="B91" s="236"/>
       <c r="C91" s="23" t="s">
         <v>559</v>
       </c>
@@ -23202,8 +23211,8 @@
       <c r="BE91" s="9"/>
     </row>
     <row r="92" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A92" s="187"/>
-      <c r="B92" s="195"/>
+      <c r="A92" s="188"/>
+      <c r="B92" s="196"/>
       <c r="C92" s="23" t="s">
         <v>152</v>
       </c>
@@ -23269,10 +23278,10 @@
       <c r="BE92" s="9"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A93" s="185" t="s">
+      <c r="A93" s="186" t="s">
         <v>615</v>
       </c>
-      <c r="B93" s="194" t="s">
+      <c r="B93" s="195" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="23" t="s">
@@ -23338,8 +23347,8 @@
       <c r="BE93" s="25"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A94" s="187"/>
-      <c r="B94" s="195"/>
+      <c r="A94" s="188"/>
+      <c r="B94" s="196"/>
       <c r="C94" s="23" t="s">
         <v>132</v>
       </c>
@@ -23462,10 +23471,10 @@
       <c r="BE95" s="10"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A96" s="185" t="s">
+      <c r="A96" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="231" t="s">
+      <c r="B96" s="232" t="s">
         <v>101</v>
       </c>
       <c r="C96" s="23" t="s">
@@ -23533,8 +23542,8 @@
       <c r="BE96" s="9"/>
     </row>
     <row r="97" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A97" s="186"/>
-      <c r="B97" s="231"/>
+      <c r="A97" s="187"/>
+      <c r="B97" s="232"/>
       <c r="C97" s="23" t="s">
         <v>562</v>
       </c>
@@ -23600,7 +23609,7 @@
       <c r="BE97" s="9"/>
     </row>
     <row r="98" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="187"/>
+      <c r="A98" s="188"/>
       <c r="B98" s="141" t="s">
         <v>560</v>
       </c>
@@ -23666,7 +23675,7 @@
       <c r="BE98" s="9"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A99" s="185" t="s">
+      <c r="A99" s="186" t="s">
         <v>616</v>
       </c>
       <c r="B99" s="142" t="s">
@@ -23735,7 +23744,7 @@
       <c r="BE99" s="9"/>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A100" s="186"/>
+      <c r="A100" s="187"/>
       <c r="B100" s="141" t="s">
         <v>265</v>
       </c>
@@ -23806,7 +23815,7 @@
       <c r="BE100" s="9"/>
     </row>
     <row r="101" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="187"/>
+      <c r="A101" s="188"/>
       <c r="B101" s="141" t="s">
         <v>264</v>
       </c>
@@ -23872,7 +23881,7 @@
       <c r="BE101" s="9"/>
     </row>
     <row r="102" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="185" t="s">
+      <c r="A102" s="186" t="s">
         <v>617</v>
       </c>
       <c r="B102" s="140" t="s">
@@ -23941,7 +23950,7 @@
       <c r="BE102" s="9"/>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A103" s="187"/>
+      <c r="A103" s="188"/>
       <c r="B103" s="141" t="s">
         <v>263</v>
       </c>
@@ -24067,7 +24076,7 @@
       <c r="BE104" s="10"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A105" s="185" t="s">
+      <c r="A105" s="186" t="s">
         <v>605</v>
       </c>
       <c r="B105" s="140" t="s">
@@ -24136,7 +24145,7 @@
       <c r="BE105" s="25"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A106" s="186"/>
+      <c r="A106" s="187"/>
       <c r="B106" s="140" t="s">
         <v>539</v>
       </c>
@@ -24203,7 +24212,7 @@
       <c r="BE106" s="25"/>
     </row>
     <row r="107" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A107" s="186"/>
+      <c r="A107" s="187"/>
       <c r="B107" s="140" t="s">
         <v>540</v>
       </c>
@@ -24270,8 +24279,8 @@
       <c r="BE107" s="25"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A108" s="186"/>
-      <c r="B108" s="231" t="s">
+      <c r="A108" s="187"/>
+      <c r="B108" s="232" t="s">
         <v>541</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -24337,8 +24346,8 @@
       <c r="BE108" s="25"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A109" s="186"/>
-      <c r="B109" s="231"/>
+      <c r="A109" s="187"/>
+      <c r="B109" s="232"/>
       <c r="C109" s="23" t="s">
         <v>194</v>
       </c>
@@ -24402,8 +24411,8 @@
       <c r="BE109" s="25"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A110" s="186"/>
-      <c r="B110" s="231"/>
+      <c r="A110" s="187"/>
+      <c r="B110" s="232"/>
       <c r="C110" s="23" t="s">
         <v>195</v>
       </c>
@@ -24467,8 +24476,8 @@
       <c r="BE110" s="25"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A111" s="186"/>
-      <c r="B111" s="231" t="s">
+      <c r="A111" s="187"/>
+      <c r="B111" s="232" t="s">
         <v>542</v>
       </c>
       <c r="C111" s="23" t="s">
@@ -24534,8 +24543,8 @@
       <c r="BE111" s="25"/>
     </row>
     <row r="112" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A112" s="186"/>
-      <c r="B112" s="231"/>
+      <c r="A112" s="187"/>
+      <c r="B112" s="232"/>
       <c r="C112" s="23" t="s">
         <v>547</v>
       </c>
@@ -24599,7 +24608,7 @@
       <c r="BE112" s="25"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A113" s="186"/>
+      <c r="A113" s="187"/>
       <c r="B113" s="140" t="s">
         <v>543</v>
       </c>
@@ -24666,8 +24675,8 @@
       <c r="BE113" s="25"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A114" s="186"/>
-      <c r="B114" s="194" t="s">
+      <c r="A114" s="187"/>
+      <c r="B114" s="195" t="s">
         <v>544</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -24733,8 +24742,8 @@
       <c r="BE114" s="25"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A115" s="186"/>
-      <c r="B115" s="195"/>
+      <c r="A115" s="187"/>
+      <c r="B115" s="196"/>
       <c r="C115" s="23" t="s">
         <v>570</v>
       </c>
@@ -24798,7 +24807,7 @@
       <c r="BE115" s="25"/>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A116" s="187"/>
+      <c r="A116" s="188"/>
       <c r="B116" s="140" t="s">
         <v>545</v>
       </c>
@@ -24865,10 +24874,10 @@
       <c r="BE116" s="25"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B118" s="203" t="s">
+      <c r="B118" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="203"/>
+      <c r="C118" s="204"/>
       <c r="D118" s="68" t="s">
         <v>387</v>
       </c>
@@ -24896,19 +24905,19 @@
       <c r="AB118" s="68"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B119" s="196" t="s">
+      <c r="B119" s="197" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="196"/>
+      <c r="C119" s="197"/>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
       <c r="F119" s="66"/>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B120" s="197" t="s">
+      <c r="B120" s="198" t="s">
         <v>346</v>
       </c>
-      <c r="C120" s="197"/>
+      <c r="C120" s="198"/>
       <c r="D120" s="67"/>
       <c r="E120" s="67"/>
       <c r="F120" s="67"/>
@@ -24977,8 +24986,8 @@
   </sheetPr>
   <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BE11" sqref="BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25006,71 +25015,71 @@
   <sheetData>
     <row r="1" spans="1:56" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="262"/>
-      <c r="C1" s="238" t="s">
+      <c r="C1" s="239" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
       <c r="P1" s="97"/>
-      <c r="Q1" s="238" t="s">
+      <c r="Q1" s="239" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="239"/>
       <c r="T1" s="97"/>
-      <c r="U1" s="238" t="s">
+      <c r="U1" s="239" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
+      <c r="V1" s="239"/>
+      <c r="W1" s="239"/>
+      <c r="X1" s="239"/>
+      <c r="Y1" s="239"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="239"/>
       <c r="AB1" s="97"/>
-      <c r="AC1" s="248" t="s">
+      <c r="AC1" s="249" t="s">
         <v>238</v>
       </c>
-      <c r="AD1" s="249"/>
-      <c r="AE1" s="249"/>
-      <c r="AF1" s="249"/>
-      <c r="AG1" s="249"/>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="249"/>
-      <c r="AJ1" s="249"/>
-      <c r="AK1" s="249"/>
-      <c r="AL1" s="249"/>
-      <c r="AM1" s="250"/>
+      <c r="AD1" s="250"/>
+      <c r="AE1" s="250"/>
+      <c r="AF1" s="250"/>
+      <c r="AG1" s="250"/>
+      <c r="AH1" s="250"/>
+      <c r="AI1" s="250"/>
+      <c r="AJ1" s="250"/>
+      <c r="AK1" s="250"/>
+      <c r="AL1" s="250"/>
+      <c r="AM1" s="251"/>
       <c r="AN1" s="97"/>
-      <c r="AO1" s="245" t="s">
+      <c r="AO1" s="246" t="s">
         <v>239</v>
       </c>
-      <c r="AP1" s="246"/>
-      <c r="AQ1" s="246"/>
-      <c r="AR1" s="247"/>
+      <c r="AP1" s="247"/>
+      <c r="AQ1" s="247"/>
+      <c r="AR1" s="248"/>
       <c r="AS1" s="97"/>
-      <c r="AT1" s="238" t="s">
+      <c r="AT1" s="239" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" s="238"/>
-      <c r="AV1" s="238"/>
+      <c r="AU1" s="239"/>
+      <c r="AV1" s="239"/>
       <c r="AW1" s="97"/>
-      <c r="AX1" s="242" t="s">
+      <c r="AX1" s="243" t="s">
         <v>246</v>
       </c>
-      <c r="AY1" s="243"/>
-      <c r="AZ1" s="243"/>
-      <c r="BA1" s="244"/>
+      <c r="AY1" s="244"/>
+      <c r="AZ1" s="244"/>
+      <c r="BA1" s="245"/>
       <c r="BB1" s="97"/>
       <c r="BC1" s="98" t="s">
         <v>234</v>
@@ -25494,11 +25503,11 @@
         <v>628</v>
       </c>
       <c r="AW4" s="45"/>
-      <c r="AX4" s="239" t="s">
+      <c r="AX4" s="240" t="s">
         <v>419</v>
       </c>
-      <c r="AY4" s="240"/>
-      <c r="AZ4" s="241"/>
+      <c r="AY4" s="241"/>
+      <c r="AZ4" s="242"/>
       <c r="BA4" s="46" t="s">
         <v>420</v>
       </c>
@@ -25508,7 +25517,7 @@
       </c>
     </row>
     <row r="5" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="260" t="s">
+      <c r="A5" s="273" t="s">
         <v>526</v>
       </c>
       <c r="B5" s="119" t="s">
@@ -25569,7 +25578,7 @@
       <c r="BC5" s="11"/>
     </row>
     <row r="6" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="260"/>
+      <c r="A6" s="273"/>
       <c r="B6" s="119" t="s">
         <v>511</v>
       </c>
@@ -25628,7 +25637,7 @@
       <c r="BC6" s="11"/>
     </row>
     <row r="7" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="260"/>
+      <c r="A7" s="273"/>
       <c r="B7" s="118" t="s">
         <v>512</v>
       </c>
@@ -25694,7 +25703,7 @@
       <c r="BC7" s="11"/>
     </row>
     <row r="8" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="260"/>
+      <c r="A8" s="273"/>
       <c r="B8" s="118" t="s">
         <v>513</v>
       </c>
@@ -25759,7 +25768,7 @@
       <c r="BC8" s="11"/>
     </row>
     <row r="9" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="260"/>
+      <c r="A9" s="273"/>
       <c r="B9" s="118" t="s">
         <v>514</v>
       </c>
@@ -25820,7 +25829,7 @@
       <c r="BC9" s="11"/>
     </row>
     <row r="10" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="260"/>
+      <c r="A10" s="273"/>
       <c r="B10" s="118" t="s">
         <v>521</v>
       </c>
@@ -25862,9 +25871,15 @@
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
+      <c r="AI10" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ10" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK10" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="AL10" s="12" t="s">
         <v>242</v>
       </c>
@@ -25889,7 +25904,7 @@
       <c r="BC10" s="11"/>
     </row>
     <row r="11" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="260"/>
+      <c r="A11" s="273"/>
       <c r="B11" s="118" t="s">
         <v>522</v>
       </c>
@@ -25930,16 +25945,16 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
-      <c r="AL11" s="12" t="s">
-        <v>242</v>
-      </c>
+      <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="10"/>
-      <c r="AO11" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ11" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="AR11" s="11"/>
       <c r="AS11" s="10"/>
       <c r="AT11" s="11"/>
@@ -25956,7 +25971,7 @@
       <c r="BC11" s="11"/>
     </row>
     <row r="12" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="260"/>
+      <c r="A12" s="273"/>
       <c r="B12" s="118" t="s">
         <v>523</v>
       </c>
@@ -26003,14 +26018,10 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
-      <c r="AL12" s="12" t="s">
-        <v>242</v>
-      </c>
+      <c r="AL12" s="160"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="10"/>
-      <c r="AO12" s="12" t="s">
-        <v>242</v>
-      </c>
+      <c r="AO12" s="160"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
@@ -26033,7 +26044,7 @@
       <c r="BC12" s="11"/>
     </row>
     <row r="13" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="260"/>
+      <c r="A13" s="273"/>
       <c r="B13" s="118" t="s">
         <v>515</v>
       </c>
@@ -26094,7 +26105,7 @@
       <c r="BC13" s="25"/>
     </row>
     <row r="14" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="260"/>
+      <c r="A14" s="273"/>
       <c r="B14" s="119" t="s">
         <v>516</v>
       </c>
@@ -26153,7 +26164,7 @@
       <c r="BC14" s="25"/>
     </row>
     <row r="15" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="260"/>
+      <c r="A15" s="273"/>
       <c r="B15" s="119" t="s">
         <v>518</v>
       </c>
@@ -26212,7 +26223,7 @@
       <c r="BC15" s="25"/>
     </row>
     <row r="16" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="260"/>
+      <c r="A16" s="273"/>
       <c r="B16" s="119" t="s">
         <v>517</v>
       </c>
@@ -26271,7 +26282,7 @@
       <c r="BC16" s="25"/>
     </row>
     <row r="17" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="260"/>
+      <c r="A17" s="273"/>
       <c r="B17" s="119" t="s">
         <v>519</v>
       </c>
@@ -26330,7 +26341,7 @@
       <c r="BC17" s="25"/>
     </row>
     <row r="18" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="260"/>
+      <c r="A18" s="273"/>
       <c r="B18" s="119" t="s">
         <v>520</v>
       </c>
@@ -26390,13 +26401,13 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="203" t="s">
+      <c r="C20" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
@@ -26419,13 +26430,13 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="196" t="s">
+      <c r="C21" s="197" t="s">
         <v>524</v>
       </c>
-      <c r="D21" s="196"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
@@ -26439,8 +26450,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="A5:A18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -26457,6 +26466,8 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="AC1:AM1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AO1:AR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/distribution/reference_documents/working_material/AVCDL mappings.xlsx
+++ b/distribution/reference_documents/working_material/AVCDL mappings.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles.wilson/Documents/projects/AVCDL/distribution/reference_documents/working_material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles.wilson/Documents/projects/AVCDL/source/reference_documents/working_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3549078-3195-C44B-B559-3F88748FC16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A68AF-3B2D-7A4A-B3B2-D079E92FC5F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="9160" windowWidth="32160" windowHeight="23180" activeTab="6" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
+    <workbookView xWindow="22140" yWindow="3580" windowWidth="32160" windowHeight="23180" activeTab="7" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO 21434 work products" sheetId="1" r:id="rId1"/>
     <sheet name="434-262 map" sheetId="4" r:id="rId2"/>
     <sheet name="434 req-WP.29 map" sheetId="11" r:id="rId3"/>
-    <sheet name="AVCDL req-'434 phase req map" sheetId="2" r:id="rId4"/>
-    <sheet name="AVCDL-'434 req product map" sheetId="5" r:id="rId5"/>
+    <sheet name="AVCDL req-434 phase req map" sheetId="2" r:id="rId4"/>
+    <sheet name="AVCDL-434 req product map" sheetId="5" r:id="rId5"/>
     <sheet name="434 req-AVCDL product map" sheetId="10" r:id="rId6"/>
     <sheet name="WP.29-AVCDL product map" sheetId="12" r:id="rId7"/>
+    <sheet name="262-AVCDL product map" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="651">
   <si>
     <t xml:space="preserve">Organization Culture </t>
   </si>
@@ -1947,6 +1948,51 @@
   </si>
   <si>
     <t>AVCDL product</t>
+  </si>
+  <si>
+    <t>no '262 product</t>
+  </si>
+  <si>
+    <t>262 product match</t>
+  </si>
+  <si>
+    <t>2-E.3.1 [a]</t>
+  </si>
+  <si>
+    <t>2-E.3.1 [b]</t>
+  </si>
+  <si>
+    <t>2-E.3.2 [a]</t>
+  </si>
+  <si>
+    <t>2-E.3.2 [b]</t>
+  </si>
+  <si>
+    <t>2-E.3.2 [c]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [a]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [b]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [c]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [d]</t>
+  </si>
+  <si>
+    <t>2-E.3.3 [e]</t>
+  </si>
+  <si>
+    <t>2-E.3.4</t>
+  </si>
+  <si>
+    <t>Part 2 Annex E</t>
+  </si>
+  <si>
+    <t>in primary document</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2335,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2739,35 +2785,59 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2802,8 +2872,71 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2814,71 +2947,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2907,8 +2977,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2937,33 +3019,84 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2973,71 +3106,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3075,9 +3145,64 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -3608,36 +3733,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="176" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="163"/>
+      <c r="D1" s="176"/>
       <c r="E1" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="163" t="s">
+      <c r="F1" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163" t="s">
+      <c r="G1" s="176"/>
+      <c r="H1" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="85"/>
@@ -3672,13 +3797,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="169" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="171" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="83"/>
@@ -3718,9 +3843,9 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="166"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="171"/>
       <c r="E4" s="83"/>
       <c r="F4" s="69" t="s">
         <v>3</v>
@@ -3737,9 +3862,9 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="166"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="83"/>
       <c r="F5" s="69" t="s">
         <v>5</v>
@@ -3757,9 +3882,9 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="166"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="83"/>
       <c r="F6" s="69" t="s">
         <v>6</v>
@@ -3773,9 +3898,9 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="166"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="83"/>
       <c r="F7" s="69" t="s">
         <v>7</v>
@@ -3789,11 +3914,11 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="162" t="s">
+      <c r="B8" s="169"/>
+      <c r="C8" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="175" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="83"/>
@@ -3866,9 +3991,9 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="165"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="83"/>
       <c r="F9" s="69" t="s">
         <v>15</v>
@@ -3882,9 +4007,9 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="86"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="165"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="87" t="s">
         <v>198</v>
       </c>
@@ -3921,9 +4046,9 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="88" t="s">
         <v>344</v>
       </c>
@@ -3942,14 +4067,14 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="85"/>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="85"/>
@@ -3973,13 +4098,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="169" t="s">
         <v>606</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="170" t="s">
         <v>537</v>
       </c>
-      <c r="D13" s="166" t="s">
+      <c r="D13" s="171" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="83"/>
@@ -3998,9 +4123,9 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="166"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="83"/>
       <c r="F14" s="92" t="s">
         <v>262</v>
@@ -4014,9 +4139,9 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="166"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="83"/>
       <c r="F15" s="69" t="s">
         <v>23</v>
@@ -4066,14 +4191,14 @@
       <c r="AA16" s="128"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="168"/>
-      <c r="B17" s="170" t="s">
+      <c r="A17" s="172"/>
+      <c r="B17" s="174" t="s">
         <v>613</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="166" t="s">
+      <c r="D17" s="171" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="80" t="s">
@@ -4090,10 +4215,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="168"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="166"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="80" t="s">
         <v>244</v>
       </c>
@@ -4108,10 +4233,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="168"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="166"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="80" t="s">
         <v>244</v>
       </c>
@@ -4126,8 +4251,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="168"/>
-      <c r="B20" s="170"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="110" t="s">
         <v>32</v>
       </c>
@@ -4148,8 +4273,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="168"/>
-      <c r="B21" s="170"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="110" t="s">
         <v>33</v>
       </c>
@@ -4173,12 +4298,12 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="168"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="162" t="s">
+      <c r="A22" s="172"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="171" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="88" t="s">
@@ -4195,10 +4320,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="168"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="166"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
       <c r="E23" s="88" t="s">
         <v>198</v>
       </c>
@@ -4214,14 +4339,14 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="85"/>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="85"/>
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
@@ -4244,8 +4369,8 @@
       <c r="AA24" s="128"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="168"/>
-      <c r="B25" s="169" t="s">
+      <c r="A25" s="172"/>
+      <c r="B25" s="173" t="s">
         <v>604</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -4271,12 +4396,12 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="168"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="162" t="s">
+      <c r="A26" s="172"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="166" t="s">
+      <c r="D26" s="171" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="80" t="s">
@@ -4296,10 +4421,10 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="168"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="166"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
       <c r="E27" s="80" t="s">
         <v>198</v>
       </c>
@@ -4314,10 +4439,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="168"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="166"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
       <c r="E28" s="80" t="s">
         <v>198</v>
       </c>
@@ -4332,10 +4457,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="168"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="166"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
       <c r="E29" s="80" t="s">
         <v>198</v>
       </c>
@@ -4350,12 +4475,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="168"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="162" t="s">
+      <c r="A30" s="172"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="171" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="80" t="s">
@@ -4378,10 +4503,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="168"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="166"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="171"/>
       <c r="E31" s="80" t="s">
         <v>198</v>
       </c>
@@ -4396,14 +4521,14 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
-      <c r="B32" s="164" t="s">
+      <c r="A32" s="172"/>
+      <c r="B32" s="169" t="s">
         <v>622</v>
       </c>
-      <c r="C32" s="162" t="s">
+      <c r="C32" s="170" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="165" t="s">
+      <c r="D32" s="175" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="87" t="s">
@@ -4423,10 +4548,10 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="168"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="165"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="88" t="s">
         <v>197</v>
       </c>
@@ -4441,10 +4566,10 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="168"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="165"/>
+      <c r="A34" s="172"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="88" t="s">
         <v>244</v>
       </c>
@@ -4462,10 +4587,10 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="168"/>
-      <c r="B35" s="164"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="165"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="88" t="s">
         <v>200</v>
       </c>
@@ -4480,12 +4605,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="168"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="162" t="s">
+      <c r="A36" s="172"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="166" t="s">
+      <c r="D36" s="171" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="88" t="s">
@@ -4508,10 +4633,10 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="168"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="166"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="171"/>
       <c r="E37" s="80" t="s">
         <v>199</v>
       </c>
@@ -4526,10 +4651,10 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="168"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="166"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="80" t="s">
         <v>199</v>
       </c>
@@ -4553,8 +4678,8 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="168"/>
-      <c r="B39" s="164"/>
+      <c r="A39" s="172"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="110" t="s">
         <v>97</v>
       </c>
@@ -4579,14 +4704,14 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="85"/>
-      <c r="B40" s="161" t="s">
+      <c r="B40" s="168" t="s">
         <v>508</v>
       </c>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
       <c r="H40" s="85"/>
       <c r="I40" s="85"/>
       <c r="J40" s="85"/>
@@ -4610,13 +4735,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="109"/>
-      <c r="B41" s="164" t="s">
+      <c r="B41" s="169" t="s">
         <v>620</v>
       </c>
-      <c r="C41" s="162" t="s">
+      <c r="C41" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="166" t="s">
+      <c r="D41" s="171" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="88" t="s">
@@ -4636,10 +4761,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="168"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="166"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="171"/>
       <c r="E42" s="80" t="s">
         <v>247</v>
       </c>
@@ -4654,12 +4779,12 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="168"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="162" t="s">
+      <c r="A43" s="172"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="166" t="s">
+      <c r="D43" s="171" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="88" t="s">
@@ -4676,10 +4801,10 @@
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="168"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="166"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="171"/>
       <c r="E44" s="80" t="s">
         <v>247</v>
       </c>
@@ -4694,8 +4819,8 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="168"/>
-      <c r="B45" s="164"/>
+      <c r="A45" s="172"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="110" t="s">
         <v>111</v>
       </c>
@@ -4716,8 +4841,8 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="168"/>
-      <c r="B46" s="164"/>
+      <c r="A46" s="172"/>
+      <c r="B46" s="169"/>
       <c r="C46" s="110" t="s">
         <v>566</v>
       </c>
@@ -4738,8 +4863,8 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="168"/>
-      <c r="B47" s="164"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="169"/>
       <c r="C47" s="110" t="s">
         <v>567</v>
       </c>
@@ -4761,14 +4886,14 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="85"/>
-      <c r="B48" s="161" t="s">
+      <c r="B48" s="168" t="s">
         <v>549</v>
       </c>
-      <c r="C48" s="161"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
       <c r="H48" s="85"/>
       <c r="I48" s="85"/>
       <c r="J48" s="85"/>
@@ -4792,13 +4917,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="100"/>
-      <c r="B49" s="164" t="s">
+      <c r="B49" s="169" t="s">
         <v>605</v>
       </c>
-      <c r="C49" s="162" t="s">
+      <c r="C49" s="170" t="s">
         <v>530</v>
       </c>
-      <c r="D49" s="166" t="s">
+      <c r="D49" s="171" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="88" t="s">
@@ -4816,9 +4941,9 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="100"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="166"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="171"/>
       <c r="E50" s="88" t="s">
         <v>198</v>
       </c>
@@ -4834,7 +4959,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="100"/>
-      <c r="B51" s="164"/>
+      <c r="B51" s="169"/>
       <c r="C51" s="110" t="s">
         <v>531</v>
       </c>
@@ -4856,7 +4981,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="100"/>
-      <c r="B52" s="164"/>
+      <c r="B52" s="169"/>
       <c r="C52" s="110" t="s">
         <v>532</v>
       </c>
@@ -4884,7 +5009,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="100"/>
-      <c r="B53" s="164"/>
+      <c r="B53" s="169"/>
       <c r="C53" s="110" t="s">
         <v>533</v>
       </c>
@@ -4909,7 +5034,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="100"/>
-      <c r="B54" s="164"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="110" t="s">
         <v>534</v>
       </c>
@@ -4931,7 +5056,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="100"/>
-      <c r="B55" s="164"/>
+      <c r="B55" s="169"/>
       <c r="C55" s="110" t="s">
         <v>535</v>
       </c>
@@ -4956,7 +5081,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="100"/>
-      <c r="B56" s="164"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="110" t="s">
         <v>536</v>
       </c>
@@ -4993,16 +5118,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="H1:X1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="D22:D23"/>
@@ -5019,21 +5149,16 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="D32:D35"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="H1:X1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5068,38 +5193,38 @@
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="183" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="177" t="s">
+      <c r="C1" s="184"/>
+      <c r="D1" s="185" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="174" t="s">
+      <c r="E1" s="186"/>
+      <c r="F1" s="182" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="174"/>
-      <c r="H1" s="172" t="s">
+      <c r="G1" s="182"/>
+      <c r="H1" s="180" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="173"/>
+      <c r="I1" s="181"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="169" t="s">
         <v>612</v>
       </c>
       <c r="B3" s="73" t="s">
@@ -5124,7 +5249,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="164"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="73" t="s">
         <v>276</v>
       </c>
@@ -5147,7 +5272,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="164"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="73" t="s">
         <v>278</v>
       </c>
@@ -5174,17 +5299,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="164"/>
-      <c r="B6" s="162" t="s">
+      <c r="A6" s="169"/>
+      <c r="B6" s="170" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="171" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="166" t="s">
+      <c r="E6" s="171" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="75" t="s">
@@ -5201,11 +5326,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="164"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
       <c r="F7" s="75" t="s">
         <v>328</v>
       </c>
@@ -5220,7 +5345,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="164"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="73" t="s">
         <v>267</v>
       </c>
@@ -5247,17 +5372,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="164"/>
-      <c r="B9" s="162" t="s">
+      <c r="A9" s="169"/>
+      <c r="B9" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="166" t="s">
+      <c r="C9" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="171" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="75" t="s">
@@ -5274,11 +5399,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="164"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
       <c r="F10" s="75" t="s">
         <v>325</v>
       </c>
@@ -5293,17 +5418,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="181" t="s">
+      <c r="A11" s="169"/>
+      <c r="B11" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="188" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="188" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="75" t="s">
@@ -5320,11 +5445,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
       <c r="F12" s="75" t="s">
         <v>374</v>
       </c>
@@ -5339,7 +5464,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="169" t="s">
         <v>611</v>
       </c>
       <c r="B13" s="73" t="s">
@@ -5368,7 +5493,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="164"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="73" t="s">
         <v>282</v>
       </c>
@@ -5395,7 +5520,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="164"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="73" t="s">
         <v>284</v>
       </c>
@@ -5422,7 +5547,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="164"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="73" t="s">
         <v>286</v>
       </c>
@@ -5449,7 +5574,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="164"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="76" t="s">
         <v>288</v>
       </c>
@@ -5476,17 +5601,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="164"/>
-      <c r="B18" s="179" t="s">
+      <c r="A18" s="169"/>
+      <c r="B18" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="179" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="171" t="s">
+      <c r="E18" s="179" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
@@ -5503,11 +5628,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="164"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="75" t="s">
         <v>365</v>
       </c>
@@ -5522,11 +5647,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="164"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
       <c r="F20" s="75" t="s">
         <v>367</v>
       </c>
@@ -5541,7 +5666,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="164"/>
+      <c r="A21" s="169"/>
       <c r="B21" s="73" t="s">
         <v>292</v>
       </c>
@@ -5568,17 +5693,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="164"/>
-      <c r="B22" s="162" t="s">
+      <c r="A22" s="169"/>
+      <c r="B22" s="170" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="166" t="s">
+      <c r="C22" s="171" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="166" t="s">
+      <c r="E22" s="171" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="75" t="s">
@@ -5595,11 +5720,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="164"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
       <c r="F23" s="75" t="s">
         <v>357</v>
       </c>
@@ -5614,7 +5739,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="164"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="73" t="s">
         <v>296</v>
       </c>
@@ -5641,20 +5766,20 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="161" t="s">
+      <c r="A25" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="169" t="s">
         <v>618</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -5683,17 +5808,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="164"/>
-      <c r="B27" s="162" t="s">
+      <c r="A27" s="169"/>
+      <c r="B27" s="170" t="s">
         <v>528</v>
       </c>
-      <c r="C27" s="166" t="s">
+      <c r="C27" s="171" t="s">
         <v>299</v>
       </c>
-      <c r="D27" s="182" t="s">
+      <c r="D27" s="178" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="166" t="s">
+      <c r="E27" s="171" t="s">
         <v>259</v>
       </c>
       <c r="F27" s="75" t="s">
@@ -5710,11 +5835,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="164"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="166"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="171"/>
       <c r="F28" s="75" t="s">
         <v>313</v>
       </c>
@@ -5729,17 +5854,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="164"/>
-      <c r="B29" s="162" t="s">
+      <c r="A29" s="169"/>
+      <c r="B29" s="170" t="s">
         <v>529</v>
       </c>
-      <c r="C29" s="166" t="s">
+      <c r="C29" s="171" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="166" t="s">
+      <c r="D29" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="166" t="s">
+      <c r="E29" s="171" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="75" t="s">
@@ -5756,11 +5881,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="164"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
       <c r="F30" s="75" t="s">
         <v>311</v>
       </c>
@@ -5775,26 +5900,26 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="161" t="s">
+      <c r="A31" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="174" t="s">
         <v>613</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="166" t="s">
+      <c r="C32" s="171" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="72" t="s">
@@ -5805,9 +5930,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="170"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="166"/>
+      <c r="A33" s="174"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="171"/>
       <c r="D33" s="72" t="s">
         <v>43</v>
       </c>
@@ -5816,9 +5941,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="170"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="166"/>
+      <c r="A34" s="174"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
       <c r="D34" s="72" t="s">
         <v>44</v>
       </c>
@@ -5831,7 +5956,7 @@
       <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="170"/>
+      <c r="A35" s="174"/>
       <c r="B35" s="75" t="s">
         <v>32</v>
       </c>
@@ -5846,7 +5971,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="170"/>
+      <c r="A36" s="174"/>
       <c r="B36" s="75" t="s">
         <v>33</v>
       </c>
@@ -5861,11 +5986,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="170"/>
-      <c r="B37" s="162" t="s">
+      <c r="A37" s="174"/>
+      <c r="B37" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="166" t="s">
+      <c r="C37" s="171" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="107" t="s">
@@ -5876,9 +6001,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="170"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="166"/>
+      <c r="A38" s="174"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="171"/>
       <c r="D38" s="79" t="s">
         <v>538</v>
       </c>
@@ -5887,20 +6012,20 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="169" t="s">
+      <c r="A40" s="173" t="s">
         <v>604</v>
       </c>
       <c r="B40" s="75" t="s">
@@ -5917,11 +6042,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="169"/>
-      <c r="B41" s="162" t="s">
+      <c r="A41" s="173"/>
+      <c r="B41" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="166" t="s">
+      <c r="C41" s="171" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -5932,9 +6057,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="169"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="166"/>
+      <c r="A42" s="173"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="171"/>
       <c r="D42" s="72" t="s">
         <v>57</v>
       </c>
@@ -5943,9 +6068,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="169"/>
-      <c r="B43" s="162"/>
-      <c r="C43" s="166"/>
+      <c r="A43" s="173"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="72" t="s">
         <v>58</v>
       </c>
@@ -5954,9 +6079,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="169"/>
-      <c r="B44" s="162"/>
-      <c r="C44" s="166"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="72" t="s">
         <v>59</v>
       </c>
@@ -5965,11 +6090,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="169"/>
-      <c r="B45" s="162" t="s">
+      <c r="A45" s="173"/>
+      <c r="B45" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="166" t="s">
+      <c r="C45" s="171" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="72" t="s">
@@ -5980,9 +6105,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="169"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="166"/>
+      <c r="A46" s="173"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="171"/>
       <c r="D46" s="72" t="s">
         <v>61</v>
       </c>
@@ -5991,13 +6116,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="164" t="s">
+      <c r="A47" s="169" t="s">
         <v>622</v>
       </c>
-      <c r="B47" s="162" t="s">
+      <c r="B47" s="170" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="166" t="s">
+      <c r="C47" s="171" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="72" t="s">
@@ -6008,9 +6133,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="164"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="166"/>
+      <c r="A48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="171"/>
       <c r="D48" s="72" t="s">
         <v>76</v>
       </c>
@@ -6019,9 +6144,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="164"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="166"/>
+      <c r="A49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="171"/>
       <c r="D49" s="72" t="s">
         <v>77</v>
       </c>
@@ -6034,9 +6159,9 @@
       <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="164"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="166"/>
+      <c r="A50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="171"/>
       <c r="D50" s="72" t="s">
         <v>78</v>
       </c>
@@ -6045,11 +6170,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="164"/>
-      <c r="B51" s="162" t="s">
+      <c r="A51" s="169"/>
+      <c r="B51" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="166" t="s">
+      <c r="C51" s="171" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="72" t="s">
@@ -6060,9 +6185,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="164"/>
-      <c r="B52" s="162"/>
-      <c r="C52" s="166"/>
+      <c r="A52" s="169"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="171"/>
       <c r="D52" s="72" t="s">
         <v>80</v>
       </c>
@@ -6071,7 +6196,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="164"/>
+      <c r="A53" s="169"/>
       <c r="B53" s="110" t="s">
         <v>94</v>
       </c>
@@ -6086,7 +6211,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="164"/>
+      <c r="A54" s="169"/>
       <c r="B54" s="73" t="s">
         <v>97</v>
       </c>
@@ -6101,26 +6226,26 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="161" t="s">
+      <c r="A55" s="168" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="161"/>
-      <c r="C55" s="161"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="168"/>
+      <c r="I55" s="168"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="164" t="s">
+      <c r="A56" s="169" t="s">
         <v>619</v>
       </c>
-      <c r="B56" s="162" t="s">
+      <c r="B56" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="166" t="s">
+      <c r="C56" s="171" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -6131,9 +6256,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="164"/>
-      <c r="B57" s="162"/>
-      <c r="C57" s="166"/>
+      <c r="A57" s="169"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="171"/>
       <c r="D57" s="92" t="s">
         <v>560</v>
       </c>
@@ -6146,11 +6271,11 @@
       <c r="I57" s="107"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="164"/>
-      <c r="B58" s="162" t="s">
+      <c r="A58" s="169"/>
+      <c r="B58" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="166" t="s">
+      <c r="C58" s="171" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -6161,9 +6286,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="164"/>
-      <c r="B59" s="162"/>
-      <c r="C59" s="166"/>
+      <c r="A59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="171"/>
       <c r="D59" s="92" t="s">
         <v>265</v>
       </c>
@@ -6176,7 +6301,7 @@
       <c r="I59" s="74"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="164"/>
+      <c r="A60" s="169"/>
       <c r="B60" s="73" t="s">
         <v>111</v>
       </c>
@@ -6191,7 +6316,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="164"/>
+      <c r="A61" s="169"/>
       <c r="B61" s="110" t="s">
         <v>566</v>
       </c>
@@ -6210,7 +6335,7 @@
       <c r="I61" s="107"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="164"/>
+      <c r="A62" s="169"/>
       <c r="B62" s="110" t="s">
         <v>567</v>
       </c>
@@ -6225,26 +6350,26 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="161" t="s">
+      <c r="A63" s="168" t="s">
         <v>549</v>
       </c>
-      <c r="B63" s="161"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="161"/>
-      <c r="G63" s="161"/>
-      <c r="H63" s="161"/>
-      <c r="I63" s="161"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="168"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="164" t="s">
+      <c r="A64" s="169" t="s">
         <v>605</v>
       </c>
-      <c r="B64" s="162" t="s">
+      <c r="B64" s="170" t="s">
         <v>530</v>
       </c>
-      <c r="C64" s="166" t="s">
+      <c r="C64" s="171" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="101" t="s">
@@ -6259,9 +6384,9 @@
       <c r="I64" s="101"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="164"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="166"/>
+      <c r="A65" s="169"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="171"/>
       <c r="D65" s="101" t="s">
         <v>539</v>
       </c>
@@ -6274,7 +6399,7 @@
       <c r="I65" s="101"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="164"/>
+      <c r="A66" s="169"/>
       <c r="B66" s="102" t="s">
         <v>531</v>
       </c>
@@ -6293,7 +6418,7 @@
       <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="164"/>
+      <c r="A67" s="169"/>
       <c r="B67" s="102" t="s">
         <v>532</v>
       </c>
@@ -6312,7 +6437,7 @@
       <c r="I67" s="101"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="164"/>
+      <c r="A68" s="169"/>
       <c r="B68" s="102" t="s">
         <v>533</v>
       </c>
@@ -6331,7 +6456,7 @@
       <c r="I68" s="101"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="164"/>
+      <c r="A69" s="169"/>
       <c r="B69" s="102" t="s">
         <v>534</v>
       </c>
@@ -6350,7 +6475,7 @@
       <c r="I69" s="101"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="164"/>
+      <c r="A70" s="169"/>
       <c r="B70" s="102" t="s">
         <v>535</v>
       </c>
@@ -6369,7 +6494,7 @@
       <c r="I70" s="101"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="164"/>
+      <c r="A71" s="169"/>
       <c r="B71" s="102" t="s">
         <v>536</v>
       </c>
@@ -6404,6 +6529,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A64:A71"/>
     <mergeCell ref="B64:B65"/>
@@ -6420,54 +6593,6 @@
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6500,22 +6625,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E1" s="199" t="s">
+      <c r="E1" s="192" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="55" x14ac:dyDescent="0.2">
@@ -6567,10 +6692,10 @@
       <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="212" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="201" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -6598,8 +6723,8 @@
       <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="184"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="213"/>
+      <c r="B4" s="202"/>
       <c r="C4" s="31" t="s">
         <v>155</v>
       </c>
@@ -6625,8 +6750,8 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
-      <c r="B5" s="203"/>
+      <c r="A5" s="213"/>
+      <c r="B5" s="202"/>
       <c r="C5" s="31" t="s">
         <v>156</v>
       </c>
@@ -6652,8 +6777,8 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
-      <c r="B6" s="203"/>
+      <c r="A6" s="213"/>
+      <c r="B6" s="202"/>
       <c r="C6" s="30" t="s">
         <v>157</v>
       </c>
@@ -6677,8 +6802,8 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="184"/>
-      <c r="B7" s="203"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="202"/>
       <c r="C7" s="30" t="s">
         <v>158</v>
       </c>
@@ -6702,8 +6827,8 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="184"/>
-      <c r="B8" s="203"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="202"/>
       <c r="C8" s="31" t="s">
         <v>159</v>
       </c>
@@ -6729,8 +6854,8 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
-      <c r="B9" s="203"/>
+      <c r="A9" s="213"/>
+      <c r="B9" s="202"/>
       <c r="C9" s="31" t="s">
         <v>161</v>
       </c>
@@ -6756,8 +6881,8 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="213"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="31" t="s">
         <v>162</v>
       </c>
@@ -6783,8 +6908,8 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="184"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="213"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="30" t="s">
         <v>163</v>
       </c>
@@ -6808,8 +6933,8 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="184"/>
-      <c r="B12" s="189" t="s">
+      <c r="A12" s="213"/>
+      <c r="B12" s="198" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -6837,8 +6962,8 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
-      <c r="B13" s="190"/>
+      <c r="A13" s="213"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="31" t="s">
         <v>162</v>
       </c>
@@ -6864,8 +6989,8 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
-      <c r="B14" s="205" t="s">
+      <c r="A14" s="213"/>
+      <c r="B14" s="204" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -6893,8 +7018,8 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
-      <c r="B15" s="205"/>
+      <c r="A15" s="213"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="22" t="s">
         <v>160</v>
       </c>
@@ -6918,7 +7043,7 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="184"/>
+      <c r="A16" s="213"/>
       <c r="B16" s="124" t="s">
         <v>6</v>
       </c>
@@ -6945,7 +7070,7 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="185"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="22" t="s">
         <v>7</v>
       </c>
@@ -6972,10 +7097,10 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="212" t="s">
         <v>611</v>
       </c>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="201" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -7001,8 +7126,8 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="184"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="213"/>
+      <c r="B19" s="202"/>
       <c r="C19" s="30" t="s">
         <v>167</v>
       </c>
@@ -7026,8 +7151,8 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="184"/>
-      <c r="B20" s="203"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="30" t="s">
         <v>168</v>
       </c>
@@ -7051,8 +7176,8 @@
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
-      <c r="B21" s="203"/>
+      <c r="A21" s="213"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="30" t="s">
         <v>169</v>
       </c>
@@ -7076,8 +7201,8 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
-      <c r="B22" s="203"/>
+      <c r="A22" s="213"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="30" t="s">
         <v>170</v>
       </c>
@@ -7101,8 +7226,8 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="184"/>
-      <c r="B23" s="203"/>
+      <c r="A23" s="213"/>
+      <c r="B23" s="202"/>
       <c r="C23" s="30" t="s">
         <v>171</v>
       </c>
@@ -7126,8 +7251,8 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="184"/>
-      <c r="B24" s="203"/>
+      <c r="A24" s="213"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="30" t="s">
         <v>172</v>
       </c>
@@ -7151,8 +7276,8 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
-      <c r="B25" s="203"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="202"/>
       <c r="C25" s="31" t="s">
         <v>173</v>
       </c>
@@ -7178,8 +7303,8 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
-      <c r="B26" s="203"/>
+      <c r="A26" s="213"/>
+      <c r="B26" s="202"/>
       <c r="C26" s="31" t="s">
         <v>174</v>
       </c>
@@ -7205,8 +7330,8 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="184"/>
-      <c r="B27" s="203"/>
+      <c r="A27" s="213"/>
+      <c r="B27" s="202"/>
       <c r="C27" s="30" t="s">
         <v>175</v>
       </c>
@@ -7230,8 +7355,8 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
-      <c r="B28" s="203"/>
+      <c r="A28" s="213"/>
+      <c r="B28" s="202"/>
       <c r="C28" s="30" t="s">
         <v>176</v>
       </c>
@@ -7255,8 +7380,8 @@
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
-      <c r="B29" s="203"/>
+      <c r="A29" s="213"/>
+      <c r="B29" s="202"/>
       <c r="C29" s="30" t="s">
         <v>177</v>
       </c>
@@ -7280,8 +7405,8 @@
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
-      <c r="B30" s="203"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="202"/>
       <c r="C30" s="30" t="s">
         <v>178</v>
       </c>
@@ -7305,8 +7430,8 @@
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="184"/>
-      <c r="B31" s="203"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="202"/>
       <c r="C31" s="30" t="s">
         <v>179</v>
       </c>
@@ -7330,8 +7455,8 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="184"/>
-      <c r="B32" s="203"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="202"/>
       <c r="C32" s="30" t="s">
         <v>180</v>
       </c>
@@ -7355,8 +7480,8 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
-      <c r="B33" s="203"/>
+      <c r="A33" s="213"/>
+      <c r="B33" s="202"/>
       <c r="C33" s="30" t="s">
         <v>181</v>
       </c>
@@ -7380,8 +7505,8 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
-      <c r="B34" s="203"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="202"/>
       <c r="C34" s="30" t="s">
         <v>182</v>
       </c>
@@ -7405,8 +7530,8 @@
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="184"/>
-      <c r="B35" s="203"/>
+      <c r="A35" s="213"/>
+      <c r="B35" s="202"/>
       <c r="C35" s="30" t="s">
         <v>183</v>
       </c>
@@ -7430,8 +7555,8 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="184"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="202"/>
       <c r="C36" s="30" t="s">
         <v>184</v>
       </c>
@@ -7455,8 +7580,8 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
-      <c r="B37" s="206"/>
+      <c r="A37" s="213"/>
+      <c r="B37" s="205"/>
       <c r="C37" s="30" t="s">
         <v>185</v>
       </c>
@@ -7480,7 +7605,7 @@
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
+      <c r="A38" s="213"/>
       <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
@@ -7507,8 +7632,8 @@
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="184"/>
-      <c r="B39" s="200" t="s">
+      <c r="A39" s="213"/>
+      <c r="B39" s="193" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="30" t="s">
@@ -7534,8 +7659,8 @@
       <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="184"/>
-      <c r="B40" s="207"/>
+      <c r="A40" s="213"/>
+      <c r="B40" s="206"/>
       <c r="C40" s="30" t="s">
         <v>188</v>
       </c>
@@ -7559,8 +7684,8 @@
       <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
-      <c r="B41" s="207"/>
+      <c r="A41" s="213"/>
+      <c r="B41" s="206"/>
       <c r="C41" s="30" t="s">
         <v>189</v>
       </c>
@@ -7584,8 +7709,8 @@
       <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
-      <c r="B42" s="207"/>
+      <c r="A42" s="213"/>
+      <c r="B42" s="206"/>
       <c r="C42" s="30" t="s">
         <v>190</v>
       </c>
@@ -7609,8 +7734,8 @@
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="184"/>
-      <c r="B43" s="207"/>
+      <c r="A43" s="213"/>
+      <c r="B43" s="206"/>
       <c r="C43" s="30" t="s">
         <v>191</v>
       </c>
@@ -7634,8 +7759,8 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="184"/>
-      <c r="B44" s="207"/>
+      <c r="A44" s="213"/>
+      <c r="B44" s="206"/>
       <c r="C44" s="30" t="s">
         <v>580</v>
       </c>
@@ -7659,8 +7784,8 @@
       <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
-      <c r="B45" s="207"/>
+      <c r="A45" s="213"/>
+      <c r="B45" s="206"/>
       <c r="C45" s="30" t="s">
         <v>551</v>
       </c>
@@ -7684,8 +7809,8 @@
       <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
-      <c r="B46" s="201"/>
+      <c r="A46" s="213"/>
+      <c r="B46" s="194"/>
       <c r="C46" s="30" t="s">
         <v>552</v>
       </c>
@@ -7709,8 +7834,8 @@
       <c r="S46" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="184"/>
-      <c r="B47" s="200" t="s">
+      <c r="A47" s="213"/>
+      <c r="B47" s="193" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -7736,8 +7861,8 @@
       <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="185"/>
-      <c r="B48" s="201"/>
+      <c r="A48" s="214"/>
+      <c r="B48" s="194"/>
       <c r="C48" s="30" t="s">
         <v>554</v>
       </c>
@@ -7782,10 +7907,10 @@
       <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="186" t="s">
+      <c r="A50" s="209" t="s">
         <v>618</v>
       </c>
-      <c r="B50" s="200" t="s">
+      <c r="B50" s="193" t="s">
         <v>261</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -7811,8 +7936,8 @@
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="187"/>
-      <c r="B51" s="201"/>
+      <c r="A51" s="210"/>
+      <c r="B51" s="194"/>
       <c r="C51" s="30" t="s">
         <v>126</v>
       </c>
@@ -7836,7 +7961,7 @@
       <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="187"/>
+      <c r="A52" s="210"/>
       <c r="B52" s="22" t="s">
         <v>262</v>
       </c>
@@ -7863,8 +7988,8 @@
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="187"/>
-      <c r="B53" s="202" t="s">
+      <c r="A53" s="210"/>
+      <c r="B53" s="201" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -7892,8 +8017,8 @@
       <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="187"/>
-      <c r="B54" s="203"/>
+      <c r="A54" s="210"/>
+      <c r="B54" s="202"/>
       <c r="C54" s="31" t="s">
         <v>250</v>
       </c>
@@ -7919,8 +8044,8 @@
       <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="188"/>
-      <c r="B55" s="203"/>
+      <c r="A55" s="211"/>
+      <c r="B55" s="202"/>
       <c r="C55" s="30" t="s">
         <v>251</v>
       </c>
@@ -7965,7 +8090,7 @@
       <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="186" t="s">
+      <c r="A57" s="209" t="s">
         <v>613</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -7996,7 +8121,7 @@
       <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="187"/>
+      <c r="A58" s="210"/>
       <c r="B58" s="23" t="s">
         <v>43</v>
       </c>
@@ -8025,7 +8150,7 @@
       <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="187"/>
+      <c r="A59" s="210"/>
       <c r="B59" s="23" t="s">
         <v>44</v>
       </c>
@@ -8056,7 +8181,7 @@
       <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="187"/>
+      <c r="A60" s="210"/>
       <c r="B60" s="23" t="s">
         <v>45</v>
       </c>
@@ -8085,8 +8210,8 @@
       <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="187"/>
-      <c r="B61" s="189" t="s">
+      <c r="A61" s="210"/>
+      <c r="B61" s="198" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="31" t="s">
@@ -8116,8 +8241,8 @@
       <c r="S61" s="10"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="187"/>
-      <c r="B62" s="190"/>
+      <c r="A62" s="210"/>
+      <c r="B62" s="199"/>
       <c r="C62" s="31" t="s">
         <v>140</v>
       </c>
@@ -8145,7 +8270,7 @@
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="187"/>
+      <c r="A63" s="210"/>
       <c r="B63" s="23" t="s">
         <v>47</v>
       </c>
@@ -8174,7 +8299,7 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="188"/>
+      <c r="A64" s="211"/>
       <c r="B64" s="22" t="s">
         <v>538</v>
       </c>
@@ -8222,10 +8347,10 @@
       <c r="S65" s="10"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="186" t="s">
+      <c r="A66" s="209" t="s">
         <v>604</v>
       </c>
-      <c r="B66" s="194" t="s">
+      <c r="B66" s="200" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="30" t="s">
@@ -8251,8 +8376,8 @@
       <c r="S66" s="10"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="187"/>
-      <c r="B67" s="194"/>
+      <c r="A67" s="210"/>
+      <c r="B67" s="200"/>
       <c r="C67" s="30" t="s">
         <v>255</v>
       </c>
@@ -8276,8 +8401,8 @@
       <c r="S67" s="10"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="187"/>
-      <c r="B68" s="200" t="s">
+      <c r="A68" s="210"/>
+      <c r="B68" s="193" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="30" t="s">
@@ -8303,8 +8428,8 @@
       <c r="S68" s="10"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="187"/>
-      <c r="B69" s="201"/>
+      <c r="A69" s="210"/>
+      <c r="B69" s="194"/>
       <c r="C69" s="30" t="s">
         <v>117</v>
       </c>
@@ -8328,7 +8453,7 @@
       <c r="S69" s="10"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="187"/>
+      <c r="A70" s="210"/>
       <c r="B70" s="23" t="s">
         <v>57</v>
       </c>
@@ -8357,7 +8482,7 @@
       <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="187"/>
+      <c r="A71" s="210"/>
       <c r="B71" s="23" t="s">
         <v>58</v>
       </c>
@@ -8386,7 +8511,7 @@
       <c r="S71" s="10"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="187"/>
+      <c r="A72" s="210"/>
       <c r="B72" s="23" t="s">
         <v>59</v>
       </c>
@@ -8415,8 +8540,8 @@
       <c r="S72" s="10"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="187"/>
-      <c r="B73" s="191" t="s">
+      <c r="A73" s="210"/>
+      <c r="B73" s="195" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="31" t="s">
@@ -8444,8 +8569,8 @@
       <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="187"/>
-      <c r="B74" s="192"/>
+      <c r="A74" s="210"/>
+      <c r="B74" s="196"/>
       <c r="C74" s="30" t="s">
         <v>122</v>
       </c>
@@ -8469,8 +8594,8 @@
       <c r="S74" s="10"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="187"/>
-      <c r="B75" s="193"/>
+      <c r="A75" s="210"/>
+      <c r="B75" s="197"/>
       <c r="C75" s="30" t="s">
         <v>123</v>
       </c>
@@ -8494,7 +8619,7 @@
       <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="188"/>
+      <c r="A76" s="211"/>
       <c r="B76" s="22" t="s">
         <v>61</v>
       </c>
@@ -8521,10 +8646,10 @@
       <c r="S76" s="10"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="186" t="s">
+      <c r="A77" s="209" t="s">
         <v>614</v>
       </c>
-      <c r="B77" s="191" t="s">
+      <c r="B77" s="195" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -8552,8 +8677,8 @@
       <c r="S77" s="10"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="187"/>
-      <c r="B78" s="192"/>
+      <c r="A78" s="210"/>
+      <c r="B78" s="196"/>
       <c r="C78" s="30" t="s">
         <v>144</v>
       </c>
@@ -8577,7 +8702,7 @@
       <c r="S78" s="10"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="187"/>
+      <c r="A79" s="210"/>
       <c r="B79" s="123" t="s">
         <v>76</v>
       </c>
@@ -8604,8 +8729,8 @@
       <c r="S79" s="10"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="187"/>
-      <c r="B80" s="194" t="s">
+      <c r="A80" s="210"/>
+      <c r="B80" s="200" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="30" t="s">
@@ -8631,8 +8756,8 @@
       <c r="S80" s="10"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="187"/>
-      <c r="B81" s="194"/>
+      <c r="A81" s="210"/>
+      <c r="B81" s="200"/>
       <c r="C81" s="30" t="s">
         <v>147</v>
       </c>
@@ -8656,7 +8781,7 @@
       <c r="S81" s="10"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="187"/>
+      <c r="A82" s="210"/>
       <c r="B82" s="123" t="s">
         <v>78</v>
       </c>
@@ -8683,8 +8808,8 @@
       <c r="S82" s="10"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="187"/>
-      <c r="B83" s="194" t="s">
+      <c r="A83" s="210"/>
+      <c r="B83" s="200" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="30" t="s">
@@ -8710,8 +8835,8 @@
       <c r="S83" s="10"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="187"/>
-      <c r="B84" s="194"/>
+      <c r="A84" s="210"/>
+      <c r="B84" s="200"/>
       <c r="C84" s="30" t="s">
         <v>559</v>
       </c>
@@ -8735,8 +8860,8 @@
       <c r="S84" s="10"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="187"/>
-      <c r="B85" s="194"/>
+      <c r="A85" s="210"/>
+      <c r="B85" s="200"/>
       <c r="C85" s="30" t="s">
         <v>152</v>
       </c>
@@ -8760,7 +8885,7 @@
       <c r="S85" s="10"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="187"/>
+      <c r="A86" s="210"/>
       <c r="B86" s="124" t="s">
         <v>80</v>
       </c>
@@ -8787,8 +8912,8 @@
       <c r="S86" s="10"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="187"/>
-      <c r="B87" s="194" t="s">
+      <c r="A87" s="210"/>
+      <c r="B87" s="200" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="30" t="s">
@@ -8814,8 +8939,8 @@
       <c r="S87" s="10"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="187"/>
-      <c r="B88" s="194"/>
+      <c r="A88" s="210"/>
+      <c r="B88" s="200"/>
       <c r="C88" s="30" t="s">
         <v>151</v>
       </c>
@@ -8839,8 +8964,8 @@
       <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="187"/>
-      <c r="B89" s="194"/>
+      <c r="A89" s="210"/>
+      <c r="B89" s="200"/>
       <c r="C89" s="30" t="s">
         <v>559</v>
       </c>
@@ -8864,8 +8989,8 @@
       <c r="S89" s="10"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="188"/>
-      <c r="B90" s="194"/>
+      <c r="A90" s="211"/>
+      <c r="B90" s="200"/>
       <c r="C90" s="30" t="s">
         <v>152</v>
       </c>
@@ -8889,10 +9014,10 @@
       <c r="S90" s="10"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="186" t="s">
+      <c r="A91" s="209" t="s">
         <v>615</v>
       </c>
-      <c r="B91" s="195" t="s">
+      <c r="B91" s="207" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="31" t="s">
@@ -8922,8 +9047,8 @@
       <c r="S91" s="10"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="188"/>
-      <c r="B92" s="196"/>
+      <c r="A92" s="211"/>
+      <c r="B92" s="208"/>
       <c r="C92" s="31" t="s">
         <v>132</v>
       </c>
@@ -8970,10 +9095,10 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="186" t="s">
+      <c r="A94" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="189" t="s">
+      <c r="B94" s="198" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="31" t="s">
@@ -9001,8 +9126,8 @@
       <c r="S94" s="10"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="187"/>
-      <c r="B95" s="190"/>
+      <c r="A95" s="210"/>
+      <c r="B95" s="199"/>
       <c r="C95" s="31" t="s">
         <v>562</v>
       </c>
@@ -9028,7 +9153,7 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="188"/>
+      <c r="A96" s="211"/>
       <c r="B96" s="111" t="s">
         <v>560</v>
       </c>
@@ -9057,7 +9182,7 @@
       <c r="S96" s="10"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="186" t="s">
+      <c r="A97" s="209" t="s">
         <v>616</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -9088,7 +9213,7 @@
       <c r="S97" s="10"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="187"/>
+      <c r="A98" s="210"/>
       <c r="B98" s="23" t="s">
         <v>265</v>
       </c>
@@ -9117,7 +9242,7 @@
       <c r="S98" s="10"/>
     </row>
     <row r="99" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="188"/>
+      <c r="A99" s="211"/>
       <c r="B99" s="22" t="s">
         <v>264</v>
       </c>
@@ -9144,7 +9269,7 @@
       <c r="S99" s="10"/>
     </row>
     <row r="100" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="186" t="s">
+      <c r="A100" s="209" t="s">
         <v>617</v>
       </c>
       <c r="B100" s="22" t="s">
@@ -9173,7 +9298,7 @@
       <c r="S100" s="10"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" s="188"/>
+      <c r="A101" s="211"/>
       <c r="B101" s="22" t="s">
         <v>263</v>
       </c>
@@ -9221,7 +9346,7 @@
       <c r="S102" s="10"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="186" t="s">
+      <c r="A103" s="209" t="s">
         <v>605</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -9252,7 +9377,7 @@
       <c r="S103" s="10"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="187"/>
+      <c r="A104" s="210"/>
       <c r="B104" s="23" t="s">
         <v>539</v>
       </c>
@@ -9281,7 +9406,7 @@
       <c r="S104" s="10"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="187"/>
+      <c r="A105" s="210"/>
       <c r="B105" s="23" t="s">
         <v>540</v>
       </c>
@@ -9310,8 +9435,8 @@
       <c r="S105" s="10"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="187"/>
-      <c r="B106" s="191" t="s">
+      <c r="A106" s="210"/>
+      <c r="B106" s="195" t="s">
         <v>541</v>
       </c>
       <c r="C106" s="31" t="s">
@@ -9339,8 +9464,8 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="187"/>
-      <c r="B107" s="192"/>
+      <c r="A107" s="210"/>
+      <c r="B107" s="196"/>
       <c r="C107" s="31" t="s">
         <v>194</v>
       </c>
@@ -9366,8 +9491,8 @@
       <c r="S107" s="10"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="187"/>
-      <c r="B108" s="193"/>
+      <c r="A108" s="210"/>
+      <c r="B108" s="197"/>
       <c r="C108" s="30" t="s">
         <v>195</v>
       </c>
@@ -9390,8 +9515,8 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" s="187"/>
-      <c r="B109" s="189" t="s">
+      <c r="A109" s="210"/>
+      <c r="B109" s="198" t="s">
         <v>542</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -9419,8 +9544,8 @@
       <c r="S109" s="10"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" s="187"/>
-      <c r="B110" s="190"/>
+      <c r="A110" s="210"/>
+      <c r="B110" s="199"/>
       <c r="C110" s="31" t="s">
         <v>547</v>
       </c>
@@ -9446,7 +9571,7 @@
       <c r="S110" s="10"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="187"/>
+      <c r="A111" s="210"/>
       <c r="B111" s="23" t="s">
         <v>543</v>
       </c>
@@ -9475,8 +9600,8 @@
       <c r="S111" s="10"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="187"/>
-      <c r="B112" s="189" t="s">
+      <c r="A112" s="210"/>
+      <c r="B112" s="198" t="s">
         <v>544</v>
       </c>
       <c r="C112" s="31" t="s">
@@ -9504,8 +9629,8 @@
       <c r="S112" s="10"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="187"/>
-      <c r="B113" s="190"/>
+      <c r="A113" s="210"/>
+      <c r="B113" s="199"/>
       <c r="C113" s="31" t="s">
         <v>570</v>
       </c>
@@ -9531,7 +9656,7 @@
       <c r="S113" s="10"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="188"/>
+      <c r="A114" s="211"/>
       <c r="B114" s="23" t="s">
         <v>545</v>
       </c>
@@ -9560,10 +9685,10 @@
       <c r="S114" s="10"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="204" t="s">
+      <c r="B116" s="203" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="204"/>
+      <c r="C116" s="203"/>
       <c r="D116" s="68"/>
       <c r="E116" s="65"/>
       <c r="F116" s="65"/>
@@ -9580,25 +9705,45 @@
       <c r="S116" s="68"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="197" t="s">
+      <c r="B117" s="190" t="s">
         <v>524</v>
       </c>
-      <c r="C117" s="197"/>
+      <c r="C117" s="190"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="198" t="s">
+      <c r="B118" s="191" t="s">
         <v>525</v>
       </c>
-      <c r="C118" s="198"/>
+      <c r="C118" s="191"/>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
       <c r="F118" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A18:A48"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A66:A76"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A103:A114"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B92"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="E1:R1"/>
@@ -9615,26 +9760,6 @@
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A103:A114"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A77:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A18:A48"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A66:A76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9674,74 +9799,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="211" t="s">
+      <c r="D1" s="219" t="s">
         <v>621</v>
       </c>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="213"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="221"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="214" t="s">
+      <c r="N1" s="222" t="s">
         <v>606</v>
       </c>
-      <c r="O1" s="215"/>
-      <c r="P1" s="216"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="224"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="208" t="s">
+      <c r="R1" s="216" t="s">
         <v>613</v>
       </c>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="210"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="218"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="208" t="s">
+      <c r="Z1" s="216" t="s">
         <v>604</v>
       </c>
-      <c r="AA1" s="209"/>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="208" t="s">
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="217"/>
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="216" t="s">
         <v>622</v>
       </c>
-      <c r="AH1" s="209"/>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="209"/>
-      <c r="AK1" s="209"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="209"/>
-      <c r="AN1" s="210"/>
+      <c r="AH1" s="217"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="217"/>
+      <c r="AK1" s="217"/>
+      <c r="AL1" s="217"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="218"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="208" t="s">
+      <c r="AP1" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="AQ1" s="209"/>
-      <c r="AR1" s="209"/>
-      <c r="AS1" s="209"/>
-      <c r="AT1" s="209"/>
-      <c r="AU1" s="209"/>
-      <c r="AV1" s="210"/>
+      <c r="AQ1" s="217"/>
+      <c r="AR1" s="217"/>
+      <c r="AS1" s="217"/>
+      <c r="AT1" s="217"/>
+      <c r="AU1" s="217"/>
+      <c r="AV1" s="218"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="208" t="s">
+      <c r="AX1" s="216" t="s">
         <v>605</v>
       </c>
-      <c r="AY1" s="209"/>
-      <c r="AZ1" s="209"/>
-      <c r="BA1" s="209"/>
-      <c r="BB1" s="209"/>
-      <c r="BC1" s="209"/>
-      <c r="BD1" s="209"/>
-      <c r="BE1" s="210"/>
+      <c r="AY1" s="217"/>
+      <c r="AZ1" s="217"/>
+      <c r="BA1" s="217"/>
+      <c r="BB1" s="217"/>
+      <c r="BC1" s="217"/>
+      <c r="BD1" s="217"/>
+      <c r="BE1" s="218"/>
     </row>
     <row r="2" spans="1:57" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -9907,7 +10032,7 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="215" t="s">
         <v>236</v>
       </c>
       <c r="B3" s="53">
@@ -9972,7 +10097,7 @@
       <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="217"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="53">
         <v>2</v>
       </c>
@@ -10035,7 +10160,7 @@
       <c r="BE4" s="25"/>
     </row>
     <row r="5" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="217"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="54">
         <v>3</v>
       </c>
@@ -10101,7 +10226,7 @@
       <c r="BE5" s="25"/>
     </row>
     <row r="6" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="217"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="54">
         <v>4</v>
       </c>
@@ -10163,7 +10288,7 @@
       <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="217"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="53">
         <v>5</v>
       </c>
@@ -10226,7 +10351,7 @@
       <c r="BE7" s="25"/>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="217"/>
+      <c r="A8" s="215"/>
       <c r="B8" s="54">
         <v>6</v>
       </c>
@@ -10291,7 +10416,7 @@
       <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="217"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="54">
         <v>7</v>
       </c>
@@ -10362,7 +10487,7 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="217"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="55">
         <v>8</v>
       </c>
@@ -10429,7 +10554,7 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="217"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="54">
         <v>9</v>
       </c>
@@ -10494,7 +10619,7 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="217"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="54">
         <v>10</v>
       </c>
@@ -10620,7 +10745,7 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="217" t="s">
+      <c r="A14" s="215" t="s">
         <v>241</v>
       </c>
       <c r="B14" s="54">
@@ -10689,7 +10814,7 @@
       <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="217"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -10811,7 +10936,7 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="215" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="55">
@@ -10881,7 +11006,7 @@
       <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="217"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="55">
         <v>2</v>
       </c>
@@ -10950,7 +11075,7 @@
       <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="217"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="56">
         <v>3</v>
       </c>
@@ -11013,7 +11138,7 @@
       <c r="BE19" s="25"/>
     </row>
     <row r="20" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="217"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="55">
         <v>4</v>
       </c>
@@ -11096,7 +11221,7 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="217"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="56">
         <v>5</v>
       </c>
@@ -11218,7 +11343,7 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="212" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="55">
@@ -11285,7 +11410,7 @@
       <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="184"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="56">
         <v>2</v>
       </c>
@@ -11348,7 +11473,7 @@
       <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="56">
         <v>3</v>
       </c>
@@ -11411,7 +11536,7 @@
       <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="56">
         <v>4</v>
       </c>
@@ -11474,7 +11599,7 @@
       <c r="BE26" s="25"/>
     </row>
     <row r="27" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="184"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="56">
         <v>5</v>
       </c>
@@ -11537,7 +11662,7 @@
       <c r="BE27" s="25"/>
     </row>
     <row r="28" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="56">
         <v>6</v>
       </c>
@@ -11600,7 +11725,7 @@
       <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
+      <c r="A29" s="213"/>
       <c r="B29" s="56">
         <v>7</v>
       </c>
@@ -11663,7 +11788,7 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="56">
         <v>8</v>
       </c>
@@ -11726,7 +11851,7 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="184"/>
+      <c r="A31" s="213"/>
       <c r="B31" s="56">
         <v>9</v>
       </c>
@@ -11789,7 +11914,7 @@
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="184"/>
+      <c r="A32" s="213"/>
       <c r="B32" s="56">
         <v>10</v>
       </c>
@@ -11852,7 +11977,7 @@
       <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="185"/>
+      <c r="A33" s="214"/>
       <c r="B33" s="55">
         <v>11</v>
       </c>
@@ -11976,7 +12101,7 @@
       <c r="BE34" s="10"/>
     </row>
     <row r="35" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="183" t="s">
+      <c r="A35" s="212" t="s">
         <v>239</v>
       </c>
       <c r="B35" s="56">
@@ -12043,7 +12168,7 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="184"/>
+      <c r="A36" s="213"/>
       <c r="B36" s="55">
         <v>2</v>
       </c>
@@ -12112,7 +12237,7 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="55">
         <v>3</v>
       </c>
@@ -12181,7 +12306,7 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="185"/>
+      <c r="A38" s="214"/>
       <c r="B38" s="55">
         <v>4</v>
       </c>
@@ -12307,7 +12432,7 @@
       <c r="BE39" s="10"/>
     </row>
     <row r="40" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="217" t="s">
+      <c r="A40" s="215" t="s">
         <v>240</v>
       </c>
       <c r="B40" s="55">
@@ -12374,7 +12499,7 @@
       <c r="BE40" s="25"/>
     </row>
     <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="217"/>
+      <c r="A41" s="215"/>
       <c r="B41" s="56">
         <v>2</v>
       </c>
@@ -12437,7 +12562,7 @@
       <c r="BE41" s="25"/>
     </row>
     <row r="42" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="217"/>
+      <c r="A42" s="215"/>
       <c r="B42" s="56">
         <v>3</v>
       </c>
@@ -12559,7 +12684,7 @@
       <c r="BE43" s="10"/>
     </row>
     <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="183" t="s">
+      <c r="A44" s="212" t="s">
         <v>246</v>
       </c>
       <c r="B44" s="55">
@@ -12634,7 +12759,7 @@
       <c r="BE44" s="25"/>
     </row>
     <row r="45" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
+      <c r="A45" s="213"/>
       <c r="B45" s="55">
         <v>2</v>
       </c>
@@ -12705,7 +12830,7 @@
       <c r="BE45" s="25"/>
     </row>
     <row r="46" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
+      <c r="A46" s="213"/>
       <c r="B46" s="55">
         <v>3</v>
       </c>
@@ -12776,7 +12901,7 @@
       <c r="BE46" s="25"/>
     </row>
     <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="185"/>
+      <c r="A47" s="214"/>
       <c r="B47" s="56">
         <v>4</v>
       </c>
@@ -13009,6 +13134,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A17:A21"/>
@@ -13016,13 +13148,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A23:A33"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AX1:BE1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13060,74 +13185,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="219" t="s">
         <v>621</v>
       </c>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="213"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="221"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="214" t="s">
+      <c r="O1" s="222" t="s">
         <v>606</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="216"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="224"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="208" t="s">
+      <c r="S1" s="216" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="210"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="218"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="208" t="s">
+      <c r="AA1" s="216" t="s">
         <v>604</v>
       </c>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="210"/>
-      <c r="AH1" s="208" t="s">
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="217"/>
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="217"/>
+      <c r="AG1" s="218"/>
+      <c r="AH1" s="216" t="s">
         <v>622</v>
       </c>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="209"/>
-      <c r="AK1" s="209"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="209"/>
-      <c r="AN1" s="209"/>
-      <c r="AO1" s="210"/>
+      <c r="AI1" s="217"/>
+      <c r="AJ1" s="217"/>
+      <c r="AK1" s="217"/>
+      <c r="AL1" s="217"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="217"/>
+      <c r="AO1" s="218"/>
       <c r="AP1" s="6"/>
-      <c r="AQ1" s="208" t="s">
+      <c r="AQ1" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="AR1" s="209"/>
-      <c r="AS1" s="209"/>
-      <c r="AT1" s="209"/>
-      <c r="AU1" s="209"/>
-      <c r="AV1" s="209"/>
-      <c r="AW1" s="210"/>
+      <c r="AR1" s="217"/>
+      <c r="AS1" s="217"/>
+      <c r="AT1" s="217"/>
+      <c r="AU1" s="217"/>
+      <c r="AV1" s="217"/>
+      <c r="AW1" s="218"/>
       <c r="AX1" s="6"/>
-      <c r="AY1" s="208" t="s">
+      <c r="AY1" s="216" t="s">
         <v>605</v>
       </c>
-      <c r="AZ1" s="209"/>
-      <c r="BA1" s="209"/>
-      <c r="BB1" s="209"/>
-      <c r="BC1" s="209"/>
-      <c r="BD1" s="209"/>
-      <c r="BE1" s="209"/>
-      <c r="BF1" s="210"/>
+      <c r="AZ1" s="217"/>
+      <c r="BA1" s="217"/>
+      <c r="BB1" s="217"/>
+      <c r="BC1" s="217"/>
+      <c r="BD1" s="217"/>
+      <c r="BE1" s="217"/>
+      <c r="BF1" s="218"/>
     </row>
     <row r="2" spans="1:60" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -13296,10 +13421,10 @@
       </c>
     </row>
     <row r="3" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="215" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="229">
+      <c r="B3" s="227">
         <v>1</v>
       </c>
       <c r="C3" s="156">
@@ -13364,8 +13489,8 @@
       <c r="BF3" s="25"/>
     </row>
     <row r="4" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="217"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="228"/>
       <c r="C4" s="156">
         <v>2</v>
       </c>
@@ -13428,7 +13553,7 @@
       <c r="BF4" s="25"/>
     </row>
     <row r="5" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="217"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -13494,7 +13619,7 @@
       <c r="BF5" s="25"/>
     </row>
     <row r="6" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="217"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
@@ -13564,8 +13689,8 @@
       <c r="BF6" s="25"/>
     </row>
     <row r="7" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="217"/>
-      <c r="B7" s="227">
+      <c r="A7" s="215"/>
+      <c r="B7" s="225">
         <v>4</v>
       </c>
       <c r="C7" s="157">
@@ -13630,8 +13755,8 @@
       <c r="BF7" s="25"/>
     </row>
     <row r="8" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="217"/>
-      <c r="B8" s="228"/>
+      <c r="A8" s="215"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="157">
         <v>2</v>
       </c>
@@ -13694,7 +13819,7 @@
       <c r="BF8" s="25"/>
     </row>
     <row r="9" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="217"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="53">
         <v>5</v>
       </c>
@@ -13760,7 +13885,7 @@
       <c r="BF9" s="25"/>
     </row>
     <row r="10" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="217"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="54">
         <v>6</v>
       </c>
@@ -13831,8 +13956,8 @@
       </c>
     </row>
     <row r="11" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="217"/>
-      <c r="B11" s="227">
+      <c r="A11" s="215"/>
+      <c r="B11" s="225">
         <v>7</v>
       </c>
       <c r="C11" s="157">
@@ -13901,8 +14026,8 @@
       <c r="BF11" s="25"/>
     </row>
     <row r="12" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="217"/>
-      <c r="B12" s="231"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="229"/>
       <c r="C12" s="157">
         <v>2</v>
       </c>
@@ -13977,7 +14102,7 @@
       <c r="BF12" s="25"/>
     </row>
     <row r="13" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="217"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="55">
         <v>8</v>
       </c>
@@ -14047,7 +14172,7 @@
       <c r="BF13" s="25"/>
     </row>
     <row r="14" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="217"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="54">
         <v>9</v>
       </c>
@@ -14115,7 +14240,7 @@
       <c r="BF14" s="25"/>
     </row>
     <row r="15" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="217"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="54">
         <v>10</v>
       </c>
@@ -14245,10 +14370,10 @@
       <c r="BF16" s="10"/>
     </row>
     <row r="17" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="227">
+      <c r="B17" s="225">
         <v>1</v>
       </c>
       <c r="C17" s="157">
@@ -14315,8 +14440,8 @@
       <c r="BF17" s="25"/>
     </row>
     <row r="18" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="217"/>
-      <c r="B18" s="228"/>
+      <c r="A18" s="215"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="157">
         <v>2</v>
       </c>
@@ -14383,7 +14508,7 @@
       <c r="BF18" s="25"/>
     </row>
     <row r="19" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="217"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="63">
         <v>2</v>
       </c>
@@ -14509,7 +14634,7 @@
       <c r="BF20" s="10"/>
     </row>
     <row r="21" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="217" t="s">
+      <c r="A21" s="215" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="55">
@@ -14582,7 +14707,7 @@
       <c r="BF21" s="25"/>
     </row>
     <row r="22" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="217"/>
+      <c r="A22" s="215"/>
       <c r="B22" s="55">
         <v>2</v>
       </c>
@@ -14652,7 +14777,7 @@
       <c r="BF22" s="25"/>
     </row>
     <row r="23" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="217"/>
+      <c r="A23" s="215"/>
       <c r="B23" s="56">
         <v>3</v>
       </c>
@@ -14718,8 +14843,8 @@
       <c r="BF23" s="25"/>
     </row>
     <row r="24" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="217"/>
-      <c r="B24" s="221">
+      <c r="A24" s="215"/>
+      <c r="B24" s="233">
         <v>4</v>
       </c>
       <c r="C24" s="157">
@@ -14786,8 +14911,8 @@
       <c r="BF24" s="25"/>
     </row>
     <row r="25" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="217"/>
-      <c r="B25" s="222"/>
+      <c r="A25" s="215"/>
+      <c r="B25" s="234"/>
       <c r="C25" s="157">
         <v>2</v>
       </c>
@@ -14860,8 +14985,8 @@
       <c r="BF25" s="25"/>
     </row>
     <row r="26" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="217"/>
-      <c r="B26" s="223"/>
+      <c r="A26" s="215"/>
+      <c r="B26" s="235"/>
       <c r="C26" s="157">
         <v>3</v>
       </c>
@@ -14934,7 +15059,7 @@
       </c>
     </row>
     <row r="27" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="217"/>
+      <c r="A27" s="215"/>
       <c r="B27" s="64">
         <v>5</v>
       </c>
@@ -15060,7 +15185,7 @@
       <c r="BF28" s="10"/>
     </row>
     <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="224" t="s">
+      <c r="A29" s="236" t="s">
         <v>238</v>
       </c>
       <c r="B29" s="55">
@@ -15130,7 +15255,7 @@
       <c r="BF29" s="25"/>
     </row>
     <row r="30" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="225"/>
+      <c r="A30" s="237"/>
       <c r="B30" s="56">
         <v>2</v>
       </c>
@@ -15196,7 +15321,7 @@
       <c r="BF30" s="25"/>
     </row>
     <row r="31" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="225"/>
+      <c r="A31" s="237"/>
       <c r="B31" s="56">
         <v>3</v>
       </c>
@@ -15262,7 +15387,7 @@
       <c r="BF31" s="25"/>
     </row>
     <row r="32" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="225"/>
+      <c r="A32" s="237"/>
       <c r="B32" s="56">
         <v>4</v>
       </c>
@@ -15328,7 +15453,7 @@
       <c r="BF32" s="25"/>
     </row>
     <row r="33" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="225"/>
+      <c r="A33" s="237"/>
       <c r="B33" s="56">
         <v>5</v>
       </c>
@@ -15394,7 +15519,7 @@
       <c r="BF33" s="25"/>
     </row>
     <row r="34" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="225"/>
+      <c r="A34" s="237"/>
       <c r="B34" s="56">
         <v>6</v>
       </c>
@@ -15460,7 +15585,7 @@
       <c r="BF34" s="25"/>
     </row>
     <row r="35" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="225"/>
+      <c r="A35" s="237"/>
       <c r="B35" s="56">
         <v>7</v>
       </c>
@@ -15526,7 +15651,7 @@
       <c r="BF35" s="25"/>
     </row>
     <row r="36" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="225"/>
+      <c r="A36" s="237"/>
       <c r="B36" s="56">
         <v>8</v>
       </c>
@@ -15592,7 +15717,7 @@
       <c r="BF36" s="25"/>
     </row>
     <row r="37" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="225"/>
+      <c r="A37" s="237"/>
       <c r="B37" s="56">
         <v>9</v>
       </c>
@@ -15658,7 +15783,7 @@
       <c r="BF37" s="25"/>
     </row>
     <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="225"/>
+      <c r="A38" s="237"/>
       <c r="B38" s="56">
         <v>10</v>
       </c>
@@ -15724,7 +15849,7 @@
       <c r="BF38" s="25"/>
     </row>
     <row r="39" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="226"/>
+      <c r="A39" s="238"/>
       <c r="B39" s="121">
         <v>11</v>
       </c>
@@ -15852,7 +15977,7 @@
       <c r="BF40" s="10"/>
     </row>
     <row r="41" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="212" t="s">
         <v>239</v>
       </c>
       <c r="B41" s="56">
@@ -15922,7 +16047,7 @@
       <c r="BF41" s="25"/>
     </row>
     <row r="42" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
+      <c r="A42" s="213"/>
       <c r="B42" s="55">
         <v>2</v>
       </c>
@@ -15994,7 +16119,7 @@
       <c r="BF42" s="25"/>
     </row>
     <row r="43" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="184"/>
+      <c r="A43" s="213"/>
       <c r="B43" s="55">
         <v>3</v>
       </c>
@@ -16066,7 +16191,7 @@
       <c r="BF43" s="25"/>
     </row>
     <row r="44" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="185"/>
+      <c r="A44" s="214"/>
       <c r="B44" s="121">
         <v>4</v>
       </c>
@@ -16196,7 +16321,7 @@
       <c r="BF45" s="10"/>
     </row>
     <row r="46" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="217" t="s">
+      <c r="A46" s="215" t="s">
         <v>240</v>
       </c>
       <c r="B46" s="55">
@@ -16266,7 +16391,7 @@
       <c r="BF46" s="25"/>
     </row>
     <row r="47" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="217"/>
+      <c r="A47" s="215"/>
       <c r="B47" s="56">
         <v>2</v>
       </c>
@@ -16332,7 +16457,7 @@
       <c r="BF47" s="25"/>
     </row>
     <row r="48" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="217"/>
+      <c r="A48" s="215"/>
       <c r="B48" s="64">
         <v>3</v>
       </c>
@@ -16458,7 +16583,7 @@
       <c r="BF49" s="10"/>
     </row>
     <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="183" t="s">
+      <c r="A50" s="212" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="55">
@@ -16467,7 +16592,7 @@
       <c r="C50" s="157">
         <v>1</v>
       </c>
-      <c r="D50" s="218" t="s">
+      <c r="D50" s="230" t="s">
         <v>419</v>
       </c>
       <c r="E50" s="11"/>
@@ -16536,14 +16661,14 @@
       <c r="BF50" s="25"/>
     </row>
     <row r="51" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="184"/>
+      <c r="A51" s="213"/>
       <c r="B51" s="55">
         <v>2</v>
       </c>
       <c r="C51" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="219"/>
+      <c r="D51" s="231"/>
       <c r="E51" s="11"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
@@ -16608,14 +16733,14 @@
       <c r="BF51" s="25"/>
     </row>
     <row r="52" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="184"/>
+      <c r="A52" s="213"/>
       <c r="B52" s="55">
         <v>3</v>
       </c>
       <c r="C52" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="220"/>
+      <c r="D52" s="232"/>
       <c r="E52" s="11"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
@@ -16680,7 +16805,7 @@
       <c r="BF52" s="25"/>
     </row>
     <row r="53" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="185"/>
+      <c r="A53" s="214"/>
       <c r="B53" s="56">
         <v>4</v>
       </c>
@@ -16928,12 +17053,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="AQ1:AW1"/>
+    <mergeCell ref="AY1:BF1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B24:B26"/>
@@ -16941,13 +17067,12 @@
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A29:A39"/>
-    <mergeCell ref="AQ1:AW1"/>
-    <mergeCell ref="AY1:BF1"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -16995,75 +17120,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="239" t="s">
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="245" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
       <c r="R1" s="97"/>
-      <c r="S1" s="239" t="s">
+      <c r="S1" s="245" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
+      <c r="T1" s="245"/>
+      <c r="U1" s="245"/>
       <c r="V1" s="97"/>
-      <c r="W1" s="239" t="s">
+      <c r="W1" s="245" t="s">
         <v>237</v>
       </c>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="239"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="245"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="245"/>
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="245"/>
       <c r="AD1" s="97"/>
-      <c r="AE1" s="249" t="s">
+      <c r="AE1" s="260" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="250"/>
-      <c r="AG1" s="250"/>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="250"/>
-      <c r="AJ1" s="250"/>
-      <c r="AK1" s="250"/>
-      <c r="AL1" s="250"/>
-      <c r="AM1" s="250"/>
-      <c r="AN1" s="250"/>
-      <c r="AO1" s="251"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="261"/>
+      <c r="AH1" s="261"/>
+      <c r="AI1" s="261"/>
+      <c r="AJ1" s="261"/>
+      <c r="AK1" s="261"/>
+      <c r="AL1" s="261"/>
+      <c r="AM1" s="261"/>
+      <c r="AN1" s="261"/>
+      <c r="AO1" s="262"/>
       <c r="AP1" s="97"/>
-      <c r="AQ1" s="246" t="s">
+      <c r="AQ1" s="257" t="s">
         <v>239</v>
       </c>
-      <c r="AR1" s="247"/>
-      <c r="AS1" s="247"/>
-      <c r="AT1" s="248"/>
+      <c r="AR1" s="258"/>
+      <c r="AS1" s="258"/>
+      <c r="AT1" s="259"/>
       <c r="AU1" s="97"/>
-      <c r="AV1" s="239" t="s">
+      <c r="AV1" s="245" t="s">
         <v>240</v>
       </c>
-      <c r="AW1" s="239"/>
-      <c r="AX1" s="239"/>
+      <c r="AW1" s="245"/>
+      <c r="AX1" s="245"/>
       <c r="AY1" s="97"/>
-      <c r="AZ1" s="243" t="s">
+      <c r="AZ1" s="254" t="s">
         <v>246</v>
       </c>
-      <c r="BA1" s="244"/>
-      <c r="BB1" s="244"/>
-      <c r="BC1" s="245"/>
+      <c r="BA1" s="255"/>
+      <c r="BB1" s="255"/>
+      <c r="BC1" s="256"/>
       <c r="BD1" s="97"/>
       <c r="BE1" s="98" t="s">
         <v>234</v>
@@ -17073,34 +17198,34 @@
       </c>
     </row>
     <row r="2" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="257"/>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259">
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="246">
         <v>1</v>
       </c>
-      <c r="F2" s="260"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="144">
         <v>2</v>
       </c>
       <c r="H2" s="144">
         <v>3</v>
       </c>
-      <c r="I2" s="252">
+      <c r="I2" s="248">
         <v>4</v>
       </c>
-      <c r="J2" s="253"/>
+      <c r="J2" s="249"/>
       <c r="K2" s="145">
         <v>5</v>
       </c>
       <c r="L2" s="144">
         <v>6</v>
       </c>
-      <c r="M2" s="255">
+      <c r="M2" s="239">
         <v>7</v>
       </c>
-      <c r="N2" s="256"/>
+      <c r="N2" s="240"/>
       <c r="O2" s="144">
         <v>8</v>
       </c>
@@ -17111,10 +17236,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="146"/>
-      <c r="S2" s="252">
+      <c r="S2" s="248">
         <v>1</v>
       </c>
-      <c r="T2" s="253"/>
+      <c r="T2" s="249"/>
       <c r="U2" s="147">
         <v>2</v>
       </c>
@@ -17128,11 +17253,11 @@
       <c r="Y2" s="145">
         <v>3</v>
       </c>
-      <c r="Z2" s="254">
+      <c r="Z2" s="263">
         <v>4</v>
       </c>
-      <c r="AA2" s="254"/>
-      <c r="AB2" s="254"/>
+      <c r="AA2" s="263"/>
+      <c r="AB2" s="263"/>
       <c r="AC2" s="147">
         <v>5</v>
       </c>
@@ -17212,10 +17337,10 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="257"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="150">
         <v>1</v>
       </c>
@@ -17363,10 +17488,10 @@
       </c>
     </row>
     <row r="4" spans="1:58" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="A4" s="257"/>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="258"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="244"/>
       <c r="E4" s="43" t="s">
         <v>390</v>
       </c>
@@ -17496,11 +17621,11 @@
         <v>628</v>
       </c>
       <c r="AY4" s="45"/>
-      <c r="AZ4" s="240" t="s">
+      <c r="AZ4" s="251" t="s">
         <v>419</v>
       </c>
-      <c r="BA4" s="241"/>
-      <c r="BB4" s="242"/>
+      <c r="BA4" s="252"/>
+      <c r="BB4" s="253"/>
       <c r="BC4" s="46" t="s">
         <v>420</v>
       </c>
@@ -17510,10 +17635,10 @@
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="212" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="233" t="s">
+      <c r="B5" s="241" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -17577,8 +17702,8 @@
       <c r="BE5" s="11"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
-      <c r="B6" s="234"/>
+      <c r="A6" s="213"/>
+      <c r="B6" s="250"/>
       <c r="C6" s="30" t="s">
         <v>155</v>
       </c>
@@ -17640,8 +17765,8 @@
       <c r="BE6" s="11"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="184"/>
-      <c r="B7" s="234"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="31" t="s">
         <v>156</v>
       </c>
@@ -17705,8 +17830,8 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="184"/>
-      <c r="B8" s="234"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="250"/>
       <c r="C8" s="30" t="s">
         <v>157</v>
       </c>
@@ -17768,8 +17893,8 @@
       <c r="BE8" s="11"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
-      <c r="B9" s="234"/>
+      <c r="A9" s="213"/>
+      <c r="B9" s="250"/>
       <c r="C9" s="30" t="s">
         <v>158</v>
       </c>
@@ -17831,8 +17956,8 @@
       <c r="BE9" s="11"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
-      <c r="B10" s="234"/>
+      <c r="A10" s="213"/>
+      <c r="B10" s="250"/>
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -17894,8 +18019,8 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="184"/>
-      <c r="B11" s="234"/>
+      <c r="A11" s="213"/>
+      <c r="B11" s="250"/>
       <c r="C11" s="31" t="s">
         <v>161</v>
       </c>
@@ -17961,8 +18086,8 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="184"/>
-      <c r="B12" s="234"/>
+      <c r="A12" s="213"/>
+      <c r="B12" s="250"/>
       <c r="C12" s="30" t="s">
         <v>162</v>
       </c>
@@ -18024,8 +18149,8 @@
       <c r="BE12" s="25"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="184"/>
-      <c r="B13" s="235"/>
+      <c r="A13" s="213"/>
+      <c r="B13" s="242"/>
       <c r="C13" s="30" t="s">
         <v>163</v>
       </c>
@@ -18087,8 +18212,8 @@
       <c r="BE13" s="11"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="184"/>
-      <c r="B14" s="233" t="s">
+      <c r="A14" s="213"/>
+      <c r="B14" s="241" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -18156,8 +18281,8 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
-      <c r="B15" s="235"/>
+      <c r="A15" s="213"/>
+      <c r="B15" s="242"/>
       <c r="C15" s="30" t="s">
         <v>162</v>
       </c>
@@ -18219,8 +18344,8 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="184"/>
-      <c r="B16" s="233" t="s">
+      <c r="A16" s="213"/>
+      <c r="B16" s="241" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -18284,8 +18409,8 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
-      <c r="B17" s="234"/>
+      <c r="A17" s="213"/>
+      <c r="B17" s="250"/>
       <c r="C17" s="30" t="s">
         <v>160</v>
       </c>
@@ -18347,7 +18472,7 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A18" s="184"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="135" t="s">
         <v>6</v>
       </c>
@@ -18416,7 +18541,7 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A19" s="185"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="136" t="s">
         <v>7</v>
       </c>
@@ -18481,10 +18606,10 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="212" t="s">
         <v>611</v>
       </c>
-      <c r="B20" s="233" t="s">
+      <c r="B20" s="241" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -18550,8 +18675,8 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="184"/>
-      <c r="B21" s="234"/>
+      <c r="A21" s="213"/>
+      <c r="B21" s="250"/>
       <c r="C21" s="30" t="s">
         <v>167</v>
       </c>
@@ -18613,8 +18738,8 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
-      <c r="B22" s="234"/>
+      <c r="A22" s="213"/>
+      <c r="B22" s="250"/>
       <c r="C22" s="30" t="s">
         <v>169</v>
       </c>
@@ -18676,8 +18801,8 @@
       <c r="BE22" s="25"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="184"/>
-      <c r="B23" s="234"/>
+      <c r="A23" s="213"/>
+      <c r="B23" s="250"/>
       <c r="C23" s="31" t="s">
         <v>169</v>
       </c>
@@ -18741,8 +18866,8 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="184"/>
-      <c r="B24" s="234"/>
+      <c r="A24" s="213"/>
+      <c r="B24" s="250"/>
       <c r="C24" s="30" t="s">
         <v>170</v>
       </c>
@@ -18804,8 +18929,8 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
-      <c r="B25" s="234"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="250"/>
       <c r="C25" s="30" t="s">
         <v>171</v>
       </c>
@@ -18867,8 +18992,8 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A26" s="184"/>
-      <c r="B26" s="234"/>
+      <c r="A26" s="213"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="30" t="s">
         <v>172</v>
       </c>
@@ -18930,8 +19055,8 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A27" s="184"/>
-      <c r="B27" s="234"/>
+      <c r="A27" s="213"/>
+      <c r="B27" s="250"/>
       <c r="C27" s="30" t="s">
         <v>173</v>
       </c>
@@ -18993,8 +19118,8 @@
       <c r="BE27" s="9"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
-      <c r="B28" s="234"/>
+      <c r="A28" s="213"/>
+      <c r="B28" s="250"/>
       <c r="C28" s="30" t="s">
         <v>174</v>
       </c>
@@ -19056,8 +19181,8 @@
       <c r="BE28" s="9"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A29" s="184"/>
-      <c r="B29" s="234"/>
+      <c r="A29" s="213"/>
+      <c r="B29" s="250"/>
       <c r="C29" s="30" t="s">
         <v>175</v>
       </c>
@@ -19119,8 +19244,8 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A30" s="184"/>
-      <c r="B30" s="234"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="250"/>
       <c r="C30" s="30" t="s">
         <v>176</v>
       </c>
@@ -19182,8 +19307,8 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="184"/>
-      <c r="B31" s="234"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="250"/>
       <c r="C31" s="30" t="s">
         <v>177</v>
       </c>
@@ -19245,8 +19370,8 @@
       <c r="BE31" s="9"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A32" s="184"/>
-      <c r="B32" s="234"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="250"/>
       <c r="C32" s="30" t="s">
         <v>178</v>
       </c>
@@ -19308,8 +19433,8 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A33" s="184"/>
-      <c r="B33" s="234"/>
+      <c r="A33" s="213"/>
+      <c r="B33" s="250"/>
       <c r="C33" s="30" t="s">
         <v>179</v>
       </c>
@@ -19371,8 +19496,8 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A34" s="184"/>
-      <c r="B34" s="234"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="250"/>
       <c r="C34" s="30" t="s">
         <v>180</v>
       </c>
@@ -19434,8 +19559,8 @@
       <c r="BE34" s="9"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="184"/>
-      <c r="B35" s="234"/>
+      <c r="A35" s="213"/>
+      <c r="B35" s="250"/>
       <c r="C35" s="30" t="s">
         <v>181</v>
       </c>
@@ -19497,8 +19622,8 @@
       <c r="BE35" s="9"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="184"/>
-      <c r="B36" s="234"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="250"/>
       <c r="C36" s="30" t="s">
         <v>182</v>
       </c>
@@ -19560,8 +19685,8 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
-      <c r="B37" s="234"/>
+      <c r="A37" s="213"/>
+      <c r="B37" s="250"/>
       <c r="C37" s="30" t="s">
         <v>183</v>
       </c>
@@ -19623,8 +19748,8 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A38" s="184"/>
-      <c r="B38" s="234"/>
+      <c r="A38" s="213"/>
+      <c r="B38" s="250"/>
       <c r="C38" s="30" t="s">
         <v>184</v>
       </c>
@@ -19686,8 +19811,8 @@
       <c r="BE38" s="9"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A39" s="184"/>
-      <c r="B39" s="235"/>
+      <c r="A39" s="213"/>
+      <c r="B39" s="242"/>
       <c r="C39" s="30" t="s">
         <v>185</v>
       </c>
@@ -19749,7 +19874,7 @@
       <c r="BE39" s="9"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A40" s="184"/>
+      <c r="A40" s="213"/>
       <c r="B40" s="137" t="s">
         <v>15</v>
       </c>
@@ -19814,8 +19939,8 @@
       <c r="BE40" s="9"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="184"/>
-      <c r="B41" s="195" t="s">
+      <c r="A41" s="213"/>
+      <c r="B41" s="207" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -19881,8 +20006,8 @@
       <c r="BE41" s="9"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="184"/>
-      <c r="B42" s="236"/>
+      <c r="A42" s="213"/>
+      <c r="B42" s="265"/>
       <c r="C42" s="31" t="s">
         <v>188</v>
       </c>
@@ -19946,8 +20071,8 @@
       <c r="BE42" s="9"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="184"/>
-      <c r="B43" s="236"/>
+      <c r="A43" s="213"/>
+      <c r="B43" s="265"/>
       <c r="C43" s="31" t="s">
         <v>189</v>
       </c>
@@ -20011,8 +20136,8 @@
       <c r="BE43" s="9"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A44" s="184"/>
-      <c r="B44" s="236"/>
+      <c r="A44" s="213"/>
+      <c r="B44" s="265"/>
       <c r="C44" s="31" t="s">
         <v>190</v>
       </c>
@@ -20076,8 +20201,8 @@
       <c r="BE44" s="9"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A45" s="184"/>
-      <c r="B45" s="236"/>
+      <c r="A45" s="213"/>
+      <c r="B45" s="265"/>
       <c r="C45" s="31" t="s">
         <v>191</v>
       </c>
@@ -20141,8 +20266,8 @@
       <c r="BE45" s="9"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A46" s="184"/>
-      <c r="B46" s="236"/>
+      <c r="A46" s="213"/>
+      <c r="B46" s="265"/>
       <c r="C46" s="31" t="s">
         <v>580</v>
       </c>
@@ -20206,8 +20331,8 @@
       <c r="BE46" s="9"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="184"/>
-      <c r="B47" s="236"/>
+      <c r="A47" s="213"/>
+      <c r="B47" s="265"/>
       <c r="C47" s="31" t="s">
         <v>551</v>
       </c>
@@ -20271,8 +20396,8 @@
       <c r="BE47" s="9"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="184"/>
-      <c r="B48" s="196"/>
+      <c r="A48" s="213"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="31" t="s">
         <v>552</v>
       </c>
@@ -20336,8 +20461,8 @@
       <c r="BE48" s="9"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A49" s="184"/>
-      <c r="B49" s="195" t="s">
+      <c r="A49" s="213"/>
+      <c r="B49" s="207" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="31" t="s">
@@ -20403,8 +20528,8 @@
       <c r="BE49" s="9"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A50" s="185"/>
-      <c r="B50" s="196"/>
+      <c r="A50" s="214"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="31" t="s">
         <v>554</v>
       </c>
@@ -20527,10 +20652,10 @@
       <c r="BE51" s="10"/>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A52" s="186" t="s">
+      <c r="A52" s="209" t="s">
         <v>618</v>
       </c>
-      <c r="B52" s="237" t="s">
+      <c r="B52" s="266" t="s">
         <v>261</v>
       </c>
       <c r="C52" s="30" t="s">
@@ -20594,8 +20719,8 @@
       <c r="BE52" s="18"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A53" s="187"/>
-      <c r="B53" s="238"/>
+      <c r="A53" s="210"/>
+      <c r="B53" s="267"/>
       <c r="C53" s="30" t="s">
         <v>126</v>
       </c>
@@ -20657,7 +20782,7 @@
       <c r="BE53" s="18"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A54" s="187"/>
+      <c r="A54" s="210"/>
       <c r="B54" s="139" t="s">
         <v>262</v>
       </c>
@@ -20722,8 +20847,8 @@
       <c r="BE54" s="18"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A55" s="187"/>
-      <c r="B55" s="233" t="s">
+      <c r="A55" s="210"/>
+      <c r="B55" s="241" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="30" t="s">
@@ -20787,8 +20912,8 @@
       <c r="BE55" s="9"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A56" s="187"/>
-      <c r="B56" s="234"/>
+      <c r="A56" s="210"/>
+      <c r="B56" s="250"/>
       <c r="C56" s="30" t="s">
         <v>250</v>
       </c>
@@ -20850,8 +20975,8 @@
       <c r="BE56" s="9"/>
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A57" s="188"/>
-      <c r="B57" s="235"/>
+      <c r="A57" s="211"/>
+      <c r="B57" s="242"/>
       <c r="C57" s="30" t="s">
         <v>251</v>
       </c>
@@ -20972,7 +21097,7 @@
       <c r="BE58" s="10"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A59" s="186" t="s">
+      <c r="A59" s="209" t="s">
         <v>613</v>
       </c>
       <c r="B59" s="140" t="s">
@@ -21041,7 +21166,7 @@
       <c r="BE59" s="9"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A60" s="187"/>
+      <c r="A60" s="210"/>
       <c r="B60" s="140" t="s">
         <v>43</v>
       </c>
@@ -21108,7 +21233,7 @@
       <c r="BE60" s="9"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A61" s="187"/>
+      <c r="A61" s="210"/>
       <c r="B61" s="140" t="s">
         <v>44</v>
       </c>
@@ -21177,7 +21302,7 @@
       <c r="BE61" s="9"/>
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A62" s="187"/>
+      <c r="A62" s="210"/>
       <c r="B62" s="140" t="s">
         <v>45</v>
       </c>
@@ -21246,8 +21371,8 @@
       <c r="BE62" s="25"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A63" s="187"/>
-      <c r="B63" s="195" t="s">
+      <c r="A63" s="210"/>
+      <c r="B63" s="207" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="31" t="s">
@@ -21317,8 +21442,8 @@
       <c r="BE63" s="9"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A64" s="187"/>
-      <c r="B64" s="196"/>
+      <c r="A64" s="210"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="31" t="s">
         <v>140</v>
       </c>
@@ -21386,7 +21511,7 @@
       <c r="BE64" s="9"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A65" s="187"/>
+      <c r="A65" s="210"/>
       <c r="B65" s="140" t="s">
         <v>47</v>
       </c>
@@ -21463,7 +21588,7 @@
       <c r="BE65" s="18"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A66" s="188"/>
+      <c r="A66" s="211"/>
       <c r="B66" s="141" t="s">
         <v>538</v>
       </c>
@@ -21595,10 +21720,10 @@
       <c r="BE67" s="10"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A68" s="186" t="s">
+      <c r="A68" s="209" t="s">
         <v>604</v>
       </c>
-      <c r="B68" s="232" t="s">
+      <c r="B68" s="264" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -21666,8 +21791,8 @@
       <c r="BE68" s="9"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A69" s="187"/>
-      <c r="B69" s="232"/>
+      <c r="A69" s="210"/>
+      <c r="B69" s="264"/>
       <c r="C69" s="31" t="s">
         <v>255</v>
       </c>
@@ -21733,8 +21858,8 @@
       <c r="BE69" s="9"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A70" s="187"/>
-      <c r="B70" s="232" t="s">
+      <c r="A70" s="210"/>
+      <c r="B70" s="264" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="31" t="s">
@@ -21800,8 +21925,8 @@
       <c r="BE70" s="9"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A71" s="187"/>
-      <c r="B71" s="232"/>
+      <c r="A71" s="210"/>
+      <c r="B71" s="264"/>
       <c r="C71" s="31" t="s">
         <v>117</v>
       </c>
@@ -21867,7 +21992,7 @@
       <c r="BE71" s="9"/>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A72" s="187"/>
+      <c r="A72" s="210"/>
       <c r="B72" s="140" t="s">
         <v>57</v>
       </c>
@@ -21934,7 +22059,7 @@
       <c r="BE72" s="25"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A73" s="187"/>
+      <c r="A73" s="210"/>
       <c r="B73" s="140" t="s">
         <v>58</v>
       </c>
@@ -22001,7 +22126,7 @@
       <c r="BE73" s="25"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A74" s="187"/>
+      <c r="A74" s="210"/>
       <c r="B74" s="140" t="s">
         <v>59</v>
       </c>
@@ -22068,8 +22193,8 @@
       <c r="BE74" s="9"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A75" s="187"/>
-      <c r="B75" s="232" t="s">
+      <c r="A75" s="210"/>
+      <c r="B75" s="264" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="23" t="s">
@@ -22135,8 +22260,8 @@
       <c r="BE75" s="9"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A76" s="187"/>
-      <c r="B76" s="232"/>
+      <c r="A76" s="210"/>
+      <c r="B76" s="264"/>
       <c r="C76" s="23" t="s">
         <v>122</v>
       </c>
@@ -22200,8 +22325,8 @@
       <c r="BE76" s="9"/>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A77" s="187"/>
-      <c r="B77" s="232"/>
+      <c r="A77" s="210"/>
+      <c r="B77" s="264"/>
       <c r="C77" s="23" t="s">
         <v>123</v>
       </c>
@@ -22265,7 +22390,7 @@
       <c r="BE77" s="9"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A78" s="188"/>
+      <c r="A78" s="211"/>
       <c r="B78" s="142" t="s">
         <v>61</v>
       </c>
@@ -22332,10 +22457,10 @@
       <c r="BE78" s="9"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A79" s="186" t="s">
+      <c r="A79" s="209" t="s">
         <v>614</v>
       </c>
-      <c r="B79" s="195" t="s">
+      <c r="B79" s="207" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="31" t="s">
@@ -22401,8 +22526,8 @@
       <c r="BE79" s="9"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A80" s="187"/>
-      <c r="B80" s="196"/>
+      <c r="A80" s="210"/>
+      <c r="B80" s="208"/>
       <c r="C80" s="31" t="s">
         <v>144</v>
       </c>
@@ -22466,7 +22591,7 @@
       <c r="BE80" s="9"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A81" s="187"/>
+      <c r="A81" s="210"/>
       <c r="B81" s="135" t="s">
         <v>76</v>
       </c>
@@ -22533,8 +22658,8 @@
       <c r="BE81" s="9"/>
     </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A82" s="187"/>
-      <c r="B82" s="232" t="s">
+      <c r="A82" s="210"/>
+      <c r="B82" s="264" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="23" t="s">
@@ -22600,8 +22725,8 @@
       <c r="BE82" s="9"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A83" s="187"/>
-      <c r="B83" s="232"/>
+      <c r="A83" s="210"/>
+      <c r="B83" s="264"/>
       <c r="C83" s="23" t="s">
         <v>147</v>
       </c>
@@ -22665,7 +22790,7 @@
       <c r="BE83" s="9"/>
     </row>
     <row r="84" spans="1:57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="187"/>
+      <c r="A84" s="210"/>
       <c r="B84" s="142" t="s">
         <v>78</v>
       </c>
@@ -22734,8 +22859,8 @@
       <c r="BE84" s="25"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A85" s="187"/>
-      <c r="B85" s="195" t="s">
+      <c r="A85" s="210"/>
+      <c r="B85" s="207" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -22803,8 +22928,8 @@
       <c r="BE85" s="9"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A86" s="187"/>
-      <c r="B86" s="236"/>
+      <c r="A86" s="210"/>
+      <c r="B86" s="265"/>
       <c r="C86" s="23" t="s">
         <v>559</v>
       </c>
@@ -22870,8 +22995,8 @@
       <c r="BE86" s="9"/>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A87" s="187"/>
-      <c r="B87" s="196"/>
+      <c r="A87" s="210"/>
+      <c r="B87" s="208"/>
       <c r="C87" s="23" t="s">
         <v>152</v>
       </c>
@@ -22937,7 +23062,7 @@
       <c r="BE87" s="9"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A88" s="187"/>
+      <c r="A88" s="210"/>
       <c r="B88" s="142" t="s">
         <v>80</v>
       </c>
@@ -23008,8 +23133,8 @@
       <c r="BE88" s="9"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A89" s="187"/>
-      <c r="B89" s="195" t="s">
+      <c r="A89" s="210"/>
+      <c r="B89" s="207" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="23" t="s">
@@ -23077,8 +23202,8 @@
       <c r="BE89" s="9"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A90" s="187"/>
-      <c r="B90" s="236"/>
+      <c r="A90" s="210"/>
+      <c r="B90" s="265"/>
       <c r="C90" s="23" t="s">
         <v>151</v>
       </c>
@@ -23144,8 +23269,8 @@
       <c r="BE90" s="9"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A91" s="187"/>
-      <c r="B91" s="236"/>
+      <c r="A91" s="210"/>
+      <c r="B91" s="265"/>
       <c r="C91" s="23" t="s">
         <v>559</v>
       </c>
@@ -23211,8 +23336,8 @@
       <c r="BE91" s="9"/>
     </row>
     <row r="92" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A92" s="188"/>
-      <c r="B92" s="196"/>
+      <c r="A92" s="211"/>
+      <c r="B92" s="208"/>
       <c r="C92" s="23" t="s">
         <v>152</v>
       </c>
@@ -23278,10 +23403,10 @@
       <c r="BE92" s="9"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A93" s="186" t="s">
+      <c r="A93" s="209" t="s">
         <v>615</v>
       </c>
-      <c r="B93" s="195" t="s">
+      <c r="B93" s="207" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="23" t="s">
@@ -23347,8 +23472,8 @@
       <c r="BE93" s="25"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A94" s="188"/>
-      <c r="B94" s="196"/>
+      <c r="A94" s="211"/>
+      <c r="B94" s="208"/>
       <c r="C94" s="23" t="s">
         <v>132</v>
       </c>
@@ -23471,10 +23596,10 @@
       <c r="BE95" s="10"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A96" s="186" t="s">
+      <c r="A96" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="232" t="s">
+      <c r="B96" s="264" t="s">
         <v>101</v>
       </c>
       <c r="C96" s="23" t="s">
@@ -23542,8 +23667,8 @@
       <c r="BE96" s="9"/>
     </row>
     <row r="97" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A97" s="187"/>
-      <c r="B97" s="232"/>
+      <c r="A97" s="210"/>
+      <c r="B97" s="264"/>
       <c r="C97" s="23" t="s">
         <v>562</v>
       </c>
@@ -23609,7 +23734,7 @@
       <c r="BE97" s="9"/>
     </row>
     <row r="98" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="188"/>
+      <c r="A98" s="211"/>
       <c r="B98" s="141" t="s">
         <v>560</v>
       </c>
@@ -23675,7 +23800,7 @@
       <c r="BE98" s="9"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A99" s="186" t="s">
+      <c r="A99" s="209" t="s">
         <v>616</v>
       </c>
       <c r="B99" s="142" t="s">
@@ -23744,7 +23869,7 @@
       <c r="BE99" s="9"/>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A100" s="187"/>
+      <c r="A100" s="210"/>
       <c r="B100" s="141" t="s">
         <v>265</v>
       </c>
@@ -23815,7 +23940,7 @@
       <c r="BE100" s="9"/>
     </row>
     <row r="101" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="188"/>
+      <c r="A101" s="211"/>
       <c r="B101" s="141" t="s">
         <v>264</v>
       </c>
@@ -23881,7 +24006,7 @@
       <c r="BE101" s="9"/>
     </row>
     <row r="102" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="186" t="s">
+      <c r="A102" s="209" t="s">
         <v>617</v>
       </c>
       <c r="B102" s="140" t="s">
@@ -23950,7 +24075,7 @@
       <c r="BE102" s="9"/>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A103" s="188"/>
+      <c r="A103" s="211"/>
       <c r="B103" s="141" t="s">
         <v>263</v>
       </c>
@@ -24076,7 +24201,7 @@
       <c r="BE104" s="10"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A105" s="186" t="s">
+      <c r="A105" s="209" t="s">
         <v>605</v>
       </c>
       <c r="B105" s="140" t="s">
@@ -24145,7 +24270,7 @@
       <c r="BE105" s="25"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A106" s="187"/>
+      <c r="A106" s="210"/>
       <c r="B106" s="140" t="s">
         <v>539</v>
       </c>
@@ -24212,7 +24337,7 @@
       <c r="BE106" s="25"/>
     </row>
     <row r="107" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A107" s="187"/>
+      <c r="A107" s="210"/>
       <c r="B107" s="140" t="s">
         <v>540</v>
       </c>
@@ -24279,8 +24404,8 @@
       <c r="BE107" s="25"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A108" s="187"/>
-      <c r="B108" s="232" t="s">
+      <c r="A108" s="210"/>
+      <c r="B108" s="264" t="s">
         <v>541</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -24346,8 +24471,8 @@
       <c r="BE108" s="25"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A109" s="187"/>
-      <c r="B109" s="232"/>
+      <c r="A109" s="210"/>
+      <c r="B109" s="264"/>
       <c r="C109" s="23" t="s">
         <v>194</v>
       </c>
@@ -24411,8 +24536,8 @@
       <c r="BE109" s="25"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A110" s="187"/>
-      <c r="B110" s="232"/>
+      <c r="A110" s="210"/>
+      <c r="B110" s="264"/>
       <c r="C110" s="23" t="s">
         <v>195</v>
       </c>
@@ -24476,8 +24601,8 @@
       <c r="BE110" s="25"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A111" s="187"/>
-      <c r="B111" s="232" t="s">
+      <c r="A111" s="210"/>
+      <c r="B111" s="264" t="s">
         <v>542</v>
       </c>
       <c r="C111" s="23" t="s">
@@ -24543,8 +24668,8 @@
       <c r="BE111" s="25"/>
     </row>
     <row r="112" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A112" s="187"/>
-      <c r="B112" s="232"/>
+      <c r="A112" s="210"/>
+      <c r="B112" s="264"/>
       <c r="C112" s="23" t="s">
         <v>547</v>
       </c>
@@ -24608,7 +24733,7 @@
       <c r="BE112" s="25"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A113" s="187"/>
+      <c r="A113" s="210"/>
       <c r="B113" s="140" t="s">
         <v>543</v>
       </c>
@@ -24675,8 +24800,8 @@
       <c r="BE113" s="25"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A114" s="187"/>
-      <c r="B114" s="195" t="s">
+      <c r="A114" s="210"/>
+      <c r="B114" s="207" t="s">
         <v>544</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -24742,8 +24867,8 @@
       <c r="BE114" s="25"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A115" s="187"/>
-      <c r="B115" s="196"/>
+      <c r="A115" s="210"/>
+      <c r="B115" s="208"/>
       <c r="C115" s="23" t="s">
         <v>570</v>
       </c>
@@ -24807,7 +24932,7 @@
       <c r="BE115" s="25"/>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A116" s="188"/>
+      <c r="A116" s="211"/>
       <c r="B116" s="140" t="s">
         <v>545</v>
       </c>
@@ -24874,10 +24999,10 @@
       <c r="BE116" s="25"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B118" s="204" t="s">
+      <c r="B118" s="203" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="204"/>
+      <c r="C118" s="203"/>
       <c r="D118" s="68" t="s">
         <v>387</v>
       </c>
@@ -24905,43 +25030,40 @@
       <c r="AB118" s="68"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B119" s="197" t="s">
+      <c r="B119" s="190" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="197"/>
+      <c r="C119" s="190"/>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
       <c r="F119" s="66"/>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B120" s="198" t="s">
+      <c r="B120" s="191" t="s">
         <v>346</v>
       </c>
-      <c r="C120" s="198"/>
+      <c r="C120" s="191"/>
       <c r="D120" s="67"/>
       <c r="E120" s="67"/>
       <c r="F120" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AE1:AO1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A105:A116"/>
+    <mergeCell ref="A20:A50"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A79:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B20:B39"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="B79:B80"/>
@@ -24958,21 +25080,24 @@
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A105:A116"/>
-    <mergeCell ref="A20:A50"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A79:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B20:B39"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AE1:AO1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -24986,8 +25111,8 @@
   </sheetPr>
   <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE11" sqref="BE11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25014,72 +25139,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="262"/>
-      <c r="C1" s="239" t="s">
+      <c r="B1" s="270"/>
+      <c r="C1" s="245" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
       <c r="P1" s="97"/>
-      <c r="Q1" s="239" t="s">
+      <c r="Q1" s="245" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="245"/>
       <c r="T1" s="97"/>
-      <c r="U1" s="239" t="s">
+      <c r="U1" s="245" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="239"/>
+      <c r="V1" s="245"/>
+      <c r="W1" s="245"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="245"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="245"/>
       <c r="AB1" s="97"/>
-      <c r="AC1" s="249" t="s">
+      <c r="AC1" s="260" t="s">
         <v>238</v>
       </c>
-      <c r="AD1" s="250"/>
-      <c r="AE1" s="250"/>
-      <c r="AF1" s="250"/>
-      <c r="AG1" s="250"/>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="250"/>
-      <c r="AJ1" s="250"/>
-      <c r="AK1" s="250"/>
-      <c r="AL1" s="250"/>
-      <c r="AM1" s="251"/>
+      <c r="AD1" s="261"/>
+      <c r="AE1" s="261"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="261"/>
+      <c r="AH1" s="261"/>
+      <c r="AI1" s="261"/>
+      <c r="AJ1" s="261"/>
+      <c r="AK1" s="261"/>
+      <c r="AL1" s="261"/>
+      <c r="AM1" s="262"/>
       <c r="AN1" s="97"/>
-      <c r="AO1" s="246" t="s">
+      <c r="AO1" s="257" t="s">
         <v>239</v>
       </c>
-      <c r="AP1" s="247"/>
-      <c r="AQ1" s="247"/>
-      <c r="AR1" s="248"/>
+      <c r="AP1" s="258"/>
+      <c r="AQ1" s="258"/>
+      <c r="AR1" s="259"/>
       <c r="AS1" s="97"/>
-      <c r="AT1" s="239" t="s">
+      <c r="AT1" s="245" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" s="239"/>
-      <c r="AV1" s="239"/>
+      <c r="AU1" s="245"/>
+      <c r="AV1" s="245"/>
       <c r="AW1" s="97"/>
-      <c r="AX1" s="243" t="s">
+      <c r="AX1" s="254" t="s">
         <v>246</v>
       </c>
-      <c r="AY1" s="244"/>
-      <c r="AZ1" s="244"/>
-      <c r="BA1" s="245"/>
+      <c r="AY1" s="255"/>
+      <c r="AZ1" s="255"/>
+      <c r="BA1" s="256"/>
       <c r="BB1" s="97"/>
       <c r="BC1" s="98" t="s">
         <v>234</v>
@@ -25089,45 +25214,43 @@
       </c>
     </row>
     <row r="2" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="262"/>
-      <c r="C2" s="264">
+      <c r="B2" s="270"/>
+      <c r="C2" s="272">
         <v>1</v>
       </c>
-      <c r="D2" s="265"/>
+      <c r="D2" s="273"/>
       <c r="E2" s="41">
         <v>2</v>
       </c>
       <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="266">
+      <c r="G2" s="274">
         <v>4</v>
       </c>
-      <c r="H2" s="267"/>
+      <c r="H2" s="275"/>
       <c r="I2" s="41">
         <v>5</v>
       </c>
       <c r="J2" s="42">
         <v>6</v>
       </c>
-      <c r="K2" s="271">
+      <c r="K2" s="279">
         <v>7</v>
       </c>
-      <c r="L2" s="272"/>
+      <c r="L2" s="280"/>
       <c r="M2" s="24">
         <v>8</v>
       </c>
-      <c r="N2" s="42">
-        <v>9</v>
-      </c>
-      <c r="O2" s="41">
-        <v>10</v>
-      </c>
+      <c r="N2" s="279">
+        <v>7</v>
+      </c>
+      <c r="O2" s="280"/>
       <c r="P2" s="36"/>
-      <c r="Q2" s="268">
+      <c r="Q2" s="276">
         <v>1</v>
       </c>
-      <c r="R2" s="269"/>
+      <c r="R2" s="277"/>
       <c r="S2" s="49">
         <v>2</v>
       </c>
@@ -25141,11 +25264,11 @@
       <c r="W2" s="24">
         <v>3</v>
       </c>
-      <c r="X2" s="270">
+      <c r="X2" s="278">
         <v>4</v>
       </c>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
       <c r="AA2" s="50">
         <v>5</v>
       </c>
@@ -25168,16 +25291,16 @@
       <c r="AH2" s="24">
         <v>6</v>
       </c>
-      <c r="AI2" s="24">
+      <c r="AI2" s="42">
         <v>7</v>
       </c>
-      <c r="AJ2" s="24">
+      <c r="AJ2" s="42">
         <v>8</v>
       </c>
-      <c r="AK2" s="24">
+      <c r="AK2" s="42">
         <v>9</v>
       </c>
-      <c r="AL2" s="23">
+      <c r="AL2" s="42">
         <v>10</v>
       </c>
       <c r="AM2" s="50">
@@ -25187,10 +25310,10 @@
       <c r="AO2" s="23">
         <v>1</v>
       </c>
-      <c r="AP2" s="24">
+      <c r="AP2" s="167">
         <v>2</v>
       </c>
-      <c r="AQ2" s="24">
+      <c r="AQ2" s="167">
         <v>3</v>
       </c>
       <c r="AR2" s="50">
@@ -25225,17 +25348,17 @@
       </c>
     </row>
     <row r="3" spans="1:56" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="262"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="145">
         <v>1</v>
       </c>
       <c r="D3" s="151">
         <v>2</v>
       </c>
-      <c r="E3" s="144">
+      <c r="E3" s="291">
         <v>1</v>
       </c>
-      <c r="F3" s="144">
+      <c r="F3" s="291">
         <v>1</v>
       </c>
       <c r="G3" s="148">
@@ -25256,20 +25379,20 @@
       <c r="L3" s="154">
         <v>2</v>
       </c>
-      <c r="M3" s="144">
+      <c r="M3" s="291">
         <v>1</v>
       </c>
       <c r="N3" s="144">
         <v>1</v>
       </c>
-      <c r="O3" s="144">
+      <c r="O3" s="291">
         <v>1</v>
       </c>
       <c r="P3" s="146"/>
-      <c r="Q3" s="148">
+      <c r="Q3" s="292">
         <v>1</v>
       </c>
-      <c r="R3" s="152">
+      <c r="R3" s="293">
         <v>2</v>
       </c>
       <c r="S3" s="147">
@@ -25298,7 +25421,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="146"/>
-      <c r="AC3" s="144">
+      <c r="AC3" s="291">
         <v>1</v>
       </c>
       <c r="AD3" s="145">
@@ -25316,23 +25439,23 @@
       <c r="AH3" s="145">
         <v>1</v>
       </c>
-      <c r="AI3" s="145">
+      <c r="AI3" s="163">
         <v>1</v>
       </c>
-      <c r="AJ3" s="145">
+      <c r="AJ3" s="163">
         <v>1</v>
       </c>
-      <c r="AK3" s="145">
+      <c r="AK3" s="163">
         <v>1</v>
       </c>
-      <c r="AL3" s="145">
+      <c r="AL3" s="163">
         <v>1</v>
       </c>
-      <c r="AM3" s="148">
+      <c r="AM3" s="292">
         <v>1</v>
       </c>
       <c r="AN3" s="146"/>
-      <c r="AO3" s="145">
+      <c r="AO3" s="163">
         <v>1</v>
       </c>
       <c r="AP3" s="144">
@@ -25341,11 +25464,11 @@
       <c r="AQ3" s="144">
         <v>1</v>
       </c>
-      <c r="AR3" s="148">
+      <c r="AR3" s="292">
         <v>1</v>
       </c>
       <c r="AS3" s="146"/>
-      <c r="AT3" s="144">
+      <c r="AT3" s="291">
         <v>1</v>
       </c>
       <c r="AU3" s="145">
@@ -25373,7 +25496,7 @@
       </c>
     </row>
     <row r="4" spans="1:56" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="B4" s="263"/>
+      <c r="B4" s="271"/>
       <c r="C4" s="44" t="s">
         <v>390</v>
       </c>
@@ -25503,11 +25626,11 @@
         <v>628</v>
       </c>
       <c r="AW4" s="45"/>
-      <c r="AX4" s="240" t="s">
+      <c r="AX4" s="251" t="s">
         <v>419</v>
       </c>
-      <c r="AY4" s="241"/>
-      <c r="AZ4" s="242"/>
+      <c r="AY4" s="252"/>
+      <c r="AZ4" s="253"/>
       <c r="BA4" s="46" t="s">
         <v>420</v>
       </c>
@@ -25517,7 +25640,7 @@
       </c>
     </row>
     <row r="5" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="273" t="s">
+      <c r="A5" s="268" t="s">
         <v>526</v>
       </c>
       <c r="B5" s="119" t="s">
@@ -25578,7 +25701,7 @@
       <c r="BC5" s="11"/>
     </row>
     <row r="6" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="273"/>
+      <c r="A6" s="268"/>
       <c r="B6" s="119" t="s">
         <v>511</v>
       </c>
@@ -25637,7 +25760,7 @@
       <c r="BC6" s="11"/>
     </row>
     <row r="7" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="273"/>
+      <c r="A7" s="268"/>
       <c r="B7" s="118" t="s">
         <v>512</v>
       </c>
@@ -25703,7 +25826,7 @@
       <c r="BC7" s="11"/>
     </row>
     <row r="8" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="273"/>
+      <c r="A8" s="268"/>
       <c r="B8" s="118" t="s">
         <v>513</v>
       </c>
@@ -25768,7 +25891,7 @@
       <c r="BC8" s="11"/>
     </row>
     <row r="9" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="273"/>
+      <c r="A9" s="268"/>
       <c r="B9" s="118" t="s">
         <v>514</v>
       </c>
@@ -25829,7 +25952,7 @@
       <c r="BC9" s="11"/>
     </row>
     <row r="10" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="273"/>
+      <c r="A10" s="268"/>
       <c r="B10" s="118" t="s">
         <v>521</v>
       </c>
@@ -25904,7 +26027,7 @@
       <c r="BC10" s="11"/>
     </row>
     <row r="11" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="273"/>
+      <c r="A11" s="268"/>
       <c r="B11" s="118" t="s">
         <v>522</v>
       </c>
@@ -25971,7 +26094,7 @@
       <c r="BC11" s="11"/>
     </row>
     <row r="12" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="273"/>
+      <c r="A12" s="268"/>
       <c r="B12" s="118" t="s">
         <v>523</v>
       </c>
@@ -26044,7 +26167,7 @@
       <c r="BC12" s="11"/>
     </row>
     <row r="13" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="273"/>
+      <c r="A13" s="268"/>
       <c r="B13" s="118" t="s">
         <v>515</v>
       </c>
@@ -26105,7 +26228,7 @@
       <c r="BC13" s="25"/>
     </row>
     <row r="14" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="273"/>
+      <c r="A14" s="268"/>
       <c r="B14" s="119" t="s">
         <v>516</v>
       </c>
@@ -26164,7 +26287,7 @@
       <c r="BC14" s="25"/>
     </row>
     <row r="15" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="273"/>
+      <c r="A15" s="268"/>
       <c r="B15" s="119" t="s">
         <v>518</v>
       </c>
@@ -26223,7 +26346,7 @@
       <c r="BC15" s="25"/>
     </row>
     <row r="16" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="273"/>
+      <c r="A16" s="268"/>
       <c r="B16" s="119" t="s">
         <v>517</v>
       </c>
@@ -26282,7 +26405,7 @@
       <c r="BC16" s="25"/>
     </row>
     <row r="17" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="273"/>
+      <c r="A17" s="268"/>
       <c r="B17" s="119" t="s">
         <v>519</v>
       </c>
@@ -26341,7 +26464,7 @@
       <c r="BC17" s="25"/>
     </row>
     <row r="18" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="273"/>
+      <c r="A18" s="268"/>
       <c r="B18" s="119" t="s">
         <v>520</v>
       </c>
@@ -26401,13 +26524,13 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="204" t="s">
+      <c r="C20" s="203" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
@@ -26430,26 +26553,29 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="197" t="s">
+      <c r="C21" s="190" t="s">
         <v>524</v>
       </c>
-      <c r="D21" s="197"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="197"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="261" t="s">
+      <c r="C22" s="269" t="s">
         <v>525</v>
       </c>
-      <c r="D22" s="261"/>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
+      <c r="D22" s="269"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="269"/>
+      <c r="G22" s="269"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="A5:A18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -26466,7 +26592,1386 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="AC1:AM1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74852741-AA7F-7946-9BA8-F705BD313B92}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BD20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF31" sqref="AF31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="20" customWidth="1"/>
+    <col min="3" max="15" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.5" style="3" customWidth="1"/>
+    <col min="17" max="19" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="0.5" style="3" customWidth="1"/>
+    <col min="21" max="27" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="0.5" style="3" customWidth="1"/>
+    <col min="29" max="39" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="0.5" style="3" customWidth="1"/>
+    <col min="41" max="41" width="3.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="0.5" style="3" customWidth="1"/>
+    <col min="46" max="48" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="0.5" style="3" customWidth="1"/>
+    <col min="50" max="53" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="0.5" style="3" customWidth="1"/>
+    <col min="55" max="55" width="4" style="3" customWidth="1"/>
+    <col min="56" max="56" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="270"/>
+      <c r="C1" s="245" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="245" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" s="245"/>
+      <c r="S1" s="245"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="245" t="s">
+        <v>237</v>
+      </c>
+      <c r="V1" s="245"/>
+      <c r="W1" s="245"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="245"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="245"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="260" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD1" s="261"/>
+      <c r="AE1" s="261"/>
+      <c r="AF1" s="261"/>
+      <c r="AG1" s="261"/>
+      <c r="AH1" s="261"/>
+      <c r="AI1" s="261"/>
+      <c r="AJ1" s="261"/>
+      <c r="AK1" s="261"/>
+      <c r="AL1" s="261"/>
+      <c r="AM1" s="262"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="257" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP1" s="258"/>
+      <c r="AQ1" s="258"/>
+      <c r="AR1" s="259"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="245" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU1" s="245"/>
+      <c r="AV1" s="245"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="254" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY1" s="255"/>
+      <c r="AZ1" s="255"/>
+      <c r="BA1" s="256"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD1" s="99" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="270"/>
+      <c r="C2" s="282">
+        <v>1</v>
+      </c>
+      <c r="D2" s="283"/>
+      <c r="E2" s="284">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42">
+        <v>3</v>
+      </c>
+      <c r="G2" s="285">
+        <v>4</v>
+      </c>
+      <c r="H2" s="286"/>
+      <c r="I2" s="284">
+        <v>5</v>
+      </c>
+      <c r="J2" s="287">
+        <v>6</v>
+      </c>
+      <c r="K2" s="279">
+        <v>7</v>
+      </c>
+      <c r="L2" s="280"/>
+      <c r="M2" s="288">
+        <v>8</v>
+      </c>
+      <c r="N2" s="42">
+        <v>9</v>
+      </c>
+      <c r="O2" s="284">
+        <v>10</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="294">
+        <v>1</v>
+      </c>
+      <c r="R2" s="295"/>
+      <c r="S2" s="296">
+        <v>2</v>
+      </c>
+      <c r="T2" s="36"/>
+      <c r="U2" s="167">
+        <v>1</v>
+      </c>
+      <c r="V2" s="298">
+        <v>2</v>
+      </c>
+      <c r="W2" s="167">
+        <v>3</v>
+      </c>
+      <c r="X2" s="278">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
+      <c r="AA2" s="299">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="167">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="288">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="288">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="167">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="167">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="288">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="288">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="288">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="288">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="298">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="299">
+        <v>11</v>
+      </c>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="298">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="288">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="288">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="299">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="288">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="288">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="299">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="167">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="298">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="298">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="288">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="270"/>
+      <c r="C3" s="289">
+        <v>1</v>
+      </c>
+      <c r="D3" s="290">
+        <v>2</v>
+      </c>
+      <c r="E3" s="291">
+        <v>1</v>
+      </c>
+      <c r="F3" s="163">
+        <v>1</v>
+      </c>
+      <c r="G3" s="292">
+        <v>1</v>
+      </c>
+      <c r="H3" s="293">
+        <v>2</v>
+      </c>
+      <c r="I3" s="289">
+        <v>1</v>
+      </c>
+      <c r="J3" s="291">
+        <v>1</v>
+      </c>
+      <c r="K3" s="164">
+        <v>1</v>
+      </c>
+      <c r="L3" s="165">
+        <v>2</v>
+      </c>
+      <c r="M3" s="291">
+        <v>1</v>
+      </c>
+      <c r="N3" s="163">
+        <v>1</v>
+      </c>
+      <c r="O3" s="291">
+        <v>1</v>
+      </c>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="292">
+        <v>1</v>
+      </c>
+      <c r="R3" s="293">
+        <v>2</v>
+      </c>
+      <c r="S3" s="297">
+        <v>1</v>
+      </c>
+      <c r="T3" s="146"/>
+      <c r="U3" s="163">
+        <v>1</v>
+      </c>
+      <c r="V3" s="291">
+        <v>1</v>
+      </c>
+      <c r="W3" s="163">
+        <v>1</v>
+      </c>
+      <c r="X3" s="155">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="155">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="162">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="297">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="163">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="163">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="163">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="292">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="146"/>
+      <c r="AO3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="291">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="291">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="292">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="146"/>
+      <c r="AT3" s="291">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="289">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="297">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="146"/>
+      <c r="AX3" s="161">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="291" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ3" s="293" t="s">
+        <v>242</v>
+      </c>
+      <c r="BA3" s="289">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="149"/>
+      <c r="BC3" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
+      <c r="B4" s="271"/>
+      <c r="C4" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>632</v>
+      </c>
+      <c r="T4" s="45"/>
+      <c r="U4" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="V4" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="W4" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y4" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z4" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA4" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="AD4" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE4" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF4" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG4" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="AH4" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI4" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="AJ4" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK4" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL4" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM4" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP4" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="AQ4" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR4" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU4" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="AV4" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="251" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY4" s="252"/>
+      <c r="AZ4" s="253"/>
+      <c r="BA4" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="215" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="300" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="268"/>
+      <c r="B6" s="119" t="s">
+        <v>638</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="11"/>
+    </row>
+    <row r="7" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="268"/>
+      <c r="B7" s="119" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="11"/>
+    </row>
+    <row r="8" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="268"/>
+      <c r="B8" s="118" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="11"/>
+    </row>
+    <row r="9" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="268"/>
+      <c r="B9" s="118" t="s">
+        <v>641</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="11"/>
+    </row>
+    <row r="10" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="268"/>
+      <c r="B10" s="118" t="s">
+        <v>642</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z10" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="11"/>
+    </row>
+    <row r="11" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="268"/>
+      <c r="B11" s="118" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="R11" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="11"/>
+    </row>
+    <row r="12" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="268"/>
+      <c r="B12" s="118" t="s">
+        <v>644</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="R12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="160"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="160"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="11"/>
+    </row>
+    <row r="13" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="268"/>
+      <c r="B13" s="118" t="s">
+        <v>645</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="S13" s="25"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="25"/>
+    </row>
+    <row r="14" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="268"/>
+      <c r="B14" s="118" t="s">
+        <v>646</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="V14" s="25"/>
+      <c r="W14" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="X14" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="25"/>
+    </row>
+    <row r="15" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="268"/>
+      <c r="B15" s="118" t="s">
+        <v>647</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="25"/>
+    </row>
+    <row r="16" spans="1:56" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="268"/>
+      <c r="B16" s="118" t="s">
+        <v>648</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="L16" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="25"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="203" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="190" t="s">
+        <v>636</v>
+      </c>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="281" t="s">
+        <v>637</v>
+      </c>
+      <c r="D20" s="269"/>
+      <c r="E20" s="269"/>
+      <c r="F20" s="269"/>
+      <c r="G20" s="269"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AC1:AM1"/>
     <mergeCell ref="AO1:AR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/distribution/reference_documents/working_material/AVCDL mappings.xlsx
+++ b/distribution/reference_documents/working_material/AVCDL mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles.wilson/Documents/projects/AVCDL/source/reference_documents/working_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A68AF-3B2D-7A4A-B3B2-D079E92FC5F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD79579-3CC8-484C-93D7-880C55B1F3ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22140" yWindow="3580" windowWidth="32160" windowHeight="23180" activeTab="7" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
+    <workbookView xWindow="21820" yWindow="2160" windowWidth="32160" windowHeight="23180" activeTab="7" xr2:uid="{3326EDE7-94E3-604E-AF7C-9D9EC9C448CE}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO 21434 work products" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="663">
   <si>
     <t xml:space="preserve">Organization Culture </t>
   </si>
@@ -1986,13 +1986,49 @@
     <t>2-E.3.3 [e]</t>
   </si>
   <si>
-    <t>2-E.3.4</t>
-  </si>
-  <si>
     <t>Part 2 Annex E</t>
   </si>
   <si>
     <t>in primary document</t>
+  </si>
+  <si>
+    <t>project planning</t>
+  </si>
+  <si>
+    <t>coordinated OT</t>
+  </si>
+  <si>
+    <t>threat countermeasures</t>
+  </si>
+  <si>
+    <t>safety risking of threats</t>
+  </si>
+  <si>
+    <t>safety review of threats</t>
+  </si>
+  <si>
+    <t>hardware/software design considerations</t>
+  </si>
+  <si>
+    <t>cybersecurity strategies</t>
+  </si>
+  <si>
+    <t>safety  strategies</t>
+  </si>
+  <si>
+    <t>threat process harmonization</t>
+  </si>
+  <si>
+    <t>identified countermeasures</t>
+  </si>
+  <si>
+    <t>incident response</t>
+  </si>
+  <si>
+    <t>2-E.3.4 [a]</t>
+  </si>
+  <si>
+    <t>effective communication channels</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2371,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2806,18 +2842,64 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2827,50 +2909,83 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2887,24 +3002,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2923,59 +3020,62 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2992,32 +3092,74 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3025,86 +3167,23 @@
     <xf numFmtId="1" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3139,12 +3218,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3154,55 +3227,30 @@
     <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -3733,36 +3781,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="183" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="176"/>
+      <c r="D1" s="183"/>
       <c r="E1" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="183" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176" t="s">
+      <c r="G1" s="183"/>
+      <c r="H1" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="85"/>
@@ -3797,13 +3845,13 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="184" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="171" t="s">
+      <c r="D3" s="186" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="83"/>
@@ -3843,9 +3891,9 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="171"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="186"/>
       <c r="E4" s="83"/>
       <c r="F4" s="69" t="s">
         <v>3</v>
@@ -3862,9 +3910,9 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="186"/>
       <c r="E5" s="83"/>
       <c r="F5" s="69" t="s">
         <v>5</v>
@@ -3882,9 +3930,9 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="171"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="83"/>
       <c r="F6" s="69" t="s">
         <v>6</v>
@@ -3898,9 +3946,9 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="83"/>
       <c r="F7" s="69" t="s">
         <v>7</v>
@@ -3914,11 +3962,11 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="170" t="s">
+      <c r="B8" s="184"/>
+      <c r="C8" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="175" t="s">
+      <c r="D8" s="185" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="83"/>
@@ -3991,9 +4039,9 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="175"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="185"/>
       <c r="E9" s="83"/>
       <c r="F9" s="69" t="s">
         <v>15</v>
@@ -4007,9 +4055,9 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="86"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="175"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="185"/>
       <c r="E10" s="87" t="s">
         <v>198</v>
       </c>
@@ -4046,9 +4094,9 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="175"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="185"/>
       <c r="E11" s="88" t="s">
         <v>344</v>
       </c>
@@ -4067,14 +4115,14 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="85"/>
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="85"/>
@@ -4098,13 +4146,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="184" t="s">
         <v>606</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="182" t="s">
         <v>537</v>
       </c>
-      <c r="D13" s="171" t="s">
+      <c r="D13" s="186" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="83"/>
@@ -4123,9 +4171,9 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="186"/>
       <c r="E14" s="83"/>
       <c r="F14" s="92" t="s">
         <v>262</v>
@@ -4139,9 +4187,9 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="186"/>
       <c r="E15" s="83"/>
       <c r="F15" s="69" t="s">
         <v>23</v>
@@ -4191,14 +4239,14 @@
       <c r="AA16" s="128"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="172"/>
-      <c r="B17" s="174" t="s">
+      <c r="A17" s="188"/>
+      <c r="B17" s="190" t="s">
         <v>613</v>
       </c>
-      <c r="C17" s="170" t="s">
+      <c r="C17" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="171" t="s">
+      <c r="D17" s="186" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="80" t="s">
@@ -4215,10 +4263,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="172"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="186"/>
       <c r="E18" s="80" t="s">
         <v>244</v>
       </c>
@@ -4233,10 +4281,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="172"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="186"/>
       <c r="E19" s="80" t="s">
         <v>244</v>
       </c>
@@ -4251,8 +4299,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="172"/>
-      <c r="B20" s="174"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="190"/>
       <c r="C20" s="110" t="s">
         <v>32</v>
       </c>
@@ -4273,8 +4321,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="172"/>
-      <c r="B21" s="174"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="190"/>
       <c r="C21" s="110" t="s">
         <v>33</v>
       </c>
@@ -4298,12 +4346,12 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="172"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="170" t="s">
+      <c r="A22" s="188"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="186" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="88" t="s">
@@ -4320,10 +4368,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="172"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
+      <c r="A23" s="188"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="186"/>
       <c r="E23" s="88" t="s">
         <v>198</v>
       </c>
@@ -4339,14 +4387,14 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="85"/>
-      <c r="B24" s="168" t="s">
+      <c r="B24" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
       <c r="H24" s="85"/>
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
@@ -4369,8 +4417,8 @@
       <c r="AA24" s="128"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="172"/>
-      <c r="B25" s="173" t="s">
+      <c r="A25" s="188"/>
+      <c r="B25" s="189" t="s">
         <v>604</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -4396,12 +4444,12 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="170" t="s">
+      <c r="A26" s="188"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="171" t="s">
+      <c r="D26" s="186" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="80" t="s">
@@ -4421,10 +4469,10 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="186"/>
       <c r="E27" s="80" t="s">
         <v>198</v>
       </c>
@@ -4439,10 +4487,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="186"/>
       <c r="E28" s="80" t="s">
         <v>198</v>
       </c>
@@ -4457,10 +4505,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="186"/>
       <c r="E29" s="80" t="s">
         <v>198</v>
       </c>
@@ -4475,12 +4523,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="172"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="170" t="s">
+      <c r="A30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="171" t="s">
+      <c r="D30" s="186" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="80" t="s">
@@ -4503,10 +4551,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="172"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="171"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="186"/>
       <c r="E31" s="80" t="s">
         <v>198</v>
       </c>
@@ -4521,14 +4569,14 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="172"/>
-      <c r="B32" s="169" t="s">
+      <c r="A32" s="188"/>
+      <c r="B32" s="184" t="s">
         <v>622</v>
       </c>
-      <c r="C32" s="170" t="s">
+      <c r="C32" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="175" t="s">
+      <c r="D32" s="185" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="87" t="s">
@@ -4548,10 +4596,10 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="172"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="175"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="185"/>
       <c r="E33" s="88" t="s">
         <v>197</v>
       </c>
@@ -4566,10 +4614,10 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="172"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="175"/>
+      <c r="A34" s="188"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="185"/>
       <c r="E34" s="88" t="s">
         <v>244</v>
       </c>
@@ -4587,10 +4635,10 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="172"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="175"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="185"/>
       <c r="E35" s="88" t="s">
         <v>200</v>
       </c>
@@ -4605,12 +4653,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="172"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="170" t="s">
+      <c r="A36" s="188"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="171" t="s">
+      <c r="D36" s="186" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="88" t="s">
@@ -4633,10 +4681,10 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="172"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="171"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="186"/>
       <c r="E37" s="80" t="s">
         <v>199</v>
       </c>
@@ -4651,10 +4699,10 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="172"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="171"/>
+      <c r="A38" s="188"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="186"/>
       <c r="E38" s="80" t="s">
         <v>199</v>
       </c>
@@ -4678,8 +4726,8 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="172"/>
-      <c r="B39" s="169"/>
+      <c r="A39" s="188"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="110" t="s">
         <v>97</v>
       </c>
@@ -4704,14 +4752,14 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="85"/>
-      <c r="B40" s="168" t="s">
+      <c r="B40" s="181" t="s">
         <v>508</v>
       </c>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="181"/>
       <c r="H40" s="85"/>
       <c r="I40" s="85"/>
       <c r="J40" s="85"/>
@@ -4735,13 +4783,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="109"/>
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="184" t="s">
         <v>620</v>
       </c>
-      <c r="C41" s="170" t="s">
+      <c r="C41" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="171" t="s">
+      <c r="D41" s="186" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="88" t="s">
@@ -4761,10 +4809,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="172"/>
-      <c r="B42" s="169"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="171"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="186"/>
       <c r="E42" s="80" t="s">
         <v>247</v>
       </c>
@@ -4779,12 +4827,12 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="172"/>
-      <c r="B43" s="169"/>
-      <c r="C43" s="170" t="s">
+      <c r="A43" s="188"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="171" t="s">
+      <c r="D43" s="186" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="88" t="s">
@@ -4801,10 +4849,10 @@
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="172"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="171"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="186"/>
       <c r="E44" s="80" t="s">
         <v>247</v>
       </c>
@@ -4819,8 +4867,8 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="172"/>
-      <c r="B45" s="169"/>
+      <c r="A45" s="188"/>
+      <c r="B45" s="184"/>
       <c r="C45" s="110" t="s">
         <v>111</v>
       </c>
@@ -4841,8 +4889,8 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="172"/>
-      <c r="B46" s="169"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="184"/>
       <c r="C46" s="110" t="s">
         <v>566</v>
       </c>
@@ -4863,8 +4911,8 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="172"/>
-      <c r="B47" s="169"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="110" t="s">
         <v>567</v>
       </c>
@@ -4886,14 +4934,14 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="85"/>
-      <c r="B48" s="168" t="s">
+      <c r="B48" s="181" t="s">
         <v>549</v>
       </c>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="181"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
       <c r="H48" s="85"/>
       <c r="I48" s="85"/>
       <c r="J48" s="85"/>
@@ -4917,13 +4965,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="100"/>
-      <c r="B49" s="169" t="s">
+      <c r="B49" s="184" t="s">
         <v>605</v>
       </c>
-      <c r="C49" s="170" t="s">
+      <c r="C49" s="182" t="s">
         <v>530</v>
       </c>
-      <c r="D49" s="171" t="s">
+      <c r="D49" s="186" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="88" t="s">
@@ -4941,9 +4989,9 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="100"/>
-      <c r="B50" s="169"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="171"/>
+      <c r="B50" s="184"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="186"/>
       <c r="E50" s="88" t="s">
         <v>198</v>
       </c>
@@ -4959,7 +5007,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="100"/>
-      <c r="B51" s="169"/>
+      <c r="B51" s="184"/>
       <c r="C51" s="110" t="s">
         <v>531</v>
       </c>
@@ -4981,7 +5029,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="100"/>
-      <c r="B52" s="169"/>
+      <c r="B52" s="184"/>
       <c r="C52" s="110" t="s">
         <v>532</v>
       </c>
@@ -5009,7 +5057,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="100"/>
-      <c r="B53" s="169"/>
+      <c r="B53" s="184"/>
       <c r="C53" s="110" t="s">
         <v>533</v>
       </c>
@@ -5034,7 +5082,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="100"/>
-      <c r="B54" s="169"/>
+      <c r="B54" s="184"/>
       <c r="C54" s="110" t="s">
         <v>534</v>
       </c>
@@ -5056,7 +5104,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="100"/>
-      <c r="B55" s="169"/>
+      <c r="B55" s="184"/>
       <c r="C55" s="110" t="s">
         <v>535</v>
       </c>
@@ -5081,7 +5129,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="100"/>
-      <c r="B56" s="169"/>
+      <c r="B56" s="184"/>
       <c r="C56" s="110" t="s">
         <v>536</v>
       </c>
@@ -5118,21 +5166,16 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="H1:X1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="D22:D23"/>
@@ -5149,16 +5192,21 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="D32:D35"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="H1:X1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5193,38 +5241,38 @@
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="195" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="185" t="s">
+      <c r="C1" s="196"/>
+      <c r="D1" s="197" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="186"/>
-      <c r="F1" s="182" t="s">
+      <c r="E1" s="198"/>
+      <c r="F1" s="194" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="182"/>
-      <c r="H1" s="180" t="s">
+      <c r="G1" s="194"/>
+      <c r="H1" s="192" t="s">
         <v>308</v>
       </c>
-      <c r="I1" s="181"/>
+      <c r="I1" s="193"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="184" t="s">
         <v>612</v>
       </c>
       <c r="B3" s="73" t="s">
@@ -5249,7 +5297,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="169"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="73" t="s">
         <v>276</v>
       </c>
@@ -5272,7 +5320,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="169"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="73" t="s">
         <v>278</v>
       </c>
@@ -5299,17 +5347,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="169"/>
-      <c r="B6" s="170" t="s">
+      <c r="A6" s="184"/>
+      <c r="B6" s="182" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="186" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="171" t="s">
+      <c r="D6" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="171" t="s">
+      <c r="E6" s="186" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="75" t="s">
@@ -5326,11 +5374,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
       <c r="F7" s="75" t="s">
         <v>328</v>
       </c>
@@ -5345,7 +5393,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="169"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="73" t="s">
         <v>267</v>
       </c>
@@ -5372,17 +5420,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170" t="s">
+      <c r="A9" s="184"/>
+      <c r="B9" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="171" t="s">
+      <c r="C9" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="171" t="s">
+      <c r="D9" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="171" t="s">
+      <c r="E9" s="186" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="75" t="s">
@@ -5399,11 +5447,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="169"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
+      <c r="A10" s="184"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
       <c r="F10" s="75" t="s">
         <v>325</v>
       </c>
@@ -5418,17 +5466,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="169"/>
-      <c r="B11" s="189" t="s">
+      <c r="A11" s="184"/>
+      <c r="B11" s="201" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="200" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="188" t="s">
+      <c r="E11" s="200" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="75" t="s">
@@ -5445,11 +5493,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="169"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
+      <c r="A12" s="184"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="200"/>
       <c r="F12" s="75" t="s">
         <v>374</v>
       </c>
@@ -5464,7 +5512,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="184" t="s">
         <v>611</v>
       </c>
       <c r="B13" s="73" t="s">
@@ -5493,7 +5541,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="169"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="73" t="s">
         <v>282</v>
       </c>
@@ -5520,7 +5568,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="169"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="73" t="s">
         <v>284</v>
       </c>
@@ -5547,7 +5595,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="169"/>
+      <c r="A16" s="184"/>
       <c r="B16" s="73" t="s">
         <v>286</v>
       </c>
@@ -5574,7 +5622,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="169"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="76" t="s">
         <v>288</v>
       </c>
@@ -5601,17 +5649,17 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="169"/>
-      <c r="B18" s="187" t="s">
+      <c r="A18" s="184"/>
+      <c r="B18" s="199" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="191" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="179" t="s">
+      <c r="D18" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="191" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="75" t="s">
@@ -5628,11 +5676,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="169"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
       <c r="F19" s="75" t="s">
         <v>365</v>
       </c>
@@ -5647,11 +5695,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="169"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
+      <c r="A20" s="184"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
       <c r="F20" s="75" t="s">
         <v>367</v>
       </c>
@@ -5666,7 +5714,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="169"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="73" t="s">
         <v>292</v>
       </c>
@@ -5693,17 +5741,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="169"/>
-      <c r="B22" s="170" t="s">
+      <c r="A22" s="184"/>
+      <c r="B22" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="171" t="s">
+      <c r="C22" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="171" t="s">
+      <c r="D22" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="171" t="s">
+      <c r="E22" s="186" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="75" t="s">
@@ -5720,11 +5768,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
+      <c r="A23" s="184"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
       <c r="F23" s="75" t="s">
         <v>357</v>
       </c>
@@ -5739,7 +5787,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="169"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="73" t="s">
         <v>296</v>
       </c>
@@ -5766,20 +5814,20 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="184" t="s">
         <v>618</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -5808,17 +5856,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170" t="s">
+      <c r="A27" s="184"/>
+      <c r="B27" s="182" t="s">
         <v>528</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="186" t="s">
         <v>299</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="202" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="171" t="s">
+      <c r="E27" s="186" t="s">
         <v>259</v>
       </c>
       <c r="F27" s="75" t="s">
@@ -5835,11 +5883,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="169"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="171"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="186"/>
       <c r="F28" s="75" t="s">
         <v>313</v>
       </c>
@@ -5854,17 +5902,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="169"/>
-      <c r="B29" s="170" t="s">
+      <c r="A29" s="184"/>
+      <c r="B29" s="182" t="s">
         <v>529</v>
       </c>
-      <c r="C29" s="171" t="s">
+      <c r="C29" s="186" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="171" t="s">
+      <c r="D29" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="171" t="s">
+      <c r="E29" s="186" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="75" t="s">
@@ -5881,11 +5929,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="169"/>
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
+      <c r="A30" s="184"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
       <c r="F30" s="75" t="s">
         <v>311</v>
       </c>
@@ -5900,26 +5948,26 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="190" t="s">
         <v>613</v>
       </c>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C32" s="186" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="72" t="s">
@@ -5930,9 +5978,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="174"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="171"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="72" t="s">
         <v>43</v>
       </c>
@@ -5941,9 +5989,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="174"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
+      <c r="A34" s="190"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="186"/>
       <c r="D34" s="72" t="s">
         <v>44</v>
       </c>
@@ -5956,7 +6004,7 @@
       <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="174"/>
+      <c r="A35" s="190"/>
       <c r="B35" s="75" t="s">
         <v>32</v>
       </c>
@@ -5971,7 +6019,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="174"/>
+      <c r="A36" s="190"/>
       <c r="B36" s="75" t="s">
         <v>33</v>
       </c>
@@ -5986,11 +6034,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="174"/>
-      <c r="B37" s="170" t="s">
+      <c r="A37" s="190"/>
+      <c r="B37" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="171" t="s">
+      <c r="C37" s="186" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="107" t="s">
@@ -6001,9 +6049,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="174"/>
-      <c r="B38" s="170"/>
-      <c r="C38" s="171"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="186"/>
       <c r="D38" s="79" t="s">
         <v>538</v>
       </c>
@@ -6012,20 +6060,20 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="173" t="s">
+      <c r="A40" s="189" t="s">
         <v>604</v>
       </c>
       <c r="B40" s="75" t="s">
@@ -6042,11 +6090,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="173"/>
-      <c r="B41" s="170" t="s">
+      <c r="A41" s="189"/>
+      <c r="B41" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="171" t="s">
+      <c r="C41" s="186" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -6057,9 +6105,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="173"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="171"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="186"/>
       <c r="D42" s="72" t="s">
         <v>57</v>
       </c>
@@ -6068,9 +6116,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="173"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
+      <c r="A43" s="189"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="186"/>
       <c r="D43" s="72" t="s">
         <v>58</v>
       </c>
@@ -6079,9 +6127,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="173"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="171"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="186"/>
       <c r="D44" s="72" t="s">
         <v>59</v>
       </c>
@@ -6090,11 +6138,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="173"/>
-      <c r="B45" s="170" t="s">
+      <c r="A45" s="189"/>
+      <c r="B45" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="171" t="s">
+      <c r="C45" s="186" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="72" t="s">
@@ -6105,9 +6153,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="173"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="171"/>
+      <c r="A46" s="189"/>
+      <c r="B46" s="182"/>
+      <c r="C46" s="186"/>
       <c r="D46" s="72" t="s">
         <v>61</v>
       </c>
@@ -6116,13 +6164,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="184" t="s">
         <v>622</v>
       </c>
-      <c r="B47" s="170" t="s">
+      <c r="B47" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="171" t="s">
+      <c r="C47" s="186" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="72" t="s">
@@ -6133,9 +6181,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="169"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="171"/>
+      <c r="A48" s="184"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="186"/>
       <c r="D48" s="72" t="s">
         <v>76</v>
       </c>
@@ -6144,9 +6192,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="169"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="171"/>
+      <c r="A49" s="184"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="186"/>
       <c r="D49" s="72" t="s">
         <v>77</v>
       </c>
@@ -6159,9 +6207,9 @@
       <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="169"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="171"/>
+      <c r="A50" s="184"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="186"/>
       <c r="D50" s="72" t="s">
         <v>78</v>
       </c>
@@ -6170,11 +6218,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="169"/>
-      <c r="B51" s="170" t="s">
+      <c r="A51" s="184"/>
+      <c r="B51" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="171" t="s">
+      <c r="C51" s="186" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="72" t="s">
@@ -6185,9 +6233,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="169"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="171"/>
+      <c r="A52" s="184"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="186"/>
       <c r="D52" s="72" t="s">
         <v>80</v>
       </c>
@@ -6196,7 +6244,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="169"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="110" t="s">
         <v>94</v>
       </c>
@@ -6211,7 +6259,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="169"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="73" t="s">
         <v>97</v>
       </c>
@@ -6226,26 +6274,26 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="168" t="s">
+      <c r="A55" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="168"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
+      <c r="E55" s="181"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="181"/>
+      <c r="I55" s="181"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="169" t="s">
+      <c r="A56" s="184" t="s">
         <v>619</v>
       </c>
-      <c r="B56" s="170" t="s">
+      <c r="B56" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="171" t="s">
+      <c r="C56" s="186" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -6256,9 +6304,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="169"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="171"/>
+      <c r="A57" s="184"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="186"/>
       <c r="D57" s="92" t="s">
         <v>560</v>
       </c>
@@ -6271,11 +6319,11 @@
       <c r="I57" s="107"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="169"/>
-      <c r="B58" s="170" t="s">
+      <c r="A58" s="184"/>
+      <c r="B58" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="171" t="s">
+      <c r="C58" s="186" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -6286,9 +6334,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="169"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="171"/>
+      <c r="A59" s="184"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="186"/>
       <c r="D59" s="92" t="s">
         <v>265</v>
       </c>
@@ -6301,7 +6349,7 @@
       <c r="I59" s="74"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="169"/>
+      <c r="A60" s="184"/>
       <c r="B60" s="73" t="s">
         <v>111</v>
       </c>
@@ -6316,7 +6364,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="169"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="110" t="s">
         <v>566</v>
       </c>
@@ -6335,7 +6383,7 @@
       <c r="I61" s="107"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="169"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="110" t="s">
         <v>567</v>
       </c>
@@ -6350,26 +6398,26 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="168" t="s">
+      <c r="A63" s="181" t="s">
         <v>549</v>
       </c>
-      <c r="B63" s="168"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="168"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="181"/>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="181"/>
+      <c r="I63" s="181"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="169" t="s">
+      <c r="A64" s="184" t="s">
         <v>605</v>
       </c>
-      <c r="B64" s="170" t="s">
+      <c r="B64" s="182" t="s">
         <v>530</v>
       </c>
-      <c r="C64" s="171" t="s">
+      <c r="C64" s="186" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="101" t="s">
@@ -6384,9 +6432,9 @@
       <c r="I64" s="101"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="169"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="171"/>
+      <c r="A65" s="184"/>
+      <c r="B65" s="182"/>
+      <c r="C65" s="186"/>
       <c r="D65" s="101" t="s">
         <v>539</v>
       </c>
@@ -6399,7 +6447,7 @@
       <c r="I65" s="101"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="169"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="102" t="s">
         <v>531</v>
       </c>
@@ -6418,7 +6466,7 @@
       <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="169"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="102" t="s">
         <v>532</v>
       </c>
@@ -6437,7 +6485,7 @@
       <c r="I67" s="101"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="169"/>
+      <c r="A68" s="184"/>
       <c r="B68" s="102" t="s">
         <v>533</v>
       </c>
@@ -6456,7 +6504,7 @@
       <c r="I68" s="101"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="169"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="102" t="s">
         <v>534</v>
       </c>
@@ -6475,7 +6523,7 @@
       <c r="I69" s="101"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="169"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="102" t="s">
         <v>535</v>
       </c>
@@ -6494,7 +6542,7 @@
       <c r="I70" s="101"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="169"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="102" t="s">
         <v>536</v>
       </c>
@@ -6529,29 +6577,31 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="H1:I1"/>
@@ -6568,31 +6618,29 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A64:A71"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6625,22 +6673,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E1" s="192" t="s">
+      <c r="E1" s="219" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="55" x14ac:dyDescent="0.2">
@@ -6692,10 +6740,10 @@
       <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="203" t="s">
         <v>612</v>
       </c>
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="222" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -6723,8 +6771,8 @@
       <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="213"/>
-      <c r="B4" s="202"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="31" t="s">
         <v>155</v>
       </c>
@@ -6750,8 +6798,8 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="213"/>
-      <c r="B5" s="202"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="223"/>
       <c r="C5" s="31" t="s">
         <v>156</v>
       </c>
@@ -6777,8 +6825,8 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="213"/>
-      <c r="B6" s="202"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="223"/>
       <c r="C6" s="30" t="s">
         <v>157</v>
       </c>
@@ -6802,8 +6850,8 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="213"/>
-      <c r="B7" s="202"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="223"/>
       <c r="C7" s="30" t="s">
         <v>158</v>
       </c>
@@ -6827,8 +6875,8 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="213"/>
-      <c r="B8" s="202"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="223"/>
       <c r="C8" s="31" t="s">
         <v>159</v>
       </c>
@@ -6854,8 +6902,8 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="213"/>
-      <c r="B9" s="202"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="223"/>
       <c r="C9" s="31" t="s">
         <v>161</v>
       </c>
@@ -6881,8 +6929,8 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="213"/>
-      <c r="B10" s="202"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="31" t="s">
         <v>162</v>
       </c>
@@ -6908,8 +6956,8 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="213"/>
-      <c r="B11" s="202"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="30" t="s">
         <v>163</v>
       </c>
@@ -6933,8 +6981,8 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="213"/>
-      <c r="B12" s="198" t="s">
+      <c r="A12" s="204"/>
+      <c r="B12" s="209" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -6962,8 +7010,8 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="213"/>
-      <c r="B13" s="199"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="31" t="s">
         <v>162</v>
       </c>
@@ -6989,8 +7037,8 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="213"/>
-      <c r="B14" s="204" t="s">
+      <c r="A14" s="204"/>
+      <c r="B14" s="225" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -7018,8 +7066,8 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="213"/>
-      <c r="B15" s="204"/>
+      <c r="A15" s="204"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="22" t="s">
         <v>160</v>
       </c>
@@ -7043,7 +7091,7 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="213"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="124" t="s">
         <v>6</v>
       </c>
@@ -7070,7 +7118,7 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="214"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="22" t="s">
         <v>7</v>
       </c>
@@ -7097,10 +7145,10 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="203" t="s">
         <v>611</v>
       </c>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="222" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -7126,8 +7174,8 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="213"/>
-      <c r="B19" s="202"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="223"/>
       <c r="C19" s="30" t="s">
         <v>167</v>
       </c>
@@ -7151,8 +7199,8 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="213"/>
-      <c r="B20" s="202"/>
+      <c r="A20" s="204"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="30" t="s">
         <v>168</v>
       </c>
@@ -7176,8 +7224,8 @@
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="213"/>
-      <c r="B21" s="202"/>
+      <c r="A21" s="204"/>
+      <c r="B21" s="223"/>
       <c r="C21" s="30" t="s">
         <v>169</v>
       </c>
@@ -7201,8 +7249,8 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="213"/>
-      <c r="B22" s="202"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="30" t="s">
         <v>170</v>
       </c>
@@ -7226,8 +7274,8 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="213"/>
-      <c r="B23" s="202"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="30" t="s">
         <v>171</v>
       </c>
@@ -7251,8 +7299,8 @@
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="213"/>
-      <c r="B24" s="202"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="30" t="s">
         <v>172</v>
       </c>
@@ -7276,8 +7324,8 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="213"/>
-      <c r="B25" s="202"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="31" t="s">
         <v>173</v>
       </c>
@@ -7303,8 +7351,8 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="213"/>
-      <c r="B26" s="202"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="31" t="s">
         <v>174</v>
       </c>
@@ -7330,8 +7378,8 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="213"/>
-      <c r="B27" s="202"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="223"/>
       <c r="C27" s="30" t="s">
         <v>175</v>
       </c>
@@ -7355,8 +7403,8 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="213"/>
-      <c r="B28" s="202"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="223"/>
       <c r="C28" s="30" t="s">
         <v>176</v>
       </c>
@@ -7380,8 +7428,8 @@
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="213"/>
-      <c r="B29" s="202"/>
+      <c r="A29" s="204"/>
+      <c r="B29" s="223"/>
       <c r="C29" s="30" t="s">
         <v>177</v>
       </c>
@@ -7405,8 +7453,8 @@
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="213"/>
-      <c r="B30" s="202"/>
+      <c r="A30" s="204"/>
+      <c r="B30" s="223"/>
       <c r="C30" s="30" t="s">
         <v>178</v>
       </c>
@@ -7430,8 +7478,8 @@
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="213"/>
-      <c r="B31" s="202"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="223"/>
       <c r="C31" s="30" t="s">
         <v>179</v>
       </c>
@@ -7455,8 +7503,8 @@
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="213"/>
-      <c r="B32" s="202"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="30" t="s">
         <v>180</v>
       </c>
@@ -7480,8 +7528,8 @@
       <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="213"/>
-      <c r="B33" s="202"/>
+      <c r="A33" s="204"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="30" t="s">
         <v>181</v>
       </c>
@@ -7505,8 +7553,8 @@
       <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="213"/>
-      <c r="B34" s="202"/>
+      <c r="A34" s="204"/>
+      <c r="B34" s="223"/>
       <c r="C34" s="30" t="s">
         <v>182</v>
       </c>
@@ -7530,8 +7578,8 @@
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="213"/>
-      <c r="B35" s="202"/>
+      <c r="A35" s="204"/>
+      <c r="B35" s="223"/>
       <c r="C35" s="30" t="s">
         <v>183</v>
       </c>
@@ -7555,8 +7603,8 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="213"/>
-      <c r="B36" s="202"/>
+      <c r="A36" s="204"/>
+      <c r="B36" s="223"/>
       <c r="C36" s="30" t="s">
         <v>184</v>
       </c>
@@ -7580,8 +7628,8 @@
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="213"/>
-      <c r="B37" s="205"/>
+      <c r="A37" s="204"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="30" t="s">
         <v>185</v>
       </c>
@@ -7605,7 +7653,7 @@
       <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="213"/>
+      <c r="A38" s="204"/>
       <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
@@ -7632,8 +7680,8 @@
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="213"/>
-      <c r="B39" s="193" t="s">
+      <c r="A39" s="204"/>
+      <c r="B39" s="220" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="30" t="s">
@@ -7659,8 +7707,8 @@
       <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="213"/>
-      <c r="B40" s="206"/>
+      <c r="A40" s="204"/>
+      <c r="B40" s="227"/>
       <c r="C40" s="30" t="s">
         <v>188</v>
       </c>
@@ -7684,8 +7732,8 @@
       <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="213"/>
-      <c r="B41" s="206"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="227"/>
       <c r="C41" s="30" t="s">
         <v>189</v>
       </c>
@@ -7709,8 +7757,8 @@
       <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="213"/>
-      <c r="B42" s="206"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="30" t="s">
         <v>190</v>
       </c>
@@ -7734,8 +7782,8 @@
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="213"/>
-      <c r="B43" s="206"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="30" t="s">
         <v>191</v>
       </c>
@@ -7759,8 +7807,8 @@
       <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="213"/>
-      <c r="B44" s="206"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="227"/>
       <c r="C44" s="30" t="s">
         <v>580</v>
       </c>
@@ -7784,8 +7832,8 @@
       <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="213"/>
-      <c r="B45" s="206"/>
+      <c r="A45" s="204"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="30" t="s">
         <v>551</v>
       </c>
@@ -7809,8 +7857,8 @@
       <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="213"/>
-      <c r="B46" s="194"/>
+      <c r="A46" s="204"/>
+      <c r="B46" s="221"/>
       <c r="C46" s="30" t="s">
         <v>552</v>
       </c>
@@ -7834,8 +7882,8 @@
       <c r="S46" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="213"/>
-      <c r="B47" s="193" t="s">
+      <c r="A47" s="204"/>
+      <c r="B47" s="220" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -7861,8 +7909,8 @@
       <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="214"/>
-      <c r="B48" s="194"/>
+      <c r="A48" s="205"/>
+      <c r="B48" s="221"/>
       <c r="C48" s="30" t="s">
         <v>554</v>
       </c>
@@ -7907,10 +7955,10 @@
       <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="209" t="s">
+      <c r="A50" s="206" t="s">
         <v>618</v>
       </c>
-      <c r="B50" s="193" t="s">
+      <c r="B50" s="220" t="s">
         <v>261</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -7936,8 +7984,8 @@
       <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="210"/>
-      <c r="B51" s="194"/>
+      <c r="A51" s="207"/>
+      <c r="B51" s="221"/>
       <c r="C51" s="30" t="s">
         <v>126</v>
       </c>
@@ -7961,7 +8009,7 @@
       <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="210"/>
+      <c r="A52" s="207"/>
       <c r="B52" s="22" t="s">
         <v>262</v>
       </c>
@@ -7988,8 +8036,8 @@
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="210"/>
-      <c r="B53" s="201" t="s">
+      <c r="A53" s="207"/>
+      <c r="B53" s="222" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -8017,8 +8065,8 @@
       <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="210"/>
-      <c r="B54" s="202"/>
+      <c r="A54" s="207"/>
+      <c r="B54" s="223"/>
       <c r="C54" s="31" t="s">
         <v>250</v>
       </c>
@@ -8044,8 +8092,8 @@
       <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="211"/>
-      <c r="B55" s="202"/>
+      <c r="A55" s="208"/>
+      <c r="B55" s="223"/>
       <c r="C55" s="30" t="s">
         <v>251</v>
       </c>
@@ -8090,7 +8138,7 @@
       <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="209" t="s">
+      <c r="A57" s="206" t="s">
         <v>613</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -8121,7 +8169,7 @@
       <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="210"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="23" t="s">
         <v>43</v>
       </c>
@@ -8150,7 +8198,7 @@
       <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="210"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="23" t="s">
         <v>44</v>
       </c>
@@ -8181,7 +8229,7 @@
       <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="210"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="23" t="s">
         <v>45</v>
       </c>
@@ -8210,8 +8258,8 @@
       <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="210"/>
-      <c r="B61" s="198" t="s">
+      <c r="A61" s="207"/>
+      <c r="B61" s="209" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="31" t="s">
@@ -8241,8 +8289,8 @@
       <c r="S61" s="10"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="210"/>
-      <c r="B62" s="199"/>
+      <c r="A62" s="207"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="31" t="s">
         <v>140</v>
       </c>
@@ -8270,7 +8318,7 @@
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="210"/>
+      <c r="A63" s="207"/>
       <c r="B63" s="23" t="s">
         <v>47</v>
       </c>
@@ -8299,7 +8347,7 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="211"/>
+      <c r="A64" s="208"/>
       <c r="B64" s="22" t="s">
         <v>538</v>
       </c>
@@ -8347,10 +8395,10 @@
       <c r="S65" s="10"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="209" t="s">
+      <c r="A66" s="206" t="s">
         <v>604</v>
       </c>
-      <c r="B66" s="200" t="s">
+      <c r="B66" s="214" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="30" t="s">
@@ -8376,8 +8424,8 @@
       <c r="S66" s="10"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="210"/>
-      <c r="B67" s="200"/>
+      <c r="A67" s="207"/>
+      <c r="B67" s="214"/>
       <c r="C67" s="30" t="s">
         <v>255</v>
       </c>
@@ -8401,8 +8449,8 @@
       <c r="S67" s="10"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="210"/>
-      <c r="B68" s="193" t="s">
+      <c r="A68" s="207"/>
+      <c r="B68" s="220" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="30" t="s">
@@ -8428,8 +8476,8 @@
       <c r="S68" s="10"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="210"/>
-      <c r="B69" s="194"/>
+      <c r="A69" s="207"/>
+      <c r="B69" s="221"/>
       <c r="C69" s="30" t="s">
         <v>117</v>
       </c>
@@ -8453,7 +8501,7 @@
       <c r="S69" s="10"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="210"/>
+      <c r="A70" s="207"/>
       <c r="B70" s="23" t="s">
         <v>57</v>
       </c>
@@ -8482,7 +8530,7 @@
       <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="210"/>
+      <c r="A71" s="207"/>
       <c r="B71" s="23" t="s">
         <v>58</v>
       </c>
@@ -8511,7 +8559,7 @@
       <c r="S71" s="10"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="210"/>
+      <c r="A72" s="207"/>
       <c r="B72" s="23" t="s">
         <v>59</v>
       </c>
@@ -8540,8 +8588,8 @@
       <c r="S72" s="10"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="210"/>
-      <c r="B73" s="195" t="s">
+      <c r="A73" s="207"/>
+      <c r="B73" s="211" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="31" t="s">
@@ -8569,8 +8617,8 @@
       <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="210"/>
-      <c r="B74" s="196"/>
+      <c r="A74" s="207"/>
+      <c r="B74" s="212"/>
       <c r="C74" s="30" t="s">
         <v>122</v>
       </c>
@@ -8594,8 +8642,8 @@
       <c r="S74" s="10"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="210"/>
-      <c r="B75" s="197"/>
+      <c r="A75" s="207"/>
+      <c r="B75" s="213"/>
       <c r="C75" s="30" t="s">
         <v>123</v>
       </c>
@@ -8619,7 +8667,7 @@
       <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="211"/>
+      <c r="A76" s="208"/>
       <c r="B76" s="22" t="s">
         <v>61</v>
       </c>
@@ -8646,10 +8694,10 @@
       <c r="S76" s="10"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="209" t="s">
+      <c r="A77" s="206" t="s">
         <v>614</v>
       </c>
-      <c r="B77" s="195" t="s">
+      <c r="B77" s="211" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -8677,8 +8725,8 @@
       <c r="S77" s="10"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="210"/>
-      <c r="B78" s="196"/>
+      <c r="A78" s="207"/>
+      <c r="B78" s="212"/>
       <c r="C78" s="30" t="s">
         <v>144</v>
       </c>
@@ -8702,7 +8750,7 @@
       <c r="S78" s="10"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="210"/>
+      <c r="A79" s="207"/>
       <c r="B79" s="123" t="s">
         <v>76</v>
       </c>
@@ -8729,8 +8777,8 @@
       <c r="S79" s="10"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="210"/>
-      <c r="B80" s="200" t="s">
+      <c r="A80" s="207"/>
+      <c r="B80" s="214" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="30" t="s">
@@ -8756,8 +8804,8 @@
       <c r="S80" s="10"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="210"/>
-      <c r="B81" s="200"/>
+      <c r="A81" s="207"/>
+      <c r="B81" s="214"/>
       <c r="C81" s="30" t="s">
         <v>147</v>
       </c>
@@ -8781,7 +8829,7 @@
       <c r="S81" s="10"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="210"/>
+      <c r="A82" s="207"/>
       <c r="B82" s="123" t="s">
         <v>78</v>
       </c>
@@ -8808,8 +8856,8 @@
       <c r="S82" s="10"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="210"/>
-      <c r="B83" s="200" t="s">
+      <c r="A83" s="207"/>
+      <c r="B83" s="214" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="30" t="s">
@@ -8835,8 +8883,8 @@
       <c r="S83" s="10"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="210"/>
-      <c r="B84" s="200"/>
+      <c r="A84" s="207"/>
+      <c r="B84" s="214"/>
       <c r="C84" s="30" t="s">
         <v>559</v>
       </c>
@@ -8860,8 +8908,8 @@
       <c r="S84" s="10"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="210"/>
-      <c r="B85" s="200"/>
+      <c r="A85" s="207"/>
+      <c r="B85" s="214"/>
       <c r="C85" s="30" t="s">
         <v>152</v>
       </c>
@@ -8885,7 +8933,7 @@
       <c r="S85" s="10"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="210"/>
+      <c r="A86" s="207"/>
       <c r="B86" s="124" t="s">
         <v>80</v>
       </c>
@@ -8912,8 +8960,8 @@
       <c r="S86" s="10"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="210"/>
-      <c r="B87" s="200" t="s">
+      <c r="A87" s="207"/>
+      <c r="B87" s="214" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="30" t="s">
@@ -8939,8 +8987,8 @@
       <c r="S87" s="10"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="210"/>
-      <c r="B88" s="200"/>
+      <c r="A88" s="207"/>
+      <c r="B88" s="214"/>
       <c r="C88" s="30" t="s">
         <v>151</v>
       </c>
@@ -8964,8 +9012,8 @@
       <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="210"/>
-      <c r="B89" s="200"/>
+      <c r="A89" s="207"/>
+      <c r="B89" s="214"/>
       <c r="C89" s="30" t="s">
         <v>559</v>
       </c>
@@ -8989,8 +9037,8 @@
       <c r="S89" s="10"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="211"/>
-      <c r="B90" s="200"/>
+      <c r="A90" s="208"/>
+      <c r="B90" s="214"/>
       <c r="C90" s="30" t="s">
         <v>152</v>
       </c>
@@ -9014,10 +9062,10 @@
       <c r="S90" s="10"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="209" t="s">
+      <c r="A91" s="206" t="s">
         <v>615</v>
       </c>
-      <c r="B91" s="207" t="s">
+      <c r="B91" s="215" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="31" t="s">
@@ -9047,8 +9095,8 @@
       <c r="S91" s="10"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="211"/>
-      <c r="B92" s="208"/>
+      <c r="A92" s="208"/>
+      <c r="B92" s="216"/>
       <c r="C92" s="31" t="s">
         <v>132</v>
       </c>
@@ -9095,10 +9143,10 @@
       <c r="S93" s="10"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="209" t="s">
+      <c r="A94" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="198" t="s">
+      <c r="B94" s="209" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="31" t="s">
@@ -9126,8 +9174,8 @@
       <c r="S94" s="10"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="210"/>
-      <c r="B95" s="199"/>
+      <c r="A95" s="207"/>
+      <c r="B95" s="210"/>
       <c r="C95" s="31" t="s">
         <v>562</v>
       </c>
@@ -9153,7 +9201,7 @@
       <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="211"/>
+      <c r="A96" s="208"/>
       <c r="B96" s="111" t="s">
         <v>560</v>
       </c>
@@ -9182,7 +9230,7 @@
       <c r="S96" s="10"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="209" t="s">
+      <c r="A97" s="206" t="s">
         <v>616</v>
       </c>
       <c r="B97" s="29" t="s">
@@ -9213,7 +9261,7 @@
       <c r="S97" s="10"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="210"/>
+      <c r="A98" s="207"/>
       <c r="B98" s="23" t="s">
         <v>265</v>
       </c>
@@ -9242,7 +9290,7 @@
       <c r="S98" s="10"/>
     </row>
     <row r="99" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="211"/>
+      <c r="A99" s="208"/>
       <c r="B99" s="22" t="s">
         <v>264</v>
       </c>
@@ -9269,7 +9317,7 @@
       <c r="S99" s="10"/>
     </row>
     <row r="100" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="209" t="s">
+      <c r="A100" s="206" t="s">
         <v>617</v>
       </c>
       <c r="B100" s="22" t="s">
@@ -9298,7 +9346,7 @@
       <c r="S100" s="10"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" s="211"/>
+      <c r="A101" s="208"/>
       <c r="B101" s="22" t="s">
         <v>263</v>
       </c>
@@ -9346,7 +9394,7 @@
       <c r="S102" s="10"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="209" t="s">
+      <c r="A103" s="206" t="s">
         <v>605</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -9377,7 +9425,7 @@
       <c r="S103" s="10"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="210"/>
+      <c r="A104" s="207"/>
       <c r="B104" s="23" t="s">
         <v>539</v>
       </c>
@@ -9406,7 +9454,7 @@
       <c r="S104" s="10"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="210"/>
+      <c r="A105" s="207"/>
       <c r="B105" s="23" t="s">
         <v>540</v>
       </c>
@@ -9435,8 +9483,8 @@
       <c r="S105" s="10"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="210"/>
-      <c r="B106" s="195" t="s">
+      <c r="A106" s="207"/>
+      <c r="B106" s="211" t="s">
         <v>541</v>
       </c>
       <c r="C106" s="31" t="s">
@@ -9464,8 +9512,8 @@
       <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="210"/>
-      <c r="B107" s="196"/>
+      <c r="A107" s="207"/>
+      <c r="B107" s="212"/>
       <c r="C107" s="31" t="s">
         <v>194</v>
       </c>
@@ -9491,8 +9539,8 @@
       <c r="S107" s="10"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="210"/>
-      <c r="B108" s="197"/>
+      <c r="A108" s="207"/>
+      <c r="B108" s="213"/>
       <c r="C108" s="30" t="s">
         <v>195</v>
       </c>
@@ -9515,8 +9563,8 @@
       <c r="S108" s="10"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" s="210"/>
-      <c r="B109" s="198" t="s">
+      <c r="A109" s="207"/>
+      <c r="B109" s="209" t="s">
         <v>542</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -9544,8 +9592,8 @@
       <c r="S109" s="10"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" s="210"/>
-      <c r="B110" s="199"/>
+      <c r="A110" s="207"/>
+      <c r="B110" s="210"/>
       <c r="C110" s="31" t="s">
         <v>547</v>
       </c>
@@ -9571,7 +9619,7 @@
       <c r="S110" s="10"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="210"/>
+      <c r="A111" s="207"/>
       <c r="B111" s="23" t="s">
         <v>543</v>
       </c>
@@ -9600,8 +9648,8 @@
       <c r="S111" s="10"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="210"/>
-      <c r="B112" s="198" t="s">
+      <c r="A112" s="207"/>
+      <c r="B112" s="209" t="s">
         <v>544</v>
       </c>
       <c r="C112" s="31" t="s">
@@ -9629,8 +9677,8 @@
       <c r="S112" s="10"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="210"/>
-      <c r="B113" s="199"/>
+      <c r="A113" s="207"/>
+      <c r="B113" s="210"/>
       <c r="C113" s="31" t="s">
         <v>570</v>
       </c>
@@ -9656,7 +9704,7 @@
       <c r="S113" s="10"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="211"/>
+      <c r="A114" s="208"/>
       <c r="B114" s="23" t="s">
         <v>545</v>
       </c>
@@ -9685,10 +9733,10 @@
       <c r="S114" s="10"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="203" t="s">
+      <c r="B116" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="203"/>
+      <c r="C116" s="224"/>
       <c r="D116" s="68"/>
       <c r="E116" s="65"/>
       <c r="F116" s="65"/>
@@ -9705,45 +9753,25 @@
       <c r="S116" s="68"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="190" t="s">
+      <c r="B117" s="217" t="s">
         <v>524</v>
       </c>
-      <c r="C117" s="190"/>
+      <c r="C117" s="217"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="191" t="s">
+      <c r="B118" s="218" t="s">
         <v>525</v>
       </c>
-      <c r="C118" s="191"/>
+      <c r="C118" s="218"/>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
       <c r="F118" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A18:A48"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A66:A76"/>
-    <mergeCell ref="A77:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A103:A114"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B92"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="E1:R1"/>
@@ -9760,6 +9788,26 @@
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A103:A114"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A18:A48"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A66:A76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9799,74 +9847,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="219" t="s">
+      <c r="D1" s="231" t="s">
         <v>621</v>
       </c>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="221"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="233"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="222" t="s">
+      <c r="N1" s="234" t="s">
         <v>606</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="224"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="236"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="216" t="s">
+      <c r="R1" s="228" t="s">
         <v>613</v>
       </c>
-      <c r="S1" s="217"/>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="218"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="230"/>
       <c r="Y1" s="6"/>
-      <c r="Z1" s="216" t="s">
+      <c r="Z1" s="228" t="s">
         <v>604</v>
       </c>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="217"/>
-      <c r="AD1" s="217"/>
-      <c r="AE1" s="217"/>
-      <c r="AF1" s="218"/>
-      <c r="AG1" s="216" t="s">
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="228" t="s">
         <v>622</v>
       </c>
-      <c r="AH1" s="217"/>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="217"/>
-      <c r="AK1" s="217"/>
-      <c r="AL1" s="217"/>
-      <c r="AM1" s="217"/>
-      <c r="AN1" s="218"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229"/>
+      <c r="AN1" s="230"/>
       <c r="AO1" s="6"/>
-      <c r="AP1" s="216" t="s">
+      <c r="AP1" s="228" t="s">
         <v>620</v>
       </c>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="217"/>
-      <c r="AT1" s="217"/>
-      <c r="AU1" s="217"/>
-      <c r="AV1" s="218"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229"/>
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="230"/>
       <c r="AW1" s="6"/>
-      <c r="AX1" s="216" t="s">
+      <c r="AX1" s="228" t="s">
         <v>605</v>
       </c>
-      <c r="AY1" s="217"/>
-      <c r="AZ1" s="217"/>
-      <c r="BA1" s="217"/>
-      <c r="BB1" s="217"/>
-      <c r="BC1" s="217"/>
-      <c r="BD1" s="217"/>
-      <c r="BE1" s="218"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="229"/>
+      <c r="BA1" s="229"/>
+      <c r="BB1" s="229"/>
+      <c r="BC1" s="229"/>
+      <c r="BD1" s="229"/>
+      <c r="BE1" s="230"/>
     </row>
     <row r="2" spans="1:57" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -10032,7 +10080,7 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="237" t="s">
         <v>236</v>
       </c>
       <c r="B3" s="53">
@@ -10097,7 +10145,7 @@
       <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="215"/>
+      <c r="A4" s="237"/>
       <c r="B4" s="53">
         <v>2</v>
       </c>
@@ -10160,7 +10208,7 @@
       <c r="BE4" s="25"/>
     </row>
     <row r="5" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="215"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="54">
         <v>3</v>
       </c>
@@ -10226,7 +10274,7 @@
       <c r="BE5" s="25"/>
     </row>
     <row r="6" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="215"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="54">
         <v>4</v>
       </c>
@@ -10288,7 +10336,7 @@
       <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="215"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="53">
         <v>5</v>
       </c>
@@ -10351,7 +10399,7 @@
       <c r="BE7" s="25"/>
     </row>
     <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="215"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="54">
         <v>6</v>
       </c>
@@ -10416,7 +10464,7 @@
       <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="215"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="54">
         <v>7</v>
       </c>
@@ -10487,7 +10535,7 @@
       <c r="BE9" s="25"/>
     </row>
     <row r="10" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="215"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="55">
         <v>8</v>
       </c>
@@ -10554,7 +10602,7 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="215"/>
+      <c r="A11" s="237"/>
       <c r="B11" s="54">
         <v>9</v>
       </c>
@@ -10619,7 +10667,7 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="215"/>
+      <c r="A12" s="237"/>
       <c r="B12" s="54">
         <v>10</v>
       </c>
@@ -10745,7 +10793,7 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="237" t="s">
         <v>241</v>
       </c>
       <c r="B14" s="54">
@@ -10814,7 +10862,7 @@
       <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="215"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
@@ -10936,7 +10984,7 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="215" t="s">
+      <c r="A17" s="237" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="55">
@@ -11006,7 +11054,7 @@
       <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="215"/>
+      <c r="A18" s="237"/>
       <c r="B18" s="55">
         <v>2</v>
       </c>
@@ -11075,7 +11123,7 @@
       <c r="BE18" s="25"/>
     </row>
     <row r="19" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="215"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="56">
         <v>3</v>
       </c>
@@ -11138,7 +11186,7 @@
       <c r="BE19" s="25"/>
     </row>
     <row r="20" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="215"/>
+      <c r="A20" s="237"/>
       <c r="B20" s="55">
         <v>4</v>
       </c>
@@ -11221,7 +11269,7 @@
       </c>
     </row>
     <row r="21" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="215"/>
+      <c r="A21" s="237"/>
       <c r="B21" s="56">
         <v>5</v>
       </c>
@@ -11343,7 +11391,7 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="203" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="55">
@@ -11410,7 +11458,7 @@
       <c r="BE23" s="25"/>
     </row>
     <row r="24" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="213"/>
+      <c r="A24" s="204"/>
       <c r="B24" s="56">
         <v>2</v>
       </c>
@@ -11473,7 +11521,7 @@
       <c r="BE24" s="25"/>
     </row>
     <row r="25" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="213"/>
+      <c r="A25" s="204"/>
       <c r="B25" s="56">
         <v>3</v>
       </c>
@@ -11536,7 +11584,7 @@
       <c r="BE25" s="25"/>
     </row>
     <row r="26" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="213"/>
+      <c r="A26" s="204"/>
       <c r="B26" s="56">
         <v>4</v>
       </c>
@@ -11599,7 +11647,7 @@
       <c r="BE26" s="25"/>
     </row>
     <row r="27" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="213"/>
+      <c r="A27" s="204"/>
       <c r="B27" s="56">
         <v>5</v>
       </c>
@@ -11662,7 +11710,7 @@
       <c r="BE27" s="25"/>
     </row>
     <row r="28" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="213"/>
+      <c r="A28" s="204"/>
       <c r="B28" s="56">
         <v>6</v>
       </c>
@@ -11725,7 +11773,7 @@
       <c r="BE28" s="25"/>
     </row>
     <row r="29" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="213"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="56">
         <v>7</v>
       </c>
@@ -11788,7 +11836,7 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="213"/>
+      <c r="A30" s="204"/>
       <c r="B30" s="56">
         <v>8</v>
       </c>
@@ -11851,7 +11899,7 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="213"/>
+      <c r="A31" s="204"/>
       <c r="B31" s="56">
         <v>9</v>
       </c>
@@ -11914,7 +11962,7 @@
       <c r="BE31" s="25"/>
     </row>
     <row r="32" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="213"/>
+      <c r="A32" s="204"/>
       <c r="B32" s="56">
         <v>10</v>
       </c>
@@ -11977,7 +12025,7 @@
       <c r="BE32" s="25"/>
     </row>
     <row r="33" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="214"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="55">
         <v>11</v>
       </c>
@@ -12101,7 +12149,7 @@
       <c r="BE34" s="10"/>
     </row>
     <row r="35" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="203" t="s">
         <v>239</v>
       </c>
       <c r="B35" s="56">
@@ -12168,7 +12216,7 @@
       <c r="BE35" s="25"/>
     </row>
     <row r="36" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="213"/>
+      <c r="A36" s="204"/>
       <c r="B36" s="55">
         <v>2</v>
       </c>
@@ -12237,7 +12285,7 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="213"/>
+      <c r="A37" s="204"/>
       <c r="B37" s="55">
         <v>3</v>
       </c>
@@ -12306,7 +12354,7 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="214"/>
+      <c r="A38" s="205"/>
       <c r="B38" s="55">
         <v>4</v>
       </c>
@@ -12432,7 +12480,7 @@
       <c r="BE39" s="10"/>
     </row>
     <row r="40" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="215" t="s">
+      <c r="A40" s="237" t="s">
         <v>240</v>
       </c>
       <c r="B40" s="55">
@@ -12499,7 +12547,7 @@
       <c r="BE40" s="25"/>
     </row>
     <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="215"/>
+      <c r="A41" s="237"/>
       <c r="B41" s="56">
         <v>2</v>
       </c>
@@ -12562,7 +12610,7 @@
       <c r="BE41" s="25"/>
     </row>
     <row r="42" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="215"/>
+      <c r="A42" s="237"/>
       <c r="B42" s="56">
         <v>3</v>
       </c>
@@ -12684,7 +12732,7 @@
       <c r="BE43" s="10"/>
     </row>
     <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="212" t="s">
+      <c r="A44" s="203" t="s">
         <v>246</v>
       </c>
       <c r="B44" s="55">
@@ -12759,7 +12807,7 @@
       <c r="BE44" s="25"/>
     </row>
     <row r="45" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="213"/>
+      <c r="A45" s="204"/>
       <c r="B45" s="55">
         <v>2</v>
       </c>
@@ -12830,7 +12878,7 @@
       <c r="BE45" s="25"/>
     </row>
     <row r="46" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="213"/>
+      <c r="A46" s="204"/>
       <c r="B46" s="55">
         <v>3</v>
       </c>
@@ -12901,7 +12949,7 @@
       <c r="BE46" s="25"/>
     </row>
     <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="214"/>
+      <c r="A47" s="205"/>
       <c r="B47" s="56">
         <v>4</v>
       </c>
@@ -13134,6 +13182,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A23:A33"/>
     <mergeCell ref="AP1:AV1"/>
     <mergeCell ref="AX1:BE1"/>
     <mergeCell ref="D1:L1"/>
@@ -13141,13 +13196,6 @@
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A23:A33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13185,74 +13233,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="219" t="s">
+      <c r="E1" s="231" t="s">
         <v>621</v>
       </c>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="221"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="233"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="222" t="s">
+      <c r="O1" s="234" t="s">
         <v>606</v>
       </c>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="224"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="236"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="216" t="s">
+      <c r="S1" s="228" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="218"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="230"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="216" t="s">
+      <c r="AA1" s="228" t="s">
         <v>604</v>
       </c>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="217"/>
-      <c r="AD1" s="217"/>
-      <c r="AE1" s="217"/>
-      <c r="AF1" s="217"/>
-      <c r="AG1" s="218"/>
-      <c r="AH1" s="216" t="s">
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="230"/>
+      <c r="AH1" s="228" t="s">
         <v>622</v>
       </c>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="217"/>
-      <c r="AK1" s="217"/>
-      <c r="AL1" s="217"/>
-      <c r="AM1" s="217"/>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="218"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="229"/>
+      <c r="AM1" s="229"/>
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="230"/>
       <c r="AP1" s="6"/>
-      <c r="AQ1" s="216" t="s">
+      <c r="AQ1" s="228" t="s">
         <v>620</v>
       </c>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="217"/>
-      <c r="AT1" s="217"/>
-      <c r="AU1" s="217"/>
-      <c r="AV1" s="217"/>
-      <c r="AW1" s="218"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229"/>
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="230"/>
       <c r="AX1" s="6"/>
-      <c r="AY1" s="216" t="s">
+      <c r="AY1" s="228" t="s">
         <v>605</v>
       </c>
-      <c r="AZ1" s="217"/>
-      <c r="BA1" s="217"/>
-      <c r="BB1" s="217"/>
-      <c r="BC1" s="217"/>
-      <c r="BD1" s="217"/>
-      <c r="BE1" s="217"/>
-      <c r="BF1" s="218"/>
+      <c r="AZ1" s="229"/>
+      <c r="BA1" s="229"/>
+      <c r="BB1" s="229"/>
+      <c r="BC1" s="229"/>
+      <c r="BD1" s="229"/>
+      <c r="BE1" s="229"/>
+      <c r="BF1" s="230"/>
     </row>
     <row r="2" spans="1:60" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="105" t="s">
@@ -13421,10 +13469,10 @@
       </c>
     </row>
     <row r="3" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="237" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="227">
+      <c r="B3" s="249">
         <v>1</v>
       </c>
       <c r="C3" s="156">
@@ -13489,8 +13537,8 @@
       <c r="BF3" s="25"/>
     </row>
     <row r="4" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="215"/>
-      <c r="B4" s="228"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="250"/>
       <c r="C4" s="156">
         <v>2</v>
       </c>
@@ -13553,7 +13601,7 @@
       <c r="BF4" s="25"/>
     </row>
     <row r="5" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="215"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -13619,7 +13667,7 @@
       <c r="BF5" s="25"/>
     </row>
     <row r="6" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="215"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
@@ -13689,8 +13737,8 @@
       <c r="BF6" s="25"/>
     </row>
     <row r="7" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="215"/>
-      <c r="B7" s="225">
+      <c r="A7" s="237"/>
+      <c r="B7" s="247">
         <v>4</v>
       </c>
       <c r="C7" s="157">
@@ -13755,8 +13803,8 @@
       <c r="BF7" s="25"/>
     </row>
     <row r="8" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="215"/>
-      <c r="B8" s="226"/>
+      <c r="A8" s="237"/>
+      <c r="B8" s="248"/>
       <c r="C8" s="157">
         <v>2</v>
       </c>
@@ -13819,7 +13867,7 @@
       <c r="BF8" s="25"/>
     </row>
     <row r="9" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="215"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="53">
         <v>5</v>
       </c>
@@ -13885,7 +13933,7 @@
       <c r="BF9" s="25"/>
     </row>
     <row r="10" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="215"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="54">
         <v>6</v>
       </c>
@@ -13956,8 +14004,8 @@
       </c>
     </row>
     <row r="11" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="215"/>
-      <c r="B11" s="225">
+      <c r="A11" s="237"/>
+      <c r="B11" s="247">
         <v>7</v>
       </c>
       <c r="C11" s="157">
@@ -14026,8 +14074,8 @@
       <c r="BF11" s="25"/>
     </row>
     <row r="12" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="215"/>
-      <c r="B12" s="229"/>
+      <c r="A12" s="237"/>
+      <c r="B12" s="251"/>
       <c r="C12" s="157">
         <v>2</v>
       </c>
@@ -14102,7 +14150,7 @@
       <c r="BF12" s="25"/>
     </row>
     <row r="13" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="215"/>
+      <c r="A13" s="237"/>
       <c r="B13" s="55">
         <v>8</v>
       </c>
@@ -14172,7 +14220,7 @@
       <c r="BF13" s="25"/>
     </row>
     <row r="14" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="215"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="54">
         <v>9</v>
       </c>
@@ -14240,7 +14288,7 @@
       <c r="BF14" s="25"/>
     </row>
     <row r="15" spans="1:60" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="215"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="54">
         <v>10</v>
       </c>
@@ -14370,10 +14418,10 @@
       <c r="BF16" s="10"/>
     </row>
     <row r="17" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="215" t="s">
+      <c r="A17" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="225">
+      <c r="B17" s="247">
         <v>1</v>
       </c>
       <c r="C17" s="157">
@@ -14440,8 +14488,8 @@
       <c r="BF17" s="25"/>
     </row>
     <row r="18" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="215"/>
-      <c r="B18" s="226"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="248"/>
       <c r="C18" s="157">
         <v>2</v>
       </c>
@@ -14508,7 +14556,7 @@
       <c r="BF18" s="25"/>
     </row>
     <row r="19" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="215"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="63">
         <v>2</v>
       </c>
@@ -14634,7 +14682,7 @@
       <c r="BF20" s="10"/>
     </row>
     <row r="21" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="215" t="s">
+      <c r="A21" s="237" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="55">
@@ -14707,7 +14755,7 @@
       <c r="BF21" s="25"/>
     </row>
     <row r="22" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="215"/>
+      <c r="A22" s="237"/>
       <c r="B22" s="55">
         <v>2</v>
       </c>
@@ -14777,7 +14825,7 @@
       <c r="BF22" s="25"/>
     </row>
     <row r="23" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="215"/>
+      <c r="A23" s="237"/>
       <c r="B23" s="56">
         <v>3</v>
       </c>
@@ -14843,8 +14891,8 @@
       <c r="BF23" s="25"/>
     </row>
     <row r="24" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="215"/>
-      <c r="B24" s="233">
+      <c r="A24" s="237"/>
+      <c r="B24" s="241">
         <v>4</v>
       </c>
       <c r="C24" s="157">
@@ -14911,8 +14959,8 @@
       <c r="BF24" s="25"/>
     </row>
     <row r="25" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="215"/>
-      <c r="B25" s="234"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="242"/>
       <c r="C25" s="157">
         <v>2</v>
       </c>
@@ -14985,8 +15033,8 @@
       <c r="BF25" s="25"/>
     </row>
     <row r="26" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="215"/>
-      <c r="B26" s="235"/>
+      <c r="A26" s="237"/>
+      <c r="B26" s="243"/>
       <c r="C26" s="157">
         <v>3</v>
       </c>
@@ -15059,7 +15107,7 @@
       </c>
     </row>
     <row r="27" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="215"/>
+      <c r="A27" s="237"/>
       <c r="B27" s="64">
         <v>5</v>
       </c>
@@ -15185,7 +15233,7 @@
       <c r="BF28" s="10"/>
     </row>
     <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="244" t="s">
         <v>238</v>
       </c>
       <c r="B29" s="55">
@@ -15255,7 +15303,7 @@
       <c r="BF29" s="25"/>
     </row>
     <row r="30" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="237"/>
+      <c r="A30" s="245"/>
       <c r="B30" s="56">
         <v>2</v>
       </c>
@@ -15321,7 +15369,7 @@
       <c r="BF30" s="25"/>
     </row>
     <row r="31" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="237"/>
+      <c r="A31" s="245"/>
       <c r="B31" s="56">
         <v>3</v>
       </c>
@@ -15387,7 +15435,7 @@
       <c r="BF31" s="25"/>
     </row>
     <row r="32" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="237"/>
+      <c r="A32" s="245"/>
       <c r="B32" s="56">
         <v>4</v>
       </c>
@@ -15453,7 +15501,7 @@
       <c r="BF32" s="25"/>
     </row>
     <row r="33" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="237"/>
+      <c r="A33" s="245"/>
       <c r="B33" s="56">
         <v>5</v>
       </c>
@@ -15519,7 +15567,7 @@
       <c r="BF33" s="25"/>
     </row>
     <row r="34" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="237"/>
+      <c r="A34" s="245"/>
       <c r="B34" s="56">
         <v>6</v>
       </c>
@@ -15585,7 +15633,7 @@
       <c r="BF34" s="25"/>
     </row>
     <row r="35" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="237"/>
+      <c r="A35" s="245"/>
       <c r="B35" s="56">
         <v>7</v>
       </c>
@@ -15651,7 +15699,7 @@
       <c r="BF35" s="25"/>
     </row>
     <row r="36" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="237"/>
+      <c r="A36" s="245"/>
       <c r="B36" s="56">
         <v>8</v>
       </c>
@@ -15717,7 +15765,7 @@
       <c r="BF36" s="25"/>
     </row>
     <row r="37" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="237"/>
+      <c r="A37" s="245"/>
       <c r="B37" s="56">
         <v>9</v>
       </c>
@@ -15783,7 +15831,7 @@
       <c r="BF37" s="25"/>
     </row>
     <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="237"/>
+      <c r="A38" s="245"/>
       <c r="B38" s="56">
         <v>10</v>
       </c>
@@ -15849,7 +15897,7 @@
       <c r="BF38" s="25"/>
     </row>
     <row r="39" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="238"/>
+      <c r="A39" s="246"/>
       <c r="B39" s="121">
         <v>11</v>
       </c>
@@ -15977,7 +16025,7 @@
       <c r="BF40" s="10"/>
     </row>
     <row r="41" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="212" t="s">
+      <c r="A41" s="203" t="s">
         <v>239</v>
       </c>
       <c r="B41" s="56">
@@ -16047,7 +16095,7 @@
       <c r="BF41" s="25"/>
     </row>
     <row r="42" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="213"/>
+      <c r="A42" s="204"/>
       <c r="B42" s="55">
         <v>2</v>
       </c>
@@ -16119,7 +16167,7 @@
       <c r="BF42" s="25"/>
     </row>
     <row r="43" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="213"/>
+      <c r="A43" s="204"/>
       <c r="B43" s="55">
         <v>3</v>
       </c>
@@ -16191,7 +16239,7 @@
       <c r="BF43" s="25"/>
     </row>
     <row r="44" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="214"/>
+      <c r="A44" s="205"/>
       <c r="B44" s="121">
         <v>4</v>
       </c>
@@ -16321,7 +16369,7 @@
       <c r="BF45" s="10"/>
     </row>
     <row r="46" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="215" t="s">
+      <c r="A46" s="237" t="s">
         <v>240</v>
       </c>
       <c r="B46" s="55">
@@ -16391,7 +16439,7 @@
       <c r="BF46" s="25"/>
     </row>
     <row r="47" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="215"/>
+      <c r="A47" s="237"/>
       <c r="B47" s="56">
         <v>2</v>
       </c>
@@ -16457,7 +16505,7 @@
       <c r="BF47" s="25"/>
     </row>
     <row r="48" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="215"/>
+      <c r="A48" s="237"/>
       <c r="B48" s="64">
         <v>3</v>
       </c>
@@ -16583,7 +16631,7 @@
       <c r="BF49" s="10"/>
     </row>
     <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="212" t="s">
+      <c r="A50" s="203" t="s">
         <v>246</v>
       </c>
       <c r="B50" s="55">
@@ -16592,7 +16640,7 @@
       <c r="C50" s="157">
         <v>1</v>
       </c>
-      <c r="D50" s="230" t="s">
+      <c r="D50" s="238" t="s">
         <v>419</v>
       </c>
       <c r="E50" s="11"/>
@@ -16661,14 +16709,14 @@
       <c r="BF50" s="25"/>
     </row>
     <row r="51" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="213"/>
+      <c r="A51" s="204"/>
       <c r="B51" s="55">
         <v>2</v>
       </c>
       <c r="C51" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="231"/>
+      <c r="D51" s="239"/>
       <c r="E51" s="11"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
@@ -16733,14 +16781,14 @@
       <c r="BF51" s="25"/>
     </row>
     <row r="52" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="213"/>
+      <c r="A52" s="204"/>
       <c r="B52" s="55">
         <v>3</v>
       </c>
       <c r="C52" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="D52" s="232"/>
+      <c r="D52" s="240"/>
       <c r="E52" s="11"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
@@ -16805,7 +16853,7 @@
       <c r="BF52" s="25"/>
     </row>
     <row r="53" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="214"/>
+      <c r="A53" s="205"/>
       <c r="B53" s="56">
         <v>4</v>
       </c>
@@ -17053,6 +17101,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A29:A39"/>
     <mergeCell ref="AQ1:AW1"/>
     <mergeCell ref="AY1:BF1"/>
     <mergeCell ref="E1:M1"/>
@@ -17060,19 +17121,6 @@
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="AH1:AO1"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A29:A39"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -17120,75 +17168,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="243"/>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="245" t="s">
+      <c r="A1" s="277"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="259" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="259"/>
+      <c r="Q1" s="259"/>
       <c r="R1" s="97"/>
-      <c r="S1" s="245" t="s">
+      <c r="S1" s="259" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
       <c r="V1" s="97"/>
-      <c r="W1" s="245" t="s">
+      <c r="W1" s="259" t="s">
         <v>237</v>
       </c>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="259"/>
       <c r="AD1" s="97"/>
-      <c r="AE1" s="260" t="s">
+      <c r="AE1" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="261"/>
-      <c r="AH1" s="261"/>
-      <c r="AI1" s="261"/>
-      <c r="AJ1" s="261"/>
-      <c r="AK1" s="261"/>
-      <c r="AL1" s="261"/>
-      <c r="AM1" s="261"/>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="262"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="270"/>
+      <c r="AN1" s="270"/>
+      <c r="AO1" s="271"/>
       <c r="AP1" s="97"/>
-      <c r="AQ1" s="257" t="s">
+      <c r="AQ1" s="266" t="s">
         <v>239</v>
       </c>
-      <c r="AR1" s="258"/>
-      <c r="AS1" s="258"/>
-      <c r="AT1" s="259"/>
+      <c r="AR1" s="267"/>
+      <c r="AS1" s="267"/>
+      <c r="AT1" s="268"/>
       <c r="AU1" s="97"/>
-      <c r="AV1" s="245" t="s">
+      <c r="AV1" s="259" t="s">
         <v>240</v>
       </c>
-      <c r="AW1" s="245"/>
-      <c r="AX1" s="245"/>
+      <c r="AW1" s="259"/>
+      <c r="AX1" s="259"/>
       <c r="AY1" s="97"/>
-      <c r="AZ1" s="254" t="s">
+      <c r="AZ1" s="263" t="s">
         <v>246</v>
       </c>
-      <c r="BA1" s="255"/>
-      <c r="BB1" s="255"/>
-      <c r="BC1" s="256"/>
+      <c r="BA1" s="264"/>
+      <c r="BB1" s="264"/>
+      <c r="BC1" s="265"/>
       <c r="BD1" s="97"/>
       <c r="BE1" s="98" t="s">
         <v>234</v>
@@ -17198,34 +17246,34 @@
       </c>
     </row>
     <row r="2" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="243"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="246">
+      <c r="A2" s="277"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="279">
         <v>1</v>
       </c>
-      <c r="F2" s="247"/>
+      <c r="F2" s="280"/>
       <c r="G2" s="144">
         <v>2</v>
       </c>
       <c r="H2" s="144">
         <v>3</v>
       </c>
-      <c r="I2" s="248">
+      <c r="I2" s="272">
         <v>4</v>
       </c>
-      <c r="J2" s="249"/>
+      <c r="J2" s="273"/>
       <c r="K2" s="145">
         <v>5</v>
       </c>
       <c r="L2" s="144">
         <v>6</v>
       </c>
-      <c r="M2" s="239">
+      <c r="M2" s="275">
         <v>7</v>
       </c>
-      <c r="N2" s="240"/>
+      <c r="N2" s="276"/>
       <c r="O2" s="144">
         <v>8</v>
       </c>
@@ -17236,10 +17284,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="146"/>
-      <c r="S2" s="248">
+      <c r="S2" s="272">
         <v>1</v>
       </c>
-      <c r="T2" s="249"/>
+      <c r="T2" s="273"/>
       <c r="U2" s="147">
         <v>2</v>
       </c>
@@ -17253,11 +17301,11 @@
       <c r="Y2" s="145">
         <v>3</v>
       </c>
-      <c r="Z2" s="263">
+      <c r="Z2" s="274">
         <v>4</v>
       </c>
-      <c r="AA2" s="263"/>
-      <c r="AB2" s="263"/>
+      <c r="AA2" s="274"/>
+      <c r="AB2" s="274"/>
       <c r="AC2" s="147">
         <v>5</v>
       </c>
@@ -17337,10 +17385,10 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="243"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
+      <c r="A3" s="277"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="150">
         <v>1</v>
       </c>
@@ -17488,10 +17536,10 @@
       </c>
     </row>
     <row r="4" spans="1:58" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="A4" s="243"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="244"/>
+      <c r="A4" s="277"/>
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="43" t="s">
         <v>390</v>
       </c>
@@ -17621,11 +17669,11 @@
         <v>628</v>
       </c>
       <c r="AY4" s="45"/>
-      <c r="AZ4" s="251" t="s">
+      <c r="AZ4" s="260" t="s">
         <v>419</v>
       </c>
-      <c r="BA4" s="252"/>
-      <c r="BB4" s="253"/>
+      <c r="BA4" s="261"/>
+      <c r="BB4" s="262"/>
       <c r="BC4" s="46" t="s">
         <v>420</v>
       </c>
@@ -17635,10 +17683,10 @@
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="203" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="253" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -17702,8 +17750,8 @@
       <c r="BE5" s="11"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" s="213"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="254"/>
       <c r="C6" s="30" t="s">
         <v>155</v>
       </c>
@@ -17765,8 +17813,8 @@
       <c r="BE6" s="11"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" s="213"/>
-      <c r="B7" s="250"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="254"/>
       <c r="C7" s="31" t="s">
         <v>156</v>
       </c>
@@ -17830,8 +17878,8 @@
       <c r="BE7" s="11"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" s="213"/>
-      <c r="B8" s="250"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="30" t="s">
         <v>157</v>
       </c>
@@ -17893,8 +17941,8 @@
       <c r="BE8" s="11"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" s="213"/>
-      <c r="B9" s="250"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="30" t="s">
         <v>158</v>
       </c>
@@ -17956,8 +18004,8 @@
       <c r="BE9" s="11"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A10" s="213"/>
-      <c r="B10" s="250"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -18019,8 +18067,8 @@
       <c r="BE10" s="25"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A11" s="213"/>
-      <c r="B11" s="250"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="254"/>
       <c r="C11" s="31" t="s">
         <v>161</v>
       </c>
@@ -18086,8 +18134,8 @@
       <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A12" s="213"/>
-      <c r="B12" s="250"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="254"/>
       <c r="C12" s="30" t="s">
         <v>162</v>
       </c>
@@ -18149,8 +18197,8 @@
       <c r="BE12" s="25"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A13" s="213"/>
-      <c r="B13" s="242"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="30" t="s">
         <v>163</v>
       </c>
@@ -18212,8 +18260,8 @@
       <c r="BE13" s="11"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A14" s="213"/>
-      <c r="B14" s="241" t="s">
+      <c r="A14" s="204"/>
+      <c r="B14" s="253" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -18281,8 +18329,8 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="213"/>
-      <c r="B15" s="242"/>
+      <c r="A15" s="204"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="30" t="s">
         <v>162</v>
       </c>
@@ -18344,8 +18392,8 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A16" s="213"/>
-      <c r="B16" s="241" t="s">
+      <c r="A16" s="204"/>
+      <c r="B16" s="253" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -18409,8 +18457,8 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A17" s="213"/>
-      <c r="B17" s="250"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="254"/>
       <c r="C17" s="30" t="s">
         <v>160</v>
       </c>
@@ -18472,7 +18520,7 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A18" s="213"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="135" t="s">
         <v>6</v>
       </c>
@@ -18541,7 +18589,7 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A19" s="214"/>
+      <c r="A19" s="205"/>
       <c r="B19" s="136" t="s">
         <v>7</v>
       </c>
@@ -18606,10 +18654,10 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A20" s="212" t="s">
+      <c r="A20" s="203" t="s">
         <v>611</v>
       </c>
-      <c r="B20" s="241" t="s">
+      <c r="B20" s="253" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -18675,8 +18723,8 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="213"/>
-      <c r="B21" s="250"/>
+      <c r="A21" s="204"/>
+      <c r="B21" s="254"/>
       <c r="C21" s="30" t="s">
         <v>167</v>
       </c>
@@ -18738,8 +18786,8 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="213"/>
-      <c r="B22" s="250"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="254"/>
       <c r="C22" s="30" t="s">
         <v>169</v>
       </c>
@@ -18801,8 +18849,8 @@
       <c r="BE22" s="25"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="213"/>
-      <c r="B23" s="250"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="254"/>
       <c r="C23" s="31" t="s">
         <v>169</v>
       </c>
@@ -18866,8 +18914,8 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="213"/>
-      <c r="B24" s="250"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="254"/>
       <c r="C24" s="30" t="s">
         <v>170</v>
       </c>
@@ -18929,8 +18977,8 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A25" s="213"/>
-      <c r="B25" s="250"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="254"/>
       <c r="C25" s="30" t="s">
         <v>171</v>
       </c>
@@ -18992,8 +19040,8 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A26" s="213"/>
-      <c r="B26" s="250"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="254"/>
       <c r="C26" s="30" t="s">
         <v>172</v>
       </c>
@@ -19055,8 +19103,8 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A27" s="213"/>
-      <c r="B27" s="250"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="254"/>
       <c r="C27" s="30" t="s">
         <v>173</v>
       </c>
@@ -19118,8 +19166,8 @@
       <c r="BE27" s="9"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A28" s="213"/>
-      <c r="B28" s="250"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="30" t="s">
         <v>174</v>
       </c>
@@ -19181,8 +19229,8 @@
       <c r="BE28" s="9"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A29" s="213"/>
-      <c r="B29" s="250"/>
+      <c r="A29" s="204"/>
+      <c r="B29" s="254"/>
       <c r="C29" s="30" t="s">
         <v>175</v>
       </c>
@@ -19244,8 +19292,8 @@
       <c r="BE29" s="25"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A30" s="213"/>
-      <c r="B30" s="250"/>
+      <c r="A30" s="204"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="30" t="s">
         <v>176</v>
       </c>
@@ -19307,8 +19355,8 @@
       <c r="BE30" s="25"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="213"/>
-      <c r="B31" s="250"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="254"/>
       <c r="C31" s="30" t="s">
         <v>177</v>
       </c>
@@ -19370,8 +19418,8 @@
       <c r="BE31" s="9"/>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A32" s="213"/>
-      <c r="B32" s="250"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="254"/>
       <c r="C32" s="30" t="s">
         <v>178</v>
       </c>
@@ -19433,8 +19481,8 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A33" s="213"/>
-      <c r="B33" s="250"/>
+      <c r="A33" s="204"/>
+      <c r="B33" s="254"/>
       <c r="C33" s="30" t="s">
         <v>179</v>
       </c>
@@ -19496,8 +19544,8 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A34" s="213"/>
-      <c r="B34" s="250"/>
+      <c r="A34" s="204"/>
+      <c r="B34" s="254"/>
       <c r="C34" s="30" t="s">
         <v>180</v>
       </c>
@@ -19559,8 +19607,8 @@
       <c r="BE34" s="9"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="213"/>
-      <c r="B35" s="250"/>
+      <c r="A35" s="204"/>
+      <c r="B35" s="254"/>
       <c r="C35" s="30" t="s">
         <v>181</v>
       </c>
@@ -19622,8 +19670,8 @@
       <c r="BE35" s="9"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="213"/>
-      <c r="B36" s="250"/>
+      <c r="A36" s="204"/>
+      <c r="B36" s="254"/>
       <c r="C36" s="30" t="s">
         <v>182</v>
       </c>
@@ -19685,8 +19733,8 @@
       <c r="BE36" s="25"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="213"/>
-      <c r="B37" s="250"/>
+      <c r="A37" s="204"/>
+      <c r="B37" s="254"/>
       <c r="C37" s="30" t="s">
         <v>183</v>
       </c>
@@ -19748,8 +19796,8 @@
       <c r="BE37" s="25"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A38" s="213"/>
-      <c r="B38" s="250"/>
+      <c r="A38" s="204"/>
+      <c r="B38" s="254"/>
       <c r="C38" s="30" t="s">
         <v>184</v>
       </c>
@@ -19811,8 +19859,8 @@
       <c r="BE38" s="9"/>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A39" s="213"/>
-      <c r="B39" s="242"/>
+      <c r="A39" s="204"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="30" t="s">
         <v>185</v>
       </c>
@@ -19874,7 +19922,7 @@
       <c r="BE39" s="9"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A40" s="213"/>
+      <c r="A40" s="204"/>
       <c r="B40" s="137" t="s">
         <v>15</v>
       </c>
@@ -19939,8 +19987,8 @@
       <c r="BE40" s="9"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="213"/>
-      <c r="B41" s="207" t="s">
+      <c r="A41" s="204"/>
+      <c r="B41" s="215" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -20006,8 +20054,8 @@
       <c r="BE41" s="9"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="213"/>
-      <c r="B42" s="265"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="256"/>
       <c r="C42" s="31" t="s">
         <v>188</v>
       </c>
@@ -20071,8 +20119,8 @@
       <c r="BE42" s="9"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="213"/>
-      <c r="B43" s="265"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="256"/>
       <c r="C43" s="31" t="s">
         <v>189</v>
       </c>
@@ -20136,8 +20184,8 @@
       <c r="BE43" s="9"/>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A44" s="213"/>
-      <c r="B44" s="265"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="256"/>
       <c r="C44" s="31" t="s">
         <v>190</v>
       </c>
@@ -20201,8 +20249,8 @@
       <c r="BE44" s="9"/>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A45" s="213"/>
-      <c r="B45" s="265"/>
+      <c r="A45" s="204"/>
+      <c r="B45" s="256"/>
       <c r="C45" s="31" t="s">
         <v>191</v>
       </c>
@@ -20266,8 +20314,8 @@
       <c r="BE45" s="9"/>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A46" s="213"/>
-      <c r="B46" s="265"/>
+      <c r="A46" s="204"/>
+      <c r="B46" s="256"/>
       <c r="C46" s="31" t="s">
         <v>580</v>
       </c>
@@ -20331,8 +20379,8 @@
       <c r="BE46" s="9"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="213"/>
-      <c r="B47" s="265"/>
+      <c r="A47" s="204"/>
+      <c r="B47" s="256"/>
       <c r="C47" s="31" t="s">
         <v>551</v>
       </c>
@@ -20396,8 +20444,8 @@
       <c r="BE47" s="9"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="213"/>
-      <c r="B48" s="208"/>
+      <c r="A48" s="204"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="31" t="s">
         <v>552</v>
       </c>
@@ -20461,8 +20509,8 @@
       <c r="BE48" s="9"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A49" s="213"/>
-      <c r="B49" s="207" t="s">
+      <c r="A49" s="204"/>
+      <c r="B49" s="215" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="31" t="s">
@@ -20528,8 +20576,8 @@
       <c r="BE49" s="9"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A50" s="214"/>
-      <c r="B50" s="208"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="31" t="s">
         <v>554</v>
       </c>
@@ -20652,10 +20700,10 @@
       <c r="BE51" s="10"/>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A52" s="209" t="s">
+      <c r="A52" s="206" t="s">
         <v>618</v>
       </c>
-      <c r="B52" s="266" t="s">
+      <c r="B52" s="257" t="s">
         <v>261</v>
       </c>
       <c r="C52" s="30" t="s">
@@ -20719,8 +20767,8 @@
       <c r="BE52" s="18"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A53" s="210"/>
-      <c r="B53" s="267"/>
+      <c r="A53" s="207"/>
+      <c r="B53" s="258"/>
       <c r="C53" s="30" t="s">
         <v>126</v>
       </c>
@@ -20782,7 +20830,7 @@
       <c r="BE53" s="18"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A54" s="210"/>
+      <c r="A54" s="207"/>
       <c r="B54" s="139" t="s">
         <v>262</v>
       </c>
@@ -20847,8 +20895,8 @@
       <c r="BE54" s="18"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A55" s="210"/>
-      <c r="B55" s="241" t="s">
+      <c r="A55" s="207"/>
+      <c r="B55" s="253" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="30" t="s">
@@ -20912,8 +20960,8 @@
       <c r="BE55" s="9"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A56" s="210"/>
-      <c r="B56" s="250"/>
+      <c r="A56" s="207"/>
+      <c r="B56" s="254"/>
       <c r="C56" s="30" t="s">
         <v>250</v>
       </c>
@@ -20975,8 +21023,8 @@
       <c r="BE56" s="9"/>
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A57" s="211"/>
-      <c r="B57" s="242"/>
+      <c r="A57" s="208"/>
+      <c r="B57" s="255"/>
       <c r="C57" s="30" t="s">
         <v>251</v>
       </c>
@@ -21097,7 +21145,7 @@
       <c r="BE58" s="10"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A59" s="209" t="s">
+      <c r="A59" s="206" t="s">
         <v>613</v>
       </c>
       <c r="B59" s="140" t="s">
@@ -21166,7 +21214,7 @@
       <c r="BE59" s="9"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A60" s="210"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="140" t="s">
         <v>43</v>
       </c>
@@ -21233,7 +21281,7 @@
       <c r="BE60" s="9"/>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A61" s="210"/>
+      <c r="A61" s="207"/>
       <c r="B61" s="140" t="s">
         <v>44</v>
       </c>
@@ -21302,7 +21350,7 @@
       <c r="BE61" s="9"/>
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A62" s="210"/>
+      <c r="A62" s="207"/>
       <c r="B62" s="140" t="s">
         <v>45</v>
       </c>
@@ -21371,8 +21419,8 @@
       <c r="BE62" s="25"/>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A63" s="210"/>
-      <c r="B63" s="207" t="s">
+      <c r="A63" s="207"/>
+      <c r="B63" s="215" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="31" t="s">
@@ -21442,8 +21490,8 @@
       <c r="BE63" s="9"/>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A64" s="210"/>
-      <c r="B64" s="208"/>
+      <c r="A64" s="207"/>
+      <c r="B64" s="216"/>
       <c r="C64" s="31" t="s">
         <v>140</v>
       </c>
@@ -21511,7 +21559,7 @@
       <c r="BE64" s="9"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A65" s="210"/>
+      <c r="A65" s="207"/>
       <c r="B65" s="140" t="s">
         <v>47</v>
       </c>
@@ -21588,7 +21636,7 @@
       <c r="BE65" s="18"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A66" s="211"/>
+      <c r="A66" s="208"/>
       <c r="B66" s="141" t="s">
         <v>538</v>
       </c>
@@ -21720,10 +21768,10 @@
       <c r="BE67" s="10"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A68" s="209" t="s">
+      <c r="A68" s="206" t="s">
         <v>604</v>
       </c>
-      <c r="B68" s="264" t="s">
+      <c r="B68" s="252" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -21791,8 +21839,8 @@
       <c r="BE68" s="9"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A69" s="210"/>
-      <c r="B69" s="264"/>
+      <c r="A69" s="207"/>
+      <c r="B69" s="252"/>
       <c r="C69" s="31" t="s">
         <v>255</v>
       </c>
@@ -21858,8 +21906,8 @@
       <c r="BE69" s="9"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A70" s="210"/>
-      <c r="B70" s="264" t="s">
+      <c r="A70" s="207"/>
+      <c r="B70" s="252" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="31" t="s">
@@ -21925,8 +21973,8 @@
       <c r="BE70" s="9"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A71" s="210"/>
-      <c r="B71" s="264"/>
+      <c r="A71" s="207"/>
+      <c r="B71" s="252"/>
       <c r="C71" s="31" t="s">
         <v>117</v>
       </c>
@@ -21992,7 +22040,7 @@
       <c r="BE71" s="9"/>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A72" s="210"/>
+      <c r="A72" s="207"/>
       <c r="B72" s="140" t="s">
         <v>57</v>
       </c>
@@ -22059,7 +22107,7 @@
       <c r="BE72" s="25"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A73" s="210"/>
+      <c r="A73" s="207"/>
       <c r="B73" s="140" t="s">
         <v>58</v>
       </c>
@@ -22126,7 +22174,7 @@
       <c r="BE73" s="25"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A74" s="210"/>
+      <c r="A74" s="207"/>
       <c r="B74" s="140" t="s">
         <v>59</v>
       </c>
@@ -22193,8 +22241,8 @@
       <c r="BE74" s="9"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A75" s="210"/>
-      <c r="B75" s="264" t="s">
+      <c r="A75" s="207"/>
+      <c r="B75" s="252" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="23" t="s">
@@ -22260,8 +22308,8 @@
       <c r="BE75" s="9"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A76" s="210"/>
-      <c r="B76" s="264"/>
+      <c r="A76" s="207"/>
+      <c r="B76" s="252"/>
       <c r="C76" s="23" t="s">
         <v>122</v>
       </c>
@@ -22325,8 +22373,8 @@
       <c r="BE76" s="9"/>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A77" s="210"/>
-      <c r="B77" s="264"/>
+      <c r="A77" s="207"/>
+      <c r="B77" s="252"/>
       <c r="C77" s="23" t="s">
         <v>123</v>
       </c>
@@ -22390,7 +22438,7 @@
       <c r="BE77" s="9"/>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A78" s="211"/>
+      <c r="A78" s="208"/>
       <c r="B78" s="142" t="s">
         <v>61</v>
       </c>
@@ -22457,10 +22505,10 @@
       <c r="BE78" s="9"/>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A79" s="209" t="s">
+      <c r="A79" s="206" t="s">
         <v>614</v>
       </c>
-      <c r="B79" s="207" t="s">
+      <c r="B79" s="215" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="31" t="s">
@@ -22526,8 +22574,8 @@
       <c r="BE79" s="9"/>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A80" s="210"/>
-      <c r="B80" s="208"/>
+      <c r="A80" s="207"/>
+      <c r="B80" s="216"/>
       <c r="C80" s="31" t="s">
         <v>144</v>
       </c>
@@ -22591,7 +22639,7 @@
       <c r="BE80" s="9"/>
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A81" s="210"/>
+      <c r="A81" s="207"/>
       <c r="B81" s="135" t="s">
         <v>76</v>
       </c>
@@ -22658,8 +22706,8 @@
       <c r="BE81" s="9"/>
     </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A82" s="210"/>
-      <c r="B82" s="264" t="s">
+      <c r="A82" s="207"/>
+      <c r="B82" s="252" t="s">
         <v>77</v>
       </c>
       <c r="C82" s="23" t="s">
@@ -22725,8 +22773,8 @@
       <c r="BE82" s="9"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A83" s="210"/>
-      <c r="B83" s="264"/>
+      <c r="A83" s="207"/>
+      <c r="B83" s="252"/>
       <c r="C83" s="23" t="s">
         <v>147</v>
       </c>
@@ -22790,7 +22838,7 @@
       <c r="BE83" s="9"/>
     </row>
     <row r="84" spans="1:57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="210"/>
+      <c r="A84" s="207"/>
       <c r="B84" s="142" t="s">
         <v>78</v>
       </c>
@@ -22859,8 +22907,8 @@
       <c r="BE84" s="25"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A85" s="210"/>
-      <c r="B85" s="207" t="s">
+      <c r="A85" s="207"/>
+      <c r="B85" s="215" t="s">
         <v>79</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -22928,8 +22976,8 @@
       <c r="BE85" s="9"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A86" s="210"/>
-      <c r="B86" s="265"/>
+      <c r="A86" s="207"/>
+      <c r="B86" s="256"/>
       <c r="C86" s="23" t="s">
         <v>559</v>
       </c>
@@ -22995,8 +23043,8 @@
       <c r="BE86" s="9"/>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A87" s="210"/>
-      <c r="B87" s="208"/>
+      <c r="A87" s="207"/>
+      <c r="B87" s="216"/>
       <c r="C87" s="23" t="s">
         <v>152</v>
       </c>
@@ -23062,7 +23110,7 @@
       <c r="BE87" s="9"/>
     </row>
     <row r="88" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A88" s="210"/>
+      <c r="A88" s="207"/>
       <c r="B88" s="142" t="s">
         <v>80</v>
       </c>
@@ -23133,8 +23181,8 @@
       <c r="BE88" s="9"/>
     </row>
     <row r="89" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A89" s="210"/>
-      <c r="B89" s="207" t="s">
+      <c r="A89" s="207"/>
+      <c r="B89" s="215" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="23" t="s">
@@ -23202,8 +23250,8 @@
       <c r="BE89" s="9"/>
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A90" s="210"/>
-      <c r="B90" s="265"/>
+      <c r="A90" s="207"/>
+      <c r="B90" s="256"/>
       <c r="C90" s="23" t="s">
         <v>151</v>
       </c>
@@ -23269,8 +23317,8 @@
       <c r="BE90" s="9"/>
     </row>
     <row r="91" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A91" s="210"/>
-      <c r="B91" s="265"/>
+      <c r="A91" s="207"/>
+      <c r="B91" s="256"/>
       <c r="C91" s="23" t="s">
         <v>559</v>
       </c>
@@ -23336,8 +23384,8 @@
       <c r="BE91" s="9"/>
     </row>
     <row r="92" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A92" s="211"/>
-      <c r="B92" s="208"/>
+      <c r="A92" s="208"/>
+      <c r="B92" s="216"/>
       <c r="C92" s="23" t="s">
         <v>152</v>
       </c>
@@ -23403,10 +23451,10 @@
       <c r="BE92" s="9"/>
     </row>
     <row r="93" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A93" s="209" t="s">
+      <c r="A93" s="206" t="s">
         <v>615</v>
       </c>
-      <c r="B93" s="207" t="s">
+      <c r="B93" s="215" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="23" t="s">
@@ -23472,8 +23520,8 @@
       <c r="BE93" s="25"/>
     </row>
     <row r="94" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A94" s="211"/>
-      <c r="B94" s="208"/>
+      <c r="A94" s="208"/>
+      <c r="B94" s="216"/>
       <c r="C94" s="23" t="s">
         <v>132</v>
       </c>
@@ -23596,10 +23644,10 @@
       <c r="BE95" s="10"/>
     </row>
     <row r="96" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A96" s="209" t="s">
+      <c r="A96" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="264" t="s">
+      <c r="B96" s="252" t="s">
         <v>101</v>
       </c>
       <c r="C96" s="23" t="s">
@@ -23667,8 +23715,8 @@
       <c r="BE96" s="9"/>
     </row>
     <row r="97" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A97" s="210"/>
-      <c r="B97" s="264"/>
+      <c r="A97" s="207"/>
+      <c r="B97" s="252"/>
       <c r="C97" s="23" t="s">
         <v>562</v>
       </c>
@@ -23734,7 +23782,7 @@
       <c r="BE97" s="9"/>
     </row>
     <row r="98" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="211"/>
+      <c r="A98" s="208"/>
       <c r="B98" s="141" t="s">
         <v>560</v>
       </c>
@@ -23800,7 +23848,7 @@
       <c r="BE98" s="9"/>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A99" s="209" t="s">
+      <c r="A99" s="206" t="s">
         <v>616</v>
       </c>
       <c r="B99" s="142" t="s">
@@ -23869,7 +23917,7 @@
       <c r="BE99" s="9"/>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A100" s="210"/>
+      <c r="A100" s="207"/>
       <c r="B100" s="141" t="s">
         <v>265</v>
       </c>
@@ -23940,7 +23988,7 @@
       <c r="BE100" s="9"/>
     </row>
     <row r="101" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="211"/>
+      <c r="A101" s="208"/>
       <c r="B101" s="141" t="s">
         <v>264</v>
       </c>
@@ -24006,7 +24054,7 @@
       <c r="BE101" s="9"/>
     </row>
     <row r="102" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="209" t="s">
+      <c r="A102" s="206" t="s">
         <v>617</v>
       </c>
       <c r="B102" s="140" t="s">
@@ -24075,7 +24123,7 @@
       <c r="BE102" s="9"/>
     </row>
     <row r="103" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A103" s="211"/>
+      <c r="A103" s="208"/>
       <c r="B103" s="141" t="s">
         <v>263</v>
       </c>
@@ -24201,7 +24249,7 @@
       <c r="BE104" s="10"/>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A105" s="209" t="s">
+      <c r="A105" s="206" t="s">
         <v>605</v>
       </c>
       <c r="B105" s="140" t="s">
@@ -24270,7 +24318,7 @@
       <c r="BE105" s="25"/>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A106" s="210"/>
+      <c r="A106" s="207"/>
       <c r="B106" s="140" t="s">
         <v>539</v>
       </c>
@@ -24337,7 +24385,7 @@
       <c r="BE106" s="25"/>
     </row>
     <row r="107" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A107" s="210"/>
+      <c r="A107" s="207"/>
       <c r="B107" s="140" t="s">
         <v>540</v>
       </c>
@@ -24404,8 +24452,8 @@
       <c r="BE107" s="25"/>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A108" s="210"/>
-      <c r="B108" s="264" t="s">
+      <c r="A108" s="207"/>
+      <c r="B108" s="252" t="s">
         <v>541</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -24471,8 +24519,8 @@
       <c r="BE108" s="25"/>
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A109" s="210"/>
-      <c r="B109" s="264"/>
+      <c r="A109" s="207"/>
+      <c r="B109" s="252"/>
       <c r="C109" s="23" t="s">
         <v>194</v>
       </c>
@@ -24536,8 +24584,8 @@
       <c r="BE109" s="25"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A110" s="210"/>
-      <c r="B110" s="264"/>
+      <c r="A110" s="207"/>
+      <c r="B110" s="252"/>
       <c r="C110" s="23" t="s">
         <v>195</v>
       </c>
@@ -24601,8 +24649,8 @@
       <c r="BE110" s="25"/>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A111" s="210"/>
-      <c r="B111" s="264" t="s">
+      <c r="A111" s="207"/>
+      <c r="B111" s="252" t="s">
         <v>542</v>
       </c>
       <c r="C111" s="23" t="s">
@@ -24668,8 +24716,8 @@
       <c r="BE111" s="25"/>
     </row>
     <row r="112" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A112" s="210"/>
-      <c r="B112" s="264"/>
+      <c r="A112" s="207"/>
+      <c r="B112" s="252"/>
       <c r="C112" s="23" t="s">
         <v>547</v>
       </c>
@@ -24733,7 +24781,7 @@
       <c r="BE112" s="25"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A113" s="210"/>
+      <c r="A113" s="207"/>
       <c r="B113" s="140" t="s">
         <v>543</v>
       </c>
@@ -24800,8 +24848,8 @@
       <c r="BE113" s="25"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A114" s="210"/>
-      <c r="B114" s="207" t="s">
+      <c r="A114" s="207"/>
+      <c r="B114" s="215" t="s">
         <v>544</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -24867,8 +24915,8 @@
       <c r="BE114" s="25"/>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A115" s="210"/>
-      <c r="B115" s="208"/>
+      <c r="A115" s="207"/>
+      <c r="B115" s="216"/>
       <c r="C115" s="23" t="s">
         <v>570</v>
       </c>
@@ -24932,7 +24980,7 @@
       <c r="BE115" s="25"/>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A116" s="211"/>
+      <c r="A116" s="208"/>
       <c r="B116" s="140" t="s">
         <v>545</v>
       </c>
@@ -24999,10 +25047,10 @@
       <c r="BE116" s="25"/>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B118" s="203" t="s">
+      <c r="B118" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="203"/>
+      <c r="C118" s="224"/>
       <c r="D118" s="68" t="s">
         <v>387</v>
       </c>
@@ -25030,40 +25078,43 @@
       <c r="AB118" s="68"/>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B119" s="190" t="s">
+      <c r="B119" s="217" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="190"/>
+      <c r="C119" s="217"/>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
       <c r="F119" s="66"/>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="B120" s="191" t="s">
+      <c r="B120" s="218" t="s">
         <v>346</v>
       </c>
-      <c r="C120" s="191"/>
+      <c r="C120" s="218"/>
       <c r="D120" s="67"/>
       <c r="E120" s="67"/>
       <c r="F120" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A105:A116"/>
-    <mergeCell ref="A20:A50"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A79:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B20:B39"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AE1:AO1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="B79:B80"/>
@@ -25080,24 +25131,21 @@
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B55:B57"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AE1:AO1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A105:A116"/>
+    <mergeCell ref="A20:A50"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A79:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B20:B39"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B63:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25139,72 +25187,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="270"/>
-      <c r="C1" s="245" t="s">
+      <c r="B1" s="285"/>
+      <c r="C1" s="259" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
       <c r="P1" s="97"/>
-      <c r="Q1" s="245" t="s">
+      <c r="Q1" s="259" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="259"/>
       <c r="T1" s="97"/>
-      <c r="U1" s="245" t="s">
+      <c r="U1" s="259" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
       <c r="AB1" s="97"/>
-      <c r="AC1" s="260" t="s">
+      <c r="AC1" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="AD1" s="261"/>
-      <c r="AE1" s="261"/>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="261"/>
-      <c r="AH1" s="261"/>
-      <c r="AI1" s="261"/>
-      <c r="AJ1" s="261"/>
-      <c r="AK1" s="261"/>
-      <c r="AL1" s="261"/>
-      <c r="AM1" s="262"/>
+      <c r="AD1" s="270"/>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="271"/>
       <c r="AN1" s="97"/>
-      <c r="AO1" s="257" t="s">
+      <c r="AO1" s="266" t="s">
         <v>239</v>
       </c>
-      <c r="AP1" s="258"/>
-      <c r="AQ1" s="258"/>
-      <c r="AR1" s="259"/>
+      <c r="AP1" s="267"/>
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="268"/>
       <c r="AS1" s="97"/>
-      <c r="AT1" s="245" t="s">
+      <c r="AT1" s="259" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" s="245"/>
-      <c r="AV1" s="245"/>
+      <c r="AU1" s="259"/>
+      <c r="AV1" s="259"/>
       <c r="AW1" s="97"/>
-      <c r="AX1" s="254" t="s">
+      <c r="AX1" s="263" t="s">
         <v>246</v>
       </c>
-      <c r="AY1" s="255"/>
-      <c r="AZ1" s="255"/>
-      <c r="BA1" s="256"/>
+      <c r="AY1" s="264"/>
+      <c r="AZ1" s="264"/>
+      <c r="BA1" s="265"/>
       <c r="BB1" s="97"/>
       <c r="BC1" s="98" t="s">
         <v>234</v>
@@ -25214,43 +25262,43 @@
       </c>
     </row>
     <row r="2" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="270"/>
-      <c r="C2" s="272">
+      <c r="B2" s="285"/>
+      <c r="C2" s="287">
         <v>1</v>
       </c>
-      <c r="D2" s="273"/>
+      <c r="D2" s="288"/>
       <c r="E2" s="41">
         <v>2</v>
       </c>
       <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="274">
+      <c r="G2" s="289">
         <v>4</v>
       </c>
-      <c r="H2" s="275"/>
+      <c r="H2" s="290"/>
       <c r="I2" s="41">
         <v>5</v>
       </c>
       <c r="J2" s="42">
         <v>6</v>
       </c>
-      <c r="K2" s="279">
+      <c r="K2" s="281">
         <v>7</v>
       </c>
-      <c r="L2" s="280"/>
+      <c r="L2" s="282"/>
       <c r="M2" s="24">
         <v>8</v>
       </c>
-      <c r="N2" s="279">
+      <c r="N2" s="281">
         <v>7</v>
       </c>
-      <c r="O2" s="280"/>
+      <c r="O2" s="282"/>
       <c r="P2" s="36"/>
-      <c r="Q2" s="276">
+      <c r="Q2" s="291">
         <v>1</v>
       </c>
-      <c r="R2" s="277"/>
+      <c r="R2" s="292"/>
       <c r="S2" s="49">
         <v>2</v>
       </c>
@@ -25264,11 +25312,11 @@
       <c r="W2" s="24">
         <v>3</v>
       </c>
-      <c r="X2" s="278">
+      <c r="X2" s="293">
         <v>4</v>
       </c>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="278"/>
+      <c r="Y2" s="293"/>
+      <c r="Z2" s="293"/>
       <c r="AA2" s="50">
         <v>5</v>
       </c>
@@ -25348,17 +25396,17 @@
       </c>
     </row>
     <row r="3" spans="1:56" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="270"/>
+      <c r="B3" s="285"/>
       <c r="C3" s="145">
         <v>1</v>
       </c>
       <c r="D3" s="151">
         <v>2</v>
       </c>
-      <c r="E3" s="291">
+      <c r="E3" s="173">
         <v>1</v>
       </c>
-      <c r="F3" s="291">
+      <c r="F3" s="173">
         <v>1</v>
       </c>
       <c r="G3" s="148">
@@ -25379,20 +25427,20 @@
       <c r="L3" s="154">
         <v>2</v>
       </c>
-      <c r="M3" s="291">
+      <c r="M3" s="173">
         <v>1</v>
       </c>
       <c r="N3" s="144">
         <v>1</v>
       </c>
-      <c r="O3" s="291">
+      <c r="O3" s="173">
         <v>1</v>
       </c>
       <c r="P3" s="146"/>
-      <c r="Q3" s="292">
+      <c r="Q3" s="174">
         <v>1</v>
       </c>
-      <c r="R3" s="293">
+      <c r="R3" s="175">
         <v>2</v>
       </c>
       <c r="S3" s="147">
@@ -25421,7 +25469,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="146"/>
-      <c r="AC3" s="291">
+      <c r="AC3" s="173">
         <v>1</v>
       </c>
       <c r="AD3" s="145">
@@ -25451,7 +25499,7 @@
       <c r="AL3" s="163">
         <v>1</v>
       </c>
-      <c r="AM3" s="292">
+      <c r="AM3" s="174">
         <v>1</v>
       </c>
       <c r="AN3" s="146"/>
@@ -25464,11 +25512,11 @@
       <c r="AQ3" s="144">
         <v>1</v>
       </c>
-      <c r="AR3" s="292">
+      <c r="AR3" s="174">
         <v>1</v>
       </c>
       <c r="AS3" s="146"/>
-      <c r="AT3" s="291">
+      <c r="AT3" s="173">
         <v>1</v>
       </c>
       <c r="AU3" s="145">
@@ -25496,7 +25544,7 @@
       </c>
     </row>
     <row r="4" spans="1:56" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="B4" s="271"/>
+      <c r="B4" s="286"/>
       <c r="C4" s="44" t="s">
         <v>390</v>
       </c>
@@ -25626,11 +25674,11 @@
         <v>628</v>
       </c>
       <c r="AW4" s="45"/>
-      <c r="AX4" s="251" t="s">
+      <c r="AX4" s="260" t="s">
         <v>419</v>
       </c>
-      <c r="AY4" s="252"/>
-      <c r="AZ4" s="253"/>
+      <c r="AY4" s="261"/>
+      <c r="AZ4" s="262"/>
       <c r="BA4" s="46" t="s">
         <v>420</v>
       </c>
@@ -25640,7 +25688,7 @@
       </c>
     </row>
     <row r="5" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="268" t="s">
+      <c r="A5" s="283" t="s">
         <v>526</v>
       </c>
       <c r="B5" s="119" t="s">
@@ -25701,7 +25749,7 @@
       <c r="BC5" s="11"/>
     </row>
     <row r="6" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="268"/>
+      <c r="A6" s="283"/>
       <c r="B6" s="119" t="s">
         <v>511</v>
       </c>
@@ -25760,7 +25808,7 @@
       <c r="BC6" s="11"/>
     </row>
     <row r="7" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="268"/>
+      <c r="A7" s="283"/>
       <c r="B7" s="118" t="s">
         <v>512</v>
       </c>
@@ -25826,7 +25874,7 @@
       <c r="BC7" s="11"/>
     </row>
     <row r="8" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="268"/>
+      <c r="A8" s="283"/>
       <c r="B8" s="118" t="s">
         <v>513</v>
       </c>
@@ -25891,7 +25939,7 @@
       <c r="BC8" s="11"/>
     </row>
     <row r="9" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="268"/>
+      <c r="A9" s="283"/>
       <c r="B9" s="118" t="s">
         <v>514</v>
       </c>
@@ -25952,7 +26000,7 @@
       <c r="BC9" s="11"/>
     </row>
     <row r="10" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="268"/>
+      <c r="A10" s="283"/>
       <c r="B10" s="118" t="s">
         <v>521</v>
       </c>
@@ -26027,7 +26075,7 @@
       <c r="BC10" s="11"/>
     </row>
     <row r="11" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="268"/>
+      <c r="A11" s="283"/>
       <c r="B11" s="118" t="s">
         <v>522</v>
       </c>
@@ -26094,7 +26142,7 @@
       <c r="BC11" s="11"/>
     </row>
     <row r="12" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="268"/>
+      <c r="A12" s="283"/>
       <c r="B12" s="118" t="s">
         <v>523</v>
       </c>
@@ -26167,7 +26215,7 @@
       <c r="BC12" s="11"/>
     </row>
     <row r="13" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="268"/>
+      <c r="A13" s="283"/>
       <c r="B13" s="118" t="s">
         <v>515</v>
       </c>
@@ -26228,7 +26276,7 @@
       <c r="BC13" s="25"/>
     </row>
     <row r="14" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="268"/>
+      <c r="A14" s="283"/>
       <c r="B14" s="119" t="s">
         <v>516</v>
       </c>
@@ -26287,7 +26335,7 @@
       <c r="BC14" s="25"/>
     </row>
     <row r="15" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="268"/>
+      <c r="A15" s="283"/>
       <c r="B15" s="119" t="s">
         <v>518</v>
       </c>
@@ -26346,7 +26394,7 @@
       <c r="BC15" s="25"/>
     </row>
     <row r="16" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="268"/>
+      <c r="A16" s="283"/>
       <c r="B16" s="119" t="s">
         <v>517</v>
       </c>
@@ -26405,7 +26453,7 @@
       <c r="BC16" s="25"/>
     </row>
     <row r="17" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="268"/>
+      <c r="A17" s="283"/>
       <c r="B17" s="119" t="s">
         <v>519</v>
       </c>
@@ -26464,7 +26512,7 @@
       <c r="BC17" s="25"/>
     </row>
     <row r="18" spans="1:55" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="268"/>
+      <c r="A18" s="283"/>
       <c r="B18" s="119" t="s">
         <v>520</v>
       </c>
@@ -26524,13 +26572,13 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="203" t="s">
+      <c r="C20" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
@@ -26553,31 +26601,26 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="190" t="s">
+      <c r="C21" s="217" t="s">
         <v>524</v>
       </c>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="269" t="s">
+      <c r="C22" s="284" t="s">
         <v>525</v>
       </c>
-      <c r="D22" s="269"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="269"/>
-      <c r="G22" s="269"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A5:A18"/>
-    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="AX4:AZ4"/>
@@ -26592,6 +26635,11 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="AC1:AM1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -26603,549 +26651,560 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="20" customWidth="1"/>
-    <col min="3" max="15" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.5" style="3" customWidth="1"/>
-    <col min="17" max="19" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="0.5" style="3" customWidth="1"/>
-    <col min="21" max="27" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="0.5" style="3" customWidth="1"/>
-    <col min="29" max="39" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="0.5" style="3" customWidth="1"/>
-    <col min="41" max="41" width="3.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="0.5" style="3" customWidth="1"/>
-    <col min="46" max="48" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="0.5" style="3" customWidth="1"/>
-    <col min="50" max="53" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="0.5" style="3" customWidth="1"/>
-    <col min="55" max="55" width="4" style="3" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="20" customWidth="1"/>
+    <col min="4" max="16" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="0.5" style="3" customWidth="1"/>
+    <col min="18" max="20" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="0.5" style="3" customWidth="1"/>
+    <col min="22" max="28" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="0.5" style="3" customWidth="1"/>
+    <col min="30" max="40" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="0.5" style="3" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="0.5" style="3" customWidth="1"/>
+    <col min="47" max="49" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="0.5" style="3" customWidth="1"/>
+    <col min="51" max="54" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="0.5" style="3" customWidth="1"/>
+    <col min="56" max="56" width="4" style="3" customWidth="1"/>
+    <col min="57" max="57" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="270"/>
-      <c r="C1" s="245" t="s">
+    <row r="1" spans="1:57" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="277"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="259" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="245" t="s">
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="259"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="259" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="245" t="s">
+      <c r="S1" s="259"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="259" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="260" t="s">
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="AD1" s="261"/>
-      <c r="AE1" s="261"/>
-      <c r="AF1" s="261"/>
-      <c r="AG1" s="261"/>
-      <c r="AH1" s="261"/>
-      <c r="AI1" s="261"/>
-      <c r="AJ1" s="261"/>
-      <c r="AK1" s="261"/>
-      <c r="AL1" s="261"/>
-      <c r="AM1" s="262"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="257" t="s">
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="270"/>
+      <c r="AN1" s="271"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="266" t="s">
         <v>239</v>
       </c>
-      <c r="AP1" s="258"/>
-      <c r="AQ1" s="258"/>
-      <c r="AR1" s="259"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="245" t="s">
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="267"/>
+      <c r="AS1" s="268"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="259" t="s">
         <v>240</v>
       </c>
-      <c r="AU1" s="245"/>
-      <c r="AV1" s="245"/>
-      <c r="AW1" s="97"/>
-      <c r="AX1" s="254" t="s">
+      <c r="AV1" s="259"/>
+      <c r="AW1" s="259"/>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="263" t="s">
         <v>246</v>
       </c>
-      <c r="AY1" s="255"/>
-      <c r="AZ1" s="255"/>
-      <c r="BA1" s="256"/>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="98" t="s">
+      <c r="AZ1" s="264"/>
+      <c r="BA1" s="264"/>
+      <c r="BB1" s="265"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="BD1" s="99" t="s">
+      <c r="BE1" s="99" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="270"/>
-      <c r="C2" s="282">
+    <row r="2" spans="1:57" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="277"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="295">
         <v>1</v>
       </c>
-      <c r="D2" s="283"/>
-      <c r="E2" s="284">
+      <c r="E2" s="296"/>
+      <c r="F2" s="168">
         <v>2</v>
       </c>
-      <c r="F2" s="42">
+      <c r="G2" s="42">
         <v>3</v>
       </c>
-      <c r="G2" s="285">
+      <c r="H2" s="297">
         <v>4</v>
       </c>
-      <c r="H2" s="286"/>
-      <c r="I2" s="284">
+      <c r="I2" s="298"/>
+      <c r="J2" s="168">
         <v>5</v>
       </c>
-      <c r="J2" s="287">
+      <c r="K2" s="169">
         <v>6</v>
       </c>
-      <c r="K2" s="279">
+      <c r="L2" s="281">
         <v>7</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="288">
+      <c r="M2" s="282"/>
+      <c r="N2" s="170">
         <v>8</v>
       </c>
-      <c r="N2" s="42">
+      <c r="O2" s="42">
         <v>9</v>
       </c>
-      <c r="O2" s="284">
+      <c r="P2" s="168">
         <v>10</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="294">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="299">
         <v>1</v>
       </c>
-      <c r="R2" s="295"/>
-      <c r="S2" s="296">
+      <c r="S2" s="300"/>
+      <c r="T2" s="176">
         <v>2</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="167">
+      <c r="U2" s="36"/>
+      <c r="V2" s="167">
         <v>1</v>
       </c>
-      <c r="V2" s="298">
+      <c r="W2" s="178">
         <v>2</v>
       </c>
-      <c r="W2" s="167">
+      <c r="X2" s="167">
         <v>3</v>
       </c>
-      <c r="X2" s="278">
+      <c r="Y2" s="293">
         <v>4</v>
       </c>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="278"/>
-      <c r="AA2" s="299">
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="293"/>
+      <c r="AB2" s="179">
         <v>5</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="167">
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="167">
         <v>1</v>
       </c>
-      <c r="AD2" s="288">
+      <c r="AE2" s="170">
         <v>1</v>
       </c>
-      <c r="AE2" s="288">
+      <c r="AF2" s="170">
         <v>3</v>
       </c>
-      <c r="AF2" s="167">
+      <c r="AG2" s="167">
         <v>4</v>
       </c>
-      <c r="AG2" s="167">
+      <c r="AH2" s="167">
         <v>5</v>
       </c>
-      <c r="AH2" s="288">
+      <c r="AI2" s="170">
         <v>6</v>
       </c>
-      <c r="AI2" s="288">
+      <c r="AJ2" s="170">
         <v>7</v>
       </c>
-      <c r="AJ2" s="288">
+      <c r="AK2" s="170">
         <v>8</v>
       </c>
-      <c r="AK2" s="288">
+      <c r="AL2" s="170">
         <v>9</v>
       </c>
-      <c r="AL2" s="298">
+      <c r="AM2" s="178">
         <v>10</v>
       </c>
-      <c r="AM2" s="299">
+      <c r="AN2" s="179">
         <v>11</v>
       </c>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="298">
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="178">
         <v>1</v>
       </c>
-      <c r="AP2" s="288">
+      <c r="AQ2" s="170">
         <v>2</v>
       </c>
-      <c r="AQ2" s="288">
+      <c r="AR2" s="170">
         <v>3</v>
       </c>
-      <c r="AR2" s="299">
+      <c r="AS2" s="179">
         <v>4</v>
       </c>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="288">
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="170">
         <v>1</v>
       </c>
-      <c r="AU2" s="288">
+      <c r="AV2" s="170">
         <v>2</v>
       </c>
-      <c r="AV2" s="299">
+      <c r="AW2" s="179">
         <v>3</v>
       </c>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="167">
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="167">
         <v>1</v>
       </c>
-      <c r="AY2" s="298">
+      <c r="AZ2" s="178">
         <v>2</v>
       </c>
-      <c r="AZ2" s="298">
+      <c r="BA2" s="178">
         <v>3</v>
       </c>
-      <c r="BA2" s="288">
+      <c r="BB2" s="170">
         <v>4</v>
       </c>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="24">
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="270"/>
-      <c r="C3" s="289">
+    <row r="3" spans="1:57" s="166" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="277"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="171">
         <v>1</v>
       </c>
-      <c r="D3" s="290">
+      <c r="E3" s="172">
         <v>2</v>
       </c>
-      <c r="E3" s="291">
+      <c r="F3" s="173">
         <v>1</v>
       </c>
-      <c r="F3" s="163">
+      <c r="G3" s="163">
         <v>1</v>
       </c>
-      <c r="G3" s="292">
+      <c r="H3" s="174">
         <v>1</v>
       </c>
-      <c r="H3" s="293">
+      <c r="I3" s="175">
         <v>2</v>
       </c>
-      <c r="I3" s="289">
+      <c r="J3" s="171">
         <v>1</v>
       </c>
-      <c r="J3" s="291">
+      <c r="K3" s="173">
         <v>1</v>
       </c>
-      <c r="K3" s="164">
+      <c r="L3" s="164">
         <v>1</v>
       </c>
-      <c r="L3" s="165">
+      <c r="M3" s="165">
         <v>2</v>
       </c>
-      <c r="M3" s="291">
+      <c r="N3" s="173">
         <v>1</v>
       </c>
-      <c r="N3" s="163">
+      <c r="O3" s="163">
         <v>1</v>
       </c>
-      <c r="O3" s="291">
+      <c r="P3" s="173">
         <v>1</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="292">
+      <c r="Q3" s="146"/>
+      <c r="R3" s="174">
         <v>1</v>
       </c>
-      <c r="R3" s="293">
+      <c r="S3" s="175">
         <v>2</v>
       </c>
-      <c r="S3" s="297">
+      <c r="T3" s="177">
         <v>1</v>
       </c>
-      <c r="T3" s="146"/>
-      <c r="U3" s="163">
+      <c r="U3" s="146"/>
+      <c r="V3" s="163">
         <v>1</v>
       </c>
-      <c r="V3" s="291">
+      <c r="W3" s="173">
         <v>1</v>
       </c>
-      <c r="W3" s="163">
+      <c r="X3" s="163">
         <v>1</v>
       </c>
-      <c r="X3" s="155">
+      <c r="Y3" s="155">
         <v>1</v>
       </c>
-      <c r="Y3" s="155">
+      <c r="Z3" s="155">
         <v>2</v>
       </c>
-      <c r="Z3" s="162">
+      <c r="AA3" s="162">
         <v>3</v>
       </c>
-      <c r="AA3" s="297">
+      <c r="AB3" s="177">
         <v>1</v>
       </c>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="163">
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="163">
         <v>1</v>
       </c>
-      <c r="AD3" s="289">
+      <c r="AE3" s="171">
         <v>1</v>
       </c>
-      <c r="AE3" s="289">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="163">
+      <c r="AF3" s="171">
         <v>1</v>
       </c>
       <c r="AG3" s="163">
         <v>1</v>
       </c>
-      <c r="AH3" s="289">
+      <c r="AH3" s="163">
         <v>1</v>
       </c>
-      <c r="AI3" s="289">
+      <c r="AI3" s="171">
         <v>1</v>
       </c>
-      <c r="AJ3" s="289">
+      <c r="AJ3" s="171">
         <v>1</v>
       </c>
-      <c r="AK3" s="289">
+      <c r="AK3" s="171">
         <v>1</v>
       </c>
-      <c r="AL3" s="289">
+      <c r="AL3" s="171">
         <v>1</v>
       </c>
-      <c r="AM3" s="292">
+      <c r="AM3" s="171">
         <v>1</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AO3" s="289">
+      <c r="AN3" s="174">
         <v>1</v>
       </c>
-      <c r="AP3" s="291">
+      <c r="AO3" s="146"/>
+      <c r="AP3" s="171">
         <v>1</v>
       </c>
-      <c r="AQ3" s="291">
+      <c r="AQ3" s="173">
         <v>1</v>
       </c>
-      <c r="AR3" s="292">
+      <c r="AR3" s="173">
         <v>1</v>
       </c>
-      <c r="AS3" s="146"/>
-      <c r="AT3" s="291">
+      <c r="AS3" s="174">
         <v>1</v>
       </c>
-      <c r="AU3" s="289">
+      <c r="AT3" s="146"/>
+      <c r="AU3" s="173">
         <v>1</v>
       </c>
-      <c r="AV3" s="297">
+      <c r="AV3" s="171">
         <v>1</v>
       </c>
-      <c r="AW3" s="146"/>
-      <c r="AX3" s="161">
+      <c r="AW3" s="177">
         <v>1</v>
       </c>
-      <c r="AY3" s="291" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ3" s="293" t="s">
-        <v>242</v>
-      </c>
-      <c r="BA3" s="289">
+      <c r="AX3" s="146"/>
+      <c r="AY3" s="161">
         <v>1</v>
       </c>
-      <c r="BB3" s="149"/>
-      <c r="BC3" s="145">
+      <c r="AZ3" s="173" t="s">
+        <v>242</v>
+      </c>
+      <c r="BA3" s="175" t="s">
+        <v>242</v>
+      </c>
+      <c r="BB3" s="171">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:56" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="B4" s="271"/>
-      <c r="C4" s="44" t="s">
+      <c r="BC3" s="149"/>
+      <c r="BD3" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" s="48" customFormat="1" ht="329" x14ac:dyDescent="0.2">
+      <c r="A4" s="301"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="E4" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="G4" s="44" t="s">
         <v>633</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="H4" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="I4" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="J4" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="K4" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="L4" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="N4" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="O4" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="P4" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="S4" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="T4" s="44" t="s">
         <v>632</v>
       </c>
-      <c r="T4" s="45"/>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="45"/>
+      <c r="V4" s="46" t="s">
         <v>626</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="W4" s="46" t="s">
         <v>625</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="X4" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="X4" s="46" t="s">
+      <c r="Y4" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="Y4" s="46" t="s">
+      <c r="Z4" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="AA4" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="AA4" s="46" t="s">
+      <c r="AB4" s="46" t="s">
         <v>631</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="46" t="s">
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="AD4" s="46" t="s">
+      <c r="AE4" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="AE4" s="46" t="s">
+      <c r="AF4" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="AF4" s="46" t="s">
+      <c r="AG4" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="AG4" s="46" t="s">
+      <c r="AH4" s="46" t="s">
         <v>627</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AI4" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="AI4" s="46" t="s">
+      <c r="AJ4" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="AJ4" s="46" t="s">
+      <c r="AK4" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="AK4" s="46" t="s">
+      <c r="AL4" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="AL4" s="46" t="s">
+      <c r="AM4" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="AM4" s="46" t="s">
+      <c r="AN4" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="47" t="s">
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="AP4" s="46" t="s">
+      <c r="AQ4" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="AQ4" s="46" t="s">
+      <c r="AR4" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="AR4" s="46" t="s">
+      <c r="AS4" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="46" t="s">
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="AU4" s="46" t="s">
+      <c r="AV4" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="AV4" s="46" t="s">
+      <c r="AW4" s="46" t="s">
         <v>628</v>
       </c>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="251" t="s">
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="260" t="s">
         <v>419</v>
       </c>
-      <c r="AY4" s="252"/>
-      <c r="AZ4" s="253"/>
-      <c r="BA4" s="46" t="s">
+      <c r="AZ4" s="261"/>
+      <c r="BA4" s="262"/>
+      <c r="BB4" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="BB4" s="45"/>
-      <c r="BC4" s="44" t="s">
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="44" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="215" t="s">
-        <v>649</v>
+    <row r="5" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="237" t="s">
+        <v>648</v>
       </c>
       <c r="B5" s="118" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="303" t="s">
+        <v>662</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -27156,20 +27215,20 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
-      <c r="X5" s="25"/>
+      <c r="X5" s="11"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="11"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="10"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11"/>
@@ -27180,34 +27239,37 @@
       <c r="AK5" s="11"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="26"/>
       <c r="AQ5" s="11"/>
       <c r="AR5" s="11"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="10"/>
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="10"/>
       <c r="AY5" s="11"/>
       <c r="AZ5" s="11"/>
       <c r="BA5" s="11"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="300" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="268"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="180" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="283"/>
       <c r="B6" s="119" t="s">
         <v>638</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="304" t="s">
+        <v>650</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -27218,20 +27280,20 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="10"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
-      <c r="X6" s="25"/>
+      <c r="X6" s="11"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="11"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="10"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
@@ -27242,58 +27304,61 @@
       <c r="AK6" s="11"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="26"/>
       <c r="AQ6" s="11"/>
       <c r="AR6" s="11"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="10"/>
       <c r="AU6" s="11"/>
       <c r="AV6" s="11"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="10"/>
       <c r="AY6" s="11"/>
       <c r="AZ6" s="11"/>
       <c r="BA6" s="11"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="11"/>
-    </row>
-    <row r="7" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="268"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="11"/>
+    </row>
+    <row r="7" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="283"/>
       <c r="B7" s="119" t="s">
         <v>639</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="11"/>
+      <c r="C7" s="304" t="s">
+        <v>651</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="25"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="132" t="s">
-        <v>242</v>
-      </c>
+      <c r="K7" s="11"/>
       <c r="L7" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="10"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="10"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
@@ -27304,33 +27369,36 @@
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
       <c r="AM7" s="11"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="26"/>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="10"/>
       <c r="AU7" s="11"/>
       <c r="AV7" s="11"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="AY7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="AZ7" s="11"/>
       <c r="BA7" s="11"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="11"/>
-    </row>
-    <row r="8" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="268"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="11"/>
+    </row>
+    <row r="8" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="283"/>
       <c r="B8" s="118" t="s">
         <v>640</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="303" t="s">
+        <v>654</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -27339,28 +27407,28 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="10"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="10"/>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
@@ -27371,31 +27439,34 @@
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
       <c r="AM8" s="11"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="26"/>
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="10"/>
       <c r="AU8" s="11"/>
       <c r="AV8" s="11"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="10"/>
       <c r="AY8" s="11"/>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="11"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="11"/>
-    </row>
-    <row r="9" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="268"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="11"/>
+    </row>
+    <row r="9" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="283"/>
       <c r="B9" s="118" t="s">
         <v>641</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="303" t="s">
+        <v>653</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -27406,22 +27477,22 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
@@ -27432,31 +27503,34 @@
       <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
       <c r="AM9" s="11"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="26"/>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="10"/>
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="10"/>
       <c r="AY9" s="11"/>
       <c r="AZ9" s="11"/>
       <c r="BA9" s="11"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="11"/>
-    </row>
-    <row r="10" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="268"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="11"/>
+    </row>
+    <row r="10" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="283"/>
       <c r="B10" s="118" t="s">
         <v>642</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="303" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -27467,24 +27541,24 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="10"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="132" t="s">
-        <v>242</v>
-      </c>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="11"/>
+      <c r="AA10" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="10"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
@@ -27495,31 +27569,34 @@
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="10"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="10"/>
       <c r="AU10" s="11"/>
       <c r="AV10" s="11"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="10"/>
       <c r="AY10" s="11"/>
       <c r="AZ10" s="11"/>
       <c r="BA10" s="11"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="11"/>
-    </row>
-    <row r="11" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="268"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="11"/>
+    </row>
+    <row r="11" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="283"/>
       <c r="B11" s="118" t="s">
         <v>643</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="303" t="s">
+        <v>656</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -27530,26 +27607,26 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="132" t="s">
-        <v>242</v>
-      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="V11" s="11"/>
+      <c r="S11" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="W11" s="11"/>
-      <c r="X11" s="25"/>
+      <c r="X11" s="11"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="11"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="10"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
@@ -27560,31 +27637,34 @@
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="10"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="10"/>
       <c r="AU11" s="11"/>
       <c r="AV11" s="11"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="10"/>
       <c r="AY11" s="11"/>
       <c r="AZ11" s="11"/>
       <c r="BA11" s="11"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="11"/>
-    </row>
-    <row r="12" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="268"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="11"/>
+    </row>
+    <row r="12" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="283"/>
       <c r="B12" s="118" t="s">
         <v>644</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="303" t="s">
+        <v>655</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -27595,64 +27675,67 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="132" t="s">
-        <v>242</v>
-      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="V12" s="11"/>
+      <c r="S12" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="W12" s="11"/>
-      <c r="X12" s="25"/>
+      <c r="X12" s="11"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="11"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="10"/>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
-      <c r="AF12" s="132" t="s">
-        <v>242</v>
-      </c>
+      <c r="AF12" s="11"/>
       <c r="AG12" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="AH12" s="11"/>
+      <c r="AH12" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="160"/>
-      <c r="AP12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="160"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="160"/>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="10"/>
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="10"/>
       <c r="AY12" s="11"/>
       <c r="AZ12" s="11"/>
       <c r="BA12" s="11"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="11"/>
-    </row>
-    <row r="13" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="268"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="11"/>
+    </row>
+    <row r="13" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="283"/>
       <c r="B13" s="118" t="s">
         <v>645</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="303" t="s">
+        <v>657</v>
+      </c>
+      <c r="D13" s="33"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -27664,24 +27747,24 @@
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="S13" s="25"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="V13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="T13" s="25"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="10"/>
       <c r="AD13" s="25"/>
       <c r="AE13" s="25"/>
       <c r="AF13" s="25"/>
@@ -27692,29 +27775,32 @@
       <c r="AK13" s="25"/>
       <c r="AL13" s="25"/>
       <c r="AM13" s="25"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="27"/>
       <c r="AQ13" s="25"/>
       <c r="AR13" s="25"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="10"/>
       <c r="AU13" s="25"/>
       <c r="AV13" s="25"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="11"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="10"/>
       <c r="AY13" s="11"/>
       <c r="AZ13" s="11"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="25"/>
-    </row>
-    <row r="14" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="268"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="25"/>
+    </row>
+    <row r="14" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="283"/>
       <c r="B14" s="118" t="s">
         <v>646</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="303" t="s">
+        <v>658</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -27727,26 +27813,26 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="132" t="s">
-        <v>242</v>
-      </c>
+      <c r="T14" s="25"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="W14" s="25"/>
       <c r="X14" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="Y14" s="25"/>
+      <c r="Y14" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="Z14" s="25"/>
       <c r="AA14" s="25"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="10"/>
       <c r="AD14" s="25"/>
       <c r="AE14" s="25"/>
       <c r="AF14" s="25"/>
@@ -27757,35 +27843,38 @@
       <c r="AK14" s="25"/>
       <c r="AL14" s="25"/>
       <c r="AM14" s="25"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="27"/>
       <c r="AQ14" s="25"/>
       <c r="AR14" s="25"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="10"/>
       <c r="AU14" s="25"/>
       <c r="AV14" s="25"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="10"/>
       <c r="AY14" s="25"/>
       <c r="AZ14" s="25"/>
       <c r="BA14" s="25"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="25"/>
-    </row>
-    <row r="15" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="268"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="25"/>
+    </row>
+    <row r="15" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="283"/>
       <c r="B15" s="118" t="s">
         <v>647</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="303" t="s">
+        <v>659</v>
+      </c>
+      <c r="D15" s="33"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -27794,87 +27883,90 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="10"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="AE15" s="25"/>
-      <c r="AF15" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="AH15" s="25"/>
       <c r="AI15" s="25"/>
       <c r="AJ15" s="25"/>
       <c r="AK15" s="25"/>
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="27"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="25"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="10"/>
       <c r="AU15" s="25"/>
       <c r="AV15" s="25"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="10"/>
       <c r="AY15" s="25"/>
       <c r="AZ15" s="25"/>
       <c r="BA15" s="25"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="25"/>
-    </row>
-    <row r="16" spans="1:56" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="268"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="25"/>
+    </row>
+    <row r="16" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="283"/>
       <c r="B16" s="118" t="s">
-        <v>648</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="25"/>
+        <v>661</v>
+      </c>
+      <c r="C16" s="303" t="s">
+        <v>660</v>
+      </c>
+      <c r="D16" s="33"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="132" t="s">
-        <v>242</v>
-      </c>
+      <c r="K16" s="25"/>
       <c r="L16" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="M16" s="25"/>
+      <c r="M16" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="10"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="10"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="10"/>
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
       <c r="AF16" s="25"/>
@@ -27885,35 +27977,36 @@
       <c r="AK16" s="25"/>
       <c r="AL16" s="25"/>
       <c r="AM16" s="25"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="27"/>
       <c r="AQ16" s="25"/>
       <c r="AR16" s="25"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="10"/>
       <c r="AU16" s="25"/>
       <c r="AV16" s="25"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="AY16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="132" t="s">
+        <v>242</v>
+      </c>
       <c r="AZ16" s="25"/>
       <c r="BA16" s="25"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="25"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="25"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
-      <c r="C18" s="203" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="68"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
@@ -27932,47 +28025,50 @@
       <c r="X18" s="68"/>
       <c r="Y18" s="68"/>
       <c r="Z18" s="68"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="68"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="C19" s="190" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="217" t="s">
         <v>636</v>
       </c>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="E19" s="217"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="281" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="294" t="s">
         <v>637</v>
       </c>
-      <c r="D20" s="269"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="269"/>
-      <c r="G20" s="269"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="284"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="AD1:AN1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AY4:BA4"/>
     <mergeCell ref="A5:A16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AC1:AM1"/>
-    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
